--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192253E9-D5D2-49FA-89F0-44DA37067C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B96D8C-319B-4EF9-8F87-308E490AE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -622,9 +622,6 @@
     <t>e3cc8c5a-c772-11ea-a292-02e7594ce0a0</t>
   </si>
   <si>
-    <t>34cfea90-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
     <t>34cfea5c-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
@@ -888,6 +885,9 @@
       </rPr>
       <t>(Including 'Unknown’)</t>
     </r>
+  </si>
+  <si>
+    <t>34cfea63-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,16 +1244,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,15 +1627,15 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.109375" customWidth="1"/>
     <col min="6" max="6" width="82.44140625" bestFit="1" customWidth="1"/>
@@ -1658,7 +1649,7 @@
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1668,7 +1659,7 @@
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1678,7 +1669,7 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
@@ -1695,7 +1686,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1712,7 +1703,7 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
@@ -1729,7 +1720,7 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -1746,11 +1737,11 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>113</v>
@@ -1763,7 +1754,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -1780,11 +1771,11 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
         <v>176</v>
-      </c>
-      <c r="D8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1794,7 +1785,7 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
@@ -1808,7 +1799,7 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
@@ -1825,7 +1816,7 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -1842,7 +1833,7 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
@@ -1859,7 +1850,7 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
@@ -1876,7 +1867,7 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
@@ -1893,14 +1884,14 @@
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1910,11 +1901,11 @@
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
         <v>172</v>
-      </c>
-      <c r="D16" t="s">
-        <v>173</v>
       </c>
       <c r="E16" t="s">
         <v>111</v>
@@ -1927,7 +1918,7 @@
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
@@ -1944,7 +1935,7 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
@@ -1961,7 +1952,7 @@
       <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
@@ -1978,11 +1969,11 @@
       <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
         <v>106</v>
@@ -1995,7 +1986,7 @@
       <c r="B21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
@@ -2009,11 +2000,11 @@
       <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>180</v>
+      <c r="C22" s="32" t="s">
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>113</v>
@@ -2026,7 +2017,7 @@
       <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
@@ -2043,11 +2034,11 @@
       <c r="B24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
         <v>181</v>
-      </c>
-      <c r="D24" t="s">
-        <v>182</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>109</v>
@@ -2060,7 +2051,7 @@
       <c r="B25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
@@ -2077,7 +2068,7 @@
       <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
@@ -2094,7 +2085,7 @@
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
@@ -2111,7 +2102,7 @@
       <c r="B28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D28" t="s">
@@ -2128,7 +2119,7 @@
       <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
@@ -2142,7 +2133,7 @@
       <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D30" t="s">
@@ -2156,11 +2147,11 @@
       <c r="B31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>186</v>
+      <c r="C31" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2170,11 +2161,11 @@
       <c r="B32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>185</v>
+      <c r="C32" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2184,11 +2175,11 @@
       <c r="B33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
         <v>187</v>
-      </c>
-      <c r="D33" t="s">
-        <v>188</v>
       </c>
       <c r="E33" t="s">
         <v>106</v>
@@ -2201,7 +2192,7 @@
       <c r="B34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
@@ -2218,14 +2209,14 @@
       <c r="B35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>130</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2235,7 +2226,7 @@
       <c r="B36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>50</v>
       </c>
       <c r="D36" t="s">
@@ -2252,11 +2243,11 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>191</v>
+      <c r="C37" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
         <v>110</v>
@@ -2269,11 +2260,11 @@
       <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>192</v>
+      <c r="C38" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
         <v>110</v>
@@ -2286,7 +2277,7 @@
       <c r="B39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D39" t="s">
@@ -2300,11 +2291,11 @@
       <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s">
         <v>193</v>
-      </c>
-      <c r="D40" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2314,11 +2305,11 @@
       <c r="B41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>196</v>
+      <c r="C41" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2328,7 +2319,7 @@
       <c r="B42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
@@ -2342,7 +2333,7 @@
       <c r="B43" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D43" t="s">
@@ -2356,7 +2347,7 @@
       <c r="B44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D44" t="s">
@@ -2370,7 +2361,7 @@
       <c r="B45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D45" t="s">
@@ -2384,7 +2375,7 @@
       <c r="B46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D46" t="s">
@@ -2398,11 +2389,11 @@
       <c r="B47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
         <v>197</v>
-      </c>
-      <c r="D47" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2410,9 +2401,9 @@
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D48" t="s">
@@ -2427,9 +2418,9 @@
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D49" t="s">
@@ -2444,9 +2435,9 @@
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D50" t="s">
@@ -2461,9 +2452,9 @@
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D51" t="s">
@@ -2478,9 +2469,9 @@
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D52" t="s">
@@ -2495,16 +2486,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>200</v>
+        <v>166</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2512,13 +2503,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
         <v>201</v>
-      </c>
-      <c r="D54" t="s">
-        <v>202</v>
       </c>
       <c r="E54" t="s">
         <v>106</v>
@@ -2529,9 +2520,9 @@
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D55" t="s">
@@ -2546,16 +2537,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
         <v>203</v>
       </c>
-      <c r="D56" t="s">
-        <v>204</v>
-      </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2563,16 +2554,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
         <v>205</v>
-      </c>
-      <c r="D57" t="s">
-        <v>204</v>
-      </c>
-      <c r="F57" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2582,7 +2573,7 @@
       <c r="B58" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D58" t="s">
@@ -2596,7 +2587,7 @@
       <c r="B59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D59" t="s">
@@ -2610,7 +2601,7 @@
       <c r="B60" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="s">
@@ -2622,9 +2613,9 @@
         <v>4</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D61" t="s">
@@ -2636,9 +2627,9 @@
         <v>4</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D62" t="s">
@@ -2650,9 +2641,9 @@
         <v>4</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D63" t="s">
@@ -2664,13 +2655,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>208</v>
+        <v>231</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2680,11 +2671,11 @@
       <c r="B65" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="34" t="s">
-        <v>210</v>
+      <c r="C65" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
         <v>110</v>
@@ -2697,11 +2688,11 @@
       <c r="B66" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s">
         <v>211</v>
-      </c>
-      <c r="D66" t="s">
-        <v>212</v>
       </c>
       <c r="E66" t="s">
         <v>113</v>
@@ -2714,7 +2705,7 @@
       <c r="B67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D67" t="s">
@@ -2731,7 +2722,7 @@
       <c r="B68" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D68" t="s">
@@ -2748,11 +2739,11 @@
       <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="34" t="s">
-        <v>214</v>
+      <c r="C69" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
         <v>113</v>
@@ -2765,11 +2756,11 @@
       <c r="B70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
         <v>215</v>
-      </c>
-      <c r="D70" t="s">
-        <v>216</v>
       </c>
       <c r="E70" t="s">
         <v>113</v>
@@ -2782,17 +2773,17 @@
       <c r="B71" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D71" t="s">
         <v>151</v>
       </c>
       <c r="E71" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2802,17 +2793,17 @@
       <c r="B72" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>217</v>
+      <c r="C72" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="D72" t="s">
         <v>152</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G72" s="30"/>
     </row>
@@ -2823,17 +2814,17 @@
       <c r="B73" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D73" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G73" s="30"/>
     </row>
@@ -2844,17 +2835,17 @@
       <c r="B74" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>218</v>
+      <c r="C74" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="D74" t="s">
         <v>153</v>
       </c>
       <c r="E74" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2864,8 +2855,8 @@
       <c r="B75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>169</v>
+      <c r="C75" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="D75" t="s">
         <v>154</v>
@@ -2884,11 +2875,11 @@
       <c r="B76" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>113</v>
@@ -2901,11 +2892,11 @@
       <c r="B77" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77" s="30" t="s">
         <v>106</v>
@@ -2918,11 +2909,11 @@
       <c r="B78" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
         <v>114</v>
@@ -2935,11 +2926,11 @@
       <c r="B79" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="35" t="s">
-        <v>171</v>
+      <c r="C79" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
         <v>106</v>
@@ -2955,11 +2946,11 @@
       <c r="B80" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="34" t="s">
-        <v>219</v>
+      <c r="C80" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="E80" s="30" t="s">
         <v>113</v>
@@ -2972,11 +2963,11 @@
       <c r="B81" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" t="s">
         <v>220</v>
-      </c>
-      <c r="D81" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2986,11 +2977,11 @@
       <c r="B82" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3000,11 +2991,11 @@
       <c r="B83" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3014,11 +3005,11 @@
       <c r="B84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3028,17 +3019,17 @@
       <c r="B85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="34" t="s">
-        <v>222</v>
+      <c r="C85" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E85" t="s">
         <v>110</v>
       </c>
       <c r="F85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3048,11 +3039,11 @@
       <c r="B86" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3062,11 +3053,11 @@
       <c r="B87" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3076,11 +3067,11 @@
       <c r="B88" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3090,11 +3081,11 @@
       <c r="B89" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3104,11 +3095,11 @@
       <c r="B90" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3118,11 +3109,11 @@
       <c r="B91" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>231</v>
+      <c r="C91" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3132,11 +3123,11 @@
       <c r="B92" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3146,11 +3137,11 @@
       <c r="B93" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3160,14 +3151,14 @@
       <c r="B94" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" t="s">
         <v>223</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>224</v>
-      </c>
-      <c r="F94" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3175,13 +3166,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>229</v>
+        <v>167</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3189,13 +3180,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>228</v>
+        <v>167</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3203,13 +3194,13 @@
         <v>6</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3217,13 +3208,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3233,11 +3224,11 @@
       <c r="B99" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B96D8C-319B-4EF9-8F87-308E490AE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864ABABE-9DA6-4494-8D00-8E0E4161F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="489">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -872,6 +873,9 @@
   </si>
   <si>
     <t>34cfea8d-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea63-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
     <r>
@@ -881,20 +885,763 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(Including 'Unknown’)</t>
     </r>
   </si>
   <si>
-    <t>34cfea63-c2c0-11ea-9026-02e7594ce0a0</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>lbl</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>👍Assessment Investigator - Actor</t>
+  </si>
+  <si>
+    <t>#1b9e77</t>
+  </si>
+  <si>
+    <t>f.1</t>
+  </si>
+  <si>
+    <t>f.1: Assessment Investigator - Actor</t>
+  </si>
+  <si>
+    <t>👍Investigator Role Type</t>
+  </si>
+  <si>
+    <t>f.2</t>
+  </si>
+  <si>
+    <t>f.2: Investigator Role Type</t>
+  </si>
+  <si>
+    <t>👍Assessment Activity Type</t>
+  </si>
+  <si>
+    <t>f.3</t>
+  </si>
+  <si>
+    <t>f.3: Assessment Activity Type</t>
+  </si>
+  <si>
+    <t>👍Assessment Activity Date</t>
+  </si>
+  <si>
+    <t>f.4</t>
+  </si>
+  <si>
+    <t>f.4: Assessment Activity Date</t>
+  </si>
+  <si>
+    <t>👍Google Earth Assessment</t>
+  </si>
+  <si>
+    <t>f.5</t>
+  </si>
+  <si>
+    <t>f.5: Google Earth Assessment</t>
+  </si>
+  <si>
+    <t>👍GE Imagery Acquisition Date</t>
+  </si>
+  <si>
+    <t>f.6</t>
+  </si>
+  <si>
+    <t>f.6: GE Imagery Acquisition Date</t>
+  </si>
+  <si>
+    <t>#1b9e7755</t>
+  </si>
+  <si>
+    <t>f.7</t>
+  </si>
+  <si>
+    <t>f.7: Information Resource</t>
+  </si>
+  <si>
+    <t>f.8</t>
+  </si>
+  <si>
+    <t>f.8: Information Resource Acquisition Date</t>
+  </si>
+  <si>
+    <t>#d95f0255</t>
+  </si>
+  <si>
+    <t>f.9</t>
+  </si>
+  <si>
+    <t>f.9: Resource Name</t>
+  </si>
+  <si>
+    <t>f.10</t>
+  </si>
+  <si>
+    <t>f.10: Name Type</t>
+  </si>
+  <si>
+    <t>f.11</t>
+  </si>
+  <si>
+    <t>f.11: Heritage Place Type</t>
+  </si>
+  <si>
+    <t>f.12</t>
+  </si>
+  <si>
+    <t>f.12: General Description Type</t>
+  </si>
+  <si>
+    <t>f.13</t>
+  </si>
+  <si>
+    <t>f.13: General Description</t>
+  </si>
+  <si>
+    <t>👍Heritage Place Function</t>
+  </si>
+  <si>
+    <t>#d95f02</t>
+  </si>
+  <si>
+    <t>f.14</t>
+  </si>
+  <si>
+    <t>f.14: Heritage Place Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Heritage Place Function Certainty </t>
+  </si>
+  <si>
+    <t>f.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.15: Heritage Place Function Certainty </t>
+  </si>
+  <si>
+    <t>f.16</t>
+  </si>
+  <si>
+    <t>f.16: Designation</t>
+  </si>
+  <si>
+    <t>f.17</t>
+  </si>
+  <si>
+    <t>f.17: Designation From Date</t>
+  </si>
+  <si>
+    <t>f.18</t>
+  </si>
+  <si>
+    <t>f.18: Designation To Date</t>
+  </si>
+  <si>
+    <t>👍Geometric Place Expression</t>
+  </si>
+  <si>
+    <t>#7570b3</t>
+  </si>
+  <si>
+    <t>f.19</t>
+  </si>
+  <si>
+    <t>f.19: Geometric Place Expression</t>
+  </si>
+  <si>
+    <t>#7570b355</t>
+  </si>
+  <si>
+    <t>f.20</t>
+  </si>
+  <si>
+    <t>f.20: Geometry Qualifier</t>
+  </si>
+  <si>
+    <t>👍Location Certainty</t>
+  </si>
+  <si>
+    <t>f.21</t>
+  </si>
+  <si>
+    <t>f.21: Location Certainty</t>
+  </si>
+  <si>
+    <t>f.22</t>
+  </si>
+  <si>
+    <t>f.22: Geometry Extent Certainty</t>
+  </si>
+  <si>
+    <t>#e7298a55</t>
+  </si>
+  <si>
+    <t>f.23</t>
+  </si>
+  <si>
+    <t>f.23: Overall Site Shape Type</t>
+  </si>
+  <si>
+    <t>👍Grid ID</t>
+  </si>
+  <si>
+    <t>#e7298a</t>
+  </si>
+  <si>
+    <t>f.24</t>
+  </si>
+  <si>
+    <t>f.24: Grid ID</t>
+  </si>
+  <si>
+    <t>👍Country Type</t>
+  </si>
+  <si>
+    <t>f.25</t>
+  </si>
+  <si>
+    <t>f.25: Country Type</t>
+  </si>
+  <si>
+    <t>f.26</t>
+  </si>
+  <si>
+    <t>f.26: Cadastral Reference</t>
+  </si>
+  <si>
+    <t>f.27</t>
+  </si>
+  <si>
+    <t>f.27: Resource Orientation</t>
+  </si>
+  <si>
+    <t>f.28</t>
+  </si>
+  <si>
+    <t>f.28: Address</t>
+  </si>
+  <si>
+    <t>f.29</t>
+  </si>
+  <si>
+    <t>f.29: Address Type</t>
+  </si>
+  <si>
+    <t>f.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.30: Administrative Division </t>
+  </si>
+  <si>
+    <t>f.31</t>
+  </si>
+  <si>
+    <t>f.31: Administrative Division Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Overall Archaeological Certainty Value </t>
+  </si>
+  <si>
+    <t>#66a61e</t>
+  </si>
+  <si>
+    <t>f.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.32: Overall Archaeological Certainty Value </t>
+  </si>
+  <si>
+    <t>👍Overall Site Morphology Type</t>
+  </si>
+  <si>
+    <t>f.33</t>
+  </si>
+  <si>
+    <t>f.33: Overall Site Morphology Type</t>
+  </si>
+  <si>
+    <t>👍Cultural Period Type</t>
+  </si>
+  <si>
+    <t>f.34</t>
+  </si>
+  <si>
+    <t>f.34: Cultural Period Type</t>
+  </si>
+  <si>
+    <t>👍Cultural Period Certainty</t>
+  </si>
+  <si>
+    <t>f.35</t>
+  </si>
+  <si>
+    <t>f.35: Cultural Period Certainty</t>
+  </si>
+  <si>
+    <t>#66a61e55</t>
+  </si>
+  <si>
+    <t>f.36</t>
+  </si>
+  <si>
+    <t>f.36: Cultural Sub-period Type</t>
+  </si>
+  <si>
+    <t>f.37</t>
+  </si>
+  <si>
+    <t>f.37: Cultural Sub-period Certainty</t>
+  </si>
+  <si>
+    <t>f.38</t>
+  </si>
+  <si>
+    <t>f.38: Date Inference Making Actor</t>
+  </si>
+  <si>
+    <t>f.39</t>
+  </si>
+  <si>
+    <t>f.39: Archaeological From Date</t>
+  </si>
+  <si>
+    <t>f.40</t>
+  </si>
+  <si>
+    <t>f.40: Archaeological To Date</t>
+  </si>
+  <si>
+    <t>f.41</t>
+  </si>
+  <si>
+    <t>f.41: BP Date From</t>
+  </si>
+  <si>
+    <t>f.42</t>
+  </si>
+  <si>
+    <t>f.42: BP Date To</t>
+  </si>
+  <si>
+    <t>f.43</t>
+  </si>
+  <si>
+    <t>f.43: AH Date From</t>
+  </si>
+  <si>
+    <t>f.44</t>
+  </si>
+  <si>
+    <t>f.44: AH Date To</t>
+  </si>
+  <si>
+    <t>f.45</t>
+  </si>
+  <si>
+    <t>f.45: SH Date From</t>
+  </si>
+  <si>
+    <t>f.46</t>
+  </si>
+  <si>
+    <t>f.46: SH Date to</t>
+  </si>
+  <si>
+    <t>f.47</t>
+  </si>
+  <si>
+    <t>f.47: Site Feature Form Type</t>
+  </si>
+  <si>
+    <t>f.48</t>
+  </si>
+  <si>
+    <t>f.48: Site Feature Form Type Certainty</t>
+  </si>
+  <si>
+    <t>f.49</t>
+  </si>
+  <si>
+    <t>f.49: Site Feature Shape Type</t>
+  </si>
+  <si>
+    <t>f.50</t>
+  </si>
+  <si>
+    <t>f.50: Site Feature Arrangement Type</t>
+  </si>
+  <si>
+    <t>f.51</t>
+  </si>
+  <si>
+    <t>f.51: Site Feature Number Type</t>
+  </si>
+  <si>
+    <t>👍Site Feature Interpretation Type</t>
+  </si>
+  <si>
+    <t>f.52</t>
+  </si>
+  <si>
+    <t>f.52: Site Feature Interpretation Type</t>
+  </si>
+  <si>
+    <t>👍Site Feature Interpretation Number Type</t>
+  </si>
+  <si>
+    <t>f.53</t>
+  </si>
+  <si>
+    <t>f.53: Site Feature Interpretation Number Type</t>
+  </si>
+  <si>
+    <t>👍Site Feature Interpretation Certainty</t>
+  </si>
+  <si>
+    <t>f.54</t>
+  </si>
+  <si>
+    <t>f.54: Site Feature Interpretation Certainty</t>
+  </si>
+  <si>
+    <t>f.55</t>
+  </si>
+  <si>
+    <t>f.55: Built Component</t>
+  </si>
+  <si>
+    <t>f.56</t>
+  </si>
+  <si>
+    <t>f.56: Heritage Place Resource Instance</t>
+  </si>
+  <si>
+    <t>f.57</t>
+  </si>
+  <si>
+    <t>f.57: Material Class</t>
+  </si>
+  <si>
+    <t>f.58</t>
+  </si>
+  <si>
+    <t>f.58: Material Type</t>
+  </si>
+  <si>
+    <t>f.59</t>
+  </si>
+  <si>
+    <t>f.59: Construction Technique</t>
+  </si>
+  <si>
+    <t>f.60</t>
+  </si>
+  <si>
+    <t>f.60: Measurement Number</t>
+  </si>
+  <si>
+    <t>f.61</t>
+  </si>
+  <si>
+    <t>f.61: Measurement Unit</t>
+  </si>
+  <si>
+    <t>f.62</t>
+  </si>
+  <si>
+    <t>f.62: Dimension Type</t>
+  </si>
+  <si>
+    <t>f.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.63: Measurement Source Type </t>
+  </si>
+  <si>
+    <t>f.64</t>
+  </si>
+  <si>
+    <t>f.64: Related Geoarchaeology/Palaeolandscape</t>
+  </si>
+  <si>
+    <t>👍Overall Condition State Type</t>
+  </si>
+  <si>
+    <t>#e6ab02</t>
+  </si>
+  <si>
+    <t>f.65</t>
+  </si>
+  <si>
+    <t>f.65: Overall Condition State Type</t>
+  </si>
+  <si>
+    <t>#e6ab0255</t>
+  </si>
+  <si>
+    <t>f.66</t>
+  </si>
+  <si>
+    <t>f.66: Damage Extent Type</t>
+  </si>
+  <si>
+    <t>👍Disturbance Cause Category Type</t>
+  </si>
+  <si>
+    <t>f.67</t>
+  </si>
+  <si>
+    <t>f.67: Disturbance Cause Category Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Cause Type </t>
+  </si>
+  <si>
+    <t>f.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.68: Disturbance Cause Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Cause Certainty </t>
+  </si>
+  <si>
+    <t>f.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.69: Disturbance Cause Certainty </t>
+  </si>
+  <si>
+    <t>👍Disturbance Date From</t>
+  </si>
+  <si>
+    <t>f.70</t>
+  </si>
+  <si>
+    <t>f.70: Disturbance Date From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Date To </t>
+  </si>
+  <si>
+    <t>f.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.71: Disturbance Date To </t>
+  </si>
+  <si>
+    <t>👍Disturbance Date Occurred Before</t>
+  </si>
+  <si>
+    <t>f.72</t>
+  </si>
+  <si>
+    <t>f.72: Disturbance Date Occurred Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Date Occurred On </t>
+  </si>
+  <si>
+    <t>f.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.73: Disturbance Date Occurred On </t>
+  </si>
+  <si>
+    <t>f.74</t>
+  </si>
+  <si>
+    <t>f.74: Disturbance Cause Assignment Assessor Name - Actor</t>
+  </si>
+  <si>
+    <t>👍Effect Type</t>
+  </si>
+  <si>
+    <t>f.75</t>
+  </si>
+  <si>
+    <t>f.75: Effect Type</t>
+  </si>
+  <si>
+    <t>👍Effect Certainty</t>
+  </si>
+  <si>
+    <t>f.76</t>
+  </si>
+  <si>
+    <t>f.76: Effect Certainty</t>
+  </si>
+  <si>
+    <t>👍Threat Category</t>
+  </si>
+  <si>
+    <t>34cfea90-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>f.77</t>
+  </si>
+  <si>
+    <t>f.77: Threat Category</t>
+  </si>
+  <si>
+    <t>👍Threat Cause Type</t>
+  </si>
+  <si>
+    <t>f.78</t>
+  </si>
+  <si>
+    <t>f.78: Threat Cause Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Threat Probability </t>
+  </si>
+  <si>
+    <t>f.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.79: Threat Probability </t>
+  </si>
+  <si>
+    <t>f.80</t>
+  </si>
+  <si>
+    <t>f.80: Threat Inference Making Assessor Name - Actor</t>
+  </si>
+  <si>
+    <t>f.81</t>
+  </si>
+  <si>
+    <t>f.81: Intervention Activity Type</t>
+  </si>
+  <si>
+    <t>f.82</t>
+  </si>
+  <si>
+    <t>f.82: Recommendation Type</t>
+  </si>
+  <si>
+    <t>f.83</t>
+  </si>
+  <si>
+    <t>f.83: Priority Type</t>
+  </si>
+  <si>
+    <t>f.84</t>
+  </si>
+  <si>
+    <t>f.84: Detailed Condition Assessments</t>
+  </si>
+  <si>
+    <t>#a6761d55</t>
+  </si>
+  <si>
+    <t>f.85</t>
+  </si>
+  <si>
+    <t>f.85: Topography Type</t>
+  </si>
+  <si>
+    <t>f.86</t>
+  </si>
+  <si>
+    <t>f.86: Land Cover Type</t>
+  </si>
+  <si>
+    <t>f.87</t>
+  </si>
+  <si>
+    <t>f.87: Land Cover Assessment Date</t>
+  </si>
+  <si>
+    <t>f.88</t>
+  </si>
+  <si>
+    <t>f.88: Surficial Geology Type</t>
+  </si>
+  <si>
+    <t>f.89</t>
+  </si>
+  <si>
+    <t>f.89: Depositional Process</t>
+  </si>
+  <si>
+    <t>f.90</t>
+  </si>
+  <si>
+    <t>f.90: Bedrock Geology Type</t>
+  </si>
+  <si>
+    <t>f.91</t>
+  </si>
+  <si>
+    <t>f.91: Fetch Type</t>
+  </si>
+  <si>
+    <t>f.92</t>
+  </si>
+  <si>
+    <t>f.92: Wave Climate</t>
+  </si>
+  <si>
+    <t>f.93</t>
+  </si>
+  <si>
+    <t>f.93: Tidal Range</t>
+  </si>
+  <si>
+    <t>f.94</t>
+  </si>
+  <si>
+    <t>f.94: Minimum Depth/Max Elevation</t>
+  </si>
+  <si>
+    <t>f.95</t>
+  </si>
+  <si>
+    <t>f.95: Maximum Depth/Min Elevation</t>
+  </si>
+  <si>
+    <t>f.96</t>
+  </si>
+  <si>
+    <t>f.96: Datum Type</t>
+  </si>
+  <si>
+    <t>f.97</t>
+  </si>
+  <si>
+    <t>f.97: Datum Description/EPSG code</t>
+  </si>
+  <si>
+    <t>#66666655</t>
+  </si>
+  <si>
+    <t>f.98</t>
+  </si>
+  <si>
+    <t>f.98: Restricted Access Record Designation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,13 +1679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
@@ -958,17 +1698,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -1064,61 +1793,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FF1B9E77"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD95F02"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC5E7"/>
+        <fgColor rgb="FF7570B3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFE7298A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF66A61E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFE6AB02"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8EE9C"/>
+        <fgColor rgb="FFA6761D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF41D1A4"/>
+        <fgColor rgb="FF666666"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,102 +1880,129 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -1269,6 +2025,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF666666"/>
+      <color rgb="FFA6761D"/>
+      <color rgb="FFE6AB02"/>
+      <color rgb="FF66A61E"/>
+      <color rgb="FFE7298A"/>
+      <color rgb="FF7570B3"/>
+      <color rgb="FFD95F02"/>
+      <color rgb="FF1B9E77"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1624,25 +2392,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.109375" customWidth="1"/>
-    <col min="6" max="6" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="67.21875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -1655,1587 +2427,4188 @@
       <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="4" t="s">
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="32" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="H9" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="32" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="H10" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="H11" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="H12" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="H13" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="H14" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="E15" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="32" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="H16" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="H17" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="H18" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="H19" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="H20" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
+      <c r="H21" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="H22" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="H23" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
+      <c r="H24" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11" t="s">
+      <c r="H25" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="H26" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11" t="s">
+      <c r="H27" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11" t="s">
+      <c r="H28" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="32" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11" t="s">
+      <c r="H29" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="32" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
+      <c r="H30" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="32" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11" t="s">
+      <c r="H31" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="32" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="32" t="s">
+      <c r="H32" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="32" t="s">
+      <c r="H33" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6">
-      <c r="A35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="H34" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="41" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="14" t="s">
+      <c r="H35" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="H36" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="14" t="s">
+      <c r="H37" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="H38" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="32" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="H39" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="32" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="15" t="s">
+      <c r="H40" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="32" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="H41" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="H42" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="32" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="H43" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="15" t="s">
+      <c r="H44" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="H45" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="32" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="H46" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="32" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="H47" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="32" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="H48" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="H49" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="H50" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="H51" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="H52" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="H53" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="H54" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="H55" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="32" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="H56" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="32" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="16" t="s">
+      <c r="H57" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="16" t="s">
+      <c r="H58" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="32" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="16" t="s">
+      <c r="H59" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="32" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="H60" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="H61" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="32" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="H62" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="H63" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="32" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="H64" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="18" t="s">
+      <c r="H65" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="18" t="s">
+      <c r="H66" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="18" t="s">
+      <c r="H67" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="18" t="s">
+      <c r="H68" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="18" t="s">
+      <c r="H69" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="18" t="s">
+      <c r="H70" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="18" t="s">
+      <c r="H71" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="G72" s="30"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="18" t="s">
+      <c r="G72" s="5"/>
+      <c r="H72" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="G73" s="30"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="18" t="s">
+      <c r="G73" s="5"/>
+      <c r="H73" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="18" t="s">
+      <c r="H74" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="18" t="s">
+      <c r="H75" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="18" t="s">
+      <c r="H76" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="18" t="s">
+      <c r="H77" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="32" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="18" t="s">
+      <c r="H78" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="18" t="s">
+      <c r="H79" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D80" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" s="30" t="s">
+      <c r="D80" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="18" t="s">
+      <c r="H80" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="32" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="18" t="s">
+      <c r="H81" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="18" t="s">
+      <c r="H82" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="18" t="s">
+      <c r="H83" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="18" t="s">
+      <c r="H84" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="32" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="23" t="s">
+      <c r="H85" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="32" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="23" t="s">
+      <c r="H86" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="23" t="s">
+      <c r="H87" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="32" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="23" t="s">
+      <c r="H88" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="23" t="s">
+      <c r="H89" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="32" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="23" t="s">
+      <c r="H90" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="32" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="23" t="s">
+      <c r="H91" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="32" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="23" t="s">
+      <c r="H92" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="32" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="23" t="s">
+      <c r="H93" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="23" t="s">
+      <c r="H94" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="32" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="23" t="s">
+      <c r="H95" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="32" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="23" t="s">
+      <c r="H96" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="32" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="23" t="s">
+      <c r="H97" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="32" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="24" t="s">
+      <c r="H98" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="32" t="s">
         <v>165</v>
       </c>
+      <c r="H99" s="32" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="A1:H1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001870C-0E76-4F92-86E1-69EF1F947F87}">
+  <dimension ref="A1:G99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="43">
+        <v>1</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" t="s">
+        <v>316</v>
+      </c>
+      <c r="G27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>329</v>
+      </c>
+      <c r="F35" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>341</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="43">
+        <v>1</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>341</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" t="s">
+        <v>358</v>
+      </c>
+      <c r="G45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="43">
+        <v>1</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>341</v>
+      </c>
+      <c r="F52" t="s">
+        <v>372</v>
+      </c>
+      <c r="G52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" t="s">
+        <v>329</v>
+      </c>
+      <c r="F54" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" t="s">
+        <v>329</v>
+      </c>
+      <c r="F55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="43">
+        <v>1</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" t="s">
+        <v>341</v>
+      </c>
+      <c r="F57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>341</v>
+      </c>
+      <c r="F58" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>341</v>
+      </c>
+      <c r="F59" t="s">
+        <v>389</v>
+      </c>
+      <c r="G59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>341</v>
+      </c>
+      <c r="F60" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" t="s">
+        <v>393</v>
+      </c>
+      <c r="G61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>341</v>
+      </c>
+      <c r="F62" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
+        <v>341</v>
+      </c>
+      <c r="F63" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" t="s">
+        <v>341</v>
+      </c>
+      <c r="F64" t="s">
+        <v>399</v>
+      </c>
+      <c r="G64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" t="s">
+        <v>401</v>
+      </c>
+      <c r="G65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>403</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" t="s">
+        <v>404</v>
+      </c>
+      <c r="F66" t="s">
+        <v>405</v>
+      </c>
+      <c r="G66" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" t="s">
+        <v>407</v>
+      </c>
+      <c r="F67" t="s">
+        <v>408</v>
+      </c>
+      <c r="G67" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B68" s="43">
+        <v>1</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>413</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>404</v>
+      </c>
+      <c r="F69" t="s">
+        <v>414</v>
+      </c>
+      <c r="G69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>416</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" t="s">
+        <v>404</v>
+      </c>
+      <c r="F70" t="s">
+        <v>417</v>
+      </c>
+      <c r="G70" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>419</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" t="s">
+        <v>420</v>
+      </c>
+      <c r="G71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>422</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>404</v>
+      </c>
+      <c r="F72" t="s">
+        <v>423</v>
+      </c>
+      <c r="G72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>425</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>404</v>
+      </c>
+      <c r="F73" t="s">
+        <v>426</v>
+      </c>
+      <c r="G73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>428</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" t="s">
+        <v>404</v>
+      </c>
+      <c r="F74" t="s">
+        <v>429</v>
+      </c>
+      <c r="G74" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" t="s">
+        <v>431</v>
+      </c>
+      <c r="G75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
+        <v>404</v>
+      </c>
+      <c r="F76" t="s">
+        <v>434</v>
+      </c>
+      <c r="G76" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
+        <v>404</v>
+      </c>
+      <c r="F77" t="s">
+        <v>437</v>
+      </c>
+      <c r="G77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>439</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>440</v>
+      </c>
+      <c r="E78" t="s">
+        <v>404</v>
+      </c>
+      <c r="F78" t="s">
+        <v>441</v>
+      </c>
+      <c r="G78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>443</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>404</v>
+      </c>
+      <c r="F79" t="s">
+        <v>444</v>
+      </c>
+      <c r="G79" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>404</v>
+      </c>
+      <c r="F80" t="s">
+        <v>447</v>
+      </c>
+      <c r="G80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>407</v>
+      </c>
+      <c r="F81" t="s">
+        <v>449</v>
+      </c>
+      <c r="G81" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" t="s">
+        <v>451</v>
+      </c>
+      <c r="G82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" t="s">
+        <v>407</v>
+      </c>
+      <c r="F83" t="s">
+        <v>453</v>
+      </c>
+      <c r="G83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="43">
+        <v>1</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="F84" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="G84" s="43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" t="s">
+        <v>407</v>
+      </c>
+      <c r="F85" t="s">
+        <v>457</v>
+      </c>
+      <c r="G85" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" t="s">
+        <v>459</v>
+      </c>
+      <c r="F86" t="s">
+        <v>460</v>
+      </c>
+      <c r="G86" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" t="s">
+        <v>459</v>
+      </c>
+      <c r="F87" t="s">
+        <v>462</v>
+      </c>
+      <c r="G87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" t="s">
+        <v>459</v>
+      </c>
+      <c r="F88" t="s">
+        <v>464</v>
+      </c>
+      <c r="G88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" t="s">
+        <v>459</v>
+      </c>
+      <c r="F89" t="s">
+        <v>466</v>
+      </c>
+      <c r="G89" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" t="s">
+        <v>459</v>
+      </c>
+      <c r="F90" t="s">
+        <v>468</v>
+      </c>
+      <c r="G90" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" t="s">
+        <v>459</v>
+      </c>
+      <c r="F91" t="s">
+        <v>470</v>
+      </c>
+      <c r="G91" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" t="s">
+        <v>459</v>
+      </c>
+      <c r="F92" t="s">
+        <v>472</v>
+      </c>
+      <c r="G92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" t="s">
+        <v>459</v>
+      </c>
+      <c r="F93" t="s">
+        <v>474</v>
+      </c>
+      <c r="G93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" t="s">
+        <v>459</v>
+      </c>
+      <c r="F94" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" t="s">
+        <v>459</v>
+      </c>
+      <c r="F95" t="s">
+        <v>478</v>
+      </c>
+      <c r="G95" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" t="s">
+        <v>459</v>
+      </c>
+      <c r="F96" t="s">
+        <v>480</v>
+      </c>
+      <c r="G96" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="43">
+        <v>1</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98" t="s">
+        <v>459</v>
+      </c>
+      <c r="F98" t="s">
+        <v>484</v>
+      </c>
+      <c r="G98" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" t="s">
+        <v>486</v>
+      </c>
+      <c r="F99" t="s">
+        <v>487</v>
+      </c>
+      <c r="G99" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864ABABE-9DA6-4494-8D00-8E0E4161F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB18DE-F284-4D51-935F-12E17A61963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="587">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -1635,6 +1635,300 @@
   </si>
   <si>
     <t>f.98: Restricted Access Record Designation</t>
+  </si>
+  <si>
+    <t>LOREM-1</t>
+  </si>
+  <si>
+    <t>LOREM-2</t>
+  </si>
+  <si>
+    <t>LOREM-3</t>
+  </si>
+  <si>
+    <t>LOREM-4</t>
+  </si>
+  <si>
+    <t>LOREM-5</t>
+  </si>
+  <si>
+    <t>LOREM-6</t>
+  </si>
+  <si>
+    <t>LOREM-7</t>
+  </si>
+  <si>
+    <t>LOREM-8</t>
+  </si>
+  <si>
+    <t>LOREM-9</t>
+  </si>
+  <si>
+    <t>LOREM-10</t>
+  </si>
+  <si>
+    <t>LOREM-11</t>
+  </si>
+  <si>
+    <t>LOREM-12</t>
+  </si>
+  <si>
+    <t>LOREM-13</t>
+  </si>
+  <si>
+    <t>LOREM-14</t>
+  </si>
+  <si>
+    <t>LOREM-15</t>
+  </si>
+  <si>
+    <t>LOREM-16</t>
+  </si>
+  <si>
+    <t>LOREM-17</t>
+  </si>
+  <si>
+    <t>LOREM-18</t>
+  </si>
+  <si>
+    <t>LOREM-19</t>
+  </si>
+  <si>
+    <t>LOREM-20</t>
+  </si>
+  <si>
+    <t>LOREM-21</t>
+  </si>
+  <si>
+    <t>LOREM-22</t>
+  </si>
+  <si>
+    <t>LOREM-23</t>
+  </si>
+  <si>
+    <t>LOREM-24</t>
+  </si>
+  <si>
+    <t>LOREM-25</t>
+  </si>
+  <si>
+    <t>LOREM-26</t>
+  </si>
+  <si>
+    <t>LOREM-27</t>
+  </si>
+  <si>
+    <t>LOREM-28</t>
+  </si>
+  <si>
+    <t>LOREM-29</t>
+  </si>
+  <si>
+    <t>LOREM-30</t>
+  </si>
+  <si>
+    <t>LOREM-31</t>
+  </si>
+  <si>
+    <t>LOREM-32</t>
+  </si>
+  <si>
+    <t>LOREM-33</t>
+  </si>
+  <si>
+    <t>LOREM-34</t>
+  </si>
+  <si>
+    <t>LOREM-35</t>
+  </si>
+  <si>
+    <t>LOREM-36</t>
+  </si>
+  <si>
+    <t>LOREM-37</t>
+  </si>
+  <si>
+    <t>LOREM-38</t>
+  </si>
+  <si>
+    <t>LOREM-39</t>
+  </si>
+  <si>
+    <t>LOREM-40</t>
+  </si>
+  <si>
+    <t>LOREM-41</t>
+  </si>
+  <si>
+    <t>LOREM-42</t>
+  </si>
+  <si>
+    <t>LOREM-43</t>
+  </si>
+  <si>
+    <t>LOREM-44</t>
+  </si>
+  <si>
+    <t>LOREM-45</t>
+  </si>
+  <si>
+    <t>LOREM-46</t>
+  </si>
+  <si>
+    <t>LOREM-47</t>
+  </si>
+  <si>
+    <t>LOREM-48</t>
+  </si>
+  <si>
+    <t>LOREM-49</t>
+  </si>
+  <si>
+    <t>LOREM-50</t>
+  </si>
+  <si>
+    <t>LOREM-51</t>
+  </si>
+  <si>
+    <t>LOREM-52</t>
+  </si>
+  <si>
+    <t>LOREM-53</t>
+  </si>
+  <si>
+    <t>LOREM-54</t>
+  </si>
+  <si>
+    <t>LOREM-55</t>
+  </si>
+  <si>
+    <t>LOREM-56</t>
+  </si>
+  <si>
+    <t>LOREM-57</t>
+  </si>
+  <si>
+    <t>LOREM-58</t>
+  </si>
+  <si>
+    <t>LOREM-59</t>
+  </si>
+  <si>
+    <t>LOREM-60</t>
+  </si>
+  <si>
+    <t>LOREM-61</t>
+  </si>
+  <si>
+    <t>LOREM-62</t>
+  </si>
+  <si>
+    <t>LOREM-63</t>
+  </si>
+  <si>
+    <t>LOREM-64</t>
+  </si>
+  <si>
+    <t>LOREM-65</t>
+  </si>
+  <si>
+    <t>LOREM-66</t>
+  </si>
+  <si>
+    <t>LOREM-67</t>
+  </si>
+  <si>
+    <t>LOREM-68</t>
+  </si>
+  <si>
+    <t>LOREM-69</t>
+  </si>
+  <si>
+    <t>LOREM-70</t>
+  </si>
+  <si>
+    <t>LOREM-71</t>
+  </si>
+  <si>
+    <t>LOREM-72</t>
+  </si>
+  <si>
+    <t>LOREM-73</t>
+  </si>
+  <si>
+    <t>LOREM-74</t>
+  </si>
+  <si>
+    <t>LOREM-75</t>
+  </si>
+  <si>
+    <t>LOREM-76</t>
+  </si>
+  <si>
+    <t>LOREM-77</t>
+  </si>
+  <si>
+    <t>LOREM-78</t>
+  </si>
+  <si>
+    <t>LOREM-79</t>
+  </si>
+  <si>
+    <t>LOREM-80</t>
+  </si>
+  <si>
+    <t>LOREM-81</t>
+  </si>
+  <si>
+    <t>LOREM-82</t>
+  </si>
+  <si>
+    <t>LOREM-83</t>
+  </si>
+  <si>
+    <t>LOREM-84</t>
+  </si>
+  <si>
+    <t>LOREM-85</t>
+  </si>
+  <si>
+    <t>LOREM-86</t>
+  </si>
+  <si>
+    <t>LOREM-87</t>
+  </si>
+  <si>
+    <t>LOREM-88</t>
+  </si>
+  <si>
+    <t>LOREM-89</t>
+  </si>
+  <si>
+    <t>LOREM-90</t>
+  </si>
+  <si>
+    <t>LOREM-91</t>
+  </si>
+  <si>
+    <t>LOREM-92</t>
+  </si>
+  <si>
+    <t>LOREM-93</t>
+  </si>
+  <si>
+    <t>LOREM-94</t>
+  </si>
+  <si>
+    <t>LOREM-95</t>
+  </si>
+  <si>
+    <t>LOREM-96</t>
+  </si>
+  <si>
+    <t>LOREM-97</t>
+  </si>
+  <si>
+    <t>LOREM-98</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +2174,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1973,14 +2267,13 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2395,23 +2688,22 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.109375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="67.21875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="32"/>
+    <col min="1" max="1" width="28.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" customWidth="1"/>
+    <col min="6" max="6" width="67.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2450,13 +2742,16 @@
       <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="G2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2470,13 +2765,16 @@
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="G3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2490,13 +2788,16 @@
       <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="G4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H4" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2510,13 +2811,16 @@
       <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="G5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2530,13 +2834,16 @@
       <c r="C6" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="G6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2550,13 +2857,16 @@
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H7" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2570,10 +2880,13 @@
       <c r="C8" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="G8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2587,10 +2900,13 @@
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="G9" t="s">
+        <v>496</v>
+      </c>
+      <c r="H9" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2598,19 +2914,22 @@
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="G10" t="s">
+        <v>497</v>
+      </c>
+      <c r="H10" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2618,19 +2937,22 @@
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="G11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2644,13 +2966,16 @@
       <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="G12" t="s">
+        <v>499</v>
+      </c>
+      <c r="H12" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2664,13 +2989,16 @@
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="G13" t="s">
+        <v>500</v>
+      </c>
+      <c r="H13" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2684,13 +3012,16 @@
       <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="G14" t="s">
+        <v>501</v>
+      </c>
+      <c r="H14" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2704,13 +3035,16 @@
       <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="G15" t="s">
+        <v>502</v>
+      </c>
+      <c r="H15" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2724,13 +3058,16 @@
       <c r="C16" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="G16" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2744,13 +3081,16 @@
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="G17" t="s">
+        <v>504</v>
+      </c>
+      <c r="H17" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2764,13 +3104,16 @@
       <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="G18" t="s">
+        <v>505</v>
+      </c>
+      <c r="H18" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2784,13 +3127,16 @@
       <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="G19" t="s">
+        <v>506</v>
+      </c>
+      <c r="H19" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2804,13 +3150,16 @@
       <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="G20" t="s">
+        <v>507</v>
+      </c>
+      <c r="H20" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2824,10 +3173,13 @@
       <c r="C21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="G21" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2841,13 +3193,16 @@
       <c r="C22" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" t="s">
         <v>178</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="G22" t="s">
+        <v>509</v>
+      </c>
+      <c r="H22" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2861,13 +3216,16 @@
       <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="G23" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2881,13 +3239,16 @@
       <c r="C24" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="G24" t="s">
+        <v>511</v>
+      </c>
+      <c r="H24" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2901,13 +3262,16 @@
       <c r="C25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="G25" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2921,13 +3285,16 @@
       <c r="C26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" t="s">
         <v>124</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="G26" t="s">
+        <v>513</v>
+      </c>
+      <c r="H26" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2941,13 +3308,16 @@
       <c r="C27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="G27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H27" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2961,13 +3331,16 @@
       <c r="C28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="G28" t="s">
+        <v>515</v>
+      </c>
+      <c r="H28" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2981,10 +3354,13 @@
       <c r="C29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="G29" t="s">
+        <v>516</v>
+      </c>
+      <c r="H29" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2998,10 +3374,13 @@
       <c r="C30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="G30" t="s">
+        <v>517</v>
+      </c>
+      <c r="H30" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3009,16 +3388,19 @@
       <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="G31" t="s">
+        <v>518</v>
+      </c>
+      <c r="H31" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3026,16 +3408,19 @@
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" t="s">
         <v>183</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="G32" t="s">
+        <v>519</v>
+      </c>
+      <c r="H32" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3049,13 +3434,16 @@
       <c r="C33" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="G33" t="s">
+        <v>520</v>
+      </c>
+      <c r="H33" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3069,13 +3457,16 @@
       <c r="C34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="G34" t="s">
+        <v>521</v>
+      </c>
+      <c r="H34" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3089,13 +3480,16 @@
       <c r="C35" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="G35" t="s">
+        <v>522</v>
+      </c>
+      <c r="H35" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3109,13 +3503,16 @@
       <c r="C36" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="G36" t="s">
+        <v>523</v>
+      </c>
+      <c r="H36" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3129,13 +3526,16 @@
       <c r="C37" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="G37" t="s">
+        <v>524</v>
+      </c>
+      <c r="H37" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3149,13 +3549,16 @@
       <c r="C38" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="G38" t="s">
+        <v>525</v>
+      </c>
+      <c r="H38" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3169,10 +3572,13 @@
       <c r="C39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="G39" t="s">
+        <v>526</v>
+      </c>
+      <c r="H39" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3186,10 +3592,13 @@
       <c r="C40" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" t="s">
         <v>193</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="G40" t="s">
+        <v>527</v>
+      </c>
+      <c r="H40" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3203,10 +3612,13 @@
       <c r="C41" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="G41" t="s">
+        <v>528</v>
+      </c>
+      <c r="H41" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3220,10 +3632,13 @@
       <c r="C42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="G42" t="s">
+        <v>529</v>
+      </c>
+      <c r="H42" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3237,10 +3652,13 @@
       <c r="C43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="G43" t="s">
+        <v>530</v>
+      </c>
+      <c r="H43" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3254,10 +3672,13 @@
       <c r="C44" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="G44" t="s">
+        <v>531</v>
+      </c>
+      <c r="H44" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3271,10 +3692,13 @@
       <c r="C45" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="G45" t="s">
+        <v>532</v>
+      </c>
+      <c r="H45" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3288,10 +3712,13 @@
       <c r="C46" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="G46" t="s">
+        <v>533</v>
+      </c>
+      <c r="H46" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3305,10 +3732,13 @@
       <c r="C47" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" t="s">
         <v>197</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="G47" t="s">
+        <v>534</v>
+      </c>
+      <c r="H47" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3322,13 +3752,16 @@
       <c r="C48" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" t="s">
         <v>112</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="G48" t="s">
+        <v>535</v>
+      </c>
+      <c r="H48" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3342,13 +3775,16 @@
       <c r="C49" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="G49" t="s">
+        <v>536</v>
+      </c>
+      <c r="H49" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3362,13 +3798,16 @@
       <c r="C50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="G50" t="s">
+        <v>537</v>
+      </c>
+      <c r="H50" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3382,13 +3821,16 @@
       <c r="C51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="G51" t="s">
+        <v>538</v>
+      </c>
+      <c r="H51" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3402,13 +3844,16 @@
       <c r="C52" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="G52" t="s">
+        <v>539</v>
+      </c>
+      <c r="H52" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3422,13 +3867,16 @@
       <c r="C53" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" t="s">
         <v>198</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H53" s="32" t="s">
+      <c r="G53" t="s">
+        <v>540</v>
+      </c>
+      <c r="H53" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3442,13 +3890,16 @@
       <c r="C54" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" t="s">
         <v>106</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="G54" t="s">
+        <v>541</v>
+      </c>
+      <c r="H54" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3462,13 +3913,16 @@
       <c r="C55" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" t="s">
         <v>106</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="G55" t="s">
+        <v>542</v>
+      </c>
+      <c r="H55" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3482,13 +3936,16 @@
       <c r="C56" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" t="s">
         <v>203</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" t="s">
         <v>205</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="G56" t="s">
+        <v>543</v>
+      </c>
+      <c r="H56" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3502,13 +3959,16 @@
       <c r="C57" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" t="s">
         <v>203</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="G57" t="s">
+        <v>544</v>
+      </c>
+      <c r="H57" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3522,10 +3982,13 @@
       <c r="C58" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" t="s">
         <v>144</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="G58" t="s">
+        <v>545</v>
+      </c>
+      <c r="H58" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3539,10 +4002,13 @@
       <c r="C59" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" t="s">
         <v>145</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="G59" t="s">
+        <v>546</v>
+      </c>
+      <c r="H59" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3556,10 +4022,13 @@
       <c r="C60" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="G60" t="s">
+        <v>547</v>
+      </c>
+      <c r="H60" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3573,10 +4042,13 @@
       <c r="C61" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" t="s">
         <v>147</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="G61" t="s">
+        <v>548</v>
+      </c>
+      <c r="H61" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3590,10 +4062,13 @@
       <c r="C62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" t="s">
         <v>148</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="G62" t="s">
+        <v>549</v>
+      </c>
+      <c r="H62" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3607,10 +4082,13 @@
       <c r="C63" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="G63" t="s">
+        <v>550</v>
+      </c>
+      <c r="H63" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3624,10 +4102,13 @@
       <c r="C64" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" t="s">
         <v>206</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="G64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H64" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3641,13 +4122,16 @@
       <c r="C65" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" t="s">
         <v>110</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="G65" t="s">
+        <v>552</v>
+      </c>
+      <c r="H65" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3661,13 +4145,16 @@
       <c r="C66" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" t="s">
         <v>113</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="G66" t="s">
+        <v>553</v>
+      </c>
+      <c r="H66" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3681,13 +4168,16 @@
       <c r="C67" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" t="s">
         <v>110</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="G67" t="s">
+        <v>554</v>
+      </c>
+      <c r="H67" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3701,13 +4191,16 @@
       <c r="C68" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" t="s">
         <v>113</v>
       </c>
-      <c r="H68" s="32" t="s">
+      <c r="G68" t="s">
+        <v>555</v>
+      </c>
+      <c r="H68" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3721,13 +4214,16 @@
       <c r="C69" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" t="s">
         <v>212</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" t="s">
         <v>113</v>
       </c>
-      <c r="H69" s="32" t="s">
+      <c r="G69" t="s">
+        <v>556</v>
+      </c>
+      <c r="H69" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3741,13 +4237,16 @@
       <c r="C70" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="G70" t="s">
+        <v>557</v>
+      </c>
+      <c r="H70" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3761,7 +4260,7 @@
       <c r="C71" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" t="s">
         <v>151</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -3770,7 +4269,10 @@
       <c r="F71" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="G71" t="s">
+        <v>558</v>
+      </c>
+      <c r="H71" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3784,17 +4286,19 @@
       <c r="C72" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" t="s">
         <v>152</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" t="s">
         <v>236</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="32" t="s">
+      <c r="G72" t="s">
+        <v>559</v>
+      </c>
+      <c r="H72" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3808,17 +4312,19 @@
       <c r="C73" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" t="s">
         <v>237</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="32" t="s">
+      <c r="G73" t="s">
+        <v>560</v>
+      </c>
+      <c r="H73" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3832,7 +4338,7 @@
       <c r="C74" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" t="s">
         <v>153</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -3841,7 +4347,10 @@
       <c r="F74" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="G74" t="s">
+        <v>561</v>
+      </c>
+      <c r="H74" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3852,19 +4361,22 @@
       <c r="B75" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" t="s">
         <v>154</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" t="s">
         <v>110</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="G75" t="s">
+        <v>562</v>
+      </c>
+      <c r="H75" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3878,13 +4390,16 @@
       <c r="C76" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" t="s">
         <v>220</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="G76" t="s">
+        <v>563</v>
+      </c>
+      <c r="H76" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3898,13 +4413,16 @@
       <c r="C77" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" t="s">
         <v>155</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="G77" t="s">
+        <v>564</v>
+      </c>
+      <c r="H77" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3912,19 +4430,22 @@
       <c r="A78" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" t="s">
         <v>114</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="G78" t="s">
+        <v>565</v>
+      </c>
+      <c r="H78" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3932,22 +4453,25 @@
       <c r="A79" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" t="s">
         <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H79" s="32" t="s">
+      <c r="G79" t="s">
+        <v>566</v>
+      </c>
+      <c r="H79" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3955,19 +4479,22 @@
       <c r="A80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" t="s">
         <v>239</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H80" s="32" t="s">
+      <c r="G80" t="s">
+        <v>567</v>
+      </c>
+      <c r="H80" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3975,16 +4502,19 @@
       <c r="A81" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="32" t="s">
+      <c r="G81" t="s">
+        <v>568</v>
+      </c>
+      <c r="H81" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3992,16 +4522,19 @@
       <c r="A82" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" t="s">
         <v>157</v>
       </c>
-      <c r="H82" s="32" t="s">
+      <c r="G82" t="s">
+        <v>569</v>
+      </c>
+      <c r="H82" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4009,16 +4542,19 @@
       <c r="A83" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" t="s">
         <v>158</v>
       </c>
-      <c r="H83" s="32" t="s">
+      <c r="G83" t="s">
+        <v>570</v>
+      </c>
+      <c r="H83" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4026,16 +4562,19 @@
       <c r="A84" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" t="s">
         <v>157</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="G84" t="s">
+        <v>571</v>
+      </c>
+      <c r="H84" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4049,16 +4588,19 @@
       <c r="C85" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" t="s">
         <v>205</v>
       </c>
-      <c r="H85" s="32" t="s">
+      <c r="G85" t="s">
+        <v>572</v>
+      </c>
+      <c r="H85" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4072,10 +4614,13 @@
       <c r="C86" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" t="s">
         <v>159</v>
       </c>
-      <c r="H86" s="32" t="s">
+      <c r="G86" t="s">
+        <v>573</v>
+      </c>
+      <c r="H86" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4083,16 +4628,19 @@
       <c r="A87" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" t="s">
         <v>161</v>
       </c>
-      <c r="H87" s="32" t="s">
+      <c r="G87" t="s">
+        <v>574</v>
+      </c>
+      <c r="H87" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4100,16 +4648,19 @@
       <c r="A88" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" t="s">
         <v>160</v>
       </c>
-      <c r="H88" s="32" t="s">
+      <c r="G88" t="s">
+        <v>575</v>
+      </c>
+      <c r="H88" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4117,16 +4668,19 @@
       <c r="A89" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" t="s">
         <v>161</v>
       </c>
-      <c r="H89" s="32" t="s">
+      <c r="G89" t="s">
+        <v>576</v>
+      </c>
+      <c r="H89" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4134,16 +4688,19 @@
       <c r="A90" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D90" t="s">
         <v>162</v>
       </c>
-      <c r="H90" s="32" t="s">
+      <c r="G90" t="s">
+        <v>577</v>
+      </c>
+      <c r="H90" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4157,10 +4714,13 @@
       <c r="C91" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" t="s">
         <v>229</v>
       </c>
-      <c r="H91" s="32" t="s">
+      <c r="G91" t="s">
+        <v>578</v>
+      </c>
+      <c r="H91" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4168,16 +4728,19 @@
       <c r="A92" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" t="s">
         <v>163</v>
       </c>
-      <c r="H92" s="32" t="s">
+      <c r="G92" t="s">
+        <v>579</v>
+      </c>
+      <c r="H92" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4185,16 +4748,19 @@
       <c r="A93" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" t="s">
         <v>164</v>
       </c>
-      <c r="H93" s="32" t="s">
+      <c r="G93" t="s">
+        <v>580</v>
+      </c>
+      <c r="H93" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4202,19 +4768,22 @@
       <c r="A94" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C94" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" t="s">
         <v>223</v>
       </c>
-      <c r="F94" s="32" t="s">
+      <c r="F94" t="s">
         <v>224</v>
       </c>
-      <c r="H94" s="32" t="s">
+      <c r="G94" t="s">
+        <v>581</v>
+      </c>
+      <c r="H94" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4228,10 +4797,13 @@
       <c r="C95" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" t="s">
         <v>226</v>
       </c>
-      <c r="H95" s="32" t="s">
+      <c r="G95" t="s">
+        <v>582</v>
+      </c>
+      <c r="H95" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4245,10 +4817,13 @@
       <c r="C96" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" t="s">
         <v>225</v>
       </c>
-      <c r="H96" s="32" t="s">
+      <c r="G96" t="s">
+        <v>583</v>
+      </c>
+      <c r="H96" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4262,10 +4837,13 @@
       <c r="C97" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" t="s">
         <v>165</v>
       </c>
-      <c r="H97" s="32" t="s">
+      <c r="G97" t="s">
+        <v>584</v>
+      </c>
+      <c r="H97" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4279,10 +4857,13 @@
       <c r="C98" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" t="s">
         <v>238</v>
       </c>
-      <c r="H98" s="32" t="s">
+      <c r="G98" t="s">
+        <v>585</v>
+      </c>
+      <c r="H98" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4296,10 +4877,13 @@
       <c r="C99" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" t="s">
         <v>165</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="G99" t="s">
+        <v>586</v>
+      </c>
+      <c r="H99" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4607,26 +5191,26 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="43">
-        <v>1</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="43" t="s">
+      <c r="B13" s="42">
+        <v>1</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4883,26 +5467,26 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="43">
-        <v>1</v>
-      </c>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="42">
+        <v>1</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="42" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5205,26 +5789,26 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+    <row r="39" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="43">
-        <v>1</v>
-      </c>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="42">
+        <v>1</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="42" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5376,7 +5960,7 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>137</v>
       </c>
       <c r="E46" t="s">
@@ -5389,26 +5973,26 @@
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="43">
-        <v>1</v>
-      </c>
-      <c r="C47" s="43" t="s">
+      <c r="B47" s="42">
+        <v>1</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5596,26 +6180,26 @@
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
+    <row r="56" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="43">
-        <v>1</v>
-      </c>
-      <c r="C56" s="43" t="s">
+      <c r="B56" s="42">
+        <v>1</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="42" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5872,26 +6456,26 @@
         <v>409</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="43" t="s">
+    <row r="68" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="B68" s="43">
-        <v>1</v>
-      </c>
-      <c r="C68" s="43" t="s">
+      <c r="B68" s="42">
+        <v>1</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="42" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6240,26 +6824,26 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43" t="s">
+    <row r="84" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="43">
-        <v>1</v>
-      </c>
-      <c r="C84" s="43" t="s">
+      <c r="B84" s="42">
+        <v>1</v>
+      </c>
+      <c r="C84" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D84" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="43" t="s">
+      <c r="E84" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="G84" s="43" t="s">
+      <c r="G84" s="42" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6539,26 +7123,26 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="43" t="s">
+    <row r="97" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="43">
-        <v>1</v>
-      </c>
-      <c r="C97" s="43" t="s">
+      <c r="B97" s="42">
+        <v>1</v>
+      </c>
+      <c r="C97" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E97" s="43" t="s">
+      <c r="E97" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="G97" s="43" t="s">
+      <c r="G97" s="42" t="s">
         <v>483</v>
       </c>
     </row>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB18DE-F284-4D51-935F-12E17A61963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992794CF-AF5C-4128-B781-5A4132EC2FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -2691,7 +2691,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992794CF-AF5C-4128-B781-5A4132EC2FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B3A98-0AB8-4766-B181-E6C8B64C444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="588">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -1930,12 +1930,15 @@
   <si>
     <t>LOREM-98</t>
   </si>
+  <si>
+    <t>7deb8fcc-c6a5-11ea-a292-02e7594ce0a0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1992,6 +1995,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="27">
@@ -2174,7 +2183,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2296,6 +2305,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -2688,10 +2698,10 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4860,6 +4870,7 @@
       <c r="D98" t="s">
         <v>238</v>
       </c>
+      <c r="E98" s="43"/>
       <c r="G98" t="s">
         <v>585</v>
       </c>
@@ -4878,7 +4889,7 @@
         <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>165</v>
+        <v>587</v>
       </c>
       <c r="G99" t="s">
         <v>586</v>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B3A98-0AB8-4766-B181-E6C8B64C444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7A0D9-6BA8-4174-B0C2-9B5A587A3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="587">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -1637,308 +1637,305 @@
     <t>f.98: Restricted Access Record Designation</t>
   </si>
   <si>
-    <t>LOREM-1</t>
-  </si>
-  <si>
-    <t>LOREM-2</t>
-  </si>
-  <si>
-    <t>LOREM-3</t>
-  </si>
-  <si>
-    <t>LOREM-4</t>
-  </si>
-  <si>
-    <t>LOREM-5</t>
-  </si>
-  <si>
-    <t>LOREM-6</t>
-  </si>
-  <si>
-    <t>LOREM-7</t>
-  </si>
-  <si>
-    <t>LOREM-8</t>
-  </si>
-  <si>
-    <t>LOREM-9</t>
-  </si>
-  <si>
-    <t>LOREM-10</t>
-  </si>
-  <si>
-    <t>LOREM-11</t>
-  </si>
-  <si>
-    <t>LOREM-12</t>
-  </si>
-  <si>
-    <t>LOREM-13</t>
-  </si>
-  <si>
-    <t>LOREM-14</t>
-  </si>
-  <si>
-    <t>LOREM-15</t>
-  </si>
-  <si>
-    <t>LOREM-16</t>
-  </si>
-  <si>
-    <t>LOREM-17</t>
-  </si>
-  <si>
-    <t>LOREM-18</t>
-  </si>
-  <si>
-    <t>LOREM-19</t>
-  </si>
-  <si>
-    <t>LOREM-20</t>
-  </si>
-  <si>
-    <t>LOREM-21</t>
-  </si>
-  <si>
-    <t>LOREM-22</t>
-  </si>
-  <si>
-    <t>LOREM-23</t>
-  </si>
-  <si>
-    <t>LOREM-24</t>
-  </si>
-  <si>
-    <t>LOREM-25</t>
-  </si>
-  <si>
-    <t>LOREM-26</t>
-  </si>
-  <si>
-    <t>LOREM-27</t>
-  </si>
-  <si>
-    <t>LOREM-28</t>
-  </si>
-  <si>
-    <t>LOREM-29</t>
-  </si>
-  <si>
-    <t>LOREM-30</t>
-  </si>
-  <si>
-    <t>LOREM-31</t>
-  </si>
-  <si>
-    <t>LOREM-32</t>
-  </si>
-  <si>
-    <t>LOREM-33</t>
-  </si>
-  <si>
-    <t>LOREM-34</t>
-  </si>
-  <si>
-    <t>LOREM-35</t>
-  </si>
-  <si>
-    <t>LOREM-36</t>
-  </si>
-  <si>
-    <t>LOREM-37</t>
-  </si>
-  <si>
-    <t>LOREM-38</t>
-  </si>
-  <si>
-    <t>LOREM-39</t>
-  </si>
-  <si>
-    <t>LOREM-40</t>
-  </si>
-  <si>
-    <t>LOREM-41</t>
-  </si>
-  <si>
-    <t>LOREM-42</t>
-  </si>
-  <si>
-    <t>LOREM-43</t>
-  </si>
-  <si>
-    <t>LOREM-44</t>
-  </si>
-  <si>
-    <t>LOREM-45</t>
-  </si>
-  <si>
-    <t>LOREM-46</t>
-  </si>
-  <si>
-    <t>LOREM-47</t>
-  </si>
-  <si>
-    <t>LOREM-48</t>
-  </si>
-  <si>
-    <t>LOREM-49</t>
-  </si>
-  <si>
-    <t>LOREM-50</t>
-  </si>
-  <si>
-    <t>LOREM-51</t>
-  </si>
-  <si>
-    <t>LOREM-52</t>
-  </si>
-  <si>
-    <t>LOREM-53</t>
-  </si>
-  <si>
-    <t>LOREM-54</t>
-  </si>
-  <si>
-    <t>LOREM-55</t>
-  </si>
-  <si>
-    <t>LOREM-56</t>
-  </si>
-  <si>
-    <t>LOREM-57</t>
-  </si>
-  <si>
-    <t>LOREM-58</t>
-  </si>
-  <si>
-    <t>LOREM-59</t>
-  </si>
-  <si>
-    <t>LOREM-60</t>
-  </si>
-  <si>
-    <t>LOREM-61</t>
-  </si>
-  <si>
-    <t>LOREM-62</t>
-  </si>
-  <si>
-    <t>LOREM-63</t>
-  </si>
-  <si>
-    <t>LOREM-64</t>
-  </si>
-  <si>
-    <t>LOREM-65</t>
-  </si>
-  <si>
-    <t>LOREM-66</t>
-  </si>
-  <si>
-    <t>LOREM-67</t>
-  </si>
-  <si>
-    <t>LOREM-68</t>
-  </si>
-  <si>
-    <t>LOREM-69</t>
-  </si>
-  <si>
-    <t>LOREM-70</t>
-  </si>
-  <si>
-    <t>LOREM-71</t>
-  </si>
-  <si>
-    <t>LOREM-72</t>
-  </si>
-  <si>
-    <t>LOREM-73</t>
-  </si>
-  <si>
-    <t>LOREM-74</t>
-  </si>
-  <si>
-    <t>LOREM-75</t>
-  </si>
-  <si>
-    <t>LOREM-76</t>
-  </si>
-  <si>
-    <t>LOREM-77</t>
-  </si>
-  <si>
-    <t>LOREM-78</t>
-  </si>
-  <si>
-    <t>LOREM-79</t>
-  </si>
-  <si>
-    <t>LOREM-80</t>
-  </si>
-  <si>
-    <t>LOREM-81</t>
-  </si>
-  <si>
-    <t>LOREM-82</t>
-  </si>
-  <si>
-    <t>LOREM-83</t>
-  </si>
-  <si>
-    <t>LOREM-84</t>
-  </si>
-  <si>
-    <t>LOREM-85</t>
-  </si>
-  <si>
-    <t>LOREM-86</t>
-  </si>
-  <si>
-    <t>LOREM-87</t>
-  </si>
-  <si>
-    <t>LOREM-88</t>
-  </si>
-  <si>
-    <t>LOREM-89</t>
-  </si>
-  <si>
-    <t>LOREM-90</t>
-  </si>
-  <si>
-    <t>LOREM-91</t>
-  </si>
-  <si>
-    <t>LOREM-92</t>
-  </si>
-  <si>
-    <t>LOREM-93</t>
-  </si>
-  <si>
-    <t>LOREM-94</t>
-  </si>
-  <si>
-    <t>LOREM-95</t>
-  </si>
-  <si>
-    <t>LOREM-96</t>
-  </si>
-  <si>
-    <t>LOREM-97</t>
-  </si>
-  <si>
-    <t>LOREM-98</t>
-  </si>
-  <si>
     <t>7deb8fcc-c6a5-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Free text. Name and Surname of the Assessor of the heritage place</t>
+  </si>
+  <si>
+    <t>Structured data. Defines roles of the assessor within heritage management and research, including academic researchers, project staff (EAMENA, MarEA), government personnel, NGO employees, private sector workers, students/trainees, and volunteers/independent researchers.</t>
+  </si>
+  <si>
+    <t>Structured data. Delineates methods of heritage place assessment, including on-place surveys, remote image analysis, risk evaluation, emergency impact, and data processing activities.</t>
+  </si>
+  <si>
+    <t>Date. The date of the assessment</t>
+  </si>
+  <si>
+    <t>Boolean. Was the assessment based on Google Earth imagery?</t>
+  </si>
+  <si>
+    <t>Date. The date of Google Earth (GE) images used for the assessment.</t>
+  </si>
+  <si>
+    <t>Resource instance. Are Information Resources used to create and record sources (e.g., imagery, books, etc.)?</t>
+  </si>
+  <si>
+    <t>Date. The date of the acquisition of the information resource.</t>
+  </si>
+  <si>
+    <t>Free text. Name of the heritage place</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises identification labels for heritage places, including alternative references, official designations, and all known toponyms across languages and periods.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines categories of heritage place type, including archaeological sites, components, landscapes/seascapes, urban heritage, and structural heritage, each with specific criteria for classification.</t>
+  </si>
+  <si>
+    <t>Structured data. Outlines the types of descriptive free text for heritage places, including general place characteristics, significance summaries, architectural details, and references to previous database identifiers.</t>
+  </si>
+  <si>
+    <t>Free text. A general description of the heritage place.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises heritage places by their original or historical function, such as agricultural, defensive, domestic, leisure, funerary, hunting, water management, industrial, transport, maritime, military, public, religious, status display, and commercial activities.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines the level of certainty regarding the function of heritage places, ranging from not applicable to definite, based on evidence and confirmation from various sources.</t>
+  </si>
+  <si>
+    <t>Structured list of categories indicating the status and recognition of heritage sites by various authoritative bodies and conventions.</t>
+  </si>
+  <si>
+    <t>Date. The date the heritage place was designated.</t>
+  </si>
+  <si>
+    <t>Date. The date the designation ended.</t>
+  </si>
+  <si>
+    <t>GeoJSON feature collection. The coordinates of the heritage place geometry, whether it is a point, line, or polygon.</t>
+  </si>
+  <si>
+    <t>Structured data. The type of geometry qualifier, whether it is Centre Point, Access Point, Buffer Polygon, Center Line, Façade Point, Perimeter Polygon, Property Boundary, Site Datum Point, Simplified Polygon, or Vicinity Point.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the level of confidence in the spatial information of a heritage place, ranging from negligible to definite, based on the quality of imagery, corroborative data, and field verification.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines certainty levels in identifying and delineating the boundaries of a heritage place or feature, from negligible to definite, based on imagery visibility, boundary clarity, and field corroboration.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the overall shape of heritage places, ranging from geometrically precise forms to irregular, user-defined, and unknown configurations, accommodating a variety of archaeological features.</t>
+  </si>
+  <si>
+    <t>Resource instance. EAMENA Grid ID for the location of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Name of the country where the heritage place is located.</t>
+  </si>
+  <si>
+    <t>Free text. Cadastral reference of the heritage place.</t>
+  </si>
+  <si>
+    <t>Structured data. Specifies the compass orientations for heritage places, including cardinal and intercardinal directions, as well as combinations for linear orientations and a category for non-applicable cases.</t>
+  </si>
+  <si>
+    <t>Free text. Address of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Differentiates between the main (primary) and secondary (alternative) addresses for entities in a database or record system.</t>
+  </si>
+  <si>
+    <t>Free text. Name of the administrative division of where heritage places are located.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises types of administrative divisions within a region, such as community plan areas, council districts, districts, governorates, neighborhoods, neighborhood councils, and provinces.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines certainty levels in in identifying archaeological values of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Identifies types of heritage places based on their morphology—whether they are negative/cut/dug features, constructed above ground, surface marks, or undetermined.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies cultural periods of cultural heritage places from Palaeolithic to Contemporary Islamic.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies the certaintiy level of chronological data associated with archaeological findings into possible, probable, definite, or not applicable, based on evidence</t>
+  </si>
+  <si>
+    <t>Structured data. Subcategories representing main cultural periods of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies the certaintiy level of sub-periods into possible, probable, definite, or not applicable, based on evidence.</t>
+  </si>
+  <si>
+    <t>Free text. Actor involved in the process of inferring or determining dates and cultural periods and sub-periods for heritage places.</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of an archaeological site, a heritage place or feature, expressed in calibrated years.</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or latest known date of an archaeological site, a heritage place or feature, expressed in calibrated years.</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of a heritage place, expressed in years Before Present (BP).</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or latest known date of a heritage place, expressed in years Before Present (BP).</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of a heritage place in Anno Hijra (AH). Islamic calendar date.</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or or latest known date of a heritage place in Anno Hijra (AH). Islamic calendar date.</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of a heritage place in expressed in years according to the Solar Hijri (SH) calendar. The SH calendar, also known as the Persian calendar, is a solar calendar used in Iran and Afghanistan.</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or or latest known date of a heritage place in expressed in years according to the Solar Hijri (SH) calendar. The SH calendar, also known as the Persian calendar, is a solar calendar used in Iran and Afghanistan.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises physical forms and constructions of features of a heritage place, ranging from natural formations like caves to man-made structures such as walls, platforms, and mounds, based on their shape, material, and purpose.</t>
+  </si>
+  <si>
+    <t>Structured data. Measures the confidence level in feature identifications, ranging from not applicable to definite, based on evidence strength and corroboration by sources or experts.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the geometric and physical outlines of archaeological features, including shapes like circular, rectilinear, and irregular, for both enclosed and linear forms.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines the spatial relationships and arrangements of archaeological features, detailing how they are positioned in relation to one another, such as isolated, linear, clustered, or concentric.</t>
+  </si>
+  <si>
+    <t>Structured data. Quantifies archaeological site complexity by the count of distinct features, ranging from singular to over five hundred, with a category for undetermined quantities.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines archaeological features by their identified interpretation or type, such as structures for habitation, religious purposes, transportation, defensive mechanisms, and various processing or manufacturing activities.</t>
+  </si>
+  <si>
+    <t>Structured data. Quantifies the number of identified archaeological interpretations, from a single instance to more than five hundred, with a category for indeterminate counts.</t>
+  </si>
+  <si>
+    <t>Structured data. The level of certainty regarding the interpretation of archaeological features, ranging from negligible to definite, based on corroborative evidence and expert consensus.</t>
+  </si>
+  <si>
+    <t>Resource instance. The related Built Component resource ID pertains to heritage places and encompasses various structural and architectural elements, including walls, doors, windows, courtyards, decorative elements, etc.</t>
+  </si>
+  <si>
+    <t>Resource instance. The related Heritage Place IDs to Built Component resources (default: the one of the current Heritage Place).</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies materials used in heritage places, ranging from raw materials, clay, and sediment to stone, wood, etc.</t>
+  </si>
+  <si>
+    <t>Structured data. Type of materials related to each of material classes.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies construction techniques used at heritage places, ranging from masonry, brick-laid laying, and beam-supported to wood construction, roofing, etc.</t>
+  </si>
+  <si>
+    <t>Free text. Measurement numeric value of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises units of measurement of heritage places by system: Metric (mm, cm, m, km, ha, m², km²), Imperial (in, ft, yd, mi, ac, ft², mi²), and Other (dunam).</t>
+  </si>
+  <si>
+    <t>Structured data. Describes types of spatial measurements for sites or features, including area, breadth/width, depth, diameter, height, length, and an 'unknown' category for unspecified dimensions.</t>
+  </si>
+  <si>
+    <t>Structured data. Identifies the methods used to obtain measurements of sites or features, such as imagery analysis, various forms of aerial photography, satellite imagery, field surveys, GPS technologies, pacing estimations, laser rangefinders, tape measures, total stations, theodolites, or unspecified sources.</t>
+  </si>
+  <si>
+    <t>Resource instance. The related Geoarchaeology resource ID related to heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Evaluates the preservation state of heritage places, from 'good' indicating minimal damage, to 'destroyed' where integrity is lost and data is no longer retrievable.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the scope of damage or disturbance at heritage places, with categories ranging from no visible damage to near-total visible damage.</t>
+  </si>
+  <si>
+    <t>Structured data: Describes categories of disturbance caused at heritage places, ranging from Agricultural/Pastoral, Building/Development, Natural, and Domestic Use to Infrastructure/Transport, Looting/Illegal activities, Military/Armed Conflict, etc.</t>
+  </si>
+  <si>
+    <t>Structured data. Determines the type of disturbance causes related to each of the cause categories, ranging from animal/pest infestation to wind and water action.</t>
+  </si>
+  <si>
+    <t>Structured data. Determines the confidence level in identifying the cause of disturbance to heritage places, from 'not applicable' to 'definite', based on the evidence and expert agreement.</t>
+  </si>
+  <si>
+    <t>Date. Event occurred at some point between two dates - enter the date span</t>
+  </si>
+  <si>
+    <t>Date. Event occurred before a specific date. The 'from' field does not apply.</t>
+  </si>
+  <si>
+    <t>Date. Event occurred on a specific date.</t>
+  </si>
+  <si>
+    <t>Free text. the name of the assessor or actor who identified and recorded the disturbance cause.</t>
+  </si>
+  <si>
+    <t>Structured data. Outlines various impacts on heritage places, ranging from access restriction to water damage, including physical alterations, chemical effects, and loss of heritage materials or value.</t>
+  </si>
+  <si>
+    <t>Structured data. Assesses the confidence in determining the effects of disturbance on heritage placess, ranging from 'not applicable' when uncertain, to 'definite' when confirmed by evidence and experts.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies potential future risks to heritage places, from agricultural impact to military conflict, including environmental and illicit threats, as well as societal and infrastructural pressures.</t>
+  </si>
+  <si>
+    <t>Structured data. Details the array of potential threats (future disturbances) to heritage sites, encompassing natural processes, human activities, and environmental changes that can cause damage or alteration.</t>
+  </si>
+  <si>
+    <t>Structured data. Assesses the likelihood of future threats to heritage places, with categories ranging from 'not applicable' to 'planned', considering factors like proximity and the nature of the threat.</t>
+  </si>
+  <si>
+    <t>Free text. The name of the assessor or actor who identified and recorded the threats.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies types of activities for heritage place protection, including emergency interventions, conservation and restoration efforts, and preventative measures.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines detailed activities related to identified intervention types for managing and preserving heritage places, ranging from surveys and excavations to conservation and maintenance practices, as well as management and preventive strategies.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises urgency levels for action at heritage places, from 'emergency' requiring immediate attention to 'low' priority where long-term planning is possible.</t>
+  </si>
+  <si>
+    <t>Resource instance. Detailed Condition Resource ID related to heritage places</t>
+  </si>
+  <si>
+    <t>Structured data. Details various landforms and water-related features in relation to heritage sites, including alluvial fans, lake beds, shores, sea beds, bays, beaches, cliffs, deltas, estuaries, intertidal flats, islands, reefs, plains, plateaus, precipices, slopes, summits, valleys, terraces, and watercourse edges and beds.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises the predominant type of surface cover at heritage sites, ranging from various vegetation types and water bodies to barren lands and built-up areas.</t>
+  </si>
+  <si>
+    <t>Date. The date of the land cover assessment.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes surface geological materials, from coarse sediments and mixed deposits to mud, organic materials, paleontological remains, rocks, boulders, sand, and archaeological layers, highlighting composition and grain size.</t>
+  </si>
+  <si>
+    <t>Structured data. Outlines types of sediment deposition processes, from aeolian (wind) and biogenic (organism-produced) to chemical, fluvial, glacial, and marine, including volcanic and anthropogenic influences on sedimentation.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies types of bedrock geology, detailing igneous, sedimentary, and metamorphic rocks, with specific examples like basalt, granite, limestone, marble, and others, including undefined categories for unspecified types.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines coastal exposure levels based on fetch, the straight-line distance over water from a coast to the nearest landmass, with categories for exposed, moderately exposed, and protected environments.</t>
+  </si>
+  <si>
+    <t>Structured data. Dominant wave patterns and influences by monsoons, protection, storms, swells, tides, or cyclones.</t>
+  </si>
+  <si>
+    <t>Structured data. Vertical height difference between high and low tide.</t>
+  </si>
+  <si>
+    <t>Free text. The minimum depth (i.e., maximum elevation) numeric value (in meter)</t>
+  </si>
+  <si>
+    <t>Free text. The maximum depth (i.e., minimum elevation) numeric value (in meter)</t>
+  </si>
+  <si>
+    <t>Structured data. The datum of the Depth/Elevation (Biological Mean Sea Level, Mean High Water, etc.).</t>
+  </si>
+  <si>
+    <t>Free text. The EPSG code of the coordinates.</t>
+  </si>
+  <si>
+    <t>Depreciated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,6 +1998,37 @@
       <color rgb="FF1F1F1F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -2155,12 +2183,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2183,7 +2226,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2197,7 +2240,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2305,7 +2347,20 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -2695,28 +2750,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.109375" customWidth="1"/>
-    <col min="6" max="6" width="67.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="255.77734375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="42" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -2735,2168 +2791,4871 @@
       <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="45" t="s">
         <v>241</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
-        <v>489</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G3" t="s">
-        <v>490</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
-        <v>491</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4" s="42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G5" t="s">
-        <v>492</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G6" t="s">
-        <v>493</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="H6" s="42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G7" t="s">
-        <v>494</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="G8" t="s">
-        <v>495</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>497</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G11" t="s">
-        <v>498</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
-        <v>499</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
-        <v>500</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G14" t="s">
-        <v>501</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="G15" t="s">
-        <v>502</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G16" t="s">
-        <v>503</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G17" t="s">
-        <v>504</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="H17" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G18" t="s">
-        <v>505</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="H18" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G19" t="s">
-        <v>506</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G20" t="s">
-        <v>507</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="G21" t="s">
-        <v>508</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="H21" s="42" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G22" t="s">
-        <v>509</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="42" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G23" t="s">
-        <v>510</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="G24" t="s">
-        <v>511</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="H24" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G25" t="s">
-        <v>512</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="H25" s="42" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G26" t="s">
-        <v>513</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G27" t="s">
-        <v>514</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="H27" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s">
-        <v>515</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="H28" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G29" t="s">
-        <v>516</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="H29" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="G30" t="s">
-        <v>517</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="H30" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="G31" t="s">
-        <v>518</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="H31" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G32" t="s">
-        <v>519</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="H32" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G33" t="s">
-        <v>520</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="H33" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G34" t="s">
-        <v>521</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="H34" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="G35" t="s">
-        <v>522</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="H35" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G36" t="s">
-        <v>523</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G36" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="H36" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G37" t="s">
-        <v>524</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="H37" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G38" t="s">
-        <v>525</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="H38" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G39" t="s">
-        <v>526</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="H39" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G40" t="s">
-        <v>527</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="H40" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G41" t="s">
-        <v>528</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="H41" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="G42" t="s">
-        <v>529</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="H42" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G43" t="s">
-        <v>530</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="H43" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="G44" t="s">
-        <v>531</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="H44" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G45" t="s">
-        <v>532</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="H45" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G46" t="s">
-        <v>533</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="H46" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G47" t="s">
-        <v>534</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="H47" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G48" t="s">
-        <v>535</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="H48" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G49" t="s">
-        <v>536</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="H49" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G50" t="s">
-        <v>537</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="H50" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G51" t="s">
-        <v>538</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="H51" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G52" t="s">
-        <v>539</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="H52" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="G53" t="s">
-        <v>540</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="H53" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G54" t="s">
-        <v>541</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G54" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="H54" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G55" t="s">
-        <v>542</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G55" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G56" t="s">
-        <v>543</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="H56" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G57" t="s">
-        <v>544</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="G58" t="s">
-        <v>545</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="H58" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G59" t="s">
-        <v>546</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="H59" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="G60" t="s">
-        <v>547</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="H60" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G61" t="s">
-        <v>548</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="H61" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="G62" t="s">
-        <v>549</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="H62" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G63" t="s">
-        <v>550</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="H63" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="G64" t="s">
-        <v>551</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="H64" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G65" t="s">
-        <v>552</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="H65" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G66" t="s">
-        <v>553</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G66" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="H66" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G67" t="s">
-        <v>554</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="H67" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G68" t="s">
-        <v>555</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="H68" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G69" t="s">
-        <v>556</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="H69" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G70" t="s">
-        <v>557</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="H70" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="G71" t="s">
-        <v>558</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="H71" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="42" t="s">
         <v>110</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="48" t="s">
         <v>564</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="46" t="s">
         <v>565</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="s">
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="42" t="s">
         <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="46" t="s">
         <v>574</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="27" t="s">
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="27" t="s">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="46" t="s">
         <v>577</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="27" t="s">
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="46" t="s">
         <v>578</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="27" t="s">
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="27" t="s">
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="27" t="s">
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="27" t="s">
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E98" s="43"/>
-      <c r="G98" t="s">
+      <c r="E98" s="44"/>
+      <c r="G98" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D99" t="s">
-        <v>587</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="D99" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="G99" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="42" t="s">
         <v>486</v>
       </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G100" s="50"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G101" s="50"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G102" s="50"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G103" s="50"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104" s="50"/>
+    </row>
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G105" s="50"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G106" s="50"/>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G107" s="50"/>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G108" s="50"/>
+    </row>
+    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G109" s="50"/>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G110" s="50"/>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G111" s="50"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G112" s="50"/>
+    </row>
+    <row r="113" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G113" s="50"/>
+    </row>
+    <row r="114" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G114" s="50"/>
+    </row>
+    <row r="115" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G115" s="50"/>
+    </row>
+    <row r="116" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G116" s="50"/>
+    </row>
+    <row r="117" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G117" s="50"/>
+    </row>
+    <row r="118" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G118" s="50"/>
+    </row>
+    <row r="119" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G119" s="50"/>
+    </row>
+    <row r="120" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G120" s="50"/>
+    </row>
+    <row r="121" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G121" s="50"/>
+    </row>
+    <row r="122" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G122" s="50"/>
+    </row>
+    <row r="123" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G123" s="50"/>
+    </row>
+    <row r="124" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G124" s="50"/>
+    </row>
+    <row r="125" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G125" s="50"/>
+    </row>
+    <row r="126" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G126" s="50"/>
+    </row>
+    <row r="127" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G127" s="50"/>
+    </row>
+    <row r="128" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G128" s="50"/>
+    </row>
+    <row r="129" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G129" s="50"/>
+    </row>
+    <row r="130" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G130" s="50"/>
+    </row>
+    <row r="131" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G131" s="50"/>
+    </row>
+    <row r="132" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G132" s="50"/>
+    </row>
+    <row r="133" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G133" s="50"/>
+    </row>
+    <row r="134" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G134" s="50"/>
+    </row>
+    <row r="135" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G135" s="50"/>
+    </row>
+    <row r="136" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G136" s="50"/>
+    </row>
+    <row r="137" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G137" s="50"/>
+    </row>
+    <row r="138" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G138" s="50"/>
+    </row>
+    <row r="139" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G139" s="50"/>
+    </row>
+    <row r="140" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G140" s="50"/>
+    </row>
+    <row r="141" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G141" s="50"/>
+    </row>
+    <row r="142" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G142" s="50"/>
+    </row>
+    <row r="143" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G143" s="50"/>
+    </row>
+    <row r="144" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G144" s="50"/>
+    </row>
+    <row r="145" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G145" s="50"/>
+    </row>
+    <row r="146" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G146" s="50"/>
+    </row>
+    <row r="147" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G147" s="50"/>
+    </row>
+    <row r="148" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G148" s="50"/>
+    </row>
+    <row r="149" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G149" s="50"/>
+    </row>
+    <row r="150" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G150" s="50"/>
+    </row>
+    <row r="151" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G151" s="50"/>
+    </row>
+    <row r="152" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G152" s="50"/>
+    </row>
+    <row r="153" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G153" s="50"/>
+    </row>
+    <row r="154" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G154" s="50"/>
+    </row>
+    <row r="155" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G155" s="50"/>
+    </row>
+    <row r="156" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G156" s="50"/>
+    </row>
+    <row r="157" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G157" s="50"/>
+    </row>
+    <row r="158" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G158" s="50"/>
+    </row>
+    <row r="159" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G159" s="50"/>
+    </row>
+    <row r="160" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G160" s="50"/>
+    </row>
+    <row r="161" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G161" s="50"/>
+    </row>
+    <row r="162" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G162" s="50"/>
+    </row>
+    <row r="163" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G163" s="50"/>
+    </row>
+    <row r="164" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G164" s="50"/>
+    </row>
+    <row r="165" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G165" s="50"/>
+    </row>
+    <row r="166" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G166" s="50"/>
+    </row>
+    <row r="167" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G167" s="50"/>
+    </row>
+    <row r="168" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G168" s="50"/>
+    </row>
+    <row r="169" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G169" s="50"/>
+    </row>
+    <row r="170" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G170" s="50"/>
+    </row>
+    <row r="171" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G171" s="50"/>
+    </row>
+    <row r="172" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G172" s="50"/>
+    </row>
+    <row r="173" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G173" s="50"/>
+    </row>
+    <row r="174" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G174" s="50"/>
+    </row>
+    <row r="175" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G175" s="50"/>
+    </row>
+    <row r="176" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G176" s="50"/>
+    </row>
+    <row r="177" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G177" s="50"/>
+    </row>
+    <row r="178" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G178" s="50"/>
+    </row>
+    <row r="179" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G179" s="50"/>
+    </row>
+    <row r="180" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G180" s="50"/>
+    </row>
+    <row r="181" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G181" s="50"/>
+    </row>
+    <row r="182" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G182" s="50"/>
+    </row>
+    <row r="183" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G183" s="50"/>
+    </row>
+    <row r="184" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G184" s="50"/>
+    </row>
+    <row r="185" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G185" s="50"/>
+    </row>
+    <row r="186" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G186" s="50"/>
+    </row>
+    <row r="187" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G187" s="50"/>
+    </row>
+    <row r="188" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G188" s="50"/>
+    </row>
+    <row r="189" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G189" s="50"/>
+    </row>
+    <row r="190" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G190" s="50"/>
+    </row>
+    <row r="191" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G191" s="50"/>
+    </row>
+    <row r="192" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G192" s="50"/>
+    </row>
+    <row r="193" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G193" s="50"/>
+    </row>
+    <row r="194" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G194" s="50"/>
+    </row>
+    <row r="195" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G195" s="50"/>
+    </row>
+    <row r="196" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G196" s="50"/>
+    </row>
+    <row r="197" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G197" s="50"/>
+    </row>
+    <row r="198" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G198" s="50"/>
+    </row>
+    <row r="199" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G199" s="50"/>
+    </row>
+    <row r="200" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G200" s="50"/>
+    </row>
+    <row r="201" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G201" s="50"/>
+    </row>
+    <row r="202" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G202" s="50"/>
+    </row>
+    <row r="203" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G203" s="50"/>
+    </row>
+    <row r="204" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G204" s="50"/>
+    </row>
+    <row r="205" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G205" s="50"/>
+    </row>
+    <row r="206" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G206" s="50"/>
+    </row>
+    <row r="207" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G207" s="50"/>
+    </row>
+    <row r="208" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G208" s="50"/>
+    </row>
+    <row r="209" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G209" s="50"/>
+    </row>
+    <row r="210" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G210" s="50"/>
+    </row>
+    <row r="211" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G211" s="50"/>
+    </row>
+    <row r="212" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G212" s="50"/>
+    </row>
+    <row r="213" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G213" s="50"/>
+    </row>
+    <row r="214" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G214" s="50"/>
+    </row>
+    <row r="215" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G215" s="50"/>
+    </row>
+    <row r="216" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G216" s="50"/>
+    </row>
+    <row r="217" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G217" s="50"/>
+    </row>
+    <row r="218" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G218" s="50"/>
+    </row>
+    <row r="219" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G219" s="50"/>
+    </row>
+    <row r="220" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G220" s="50"/>
+    </row>
+    <row r="221" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G221" s="50"/>
+    </row>
+    <row r="222" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G222" s="50"/>
+    </row>
+    <row r="223" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G223" s="50"/>
+    </row>
+    <row r="224" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G224" s="50"/>
+    </row>
+    <row r="225" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G225" s="50"/>
+    </row>
+    <row r="226" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G226" s="50"/>
+    </row>
+    <row r="227" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G227" s="50"/>
+    </row>
+    <row r="228" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G228" s="50"/>
+    </row>
+    <row r="229" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G229" s="50"/>
+    </row>
+    <row r="230" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G230" s="50"/>
+    </row>
+    <row r="231" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G231" s="50"/>
+    </row>
+    <row r="232" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G232" s="50"/>
+    </row>
+    <row r="233" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G233" s="50"/>
+    </row>
+    <row r="234" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G234" s="50"/>
+    </row>
+    <row r="235" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G235" s="50"/>
+    </row>
+    <row r="236" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G236" s="50"/>
+    </row>
+    <row r="237" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G237" s="50"/>
+    </row>
+    <row r="238" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G238" s="50"/>
+    </row>
+    <row r="239" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G239" s="50"/>
+    </row>
+    <row r="240" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G240" s="50"/>
+    </row>
+    <row r="241" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G241" s="50"/>
+    </row>
+    <row r="242" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G242" s="50"/>
+    </row>
+    <row r="243" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G243" s="50"/>
+    </row>
+    <row r="244" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G244" s="50"/>
+    </row>
+    <row r="245" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G245" s="50"/>
+    </row>
+    <row r="246" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G246" s="50"/>
+    </row>
+    <row r="247" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G247" s="50"/>
+    </row>
+    <row r="248" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G248" s="50"/>
+    </row>
+    <row r="249" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G249" s="50"/>
+    </row>
+    <row r="250" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G250" s="50"/>
+    </row>
+    <row r="251" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G251" s="50"/>
+    </row>
+    <row r="252" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G252" s="50"/>
+    </row>
+    <row r="253" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G253" s="50"/>
+    </row>
+    <row r="254" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G254" s="50"/>
+    </row>
+    <row r="255" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G255" s="50"/>
+    </row>
+    <row r="256" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G256" s="50"/>
+    </row>
+    <row r="257" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G257" s="50"/>
+    </row>
+    <row r="258" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G258" s="50"/>
+    </row>
+    <row r="259" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G259" s="50"/>
+    </row>
+    <row r="260" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G260" s="50"/>
+    </row>
+    <row r="261" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G261" s="50"/>
+    </row>
+    <row r="262" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G262" s="50"/>
+    </row>
+    <row r="263" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G263" s="50"/>
+    </row>
+    <row r="264" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G264" s="50"/>
+    </row>
+    <row r="265" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G265" s="50"/>
+    </row>
+    <row r="266" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G266" s="50"/>
+    </row>
+    <row r="267" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G267" s="50"/>
+    </row>
+    <row r="268" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G268" s="50"/>
+    </row>
+    <row r="269" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G269" s="50"/>
+    </row>
+    <row r="270" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G270" s="50"/>
+    </row>
+    <row r="271" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G271" s="50"/>
+    </row>
+    <row r="272" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G272" s="50"/>
+    </row>
+    <row r="273" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G273" s="50"/>
+    </row>
+    <row r="274" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G274" s="50"/>
+    </row>
+    <row r="275" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G275" s="50"/>
+    </row>
+    <row r="276" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G276" s="50"/>
+    </row>
+    <row r="277" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G277" s="50"/>
+    </row>
+    <row r="278" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G278" s="50"/>
+    </row>
+    <row r="279" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G279" s="50"/>
+    </row>
+    <row r="280" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G280" s="50"/>
+    </row>
+    <row r="281" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G281" s="50"/>
+    </row>
+    <row r="282" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G282" s="50"/>
+    </row>
+    <row r="283" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G283" s="50"/>
+    </row>
+    <row r="284" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G284" s="50"/>
+    </row>
+    <row r="285" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G285" s="50"/>
+    </row>
+    <row r="286" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G286" s="50"/>
+    </row>
+    <row r="287" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G287" s="50"/>
+    </row>
+    <row r="288" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G288" s="50"/>
+    </row>
+    <row r="289" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G289" s="50"/>
+    </row>
+    <row r="290" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G290" s="50"/>
+    </row>
+    <row r="291" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G291" s="50"/>
+    </row>
+    <row r="292" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G292" s="50"/>
+    </row>
+    <row r="293" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G293" s="50"/>
+    </row>
+    <row r="294" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G294" s="50"/>
+    </row>
+    <row r="295" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G295" s="50"/>
+    </row>
+    <row r="296" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G296" s="50"/>
+    </row>
+    <row r="297" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G297" s="50"/>
+    </row>
+    <row r="298" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G298" s="50"/>
+    </row>
+    <row r="299" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G299" s="50"/>
+    </row>
+    <row r="300" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G300" s="50"/>
+    </row>
+    <row r="301" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G301" s="50"/>
+    </row>
+    <row r="302" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G302" s="50"/>
+    </row>
+    <row r="303" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G303" s="50"/>
+    </row>
+    <row r="304" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G304" s="50"/>
+    </row>
+    <row r="305" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G305" s="50"/>
+    </row>
+    <row r="306" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G306" s="50"/>
+    </row>
+    <row r="307" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G307" s="50"/>
+    </row>
+    <row r="308" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G308" s="50"/>
+    </row>
+    <row r="309" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G309" s="50"/>
+    </row>
+    <row r="310" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G310" s="50"/>
+    </row>
+    <row r="311" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G311" s="50"/>
+    </row>
+    <row r="312" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G312" s="50"/>
+    </row>
+    <row r="313" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G313" s="50"/>
+    </row>
+    <row r="314" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G314" s="50"/>
+    </row>
+    <row r="315" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G315" s="50"/>
+    </row>
+    <row r="316" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G316" s="50"/>
+    </row>
+    <row r="317" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G317" s="50"/>
+    </row>
+    <row r="318" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G318" s="50"/>
+    </row>
+    <row r="319" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G319" s="50"/>
+    </row>
+    <row r="320" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G320" s="50"/>
+    </row>
+    <row r="321" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G321" s="50"/>
+    </row>
+    <row r="322" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G322" s="50"/>
+    </row>
+    <row r="323" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G323" s="50"/>
+    </row>
+    <row r="324" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G324" s="50"/>
+    </row>
+    <row r="325" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G325" s="50"/>
+    </row>
+    <row r="326" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G326" s="50"/>
+    </row>
+    <row r="327" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G327" s="50"/>
+    </row>
+    <row r="328" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G328" s="50"/>
+    </row>
+    <row r="329" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G329" s="50"/>
+    </row>
+    <row r="330" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G330" s="50"/>
+    </row>
+    <row r="331" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G331" s="50"/>
+    </row>
+    <row r="332" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G332" s="50"/>
+    </row>
+    <row r="333" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G333" s="50"/>
+    </row>
+    <row r="334" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G334" s="50"/>
+    </row>
+    <row r="335" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G335" s="50"/>
+    </row>
+    <row r="336" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G336" s="50"/>
+    </row>
+    <row r="337" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G337" s="50"/>
+    </row>
+    <row r="338" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G338" s="50"/>
+    </row>
+    <row r="339" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G339" s="50"/>
+    </row>
+    <row r="340" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G340" s="50"/>
+    </row>
+    <row r="341" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G341" s="50"/>
+    </row>
+    <row r="342" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G342" s="50"/>
+    </row>
+    <row r="343" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G343" s="50"/>
+    </row>
+    <row r="344" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G344" s="50"/>
+    </row>
+    <row r="345" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G345" s="50"/>
+    </row>
+    <row r="346" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G346" s="50"/>
+    </row>
+    <row r="347" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G347" s="50"/>
+    </row>
+    <row r="348" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G348" s="50"/>
+    </row>
+    <row r="349" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G349" s="50"/>
+    </row>
+    <row r="350" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G350" s="50"/>
+    </row>
+    <row r="351" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G351" s="50"/>
+    </row>
+    <row r="352" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G352" s="50"/>
+    </row>
+    <row r="353" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G353" s="50"/>
+    </row>
+    <row r="354" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G354" s="50"/>
+    </row>
+    <row r="355" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G355" s="50"/>
+    </row>
+    <row r="356" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G356" s="50"/>
+    </row>
+    <row r="357" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G357" s="50"/>
+    </row>
+    <row r="358" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G358" s="50"/>
+    </row>
+    <row r="359" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G359" s="50"/>
+    </row>
+    <row r="360" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G360" s="50"/>
+    </row>
+    <row r="361" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G361" s="50"/>
+    </row>
+    <row r="362" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G362" s="50"/>
+    </row>
+    <row r="363" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G363" s="50"/>
+    </row>
+    <row r="364" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G364" s="50"/>
+    </row>
+    <row r="365" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G365" s="50"/>
+    </row>
+    <row r="366" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G366" s="50"/>
+    </row>
+    <row r="367" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G367" s="50"/>
+    </row>
+    <row r="368" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G368" s="50"/>
+    </row>
+    <row r="369" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G369" s="50"/>
+    </row>
+    <row r="370" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G370" s="50"/>
+    </row>
+    <row r="371" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G371" s="50"/>
+    </row>
+    <row r="372" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G372" s="50"/>
+    </row>
+    <row r="373" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G373" s="50"/>
+    </row>
+    <row r="374" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G374" s="50"/>
+    </row>
+    <row r="375" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G375" s="50"/>
+    </row>
+    <row r="376" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G376" s="50"/>
+    </row>
+    <row r="377" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G377" s="50"/>
+    </row>
+    <row r="378" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G378" s="50"/>
+    </row>
+    <row r="379" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G379" s="50"/>
+    </row>
+    <row r="380" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G380" s="50"/>
+    </row>
+    <row r="381" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G381" s="50"/>
+    </row>
+    <row r="382" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G382" s="50"/>
+    </row>
+    <row r="383" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G383" s="50"/>
+    </row>
+    <row r="384" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G384" s="50"/>
+    </row>
+    <row r="385" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G385" s="50"/>
+    </row>
+    <row r="386" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G386" s="50"/>
+    </row>
+    <row r="387" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G387" s="50"/>
+    </row>
+    <row r="388" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G388" s="50"/>
+    </row>
+    <row r="389" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G389" s="50"/>
+    </row>
+    <row r="390" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G390" s="50"/>
+    </row>
+    <row r="391" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G391" s="50"/>
+    </row>
+    <row r="392" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G392" s="50"/>
+    </row>
+    <row r="393" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G393" s="50"/>
+    </row>
+    <row r="394" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G394" s="50"/>
+    </row>
+    <row r="395" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G395" s="50"/>
+    </row>
+    <row r="396" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G396" s="50"/>
+    </row>
+    <row r="397" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G397" s="50"/>
+    </row>
+    <row r="398" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G398" s="50"/>
+    </row>
+    <row r="399" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G399" s="50"/>
+    </row>
+    <row r="400" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G400" s="50"/>
+    </row>
+    <row r="401" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G401" s="50"/>
+    </row>
+    <row r="402" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G402" s="50"/>
+    </row>
+    <row r="403" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G403" s="50"/>
+    </row>
+    <row r="404" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G404" s="50"/>
+    </row>
+    <row r="405" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G405" s="50"/>
+    </row>
+    <row r="406" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G406" s="50"/>
+    </row>
+    <row r="407" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G407" s="50"/>
+    </row>
+    <row r="408" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G408" s="50"/>
+    </row>
+    <row r="409" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G409" s="50"/>
+    </row>
+    <row r="410" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G410" s="50"/>
+    </row>
+    <row r="411" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G411" s="50"/>
+    </row>
+    <row r="412" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G412" s="50"/>
+    </row>
+    <row r="413" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G413" s="50"/>
+    </row>
+    <row r="414" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G414" s="50"/>
+    </row>
+    <row r="415" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G415" s="50"/>
+    </row>
+    <row r="416" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G416" s="50"/>
+    </row>
+    <row r="417" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G417" s="50"/>
+    </row>
+    <row r="418" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G418" s="50"/>
+    </row>
+    <row r="419" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G419" s="50"/>
+    </row>
+    <row r="420" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G420" s="50"/>
+    </row>
+    <row r="421" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G421" s="50"/>
+    </row>
+    <row r="422" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G422" s="50"/>
+    </row>
+    <row r="423" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G423" s="50"/>
+    </row>
+    <row r="424" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G424" s="50"/>
+    </row>
+    <row r="425" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G425" s="50"/>
+    </row>
+    <row r="426" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G426" s="50"/>
+    </row>
+    <row r="427" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G427" s="50"/>
+    </row>
+    <row r="428" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G428" s="50"/>
+    </row>
+    <row r="429" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G429" s="50"/>
+    </row>
+    <row r="430" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G430" s="50"/>
+    </row>
+    <row r="431" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G431" s="50"/>
+    </row>
+    <row r="432" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G432" s="50"/>
+    </row>
+    <row r="433" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G433" s="50"/>
+    </row>
+    <row r="434" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G434" s="50"/>
+    </row>
+    <row r="435" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G435" s="50"/>
+    </row>
+    <row r="436" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G436" s="50"/>
+    </row>
+    <row r="437" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G437" s="50"/>
+    </row>
+    <row r="438" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G438" s="50"/>
+    </row>
+    <row r="439" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G439" s="50"/>
+    </row>
+    <row r="440" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G440" s="50"/>
+    </row>
+    <row r="441" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G441" s="50"/>
+    </row>
+    <row r="442" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G442" s="50"/>
+    </row>
+    <row r="443" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G443" s="50"/>
+    </row>
+    <row r="444" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G444" s="50"/>
+    </row>
+    <row r="445" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G445" s="50"/>
+    </row>
+    <row r="446" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G446" s="50"/>
+    </row>
+    <row r="447" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G447" s="50"/>
+    </row>
+    <row r="448" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G448" s="50"/>
+    </row>
+    <row r="449" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G449" s="50"/>
+    </row>
+    <row r="450" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G450" s="50"/>
+    </row>
+    <row r="451" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G451" s="50"/>
+    </row>
+    <row r="452" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G452" s="50"/>
+    </row>
+    <row r="453" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G453" s="50"/>
+    </row>
+    <row r="454" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G454" s="50"/>
+    </row>
+    <row r="455" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G455" s="50"/>
+    </row>
+    <row r="456" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G456" s="50"/>
+    </row>
+    <row r="457" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G457" s="50"/>
+    </row>
+    <row r="458" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G458" s="50"/>
+    </row>
+    <row r="459" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G459" s="50"/>
+    </row>
+    <row r="460" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G460" s="50"/>
+    </row>
+    <row r="461" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G461" s="50"/>
+    </row>
+    <row r="462" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G462" s="50"/>
+    </row>
+    <row r="463" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G463" s="50"/>
+    </row>
+    <row r="464" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G464" s="50"/>
+    </row>
+    <row r="465" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G465" s="50"/>
+    </row>
+    <row r="466" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G466" s="50"/>
+    </row>
+    <row r="467" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G467" s="50"/>
+    </row>
+    <row r="468" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G468" s="50"/>
+    </row>
+    <row r="469" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G469" s="50"/>
+    </row>
+    <row r="470" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G470" s="50"/>
+    </row>
+    <row r="471" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G471" s="50"/>
+    </row>
+    <row r="472" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G472" s="50"/>
+    </row>
+    <row r="473" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G473" s="50"/>
+    </row>
+    <row r="474" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G474" s="50"/>
+    </row>
+    <row r="475" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G475" s="50"/>
+    </row>
+    <row r="476" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G476" s="50"/>
+    </row>
+    <row r="477" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G477" s="50"/>
+    </row>
+    <row r="478" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G478" s="50"/>
+    </row>
+    <row r="479" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G479" s="50"/>
+    </row>
+    <row r="480" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G480" s="50"/>
+    </row>
+    <row r="481" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G481" s="50"/>
+    </row>
+    <row r="482" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G482" s="50"/>
+    </row>
+    <row r="483" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G483" s="50"/>
+    </row>
+    <row r="484" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G484" s="50"/>
+    </row>
+    <row r="485" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G485" s="50"/>
+    </row>
+    <row r="486" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G486" s="50"/>
+    </row>
+    <row r="487" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G487" s="50"/>
+    </row>
+    <row r="488" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G488" s="50"/>
+    </row>
+    <row r="489" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G489" s="50"/>
+    </row>
+    <row r="490" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G490" s="50"/>
+    </row>
+    <row r="491" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G491" s="50"/>
+    </row>
+    <row r="492" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G492" s="50"/>
+    </row>
+    <row r="493" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G493" s="50"/>
+    </row>
+    <row r="494" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G494" s="50"/>
+    </row>
+    <row r="495" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G495" s="50"/>
+    </row>
+    <row r="496" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G496" s="50"/>
+    </row>
+    <row r="497" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G497" s="50"/>
+    </row>
+    <row r="498" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G498" s="50"/>
+    </row>
+    <row r="499" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G499" s="50"/>
+    </row>
+    <row r="500" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G500" s="50"/>
+    </row>
+    <row r="501" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G501" s="50"/>
+    </row>
+    <row r="502" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G502" s="50"/>
+    </row>
+    <row r="503" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G503" s="50"/>
+    </row>
+    <row r="504" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G504" s="50"/>
+    </row>
+    <row r="505" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G505" s="50"/>
+    </row>
+    <row r="506" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G506" s="50"/>
+    </row>
+    <row r="507" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G507" s="50"/>
+    </row>
+    <row r="508" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G508" s="50"/>
+    </row>
+    <row r="509" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G509" s="50"/>
+    </row>
+    <row r="510" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G510" s="50"/>
+    </row>
+    <row r="511" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G511" s="50"/>
+    </row>
+    <row r="512" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G512" s="50"/>
+    </row>
+    <row r="513" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G513" s="50"/>
+    </row>
+    <row r="514" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G514" s="50"/>
+    </row>
+    <row r="515" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G515" s="50"/>
+    </row>
+    <row r="516" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G516" s="50"/>
+    </row>
+    <row r="517" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G517" s="50"/>
+    </row>
+    <row r="518" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G518" s="50"/>
+    </row>
+    <row r="519" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G519" s="50"/>
+    </row>
+    <row r="520" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G520" s="50"/>
+    </row>
+    <row r="521" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G521" s="50"/>
+    </row>
+    <row r="522" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G522" s="50"/>
+    </row>
+    <row r="523" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G523" s="50"/>
+    </row>
+    <row r="524" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G524" s="50"/>
+    </row>
+    <row r="525" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G525" s="50"/>
+    </row>
+    <row r="526" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G526" s="50"/>
+    </row>
+    <row r="527" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G527" s="50"/>
+    </row>
+    <row r="528" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G528" s="50"/>
+    </row>
+    <row r="529" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G529" s="50"/>
+    </row>
+    <row r="530" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G530" s="50"/>
+    </row>
+    <row r="531" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G531" s="50"/>
+    </row>
+    <row r="532" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G532" s="50"/>
+    </row>
+    <row r="533" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G533" s="50"/>
+    </row>
+    <row r="534" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G534" s="50"/>
+    </row>
+    <row r="535" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G535" s="50"/>
+    </row>
+    <row r="536" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G536" s="50"/>
+    </row>
+    <row r="537" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G537" s="50"/>
+    </row>
+    <row r="538" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G538" s="50"/>
+    </row>
+    <row r="539" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G539" s="50"/>
+    </row>
+    <row r="540" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G540" s="50"/>
+    </row>
+    <row r="541" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G541" s="50"/>
+    </row>
+    <row r="542" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G542" s="50"/>
+    </row>
+    <row r="543" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G543" s="50"/>
+    </row>
+    <row r="544" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G544" s="50"/>
+    </row>
+    <row r="545" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G545" s="50"/>
+    </row>
+    <row r="546" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G546" s="50"/>
+    </row>
+    <row r="547" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G547" s="50"/>
+    </row>
+    <row r="548" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G548" s="50"/>
+    </row>
+    <row r="549" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G549" s="50"/>
+    </row>
+    <row r="550" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G550" s="50"/>
+    </row>
+    <row r="551" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G551" s="50"/>
+    </row>
+    <row r="552" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G552" s="50"/>
+    </row>
+    <row r="553" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G553" s="50"/>
+    </row>
+    <row r="554" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G554" s="50"/>
+    </row>
+    <row r="555" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G555" s="50"/>
+    </row>
+    <row r="556" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G556" s="50"/>
+    </row>
+    <row r="557" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G557" s="50"/>
+    </row>
+    <row r="558" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G558" s="50"/>
+    </row>
+    <row r="559" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G559" s="50"/>
+    </row>
+    <row r="560" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G560" s="50"/>
+    </row>
+    <row r="561" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G561" s="50"/>
+    </row>
+    <row r="562" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G562" s="50"/>
+    </row>
+    <row r="563" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G563" s="50"/>
+    </row>
+    <row r="564" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G564" s="50"/>
+    </row>
+    <row r="565" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G565" s="50"/>
+    </row>
+    <row r="566" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G566" s="50"/>
+    </row>
+    <row r="567" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G567" s="50"/>
+    </row>
+    <row r="568" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G568" s="50"/>
+    </row>
+    <row r="569" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G569" s="50"/>
+    </row>
+    <row r="570" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G570" s="50"/>
+    </row>
+    <row r="571" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G571" s="50"/>
+    </row>
+    <row r="572" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G572" s="50"/>
+    </row>
+    <row r="573" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G573" s="50"/>
+    </row>
+    <row r="574" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G574" s="50"/>
+    </row>
+    <row r="575" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G575" s="50"/>
+    </row>
+    <row r="576" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G576" s="50"/>
+    </row>
+    <row r="577" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G577" s="50"/>
+    </row>
+    <row r="578" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G578" s="50"/>
+    </row>
+    <row r="579" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G579" s="50"/>
+    </row>
+    <row r="580" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G580" s="50"/>
+    </row>
+    <row r="581" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G581" s="50"/>
+    </row>
+    <row r="582" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G582" s="50"/>
+    </row>
+    <row r="583" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G583" s="50"/>
+    </row>
+    <row r="584" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G584" s="50"/>
+    </row>
+    <row r="585" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G585" s="50"/>
+    </row>
+    <row r="586" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G586" s="50"/>
+    </row>
+    <row r="587" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G587" s="50"/>
+    </row>
+    <row r="588" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G588" s="50"/>
+    </row>
+    <row r="589" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G589" s="50"/>
+    </row>
+    <row r="590" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G590" s="50"/>
+    </row>
+    <row r="591" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G591" s="50"/>
+    </row>
+    <row r="592" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G592" s="50"/>
+    </row>
+    <row r="593" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G593" s="50"/>
+    </row>
+    <row r="594" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G594" s="50"/>
+    </row>
+    <row r="595" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G595" s="50"/>
+    </row>
+    <row r="596" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G596" s="50"/>
+    </row>
+    <row r="597" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G597" s="50"/>
+    </row>
+    <row r="598" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G598" s="50"/>
+    </row>
+    <row r="599" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G599" s="50"/>
+    </row>
+    <row r="600" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G600" s="50"/>
+    </row>
+    <row r="601" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G601" s="50"/>
+    </row>
+    <row r="602" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G602" s="50"/>
+    </row>
+    <row r="603" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G603" s="50"/>
+    </row>
+    <row r="604" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G604" s="50"/>
+    </row>
+    <row r="605" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G605" s="50"/>
+    </row>
+    <row r="606" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G606" s="50"/>
+    </row>
+    <row r="607" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G607" s="50"/>
+    </row>
+    <row r="608" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G608" s="50"/>
+    </row>
+    <row r="609" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G609" s="50"/>
+    </row>
+    <row r="610" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G610" s="50"/>
+    </row>
+    <row r="611" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G611" s="50"/>
+    </row>
+    <row r="612" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G612" s="50"/>
+    </row>
+    <row r="613" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G613" s="50"/>
+    </row>
+    <row r="614" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G614" s="50"/>
+    </row>
+    <row r="615" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G615" s="50"/>
+    </row>
+    <row r="616" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G616" s="50"/>
+    </row>
+    <row r="617" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G617" s="50"/>
+    </row>
+    <row r="618" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G618" s="50"/>
+    </row>
+    <row r="619" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G619" s="50"/>
+    </row>
+    <row r="620" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G620" s="50"/>
+    </row>
+    <row r="621" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G621" s="50"/>
+    </row>
+    <row r="622" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G622" s="50"/>
+    </row>
+    <row r="623" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G623" s="50"/>
+    </row>
+    <row r="624" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G624" s="50"/>
+    </row>
+    <row r="625" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G625" s="50"/>
+    </row>
+    <row r="626" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G626" s="50"/>
+    </row>
+    <row r="627" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G627" s="50"/>
+    </row>
+    <row r="628" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G628" s="50"/>
+    </row>
+    <row r="629" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G629" s="50"/>
+    </row>
+    <row r="630" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G630" s="50"/>
+    </row>
+    <row r="631" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G631" s="50"/>
+    </row>
+    <row r="632" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G632" s="50"/>
+    </row>
+    <row r="633" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G633" s="50"/>
+    </row>
+    <row r="634" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G634" s="50"/>
+    </row>
+    <row r="635" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G635" s="50"/>
+    </row>
+    <row r="636" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G636" s="50"/>
+    </row>
+    <row r="637" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G637" s="50"/>
+    </row>
+    <row r="638" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G638" s="50"/>
+    </row>
+    <row r="639" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G639" s="50"/>
+    </row>
+    <row r="640" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G640" s="50"/>
+    </row>
+    <row r="641" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G641" s="50"/>
+    </row>
+    <row r="642" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G642" s="50"/>
+    </row>
+    <row r="643" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G643" s="50"/>
+    </row>
+    <row r="644" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G644" s="50"/>
+    </row>
+    <row r="645" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G645" s="50"/>
+    </row>
+    <row r="646" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G646" s="50"/>
+    </row>
+    <row r="647" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G647" s="50"/>
+    </row>
+    <row r="648" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G648" s="50"/>
+    </row>
+    <row r="649" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G649" s="50"/>
+    </row>
+    <row r="650" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G650" s="50"/>
+    </row>
+    <row r="651" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G651" s="50"/>
+    </row>
+    <row r="652" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G652" s="50"/>
+    </row>
+    <row r="653" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G653" s="50"/>
+    </row>
+    <row r="654" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G654" s="50"/>
+    </row>
+    <row r="655" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G655" s="50"/>
+    </row>
+    <row r="656" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G656" s="50"/>
+    </row>
+    <row r="657" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G657" s="50"/>
+    </row>
+    <row r="658" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G658" s="50"/>
+    </row>
+    <row r="659" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G659" s="50"/>
+    </row>
+    <row r="660" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G660" s="50"/>
+    </row>
+    <row r="661" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G661" s="50"/>
+    </row>
+    <row r="662" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G662" s="50"/>
+    </row>
+    <row r="663" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G663" s="50"/>
+    </row>
+    <row r="664" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G664" s="50"/>
+    </row>
+    <row r="665" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G665" s="50"/>
+    </row>
+    <row r="666" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G666" s="50"/>
+    </row>
+    <row r="667" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G667" s="50"/>
+    </row>
+    <row r="668" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G668" s="50"/>
+    </row>
+    <row r="669" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G669" s="50"/>
+    </row>
+    <row r="670" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G670" s="50"/>
+    </row>
+    <row r="671" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G671" s="50"/>
+    </row>
+    <row r="672" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G672" s="50"/>
+    </row>
+    <row r="673" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G673" s="50"/>
+    </row>
+    <row r="674" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G674" s="50"/>
+    </row>
+    <row r="675" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G675" s="50"/>
+    </row>
+    <row r="676" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G676" s="50"/>
+    </row>
+    <row r="677" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G677" s="50"/>
+    </row>
+    <row r="678" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G678" s="50"/>
+    </row>
+    <row r="679" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G679" s="50"/>
+    </row>
+    <row r="680" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G680" s="50"/>
+    </row>
+    <row r="681" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G681" s="50"/>
+    </row>
+    <row r="682" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G682" s="50"/>
+    </row>
+    <row r="683" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G683" s="50"/>
+    </row>
+    <row r="684" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G684" s="50"/>
+    </row>
+    <row r="685" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G685" s="50"/>
+    </row>
+    <row r="686" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G686" s="50"/>
+    </row>
+    <row r="687" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G687" s="50"/>
+    </row>
+    <row r="688" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G688" s="50"/>
+    </row>
+    <row r="689" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G689" s="50"/>
+    </row>
+    <row r="690" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G690" s="50"/>
+    </row>
+    <row r="691" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G691" s="50"/>
+    </row>
+    <row r="692" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G692" s="50"/>
+    </row>
+    <row r="693" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G693" s="50"/>
+    </row>
+    <row r="694" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G694" s="50"/>
+    </row>
+    <row r="695" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G695" s="50"/>
+    </row>
+    <row r="696" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G696" s="50"/>
+    </row>
+    <row r="697" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G697" s="50"/>
+    </row>
+    <row r="698" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G698" s="50"/>
+    </row>
+    <row r="699" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G699" s="50"/>
+    </row>
+    <row r="700" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G700" s="50"/>
+    </row>
+    <row r="701" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G701" s="50"/>
+    </row>
+    <row r="702" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G702" s="50"/>
+    </row>
+    <row r="703" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G703" s="50"/>
+    </row>
+    <row r="704" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G704" s="50"/>
+    </row>
+    <row r="705" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G705" s="50"/>
+    </row>
+    <row r="706" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G706" s="50"/>
+    </row>
+    <row r="707" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G707" s="50"/>
+    </row>
+    <row r="708" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G708" s="50"/>
+    </row>
+    <row r="709" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G709" s="50"/>
+    </row>
+    <row r="710" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G710" s="50"/>
+    </row>
+    <row r="711" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G711" s="50"/>
+    </row>
+    <row r="712" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G712" s="50"/>
+    </row>
+    <row r="713" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G713" s="50"/>
+    </row>
+    <row r="714" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G714" s="50"/>
+    </row>
+    <row r="715" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G715" s="50"/>
+    </row>
+    <row r="716" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G716" s="50"/>
+    </row>
+    <row r="717" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G717" s="50"/>
+    </row>
+    <row r="718" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G718" s="50"/>
+    </row>
+    <row r="719" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G719" s="50"/>
+    </row>
+    <row r="720" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G720" s="50"/>
+    </row>
+    <row r="721" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G721" s="50"/>
+    </row>
+    <row r="722" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G722" s="50"/>
+    </row>
+    <row r="723" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G723" s="50"/>
+    </row>
+    <row r="724" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G724" s="50"/>
+    </row>
+    <row r="725" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G725" s="50"/>
+    </row>
+    <row r="726" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G726" s="50"/>
+    </row>
+    <row r="727" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G727" s="50"/>
+    </row>
+    <row r="728" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G728" s="50"/>
+    </row>
+    <row r="729" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G729" s="50"/>
+    </row>
+    <row r="730" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G730" s="50"/>
+    </row>
+    <row r="731" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G731" s="50"/>
+    </row>
+    <row r="732" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G732" s="50"/>
+    </row>
+    <row r="733" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G733" s="50"/>
+    </row>
+    <row r="734" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G734" s="50"/>
+    </row>
+    <row r="735" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G735" s="50"/>
+    </row>
+    <row r="736" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G736" s="50"/>
+    </row>
+    <row r="737" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G737" s="50"/>
+    </row>
+    <row r="738" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G738" s="50"/>
+    </row>
+    <row r="739" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G739" s="50"/>
+    </row>
+    <row r="740" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G740" s="50"/>
+    </row>
+    <row r="741" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G741" s="50"/>
+    </row>
+    <row r="742" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G742" s="50"/>
+    </row>
+    <row r="743" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G743" s="50"/>
+    </row>
+    <row r="744" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G744" s="50"/>
+    </row>
+    <row r="745" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G745" s="50"/>
+    </row>
+    <row r="746" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G746" s="50"/>
+    </row>
+    <row r="747" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G747" s="50"/>
+    </row>
+    <row r="748" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G748" s="50"/>
+    </row>
+    <row r="749" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G749" s="50"/>
+    </row>
+    <row r="750" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G750" s="50"/>
+    </row>
+    <row r="751" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G751" s="50"/>
+    </row>
+    <row r="752" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G752" s="50"/>
+    </row>
+    <row r="753" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G753" s="50"/>
+    </row>
+    <row r="754" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G754" s="50"/>
+    </row>
+    <row r="755" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G755" s="50"/>
+    </row>
+    <row r="756" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G756" s="50"/>
+    </row>
+    <row r="757" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G757" s="50"/>
+    </row>
+    <row r="758" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G758" s="50"/>
+    </row>
+    <row r="759" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G759" s="50"/>
+    </row>
+    <row r="760" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G760" s="50"/>
+    </row>
+    <row r="761" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G761" s="50"/>
+    </row>
+    <row r="762" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G762" s="50"/>
+    </row>
+    <row r="763" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G763" s="50"/>
+    </row>
+    <row r="764" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G764" s="50"/>
+    </row>
+    <row r="765" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G765" s="50"/>
+    </row>
+    <row r="766" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G766" s="50"/>
+    </row>
+    <row r="767" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G767" s="50"/>
+    </row>
+    <row r="768" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G768" s="50"/>
+    </row>
+    <row r="769" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G769" s="50"/>
+    </row>
+    <row r="770" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G770" s="50"/>
+    </row>
+    <row r="771" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G771" s="50"/>
+    </row>
+    <row r="772" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G772" s="50"/>
+    </row>
+    <row r="773" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G773" s="50"/>
+    </row>
+    <row r="774" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G774" s="50"/>
+    </row>
+    <row r="775" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G775" s="50"/>
+    </row>
+    <row r="776" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G776" s="50"/>
+    </row>
+    <row r="777" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G777" s="50"/>
+    </row>
+    <row r="778" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G778" s="50"/>
+    </row>
+    <row r="779" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G779" s="50"/>
+    </row>
+    <row r="780" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G780" s="50"/>
+    </row>
+    <row r="781" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G781" s="50"/>
+    </row>
+    <row r="782" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G782" s="50"/>
+    </row>
+    <row r="783" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G783" s="50"/>
+    </row>
+    <row r="784" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G784" s="50"/>
+    </row>
+    <row r="785" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G785" s="50"/>
+    </row>
+    <row r="786" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G786" s="50"/>
+    </row>
+    <row r="787" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G787" s="50"/>
+    </row>
+    <row r="788" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G788" s="50"/>
+    </row>
+    <row r="789" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G789" s="50"/>
+    </row>
+    <row r="790" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G790" s="50"/>
+    </row>
+    <row r="791" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G791" s="50"/>
+    </row>
+    <row r="792" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G792" s="50"/>
+    </row>
+    <row r="793" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G793" s="50"/>
+    </row>
+    <row r="794" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G794" s="50"/>
+    </row>
+    <row r="795" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G795" s="50"/>
+    </row>
+    <row r="796" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G796" s="50"/>
+    </row>
+    <row r="797" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G797" s="50"/>
+    </row>
+    <row r="798" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G798" s="50"/>
+    </row>
+    <row r="799" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G799" s="50"/>
+    </row>
+    <row r="800" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G800" s="50"/>
+    </row>
+    <row r="801" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G801" s="50"/>
+    </row>
+    <row r="802" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G802" s="50"/>
+    </row>
+    <row r="803" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G803" s="50"/>
+    </row>
+    <row r="804" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G804" s="50"/>
+    </row>
+    <row r="805" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G805" s="50"/>
+    </row>
+    <row r="806" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G806" s="50"/>
+    </row>
+    <row r="807" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G807" s="50"/>
+    </row>
+    <row r="808" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G808" s="50"/>
+    </row>
+    <row r="809" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G809" s="50"/>
+    </row>
+    <row r="810" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G810" s="50"/>
+    </row>
+    <row r="811" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G811" s="50"/>
+    </row>
+    <row r="812" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G812" s="50"/>
+    </row>
+    <row r="813" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G813" s="50"/>
+    </row>
+    <row r="814" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G814" s="50"/>
+    </row>
+    <row r="815" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G815" s="50"/>
+    </row>
+    <row r="816" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G816" s="50"/>
+    </row>
+    <row r="817" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G817" s="50"/>
+    </row>
+    <row r="818" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G818" s="50"/>
+    </row>
+    <row r="819" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G819" s="50"/>
+    </row>
+    <row r="820" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G820" s="50"/>
+    </row>
+    <row r="821" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G821" s="50"/>
+    </row>
+    <row r="822" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G822" s="50"/>
+    </row>
+    <row r="823" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G823" s="50"/>
+    </row>
+    <row r="824" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G824" s="50"/>
+    </row>
+    <row r="825" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G825" s="50"/>
+    </row>
+    <row r="826" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G826" s="50"/>
+    </row>
+    <row r="827" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G827" s="50"/>
+    </row>
+    <row r="828" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G828" s="50"/>
+    </row>
+    <row r="829" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G829" s="50"/>
+    </row>
+    <row r="830" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G830" s="50"/>
+    </row>
+    <row r="831" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G831" s="50"/>
+    </row>
+    <row r="832" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G832" s="50"/>
+    </row>
+    <row r="833" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G833" s="50"/>
+    </row>
+    <row r="834" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G834" s="50"/>
+    </row>
+    <row r="835" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G835" s="50"/>
+    </row>
+    <row r="836" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G836" s="50"/>
+    </row>
+    <row r="837" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G837" s="50"/>
+    </row>
+    <row r="838" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G838" s="50"/>
+    </row>
+    <row r="839" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G839" s="50"/>
+    </row>
+    <row r="840" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G840" s="50"/>
+    </row>
+    <row r="841" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G841" s="50"/>
+    </row>
+    <row r="842" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G842" s="50"/>
+    </row>
+    <row r="843" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G843" s="50"/>
+    </row>
+    <row r="844" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G844" s="50"/>
+    </row>
+    <row r="845" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G845" s="50"/>
+    </row>
+    <row r="846" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G846" s="50"/>
+    </row>
+    <row r="847" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G847" s="50"/>
+    </row>
+    <row r="848" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G848" s="50"/>
+    </row>
+    <row r="849" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G849" s="50"/>
+    </row>
+    <row r="850" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G850" s="50"/>
+    </row>
+    <row r="851" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G851" s="50"/>
+    </row>
+    <row r="852" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G852" s="50"/>
+    </row>
+    <row r="853" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G853" s="50"/>
+    </row>
+    <row r="854" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G854" s="50"/>
+    </row>
+    <row r="855" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G855" s="50"/>
+    </row>
+    <row r="856" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G856" s="50"/>
+    </row>
+    <row r="857" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G857" s="50"/>
+    </row>
+    <row r="858" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G858" s="50"/>
+    </row>
+    <row r="859" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G859" s="50"/>
+    </row>
+    <row r="860" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G860" s="50"/>
+    </row>
+    <row r="861" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G861" s="50"/>
+    </row>
+    <row r="862" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G862" s="50"/>
+    </row>
+    <row r="863" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G863" s="50"/>
+    </row>
+    <row r="864" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G864" s="50"/>
+    </row>
+    <row r="865" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G865" s="50"/>
+    </row>
+    <row r="866" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G866" s="50"/>
+    </row>
+    <row r="867" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G867" s="50"/>
+    </row>
+    <row r="868" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G868" s="50"/>
+    </row>
+    <row r="869" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G869" s="50"/>
+    </row>
+    <row r="870" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G870" s="50"/>
+    </row>
+    <row r="871" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G871" s="50"/>
+    </row>
+    <row r="872" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G872" s="50"/>
+    </row>
+    <row r="873" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G873" s="50"/>
+    </row>
+    <row r="874" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G874" s="50"/>
+    </row>
+    <row r="875" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G875" s="50"/>
+    </row>
+    <row r="876" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G876" s="50"/>
+    </row>
+    <row r="877" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G877" s="50"/>
+    </row>
+    <row r="878" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G878" s="50"/>
+    </row>
+    <row r="879" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G879" s="50"/>
+    </row>
+    <row r="880" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G880" s="50"/>
+    </row>
+    <row r="881" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G881" s="50"/>
+    </row>
+    <row r="882" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G882" s="50"/>
+    </row>
+    <row r="883" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G883" s="50"/>
+    </row>
+    <row r="884" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G884" s="50"/>
+    </row>
+    <row r="885" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G885" s="50"/>
+    </row>
+    <row r="886" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G886" s="50"/>
+    </row>
+    <row r="887" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G887" s="50"/>
+    </row>
+    <row r="888" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G888" s="50"/>
+    </row>
+    <row r="889" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G889" s="50"/>
+    </row>
+    <row r="890" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G890" s="50"/>
+    </row>
+    <row r="891" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G891" s="50"/>
+    </row>
+    <row r="892" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G892" s="50"/>
+    </row>
+    <row r="893" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G893" s="50"/>
+    </row>
+    <row r="894" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G894" s="50"/>
+    </row>
+    <row r="895" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G895" s="50"/>
+    </row>
+    <row r="896" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G896" s="50"/>
+    </row>
+    <row r="897" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G897" s="50"/>
+    </row>
+    <row r="898" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G898" s="50"/>
+    </row>
+    <row r="899" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G899" s="50"/>
+    </row>
+    <row r="900" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G900" s="50"/>
+    </row>
+    <row r="901" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G901" s="50"/>
+    </row>
+    <row r="902" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G902" s="50"/>
+    </row>
+    <row r="903" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G903" s="50"/>
+    </row>
+    <row r="904" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G904" s="50"/>
+    </row>
+    <row r="905" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G905" s="50"/>
+    </row>
+    <row r="906" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G906" s="50"/>
+    </row>
+    <row r="907" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G907" s="50"/>
+    </row>
+    <row r="908" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G908" s="50"/>
+    </row>
+    <row r="909" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G909" s="50"/>
+    </row>
+    <row r="910" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G910" s="50"/>
+    </row>
+    <row r="911" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G911" s="50"/>
+    </row>
+    <row r="912" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G912" s="50"/>
+    </row>
+    <row r="913" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G913" s="50"/>
+    </row>
+    <row r="914" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G914" s="50"/>
+    </row>
+    <row r="915" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G915" s="50"/>
+    </row>
+    <row r="916" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G916" s="50"/>
+    </row>
+    <row r="917" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G917" s="50"/>
+    </row>
+    <row r="918" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G918" s="50"/>
+    </row>
+    <row r="919" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G919" s="50"/>
+    </row>
+    <row r="920" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G920" s="50"/>
+    </row>
+    <row r="921" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G921" s="50"/>
+    </row>
+    <row r="922" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G922" s="50"/>
+    </row>
+    <row r="923" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G923" s="50"/>
+    </row>
+    <row r="924" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G924" s="50"/>
+    </row>
+    <row r="925" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G925" s="50"/>
+    </row>
+    <row r="926" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G926" s="50"/>
+    </row>
+    <row r="927" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G927" s="50"/>
+    </row>
+    <row r="928" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G928" s="50"/>
+    </row>
+    <row r="929" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G929" s="50"/>
+    </row>
+    <row r="930" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G930" s="50"/>
+    </row>
+    <row r="931" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G931" s="50"/>
+    </row>
+    <row r="932" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G932" s="50"/>
+    </row>
+    <row r="933" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G933" s="50"/>
+    </row>
+    <row r="934" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G934" s="50"/>
+    </row>
+    <row r="935" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G935" s="50"/>
+    </row>
+    <row r="936" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G936" s="50"/>
+    </row>
+    <row r="937" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G937" s="50"/>
+    </row>
+    <row r="938" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G938" s="50"/>
+    </row>
+    <row r="939" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G939" s="50"/>
+    </row>
+    <row r="940" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G940" s="50"/>
+    </row>
+    <row r="941" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G941" s="50"/>
+    </row>
+    <row r="942" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G942" s="50"/>
+    </row>
+    <row r="943" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G943" s="50"/>
+    </row>
+    <row r="944" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G944" s="50"/>
+    </row>
+    <row r="945" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G945" s="50"/>
+    </row>
+    <row r="946" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G946" s="50"/>
+    </row>
+    <row r="947" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G947" s="50"/>
+    </row>
+    <row r="948" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G948" s="50"/>
+    </row>
+    <row r="949" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G949" s="50"/>
+    </row>
+    <row r="950" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G950" s="50"/>
+    </row>
+    <row r="951" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G951" s="50"/>
+    </row>
+    <row r="952" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G952" s="50"/>
+    </row>
+    <row r="953" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G953" s="50"/>
+    </row>
+    <row r="954" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G954" s="50"/>
+    </row>
+    <row r="955" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G955" s="50"/>
+    </row>
+    <row r="956" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G956" s="50"/>
+    </row>
+    <row r="957" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G957" s="50"/>
+    </row>
+    <row r="958" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G958" s="50"/>
+    </row>
+    <row r="959" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G959" s="50"/>
+    </row>
+    <row r="960" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G960" s="50"/>
+    </row>
+    <row r="961" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G961" s="50"/>
+    </row>
+    <row r="962" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G962" s="50"/>
+    </row>
+    <row r="963" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G963" s="50"/>
+    </row>
+    <row r="964" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G964" s="50"/>
+    </row>
+    <row r="965" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G965" s="50"/>
+    </row>
+    <row r="966" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G966" s="50"/>
+    </row>
+    <row r="967" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G967" s="50"/>
+    </row>
+    <row r="968" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G968" s="50"/>
+    </row>
+    <row r="969" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G969" s="50"/>
+    </row>
+    <row r="970" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G970" s="50"/>
+    </row>
+    <row r="971" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G971" s="50"/>
+    </row>
+    <row r="972" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G972" s="50"/>
+    </row>
+    <row r="973" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G973" s="50"/>
+    </row>
+    <row r="974" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G974" s="50"/>
+    </row>
+    <row r="975" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G975" s="50"/>
+    </row>
+    <row r="976" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G976" s="50"/>
+    </row>
+    <row r="977" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G977" s="50"/>
+    </row>
+    <row r="978" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G978" s="50"/>
+    </row>
+    <row r="979" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G979" s="50"/>
+    </row>
+    <row r="980" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G980" s="50"/>
+    </row>
+    <row r="981" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G981" s="50"/>
+    </row>
+    <row r="982" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G982" s="50"/>
+    </row>
+    <row r="983" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G983" s="50"/>
+    </row>
+    <row r="984" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G984" s="50"/>
+    </row>
+    <row r="985" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G985" s="50"/>
+    </row>
+    <row r="986" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G986" s="50"/>
+    </row>
+    <row r="987" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G987" s="50"/>
+    </row>
+    <row r="988" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G988" s="50"/>
+    </row>
+    <row r="989" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G989" s="50"/>
+    </row>
+    <row r="990" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G990" s="50"/>
+    </row>
+    <row r="991" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G991" s="50"/>
+    </row>
+    <row r="992" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G992" s="50"/>
+    </row>
+    <row r="993" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G993" s="50"/>
+    </row>
+    <row r="994" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G994" s="50"/>
+    </row>
+    <row r="995" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G995" s="50"/>
+    </row>
+    <row r="996" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G996" s="50"/>
+    </row>
+    <row r="997" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G997" s="50"/>
+    </row>
+    <row r="998" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G998" s="50"/>
+    </row>
+    <row r="999" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G999" s="50"/>
+    </row>
+    <row r="1000" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1000" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
@@ -5202,26 +7961,26 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="42">
-        <v>1</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="42" t="s">
+      <c r="B13" s="41">
+        <v>1</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5478,26 +8237,26 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="42">
-        <v>1</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="41">
+        <v>1</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5800,26 +8559,26 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+    <row r="39" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="42">
-        <v>1</v>
-      </c>
-      <c r="C39" s="42" t="s">
+      <c r="B39" s="41">
+        <v>1</v>
+      </c>
+      <c r="C39" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="41" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5971,7 +8730,7 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="40" t="s">
         <v>137</v>
       </c>
       <c r="E46" t="s">
@@ -5984,26 +8743,26 @@
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+    <row r="47" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="42">
-        <v>1</v>
-      </c>
-      <c r="C47" s="42" t="s">
+      <c r="B47" s="41">
+        <v>1</v>
+      </c>
+      <c r="C47" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="41" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6191,26 +8950,26 @@
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+    <row r="56" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="42">
-        <v>1</v>
-      </c>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="41">
+        <v>1</v>
+      </c>
+      <c r="C56" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6467,26 +9226,26 @@
         <v>409</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42" t="s">
+    <row r="68" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="B68" s="42">
-        <v>1</v>
-      </c>
-      <c r="C68" s="42" t="s">
+      <c r="B68" s="41">
+        <v>1</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="41" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6835,26 +9594,26 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+    <row r="84" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="42">
-        <v>1</v>
-      </c>
-      <c r="C84" s="42" t="s">
+      <c r="B84" s="41">
+        <v>1</v>
+      </c>
+      <c r="C84" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="42" t="s">
+      <c r="E84" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="F84" s="42" t="s">
+      <c r="F84" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="G84" s="42" t="s">
+      <c r="G84" s="41" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7134,26 +9893,26 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42" t="s">
+    <row r="97" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="42">
-        <v>1</v>
-      </c>
-      <c r="C97" s="42" t="s">
+      <c r="B97" s="41">
+        <v>1</v>
+      </c>
+      <c r="C97" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="F97" s="42" t="s">
+      <c r="F97" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="G97" s="42" t="s">
+      <c r="G97" s="41" t="s">
         <v>483</v>
       </c>
     </row>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7A0D9-6BA8-4174-B0C2-9B5A587A3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10BB0E5-828A-41CE-B640-726894E6BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
     <author>tc={9405061E-D2A3-46CD-8C4F-993C42FAC7B3}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     UUID lis to be completed</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{44FBD45B-D55F-48E4-A961-45DAC028A895}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{44FBD45B-D55F-48E4-A961-45DAC028A895}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     Only the fields having the word "Yes" are considered to be part of the ERMS</t>
       </text>
     </comment>
-    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
+    <comment ref="D16" authorId="2" shapeId="0" xr:uid="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="C33" authorId="3" shapeId="0" xr:uid="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
+    <comment ref="D33" authorId="3" shapeId="0" xr:uid="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="C47" authorId="4" shapeId="0" xr:uid="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
+    <comment ref="D47" authorId="4" shapeId="0" xr:uid="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +95,7 @@
     'to' in lowercase</t>
       </text>
     </comment>
-    <comment ref="C64" authorId="5" shapeId="0" xr:uid="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
+    <comment ref="D64" authorId="5" shapeId="0" xr:uid="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="B65" authorId="6" shapeId="0" xr:uid="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
+    <comment ref="C65" authorId="6" shapeId="0" xr:uid="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +111,7 @@
     Level 1 is same as level2</t>
       </text>
     </comment>
-    <comment ref="C69" authorId="7" shapeId="0" xr:uid="{16194538-CB3E-49C2-9323-5876F882DD9F}">
+    <comment ref="D69" authorId="7" shapeId="0" xr:uid="{16194538-CB3E-49C2-9323-5876F882DD9F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +119,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="C70" authorId="8" shapeId="0" xr:uid="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
+    <comment ref="D70" authorId="8" shapeId="0" xr:uid="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +127,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="C72" authorId="9" shapeId="0" xr:uid="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
+    <comment ref="D72" authorId="9" shapeId="0" xr:uid="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +135,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="C74" authorId="10" shapeId="0" xr:uid="{C9986EEB-7292-4796-A76C-FDF55421398C}">
+    <comment ref="D74" authorId="10" shapeId="0" xr:uid="{C9986EEB-7292-4796-A76C-FDF55421398C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
     A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
-    <comment ref="C80" authorId="11" shapeId="0" xr:uid="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
+    <comment ref="D80" authorId="11" shapeId="0" xr:uid="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="588">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -1929,6 +1929,9 @@
   </si>
   <si>
     <t>Depreciated</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2229,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2347,20 +2350,18 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -2709,40 +2710,40 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2023-10-11T14:40:48.73" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}">
+  <threadedComment ref="E1" dT="2023-10-11T14:40:48.73" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}">
     <text>UUID lis to be completed</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2023-10-11T14:40:33.45" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{44FBD45B-D55F-48E4-A961-45DAC028A895}">
+  <threadedComment ref="F1" dT="2023-10-11T14:40:33.45" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{44FBD45B-D55F-48E4-A961-45DAC028A895}">
     <text>Only the fields having the word "Yes" are considered to be part of the ERMS</text>
   </threadedComment>
-  <threadedComment ref="C16" dT="2023-10-31T17:23:29.89" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
+  <threadedComment ref="D16" dT="2023-10-31T17:23:29.89" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="C33" dT="2023-10-31T17:38:35.77" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
+  <threadedComment ref="D33" dT="2023-10-31T17:38:35.77" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="C47" dT="2023-10-31T18:01:06.67" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
+  <threadedComment ref="D47" dT="2023-10-31T18:01:06.67" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
     <text>'to' in lowercase</text>
   </threadedComment>
-  <threadedComment ref="C64" dT="2023-10-31T18:09:09.67" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
+  <threadedComment ref="D64" dT="2023-10-31T18:09:09.67" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="B65" dT="2023-10-02T10:02:40.03" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
+  <threadedComment ref="C65" dT="2023-10-02T10:02:40.03" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
     <text>Level 1 is same as level2</text>
   </threadedComment>
-  <threadedComment ref="C69" dT="2023-10-31T18:14:19.54" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{16194538-CB3E-49C2-9323-5876F882DD9F}">
+  <threadedComment ref="D69" dT="2023-10-31T18:14:19.54" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{16194538-CB3E-49C2-9323-5876F882DD9F}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="C70" dT="2023-10-31T18:14:41.85" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
+  <threadedComment ref="D70" dT="2023-10-31T18:14:41.85" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="C72" dT="2023-10-31T18:16:49.34" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
+  <threadedComment ref="D72" dT="2023-10-31T18:16:49.34" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="C74" dT="2023-10-31T18:18:43.01" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{C9986EEB-7292-4796-A76C-FDF55421398C}">
+  <threadedComment ref="D74" dT="2023-10-31T18:18:43.01" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{C9986EEB-7292-4796-A76C-FDF55421398C}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
-  <threadedComment ref="C80" dT="2023-10-31T18:20:22.47" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
+  <threadedComment ref="D80" dT="2023-10-31T18:20:22.47" personId="{74C007A8-CA36-4AA9-9FEC-D76DE284ACA2}" id="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
     <text>A trailing space that need to be removed first in the RM, then here</text>
   </threadedComment>
 </ThreadedComments>
@@ -2750,4915 +2751,5212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="255.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="42" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="42"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="I2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="I3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="H4" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="I4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="H5" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="H6" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="I6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="F7" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="I7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="I8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="E9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="I9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="I10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="F11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="H11" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="I11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>1</v>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="H12" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="I12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="F13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="H13" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="I13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="E14" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="H14" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="I14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F15" t="s">
         <v>240</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="I15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="E16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="F16" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="H16" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="I16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="F17" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="H17" s="45" t="s">
         <v>505</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="I17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="E18" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="H18" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="I18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="E19" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="H19" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="I19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>2</v>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="E20" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="F20" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="H20" s="45" t="s">
         <v>508</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="I20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>2</v>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="E21" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="H21" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="I21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>2</v>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="E22" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="F22" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="H22" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="I22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>2</v>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="E23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="F23" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="H23" s="45" t="s">
         <v>511</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="I23" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>3</v>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="E24" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="F24" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="H24" s="45" t="s">
         <v>512</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="I24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>3</v>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="E25" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="H25" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="I25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>3</v>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="E26" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="F26" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="H26" s="45" t="s">
         <v>514</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="I26" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>3</v>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="E27" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="F27" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="I27" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>3</v>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="E28" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="H28" s="45" t="s">
         <v>516</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="I28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="E29" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="H29" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="I29" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="E30" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="H30" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="I30" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="C31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="E31" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="H31" s="45" t="s">
         <v>519</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="I31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="E32" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="H32" s="45" t="s">
         <v>520</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="I32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
-        <v>4</v>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="E33" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="F33" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="H33" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="I33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
-        <v>4</v>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="E34" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="F34" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="H34" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="I34" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="F35" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="H35" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="I35" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="E36" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="F36" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="H36" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="I36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="E37" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="F37" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="H37" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="I37" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="E38" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="F38" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="H38" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="I38" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="E39" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="H39" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="I39" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="E40" t="s">
         <v>193</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="H40" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="I40" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="D41" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="E41" t="s">
         <v>194</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="H41" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="I41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="E42" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="H42" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="I42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="E43" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="H43" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="I43" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="E44" t="s">
         <v>135</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="H44" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="I44" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="E45" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="H45" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="I45" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="E46" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="H46" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="I46" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="E47" t="s">
         <v>197</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="H47" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="I47" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="C48" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="E48" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="F48" t="s">
         <v>112</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="H48" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="H48" s="42" t="s">
+      <c r="I48" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="D49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="E49" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="F49" t="s">
         <v>109</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="H49" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="I49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="E50" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="F50" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="H50" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="H50" s="42" t="s">
+      <c r="I50" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="E51" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="F51" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="H51" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="H51" s="42" t="s">
+      <c r="I51" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="C52" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="E52" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="F52" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="H52" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="I52" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="D53" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="E53" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="F53" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="H53" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="I53" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="C54" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="E54" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="F54" t="s">
         <v>106</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="H54" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="H54" s="42" t="s">
+      <c r="I54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="D55" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="E55" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="F55" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="H55" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="H55" s="42" t="s">
+      <c r="I55" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="E56" t="s">
         <v>203</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="G56" t="s">
         <v>205</v>
       </c>
-      <c r="G56" s="46" t="s">
+      <c r="H56" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="I56" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="E57" t="s">
         <v>203</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="G57" t="s">
         <v>205</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="H57" s="45" t="s">
         <v>545</v>
       </c>
-      <c r="H57" s="42" t="s">
+      <c r="I57" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="E58" t="s">
         <v>144</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="H58" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="H58" s="42" t="s">
+      <c r="I58" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="E59" t="s">
         <v>145</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="H59" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="H59" s="42" t="s">
+      <c r="I59" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="D60" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="E60" t="s">
         <v>146</v>
       </c>
-      <c r="G60" s="48" t="s">
+      <c r="H60" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="H60" s="42" t="s">
+      <c r="I60" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="D61" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="E61" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="H61" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="H61" s="42" t="s">
+      <c r="I61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="D62" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="E62" t="s">
         <v>148</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="H62" s="45" t="s">
         <v>550</v>
       </c>
-      <c r="H62" s="42" t="s">
+      <c r="I62" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="E63" t="s">
         <v>149</v>
       </c>
-      <c r="G63" s="46" t="s">
+      <c r="H63" s="45" t="s">
         <v>551</v>
       </c>
-      <c r="H63" s="42" t="s">
+      <c r="I63" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19" t="s">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="C64" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="E64" t="s">
         <v>206</v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="H64" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="H64" s="42" t="s">
+      <c r="I64" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>4</v>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="E65" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="F65" t="s">
         <v>110</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="H65" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="I65" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="23" t="s">
-        <v>5</v>
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="E66" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="F66" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="H66" s="45" t="s">
         <v>554</v>
       </c>
-      <c r="H66" s="42" t="s">
+      <c r="I66" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="23" t="s">
-        <v>5</v>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="E67" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="F67" t="s">
         <v>110</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="H67" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="H67" s="42" t="s">
+      <c r="I67" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="23" t="s">
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="D68" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="E68" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="F68" t="s">
         <v>113</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="H68" s="45" t="s">
         <v>556</v>
       </c>
-      <c r="H68" s="42" t="s">
+      <c r="I68" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="23" t="s">
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="D69" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="E69" t="s">
         <v>212</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="F69" t="s">
         <v>113</v>
       </c>
-      <c r="G69" s="48" t="s">
+      <c r="H69" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="H69" s="42" t="s">
+      <c r="I69" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23" t="s">
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="C70" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="D70" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="E70" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="F70" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="H70" s="45" t="s">
         <v>558</v>
       </c>
-      <c r="H70" s="42" t="s">
+      <c r="I70" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="C71" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="D71" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="E71" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="F71" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="G71" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="G71" s="46" t="s">
+      <c r="H71" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="H71" s="42" t="s">
+      <c r="I71" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="23" t="s">
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="D72" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="E72" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="F72" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="42" t="s">
+      <c r="G72" t="s">
         <v>236</v>
       </c>
-      <c r="G72" s="46" t="s">
+      <c r="H72" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="H72" s="42" t="s">
+      <c r="I72" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="23" t="s">
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="D73" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="E73" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="F73" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="F73" s="42" t="s">
+      <c r="G73" t="s">
         <v>237</v>
       </c>
-      <c r="G73" s="46" t="s">
+      <c r="H73" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="H73" s="42" t="s">
+      <c r="I73" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="23" t="s">
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="C74" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="D74" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="E74" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="F74" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="F74" s="43" t="s">
+      <c r="G74" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="G74" s="46" t="s">
+      <c r="H74" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="H74" s="42" t="s">
+      <c r="I74" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="23" t="s">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="C75" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="D75" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="E75" t="s">
         <v>154</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="F75" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="46" t="s">
+      <c r="H75" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="H75" s="42" t="s">
+      <c r="I75" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="23" t="s">
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="C76" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="D76" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="E76" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="F76" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G76" s="46" t="s">
+      <c r="H76" s="45" t="s">
         <v>563</v>
       </c>
-      <c r="H76" s="42" t="s">
+      <c r="I76" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="C77" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="D77" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="E77" t="s">
         <v>155</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="F77" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="48" t="s">
+      <c r="H77" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="H77" s="42" t="s">
+      <c r="I77" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="23" t="s">
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="C78" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="D78" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="E78" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="F78" t="s">
         <v>114</v>
       </c>
-      <c r="G78" s="46" t="s">
+      <c r="H78" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="H78" s="42" t="s">
+      <c r="I78" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="23" t="s">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="C79" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="D79" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="E79" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="F79" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="H79" s="45" t="s">
         <v>566</v>
       </c>
-      <c r="H79" s="42" t="s">
+      <c r="I79" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="23" t="s">
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="C80" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="D80" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="E80" t="s">
         <v>239</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="F80" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G80" s="46" t="s">
+      <c r="H80" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="H80" s="42" t="s">
+      <c r="I80" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="23" t="s">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="C81" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="D81" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="E81" t="s">
         <v>220</v>
       </c>
-      <c r="G81" s="46" t="s">
+      <c r="H81" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="H81" s="42" t="s">
+      <c r="I81" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="23" t="s">
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="C82" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="D82" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="42" t="s">
+      <c r="E82" t="s">
         <v>157</v>
       </c>
-      <c r="G82" s="46" t="s">
+      <c r="H82" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="H82" s="42" t="s">
+      <c r="I82" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="23" t="s">
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="C83" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="D83" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="42" t="s">
+      <c r="E83" t="s">
         <v>158</v>
       </c>
-      <c r="G83" s="46" t="s">
+      <c r="H83" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="H83" s="42" t="s">
+      <c r="I83" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="23" t="s">
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="C84" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="D84" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="E84" t="s">
         <v>157</v>
       </c>
-      <c r="G84" s="46" t="s">
+      <c r="H84" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="H84" s="42" t="s">
+      <c r="I84" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="23" t="s">
-        <v>5</v>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="E85" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="F85" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="42" t="s">
+      <c r="G85" t="s">
         <v>205</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="H85" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="H85" s="42" t="s">
+      <c r="I85" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="26" t="s">
-        <v>6</v>
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="E86" t="s">
         <v>159</v>
       </c>
-      <c r="G86" s="46" t="s">
+      <c r="H86" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="H86" s="42" t="s">
+      <c r="I86" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="26" t="s">
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="C87" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="D87" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="E87" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="46" t="s">
+      <c r="H87" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="H87" s="42" t="s">
+      <c r="I87" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="26" t="s">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="C88" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="D88" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="42" t="s">
+      <c r="E88" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="46" t="s">
+      <c r="H88" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="H88" s="42" t="s">
+      <c r="I88" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="26" t="s">
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="C89" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="D89" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="E89" t="s">
         <v>161</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="H89" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="H89" s="42" t="s">
+      <c r="I89" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="26" t="s">
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="C90" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="D90" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="42" t="s">
+      <c r="E90" t="s">
         <v>162</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="H90" s="45" t="s">
         <v>577</v>
       </c>
-      <c r="H90" s="42" t="s">
+      <c r="I90" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="26" t="s">
-        <v>6</v>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="E91" t="s">
         <v>229</v>
       </c>
-      <c r="G91" s="46" t="s">
+      <c r="H91" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="H91" s="42" t="s">
+      <c r="I91" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="26" t="s">
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="C92" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="D92" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="E92" t="s">
         <v>163</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="H92" s="45" t="s">
         <v>579</v>
       </c>
-      <c r="H92" s="42" t="s">
+      <c r="I92" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="26" t="s">
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="C93" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="D93" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D93" s="42" t="s">
+      <c r="E93" t="s">
         <v>164</v>
       </c>
-      <c r="G93" s="46" t="s">
+      <c r="H93" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="H93" s="42" t="s">
+      <c r="I93" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="26" t="s">
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="C94" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="D94" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="E94" t="s">
         <v>223</v>
       </c>
-      <c r="F94" s="42" t="s">
+      <c r="G94" t="s">
         <v>224</v>
       </c>
-      <c r="G94" s="46" t="s">
+      <c r="H94" s="45" t="s">
         <v>581</v>
       </c>
-      <c r="H94" s="42" t="s">
+      <c r="I94" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="26" t="s">
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="C95" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="D95" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="E95" t="s">
         <v>226</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="H95" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="H95" s="42" t="s">
+      <c r="I95" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="26" t="s">
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="C96" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="D96" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="E96" t="s">
         <v>225</v>
       </c>
-      <c r="G96" s="46" t="s">
+      <c r="H96" s="45" t="s">
         <v>583</v>
       </c>
-      <c r="H96" s="42" t="s">
+      <c r="I96" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="26" t="s">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="C97" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="D97" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="E97" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="46" t="s">
+      <c r="H97" s="45" t="s">
         <v>584</v>
       </c>
-      <c r="H97" s="42" t="s">
+      <c r="I97" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="26" t="s">
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="C98" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="D98" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="E98" t="s">
         <v>238</v>
       </c>
-      <c r="E98" s="44"/>
-      <c r="G98" s="46" t="s">
+      <c r="F98" s="43"/>
+      <c r="H98" s="45" t="s">
         <v>585</v>
       </c>
-      <c r="H98" s="42" t="s">
+      <c r="I98" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="29" t="s">
-        <v>7</v>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="42" t="s">
+      <c r="E99" t="s">
         <v>489</v>
       </c>
-      <c r="G99" s="49" t="s">
+      <c r="H99" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="H99" s="42" t="s">
+      <c r="I99" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G100" s="50"/>
-    </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G101" s="50"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G102" s="50"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G103" s="50"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G104" s="50"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G105" s="50"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G106" s="50"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G107" s="50"/>
-    </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G108" s="50"/>
-    </row>
-    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G109" s="50"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G110" s="50"/>
-    </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G111" s="50"/>
-    </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G112" s="50"/>
-    </row>
-    <row r="113" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G113" s="50"/>
-    </row>
-    <row r="114" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G114" s="50"/>
-    </row>
-    <row r="115" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G115" s="50"/>
-    </row>
-    <row r="116" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G116" s="50"/>
-    </row>
-    <row r="117" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G117" s="50"/>
-    </row>
-    <row r="118" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G118" s="50"/>
-    </row>
-    <row r="119" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G119" s="50"/>
-    </row>
-    <row r="120" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G120" s="50"/>
-    </row>
-    <row r="121" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G121" s="50"/>
-    </row>
-    <row r="122" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G122" s="50"/>
-    </row>
-    <row r="123" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G123" s="50"/>
-    </row>
-    <row r="124" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G124" s="50"/>
-    </row>
-    <row r="125" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G125" s="50"/>
-    </row>
-    <row r="126" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G126" s="50"/>
-    </row>
-    <row r="127" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G127" s="50"/>
-    </row>
-    <row r="128" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G128" s="50"/>
-    </row>
-    <row r="129" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G129" s="50"/>
-    </row>
-    <row r="130" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G130" s="50"/>
-    </row>
-    <row r="131" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G131" s="50"/>
-    </row>
-    <row r="132" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G132" s="50"/>
-    </row>
-    <row r="133" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G133" s="50"/>
-    </row>
-    <row r="134" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G134" s="50"/>
-    </row>
-    <row r="135" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G135" s="50"/>
-    </row>
-    <row r="136" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G136" s="50"/>
-    </row>
-    <row r="137" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G137" s="50"/>
-    </row>
-    <row r="138" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G138" s="50"/>
-    </row>
-    <row r="139" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G139" s="50"/>
-    </row>
-    <row r="140" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G140" s="50"/>
-    </row>
-    <row r="141" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G141" s="50"/>
-    </row>
-    <row r="142" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G142" s="50"/>
-    </row>
-    <row r="143" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G143" s="50"/>
-    </row>
-    <row r="144" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G144" s="50"/>
-    </row>
-    <row r="145" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G145" s="50"/>
-    </row>
-    <row r="146" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G146" s="50"/>
-    </row>
-    <row r="147" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G147" s="50"/>
-    </row>
-    <row r="148" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G148" s="50"/>
-    </row>
-    <row r="149" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G149" s="50"/>
-    </row>
-    <row r="150" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G150" s="50"/>
-    </row>
-    <row r="151" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G151" s="50"/>
-    </row>
-    <row r="152" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G152" s="50"/>
-    </row>
-    <row r="153" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G153" s="50"/>
-    </row>
-    <row r="154" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G154" s="50"/>
-    </row>
-    <row r="155" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G155" s="50"/>
-    </row>
-    <row r="156" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G156" s="50"/>
-    </row>
-    <row r="157" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G157" s="50"/>
-    </row>
-    <row r="158" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G158" s="50"/>
-    </row>
-    <row r="159" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G159" s="50"/>
-    </row>
-    <row r="160" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G160" s="50"/>
-    </row>
-    <row r="161" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G161" s="50"/>
-    </row>
-    <row r="162" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G162" s="50"/>
-    </row>
-    <row r="163" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G163" s="50"/>
-    </row>
-    <row r="164" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G164" s="50"/>
-    </row>
-    <row r="165" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G165" s="50"/>
-    </row>
-    <row r="166" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G166" s="50"/>
-    </row>
-    <row r="167" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G167" s="50"/>
-    </row>
-    <row r="168" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G168" s="50"/>
-    </row>
-    <row r="169" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G169" s="50"/>
-    </row>
-    <row r="170" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G170" s="50"/>
-    </row>
-    <row r="171" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G171" s="50"/>
-    </row>
-    <row r="172" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G172" s="50"/>
-    </row>
-    <row r="173" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G173" s="50"/>
-    </row>
-    <row r="174" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G174" s="50"/>
-    </row>
-    <row r="175" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G175" s="50"/>
-    </row>
-    <row r="176" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G176" s="50"/>
-    </row>
-    <row r="177" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G177" s="50"/>
-    </row>
-    <row r="178" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G178" s="50"/>
-    </row>
-    <row r="179" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G179" s="50"/>
-    </row>
-    <row r="180" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G180" s="50"/>
-    </row>
-    <row r="181" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G181" s="50"/>
-    </row>
-    <row r="182" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G182" s="50"/>
-    </row>
-    <row r="183" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G183" s="50"/>
-    </row>
-    <row r="184" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G184" s="50"/>
-    </row>
-    <row r="185" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G185" s="50"/>
-    </row>
-    <row r="186" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G186" s="50"/>
-    </row>
-    <row r="187" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G187" s="50"/>
-    </row>
-    <row r="188" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G188" s="50"/>
-    </row>
-    <row r="189" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G189" s="50"/>
-    </row>
-    <row r="190" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G190" s="50"/>
-    </row>
-    <row r="191" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G191" s="50"/>
-    </row>
-    <row r="192" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G192" s="50"/>
-    </row>
-    <row r="193" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G193" s="50"/>
-    </row>
-    <row r="194" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G194" s="50"/>
-    </row>
-    <row r="195" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G195" s="50"/>
-    </row>
-    <row r="196" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G196" s="50"/>
-    </row>
-    <row r="197" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G197" s="50"/>
-    </row>
-    <row r="198" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G198" s="50"/>
-    </row>
-    <row r="199" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G199" s="50"/>
-    </row>
-    <row r="200" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G200" s="50"/>
-    </row>
-    <row r="201" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G201" s="50"/>
-    </row>
-    <row r="202" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G202" s="50"/>
-    </row>
-    <row r="203" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G203" s="50"/>
-    </row>
-    <row r="204" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G204" s="50"/>
-    </row>
-    <row r="205" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G205" s="50"/>
-    </row>
-    <row r="206" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G206" s="50"/>
-    </row>
-    <row r="207" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G207" s="50"/>
-    </row>
-    <row r="208" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G208" s="50"/>
-    </row>
-    <row r="209" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G209" s="50"/>
-    </row>
-    <row r="210" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G210" s="50"/>
-    </row>
-    <row r="211" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G211" s="50"/>
-    </row>
-    <row r="212" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G212" s="50"/>
-    </row>
-    <row r="213" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G213" s="50"/>
-    </row>
-    <row r="214" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G214" s="50"/>
-    </row>
-    <row r="215" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G215" s="50"/>
-    </row>
-    <row r="216" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G216" s="50"/>
-    </row>
-    <row r="217" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G217" s="50"/>
-    </row>
-    <row r="218" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G218" s="50"/>
-    </row>
-    <row r="219" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G219" s="50"/>
-    </row>
-    <row r="220" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G220" s="50"/>
-    </row>
-    <row r="221" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G221" s="50"/>
-    </row>
-    <row r="222" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G222" s="50"/>
-    </row>
-    <row r="223" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G223" s="50"/>
-    </row>
-    <row r="224" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G224" s="50"/>
-    </row>
-    <row r="225" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G225" s="50"/>
-    </row>
-    <row r="226" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G226" s="50"/>
-    </row>
-    <row r="227" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G227" s="50"/>
-    </row>
-    <row r="228" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G228" s="50"/>
-    </row>
-    <row r="229" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G229" s="50"/>
-    </row>
-    <row r="230" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G230" s="50"/>
-    </row>
-    <row r="231" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G231" s="50"/>
-    </row>
-    <row r="232" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G232" s="50"/>
-    </row>
-    <row r="233" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G233" s="50"/>
-    </row>
-    <row r="234" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G234" s="50"/>
-    </row>
-    <row r="235" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G235" s="50"/>
-    </row>
-    <row r="236" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G236" s="50"/>
-    </row>
-    <row r="237" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G237" s="50"/>
-    </row>
-    <row r="238" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G238" s="50"/>
-    </row>
-    <row r="239" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G239" s="50"/>
-    </row>
-    <row r="240" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G240" s="50"/>
-    </row>
-    <row r="241" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G241" s="50"/>
-    </row>
-    <row r="242" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G242" s="50"/>
-    </row>
-    <row r="243" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G243" s="50"/>
-    </row>
-    <row r="244" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G244" s="50"/>
-    </row>
-    <row r="245" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G245" s="50"/>
-    </row>
-    <row r="246" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G246" s="50"/>
-    </row>
-    <row r="247" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G247" s="50"/>
-    </row>
-    <row r="248" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G248" s="50"/>
-    </row>
-    <row r="249" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G249" s="50"/>
-    </row>
-    <row r="250" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G250" s="50"/>
-    </row>
-    <row r="251" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G251" s="50"/>
-    </row>
-    <row r="252" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G252" s="50"/>
-    </row>
-    <row r="253" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G253" s="50"/>
-    </row>
-    <row r="254" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G254" s="50"/>
-    </row>
-    <row r="255" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G255" s="50"/>
-    </row>
-    <row r="256" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G256" s="50"/>
-    </row>
-    <row r="257" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G257" s="50"/>
-    </row>
-    <row r="258" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G258" s="50"/>
-    </row>
-    <row r="259" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G259" s="50"/>
-    </row>
-    <row r="260" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G260" s="50"/>
-    </row>
-    <row r="261" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G261" s="50"/>
-    </row>
-    <row r="262" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G262" s="50"/>
-    </row>
-    <row r="263" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G263" s="50"/>
-    </row>
-    <row r="264" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G264" s="50"/>
-    </row>
-    <row r="265" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G265" s="50"/>
-    </row>
-    <row r="266" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G266" s="50"/>
-    </row>
-    <row r="267" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G267" s="50"/>
-    </row>
-    <row r="268" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G268" s="50"/>
-    </row>
-    <row r="269" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G269" s="50"/>
-    </row>
-    <row r="270" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G270" s="50"/>
-    </row>
-    <row r="271" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G271" s="50"/>
-    </row>
-    <row r="272" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G272" s="50"/>
-    </row>
-    <row r="273" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G273" s="50"/>
-    </row>
-    <row r="274" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G274" s="50"/>
-    </row>
-    <row r="275" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G275" s="50"/>
-    </row>
-    <row r="276" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G276" s="50"/>
-    </row>
-    <row r="277" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G277" s="50"/>
-    </row>
-    <row r="278" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G278" s="50"/>
-    </row>
-    <row r="279" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G279" s="50"/>
-    </row>
-    <row r="280" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G280" s="50"/>
-    </row>
-    <row r="281" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G281" s="50"/>
-    </row>
-    <row r="282" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G282" s="50"/>
-    </row>
-    <row r="283" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G283" s="50"/>
-    </row>
-    <row r="284" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G284" s="50"/>
-    </row>
-    <row r="285" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G285" s="50"/>
-    </row>
-    <row r="286" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G286" s="50"/>
-    </row>
-    <row r="287" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G287" s="50"/>
-    </row>
-    <row r="288" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G288" s="50"/>
-    </row>
-    <row r="289" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G289" s="50"/>
-    </row>
-    <row r="290" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G290" s="50"/>
-    </row>
-    <row r="291" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G291" s="50"/>
-    </row>
-    <row r="292" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G292" s="50"/>
-    </row>
-    <row r="293" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G293" s="50"/>
-    </row>
-    <row r="294" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G294" s="50"/>
-    </row>
-    <row r="295" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G295" s="50"/>
-    </row>
-    <row r="296" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G296" s="50"/>
-    </row>
-    <row r="297" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G297" s="50"/>
-    </row>
-    <row r="298" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G298" s="50"/>
-    </row>
-    <row r="299" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G299" s="50"/>
-    </row>
-    <row r="300" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G300" s="50"/>
-    </row>
-    <row r="301" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G301" s="50"/>
-    </row>
-    <row r="302" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G302" s="50"/>
-    </row>
-    <row r="303" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G303" s="50"/>
-    </row>
-    <row r="304" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G304" s="50"/>
-    </row>
-    <row r="305" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G305" s="50"/>
-    </row>
-    <row r="306" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G306" s="50"/>
-    </row>
-    <row r="307" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G307" s="50"/>
-    </row>
-    <row r="308" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G308" s="50"/>
-    </row>
-    <row r="309" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G309" s="50"/>
-    </row>
-    <row r="310" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G310" s="50"/>
-    </row>
-    <row r="311" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G311" s="50"/>
-    </row>
-    <row r="312" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G312" s="50"/>
-    </row>
-    <row r="313" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G313" s="50"/>
-    </row>
-    <row r="314" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G314" s="50"/>
-    </row>
-    <row r="315" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G315" s="50"/>
-    </row>
-    <row r="316" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G316" s="50"/>
-    </row>
-    <row r="317" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G317" s="50"/>
-    </row>
-    <row r="318" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G318" s="50"/>
-    </row>
-    <row r="319" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G319" s="50"/>
-    </row>
-    <row r="320" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G320" s="50"/>
-    </row>
-    <row r="321" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G321" s="50"/>
-    </row>
-    <row r="322" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G322" s="50"/>
-    </row>
-    <row r="323" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G323" s="50"/>
-    </row>
-    <row r="324" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G324" s="50"/>
-    </row>
-    <row r="325" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G325" s="50"/>
-    </row>
-    <row r="326" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G326" s="50"/>
-    </row>
-    <row r="327" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G327" s="50"/>
-    </row>
-    <row r="328" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G328" s="50"/>
-    </row>
-    <row r="329" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G329" s="50"/>
-    </row>
-    <row r="330" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G330" s="50"/>
-    </row>
-    <row r="331" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G331" s="50"/>
-    </row>
-    <row r="332" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G332" s="50"/>
-    </row>
-    <row r="333" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G333" s="50"/>
-    </row>
-    <row r="334" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G334" s="50"/>
-    </row>
-    <row r="335" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G335" s="50"/>
-    </row>
-    <row r="336" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G336" s="50"/>
-    </row>
-    <row r="337" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G337" s="50"/>
-    </row>
-    <row r="338" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G338" s="50"/>
-    </row>
-    <row r="339" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G339" s="50"/>
-    </row>
-    <row r="340" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G340" s="50"/>
-    </row>
-    <row r="341" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G341" s="50"/>
-    </row>
-    <row r="342" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G342" s="50"/>
-    </row>
-    <row r="343" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G343" s="50"/>
-    </row>
-    <row r="344" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G344" s="50"/>
-    </row>
-    <row r="345" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G345" s="50"/>
-    </row>
-    <row r="346" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G346" s="50"/>
-    </row>
-    <row r="347" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G347" s="50"/>
-    </row>
-    <row r="348" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G348" s="50"/>
-    </row>
-    <row r="349" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G349" s="50"/>
-    </row>
-    <row r="350" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G350" s="50"/>
-    </row>
-    <row r="351" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G351" s="50"/>
-    </row>
-    <row r="352" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G352" s="50"/>
-    </row>
-    <row r="353" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G353" s="50"/>
-    </row>
-    <row r="354" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G354" s="50"/>
-    </row>
-    <row r="355" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G355" s="50"/>
-    </row>
-    <row r="356" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G356" s="50"/>
-    </row>
-    <row r="357" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G357" s="50"/>
-    </row>
-    <row r="358" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G358" s="50"/>
-    </row>
-    <row r="359" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G359" s="50"/>
-    </row>
-    <row r="360" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G360" s="50"/>
-    </row>
-    <row r="361" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G361" s="50"/>
-    </row>
-    <row r="362" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G362" s="50"/>
-    </row>
-    <row r="363" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G363" s="50"/>
-    </row>
-    <row r="364" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G364" s="50"/>
-    </row>
-    <row r="365" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G365" s="50"/>
-    </row>
-    <row r="366" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G366" s="50"/>
-    </row>
-    <row r="367" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G367" s="50"/>
-    </row>
-    <row r="368" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G368" s="50"/>
-    </row>
-    <row r="369" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G369" s="50"/>
-    </row>
-    <row r="370" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G370" s="50"/>
-    </row>
-    <row r="371" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G371" s="50"/>
-    </row>
-    <row r="372" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G372" s="50"/>
-    </row>
-    <row r="373" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G373" s="50"/>
-    </row>
-    <row r="374" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G374" s="50"/>
-    </row>
-    <row r="375" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G375" s="50"/>
-    </row>
-    <row r="376" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G376" s="50"/>
-    </row>
-    <row r="377" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G377" s="50"/>
-    </row>
-    <row r="378" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G378" s="50"/>
-    </row>
-    <row r="379" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G379" s="50"/>
-    </row>
-    <row r="380" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G380" s="50"/>
-    </row>
-    <row r="381" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G381" s="50"/>
-    </row>
-    <row r="382" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G382" s="50"/>
-    </row>
-    <row r="383" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G383" s="50"/>
-    </row>
-    <row r="384" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G384" s="50"/>
-    </row>
-    <row r="385" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G385" s="50"/>
-    </row>
-    <row r="386" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G386" s="50"/>
-    </row>
-    <row r="387" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G387" s="50"/>
-    </row>
-    <row r="388" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G388" s="50"/>
-    </row>
-    <row r="389" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G389" s="50"/>
-    </row>
-    <row r="390" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G390" s="50"/>
-    </row>
-    <row r="391" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G391" s="50"/>
-    </row>
-    <row r="392" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G392" s="50"/>
-    </row>
-    <row r="393" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G393" s="50"/>
-    </row>
-    <row r="394" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G394" s="50"/>
-    </row>
-    <row r="395" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G395" s="50"/>
-    </row>
-    <row r="396" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G396" s="50"/>
-    </row>
-    <row r="397" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G397" s="50"/>
-    </row>
-    <row r="398" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G398" s="50"/>
-    </row>
-    <row r="399" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G399" s="50"/>
-    </row>
-    <row r="400" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G400" s="50"/>
-    </row>
-    <row r="401" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G401" s="50"/>
-    </row>
-    <row r="402" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G402" s="50"/>
-    </row>
-    <row r="403" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G403" s="50"/>
-    </row>
-    <row r="404" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G404" s="50"/>
-    </row>
-    <row r="405" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G405" s="50"/>
-    </row>
-    <row r="406" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G406" s="50"/>
-    </row>
-    <row r="407" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G407" s="50"/>
-    </row>
-    <row r="408" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G408" s="50"/>
-    </row>
-    <row r="409" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G409" s="50"/>
-    </row>
-    <row r="410" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G410" s="50"/>
-    </row>
-    <row r="411" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G411" s="50"/>
-    </row>
-    <row r="412" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G412" s="50"/>
-    </row>
-    <row r="413" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G413" s="50"/>
-    </row>
-    <row r="414" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G414" s="50"/>
-    </row>
-    <row r="415" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G415" s="50"/>
-    </row>
-    <row r="416" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G416" s="50"/>
-    </row>
-    <row r="417" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G417" s="50"/>
-    </row>
-    <row r="418" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G418" s="50"/>
-    </row>
-    <row r="419" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G419" s="50"/>
-    </row>
-    <row r="420" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G420" s="50"/>
-    </row>
-    <row r="421" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G421" s="50"/>
-    </row>
-    <row r="422" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G422" s="50"/>
-    </row>
-    <row r="423" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G423" s="50"/>
-    </row>
-    <row r="424" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G424" s="50"/>
-    </row>
-    <row r="425" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G425" s="50"/>
-    </row>
-    <row r="426" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G426" s="50"/>
-    </row>
-    <row r="427" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G427" s="50"/>
-    </row>
-    <row r="428" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G428" s="50"/>
-    </row>
-    <row r="429" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G429" s="50"/>
-    </row>
-    <row r="430" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G430" s="50"/>
-    </row>
-    <row r="431" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G431" s="50"/>
-    </row>
-    <row r="432" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G432" s="50"/>
-    </row>
-    <row r="433" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G433" s="50"/>
-    </row>
-    <row r="434" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G434" s="50"/>
-    </row>
-    <row r="435" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G435" s="50"/>
-    </row>
-    <row r="436" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G436" s="50"/>
-    </row>
-    <row r="437" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G437" s="50"/>
-    </row>
-    <row r="438" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G438" s="50"/>
-    </row>
-    <row r="439" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G439" s="50"/>
-    </row>
-    <row r="440" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G440" s="50"/>
-    </row>
-    <row r="441" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G441" s="50"/>
-    </row>
-    <row r="442" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G442" s="50"/>
-    </row>
-    <row r="443" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G443" s="50"/>
-    </row>
-    <row r="444" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G444" s="50"/>
-    </row>
-    <row r="445" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G445" s="50"/>
-    </row>
-    <row r="446" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G446" s="50"/>
-    </row>
-    <row r="447" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G447" s="50"/>
-    </row>
-    <row r="448" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G448" s="50"/>
-    </row>
-    <row r="449" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G449" s="50"/>
-    </row>
-    <row r="450" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G450" s="50"/>
-    </row>
-    <row r="451" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G451" s="50"/>
-    </row>
-    <row r="452" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G452" s="50"/>
-    </row>
-    <row r="453" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G453" s="50"/>
-    </row>
-    <row r="454" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G454" s="50"/>
-    </row>
-    <row r="455" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G455" s="50"/>
-    </row>
-    <row r="456" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G456" s="50"/>
-    </row>
-    <row r="457" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G457" s="50"/>
-    </row>
-    <row r="458" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G458" s="50"/>
-    </row>
-    <row r="459" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G459" s="50"/>
-    </row>
-    <row r="460" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G460" s="50"/>
-    </row>
-    <row r="461" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G461" s="50"/>
-    </row>
-    <row r="462" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G462" s="50"/>
-    </row>
-    <row r="463" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G463" s="50"/>
-    </row>
-    <row r="464" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G464" s="50"/>
-    </row>
-    <row r="465" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G465" s="50"/>
-    </row>
-    <row r="466" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G466" s="50"/>
-    </row>
-    <row r="467" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G467" s="50"/>
-    </row>
-    <row r="468" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G468" s="50"/>
-    </row>
-    <row r="469" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G469" s="50"/>
-    </row>
-    <row r="470" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G470" s="50"/>
-    </row>
-    <row r="471" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G471" s="50"/>
-    </row>
-    <row r="472" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G472" s="50"/>
-    </row>
-    <row r="473" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G473" s="50"/>
-    </row>
-    <row r="474" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G474" s="50"/>
-    </row>
-    <row r="475" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G475" s="50"/>
-    </row>
-    <row r="476" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G476" s="50"/>
-    </row>
-    <row r="477" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G477" s="50"/>
-    </row>
-    <row r="478" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G478" s="50"/>
-    </row>
-    <row r="479" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G479" s="50"/>
-    </row>
-    <row r="480" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G480" s="50"/>
-    </row>
-    <row r="481" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G481" s="50"/>
-    </row>
-    <row r="482" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G482" s="50"/>
-    </row>
-    <row r="483" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G483" s="50"/>
-    </row>
-    <row r="484" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G484" s="50"/>
-    </row>
-    <row r="485" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G485" s="50"/>
-    </row>
-    <row r="486" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G486" s="50"/>
-    </row>
-    <row r="487" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G487" s="50"/>
-    </row>
-    <row r="488" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G488" s="50"/>
-    </row>
-    <row r="489" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G489" s="50"/>
-    </row>
-    <row r="490" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G490" s="50"/>
-    </row>
-    <row r="491" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G491" s="50"/>
-    </row>
-    <row r="492" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G492" s="50"/>
-    </row>
-    <row r="493" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G493" s="50"/>
-    </row>
-    <row r="494" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G494" s="50"/>
-    </row>
-    <row r="495" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G495" s="50"/>
-    </row>
-    <row r="496" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G496" s="50"/>
-    </row>
-    <row r="497" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G497" s="50"/>
-    </row>
-    <row r="498" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G498" s="50"/>
-    </row>
-    <row r="499" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G499" s="50"/>
-    </row>
-    <row r="500" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G500" s="50"/>
-    </row>
-    <row r="501" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G501" s="50"/>
-    </row>
-    <row r="502" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G502" s="50"/>
-    </row>
-    <row r="503" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G503" s="50"/>
-    </row>
-    <row r="504" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G504" s="50"/>
-    </row>
-    <row r="505" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G505" s="50"/>
-    </row>
-    <row r="506" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G506" s="50"/>
-    </row>
-    <row r="507" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G507" s="50"/>
-    </row>
-    <row r="508" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G508" s="50"/>
-    </row>
-    <row r="509" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G509" s="50"/>
-    </row>
-    <row r="510" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G510" s="50"/>
-    </row>
-    <row r="511" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G511" s="50"/>
-    </row>
-    <row r="512" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G512" s="50"/>
-    </row>
-    <row r="513" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G513" s="50"/>
-    </row>
-    <row r="514" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G514" s="50"/>
-    </row>
-    <row r="515" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G515" s="50"/>
-    </row>
-    <row r="516" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G516" s="50"/>
-    </row>
-    <row r="517" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G517" s="50"/>
-    </row>
-    <row r="518" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G518" s="50"/>
-    </row>
-    <row r="519" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G519" s="50"/>
-    </row>
-    <row r="520" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G520" s="50"/>
-    </row>
-    <row r="521" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G521" s="50"/>
-    </row>
-    <row r="522" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G522" s="50"/>
-    </row>
-    <row r="523" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G523" s="50"/>
-    </row>
-    <row r="524" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G524" s="50"/>
-    </row>
-    <row r="525" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G525" s="50"/>
-    </row>
-    <row r="526" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G526" s="50"/>
-    </row>
-    <row r="527" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G527" s="50"/>
-    </row>
-    <row r="528" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G528" s="50"/>
-    </row>
-    <row r="529" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G529" s="50"/>
-    </row>
-    <row r="530" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G530" s="50"/>
-    </row>
-    <row r="531" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G531" s="50"/>
-    </row>
-    <row r="532" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G532" s="50"/>
-    </row>
-    <row r="533" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G533" s="50"/>
-    </row>
-    <row r="534" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G534" s="50"/>
-    </row>
-    <row r="535" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G535" s="50"/>
-    </row>
-    <row r="536" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G536" s="50"/>
-    </row>
-    <row r="537" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G537" s="50"/>
-    </row>
-    <row r="538" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G538" s="50"/>
-    </row>
-    <row r="539" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G539" s="50"/>
-    </row>
-    <row r="540" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G540" s="50"/>
-    </row>
-    <row r="541" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G541" s="50"/>
-    </row>
-    <row r="542" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G542" s="50"/>
-    </row>
-    <row r="543" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G543" s="50"/>
-    </row>
-    <row r="544" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G544" s="50"/>
-    </row>
-    <row r="545" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G545" s="50"/>
-    </row>
-    <row r="546" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G546" s="50"/>
-    </row>
-    <row r="547" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G547" s="50"/>
-    </row>
-    <row r="548" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G548" s="50"/>
-    </row>
-    <row r="549" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G549" s="50"/>
-    </row>
-    <row r="550" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G550" s="50"/>
-    </row>
-    <row r="551" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G551" s="50"/>
-    </row>
-    <row r="552" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G552" s="50"/>
-    </row>
-    <row r="553" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G553" s="50"/>
-    </row>
-    <row r="554" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G554" s="50"/>
-    </row>
-    <row r="555" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G555" s="50"/>
-    </row>
-    <row r="556" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G556" s="50"/>
-    </row>
-    <row r="557" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G557" s="50"/>
-    </row>
-    <row r="558" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G558" s="50"/>
-    </row>
-    <row r="559" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G559" s="50"/>
-    </row>
-    <row r="560" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G560" s="50"/>
-    </row>
-    <row r="561" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G561" s="50"/>
-    </row>
-    <row r="562" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G562" s="50"/>
-    </row>
-    <row r="563" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G563" s="50"/>
-    </row>
-    <row r="564" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G564" s="50"/>
-    </row>
-    <row r="565" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G565" s="50"/>
-    </row>
-    <row r="566" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G566" s="50"/>
-    </row>
-    <row r="567" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G567" s="50"/>
-    </row>
-    <row r="568" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G568" s="50"/>
-    </row>
-    <row r="569" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G569" s="50"/>
-    </row>
-    <row r="570" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G570" s="50"/>
-    </row>
-    <row r="571" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G571" s="50"/>
-    </row>
-    <row r="572" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G572" s="50"/>
-    </row>
-    <row r="573" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G573" s="50"/>
-    </row>
-    <row r="574" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G574" s="50"/>
-    </row>
-    <row r="575" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G575" s="50"/>
-    </row>
-    <row r="576" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G576" s="50"/>
-    </row>
-    <row r="577" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G577" s="50"/>
-    </row>
-    <row r="578" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G578" s="50"/>
-    </row>
-    <row r="579" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G579" s="50"/>
-    </row>
-    <row r="580" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G580" s="50"/>
-    </row>
-    <row r="581" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G581" s="50"/>
-    </row>
-    <row r="582" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G582" s="50"/>
-    </row>
-    <row r="583" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G583" s="50"/>
-    </row>
-    <row r="584" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G584" s="50"/>
-    </row>
-    <row r="585" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G585" s="50"/>
-    </row>
-    <row r="586" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G586" s="50"/>
-    </row>
-    <row r="587" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G587" s="50"/>
-    </row>
-    <row r="588" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G588" s="50"/>
-    </row>
-    <row r="589" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G589" s="50"/>
-    </row>
-    <row r="590" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G590" s="50"/>
-    </row>
-    <row r="591" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G591" s="50"/>
-    </row>
-    <row r="592" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G592" s="50"/>
-    </row>
-    <row r="593" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G593" s="50"/>
-    </row>
-    <row r="594" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G594" s="50"/>
-    </row>
-    <row r="595" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G595" s="50"/>
-    </row>
-    <row r="596" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G596" s="50"/>
-    </row>
-    <row r="597" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G597" s="50"/>
-    </row>
-    <row r="598" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G598" s="50"/>
-    </row>
-    <row r="599" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G599" s="50"/>
-    </row>
-    <row r="600" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G600" s="50"/>
-    </row>
-    <row r="601" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G601" s="50"/>
-    </row>
-    <row r="602" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G602" s="50"/>
-    </row>
-    <row r="603" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G603" s="50"/>
-    </row>
-    <row r="604" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G604" s="50"/>
-    </row>
-    <row r="605" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G605" s="50"/>
-    </row>
-    <row r="606" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G606" s="50"/>
-    </row>
-    <row r="607" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G607" s="50"/>
-    </row>
-    <row r="608" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G608" s="50"/>
-    </row>
-    <row r="609" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G609" s="50"/>
-    </row>
-    <row r="610" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G610" s="50"/>
-    </row>
-    <row r="611" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G611" s="50"/>
-    </row>
-    <row r="612" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G612" s="50"/>
-    </row>
-    <row r="613" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G613" s="50"/>
-    </row>
-    <row r="614" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G614" s="50"/>
-    </row>
-    <row r="615" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G615" s="50"/>
-    </row>
-    <row r="616" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G616" s="50"/>
-    </row>
-    <row r="617" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G617" s="50"/>
-    </row>
-    <row r="618" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G618" s="50"/>
-    </row>
-    <row r="619" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G619" s="50"/>
-    </row>
-    <row r="620" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G620" s="50"/>
-    </row>
-    <row r="621" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G621" s="50"/>
-    </row>
-    <row r="622" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G622" s="50"/>
-    </row>
-    <row r="623" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G623" s="50"/>
-    </row>
-    <row r="624" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G624" s="50"/>
-    </row>
-    <row r="625" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G625" s="50"/>
-    </row>
-    <row r="626" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G626" s="50"/>
-    </row>
-    <row r="627" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G627" s="50"/>
-    </row>
-    <row r="628" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G628" s="50"/>
-    </row>
-    <row r="629" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G629" s="50"/>
-    </row>
-    <row r="630" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G630" s="50"/>
-    </row>
-    <row r="631" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G631" s="50"/>
-    </row>
-    <row r="632" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G632" s="50"/>
-    </row>
-    <row r="633" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G633" s="50"/>
-    </row>
-    <row r="634" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G634" s="50"/>
-    </row>
-    <row r="635" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G635" s="50"/>
-    </row>
-    <row r="636" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G636" s="50"/>
-    </row>
-    <row r="637" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G637" s="50"/>
-    </row>
-    <row r="638" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G638" s="50"/>
-    </row>
-    <row r="639" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G639" s="50"/>
-    </row>
-    <row r="640" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G640" s="50"/>
-    </row>
-    <row r="641" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G641" s="50"/>
-    </row>
-    <row r="642" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G642" s="50"/>
-    </row>
-    <row r="643" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G643" s="50"/>
-    </row>
-    <row r="644" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G644" s="50"/>
-    </row>
-    <row r="645" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G645" s="50"/>
-    </row>
-    <row r="646" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G646" s="50"/>
-    </row>
-    <row r="647" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G647" s="50"/>
-    </row>
-    <row r="648" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G648" s="50"/>
-    </row>
-    <row r="649" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G649" s="50"/>
-    </row>
-    <row r="650" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G650" s="50"/>
-    </row>
-    <row r="651" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G651" s="50"/>
-    </row>
-    <row r="652" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G652" s="50"/>
-    </row>
-    <row r="653" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G653" s="50"/>
-    </row>
-    <row r="654" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G654" s="50"/>
-    </row>
-    <row r="655" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G655" s="50"/>
-    </row>
-    <row r="656" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G656" s="50"/>
-    </row>
-    <row r="657" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G657" s="50"/>
-    </row>
-    <row r="658" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G658" s="50"/>
-    </row>
-    <row r="659" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G659" s="50"/>
-    </row>
-    <row r="660" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G660" s="50"/>
-    </row>
-    <row r="661" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G661" s="50"/>
-    </row>
-    <row r="662" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G662" s="50"/>
-    </row>
-    <row r="663" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G663" s="50"/>
-    </row>
-    <row r="664" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G664" s="50"/>
-    </row>
-    <row r="665" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G665" s="50"/>
-    </row>
-    <row r="666" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G666" s="50"/>
-    </row>
-    <row r="667" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G667" s="50"/>
-    </row>
-    <row r="668" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G668" s="50"/>
-    </row>
-    <row r="669" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G669" s="50"/>
-    </row>
-    <row r="670" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G670" s="50"/>
-    </row>
-    <row r="671" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G671" s="50"/>
-    </row>
-    <row r="672" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G672" s="50"/>
-    </row>
-    <row r="673" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G673" s="50"/>
-    </row>
-    <row r="674" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G674" s="50"/>
-    </row>
-    <row r="675" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G675" s="50"/>
-    </row>
-    <row r="676" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G676" s="50"/>
-    </row>
-    <row r="677" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G677" s="50"/>
-    </row>
-    <row r="678" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G678" s="50"/>
-    </row>
-    <row r="679" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G679" s="50"/>
-    </row>
-    <row r="680" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G680" s="50"/>
-    </row>
-    <row r="681" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G681" s="50"/>
-    </row>
-    <row r="682" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G682" s="50"/>
-    </row>
-    <row r="683" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G683" s="50"/>
-    </row>
-    <row r="684" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G684" s="50"/>
-    </row>
-    <row r="685" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G685" s="50"/>
-    </row>
-    <row r="686" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G686" s="50"/>
-    </row>
-    <row r="687" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G687" s="50"/>
-    </row>
-    <row r="688" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G688" s="50"/>
-    </row>
-    <row r="689" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G689" s="50"/>
-    </row>
-    <row r="690" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G690" s="50"/>
-    </row>
-    <row r="691" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G691" s="50"/>
-    </row>
-    <row r="692" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G692" s="50"/>
-    </row>
-    <row r="693" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G693" s="50"/>
-    </row>
-    <row r="694" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G694" s="50"/>
-    </row>
-    <row r="695" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G695" s="50"/>
-    </row>
-    <row r="696" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G696" s="50"/>
-    </row>
-    <row r="697" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G697" s="50"/>
-    </row>
-    <row r="698" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G698" s="50"/>
-    </row>
-    <row r="699" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G699" s="50"/>
-    </row>
-    <row r="700" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G700" s="50"/>
-    </row>
-    <row r="701" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G701" s="50"/>
-    </row>
-    <row r="702" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G702" s="50"/>
-    </row>
-    <row r="703" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G703" s="50"/>
-    </row>
-    <row r="704" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G704" s="50"/>
-    </row>
-    <row r="705" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G705" s="50"/>
-    </row>
-    <row r="706" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G706" s="50"/>
-    </row>
-    <row r="707" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G707" s="50"/>
-    </row>
-    <row r="708" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G708" s="50"/>
-    </row>
-    <row r="709" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G709" s="50"/>
-    </row>
-    <row r="710" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G710" s="50"/>
-    </row>
-    <row r="711" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G711" s="50"/>
-    </row>
-    <row r="712" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G712" s="50"/>
-    </row>
-    <row r="713" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G713" s="50"/>
-    </row>
-    <row r="714" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G714" s="50"/>
-    </row>
-    <row r="715" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G715" s="50"/>
-    </row>
-    <row r="716" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G716" s="50"/>
-    </row>
-    <row r="717" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G717" s="50"/>
-    </row>
-    <row r="718" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G718" s="50"/>
-    </row>
-    <row r="719" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G719" s="50"/>
-    </row>
-    <row r="720" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G720" s="50"/>
-    </row>
-    <row r="721" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G721" s="50"/>
-    </row>
-    <row r="722" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G722" s="50"/>
-    </row>
-    <row r="723" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G723" s="50"/>
-    </row>
-    <row r="724" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G724" s="50"/>
-    </row>
-    <row r="725" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G725" s="50"/>
-    </row>
-    <row r="726" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G726" s="50"/>
-    </row>
-    <row r="727" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G727" s="50"/>
-    </row>
-    <row r="728" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G728" s="50"/>
-    </row>
-    <row r="729" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G729" s="50"/>
-    </row>
-    <row r="730" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G730" s="50"/>
-    </row>
-    <row r="731" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G731" s="50"/>
-    </row>
-    <row r="732" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G732" s="50"/>
-    </row>
-    <row r="733" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G733" s="50"/>
-    </row>
-    <row r="734" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G734" s="50"/>
-    </row>
-    <row r="735" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G735" s="50"/>
-    </row>
-    <row r="736" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G736" s="50"/>
-    </row>
-    <row r="737" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G737" s="50"/>
-    </row>
-    <row r="738" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G738" s="50"/>
-    </row>
-    <row r="739" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G739" s="50"/>
-    </row>
-    <row r="740" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G740" s="50"/>
-    </row>
-    <row r="741" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G741" s="50"/>
-    </row>
-    <row r="742" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G742" s="50"/>
-    </row>
-    <row r="743" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G743" s="50"/>
-    </row>
-    <row r="744" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G744" s="50"/>
-    </row>
-    <row r="745" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G745" s="50"/>
-    </row>
-    <row r="746" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G746" s="50"/>
-    </row>
-    <row r="747" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G747" s="50"/>
-    </row>
-    <row r="748" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G748" s="50"/>
-    </row>
-    <row r="749" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G749" s="50"/>
-    </row>
-    <row r="750" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G750" s="50"/>
-    </row>
-    <row r="751" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G751" s="50"/>
-    </row>
-    <row r="752" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G752" s="50"/>
-    </row>
-    <row r="753" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G753" s="50"/>
-    </row>
-    <row r="754" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G754" s="50"/>
-    </row>
-    <row r="755" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G755" s="50"/>
-    </row>
-    <row r="756" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G756" s="50"/>
-    </row>
-    <row r="757" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G757" s="50"/>
-    </row>
-    <row r="758" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G758" s="50"/>
-    </row>
-    <row r="759" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G759" s="50"/>
-    </row>
-    <row r="760" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G760" s="50"/>
-    </row>
-    <row r="761" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G761" s="50"/>
-    </row>
-    <row r="762" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G762" s="50"/>
-    </row>
-    <row r="763" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G763" s="50"/>
-    </row>
-    <row r="764" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G764" s="50"/>
-    </row>
-    <row r="765" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G765" s="50"/>
-    </row>
-    <row r="766" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G766" s="50"/>
-    </row>
-    <row r="767" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G767" s="50"/>
-    </row>
-    <row r="768" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G768" s="50"/>
-    </row>
-    <row r="769" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G769" s="50"/>
-    </row>
-    <row r="770" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G770" s="50"/>
-    </row>
-    <row r="771" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G771" s="50"/>
-    </row>
-    <row r="772" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G772" s="50"/>
-    </row>
-    <row r="773" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G773" s="50"/>
-    </row>
-    <row r="774" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G774" s="50"/>
-    </row>
-    <row r="775" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G775" s="50"/>
-    </row>
-    <row r="776" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G776" s="50"/>
-    </row>
-    <row r="777" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G777" s="50"/>
-    </row>
-    <row r="778" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G778" s="50"/>
-    </row>
-    <row r="779" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G779" s="50"/>
-    </row>
-    <row r="780" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G780" s="50"/>
-    </row>
-    <row r="781" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G781" s="50"/>
-    </row>
-    <row r="782" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G782" s="50"/>
-    </row>
-    <row r="783" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G783" s="50"/>
-    </row>
-    <row r="784" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G784" s="50"/>
-    </row>
-    <row r="785" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G785" s="50"/>
-    </row>
-    <row r="786" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G786" s="50"/>
-    </row>
-    <row r="787" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G787" s="50"/>
-    </row>
-    <row r="788" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G788" s="50"/>
-    </row>
-    <row r="789" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G789" s="50"/>
-    </row>
-    <row r="790" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G790" s="50"/>
-    </row>
-    <row r="791" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G791" s="50"/>
-    </row>
-    <row r="792" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G792" s="50"/>
-    </row>
-    <row r="793" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G793" s="50"/>
-    </row>
-    <row r="794" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G794" s="50"/>
-    </row>
-    <row r="795" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G795" s="50"/>
-    </row>
-    <row r="796" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G796" s="50"/>
-    </row>
-    <row r="797" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G797" s="50"/>
-    </row>
-    <row r="798" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G798" s="50"/>
-    </row>
-    <row r="799" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G799" s="50"/>
-    </row>
-    <row r="800" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G800" s="50"/>
-    </row>
-    <row r="801" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G801" s="50"/>
-    </row>
-    <row r="802" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G802" s="50"/>
-    </row>
-    <row r="803" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G803" s="50"/>
-    </row>
-    <row r="804" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G804" s="50"/>
-    </row>
-    <row r="805" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G805" s="50"/>
-    </row>
-    <row r="806" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G806" s="50"/>
-    </row>
-    <row r="807" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G807" s="50"/>
-    </row>
-    <row r="808" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G808" s="50"/>
-    </row>
-    <row r="809" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G809" s="50"/>
-    </row>
-    <row r="810" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G810" s="50"/>
-    </row>
-    <row r="811" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G811" s="50"/>
-    </row>
-    <row r="812" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G812" s="50"/>
-    </row>
-    <row r="813" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G813" s="50"/>
-    </row>
-    <row r="814" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G814" s="50"/>
-    </row>
-    <row r="815" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G815" s="50"/>
-    </row>
-    <row r="816" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G816" s="50"/>
-    </row>
-    <row r="817" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G817" s="50"/>
-    </row>
-    <row r="818" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G818" s="50"/>
-    </row>
-    <row r="819" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G819" s="50"/>
-    </row>
-    <row r="820" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G820" s="50"/>
-    </row>
-    <row r="821" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G821" s="50"/>
-    </row>
-    <row r="822" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G822" s="50"/>
-    </row>
-    <row r="823" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G823" s="50"/>
-    </row>
-    <row r="824" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G824" s="50"/>
-    </row>
-    <row r="825" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G825" s="50"/>
-    </row>
-    <row r="826" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G826" s="50"/>
-    </row>
-    <row r="827" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G827" s="50"/>
-    </row>
-    <row r="828" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G828" s="50"/>
-    </row>
-    <row r="829" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G829" s="50"/>
-    </row>
-    <row r="830" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G830" s="50"/>
-    </row>
-    <row r="831" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G831" s="50"/>
-    </row>
-    <row r="832" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G832" s="50"/>
-    </row>
-    <row r="833" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G833" s="50"/>
-    </row>
-    <row r="834" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G834" s="50"/>
-    </row>
-    <row r="835" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G835" s="50"/>
-    </row>
-    <row r="836" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G836" s="50"/>
-    </row>
-    <row r="837" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G837" s="50"/>
-    </row>
-    <row r="838" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G838" s="50"/>
-    </row>
-    <row r="839" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G839" s="50"/>
-    </row>
-    <row r="840" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G840" s="50"/>
-    </row>
-    <row r="841" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G841" s="50"/>
-    </row>
-    <row r="842" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G842" s="50"/>
-    </row>
-    <row r="843" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G843" s="50"/>
-    </row>
-    <row r="844" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G844" s="50"/>
-    </row>
-    <row r="845" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G845" s="50"/>
-    </row>
-    <row r="846" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G846" s="50"/>
-    </row>
-    <row r="847" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G847" s="50"/>
-    </row>
-    <row r="848" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G848" s="50"/>
-    </row>
-    <row r="849" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G849" s="50"/>
-    </row>
-    <row r="850" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G850" s="50"/>
-    </row>
-    <row r="851" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G851" s="50"/>
-    </row>
-    <row r="852" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G852" s="50"/>
-    </row>
-    <row r="853" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G853" s="50"/>
-    </row>
-    <row r="854" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G854" s="50"/>
-    </row>
-    <row r="855" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G855" s="50"/>
-    </row>
-    <row r="856" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G856" s="50"/>
-    </row>
-    <row r="857" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G857" s="50"/>
-    </row>
-    <row r="858" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G858" s="50"/>
-    </row>
-    <row r="859" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G859" s="50"/>
-    </row>
-    <row r="860" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G860" s="50"/>
-    </row>
-    <row r="861" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G861" s="50"/>
-    </row>
-    <row r="862" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G862" s="50"/>
-    </row>
-    <row r="863" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G863" s="50"/>
-    </row>
-    <row r="864" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G864" s="50"/>
-    </row>
-    <row r="865" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G865" s="50"/>
-    </row>
-    <row r="866" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G866" s="50"/>
-    </row>
-    <row r="867" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G867" s="50"/>
-    </row>
-    <row r="868" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G868" s="50"/>
-    </row>
-    <row r="869" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G869" s="50"/>
-    </row>
-    <row r="870" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G870" s="50"/>
-    </row>
-    <row r="871" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G871" s="50"/>
-    </row>
-    <row r="872" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G872" s="50"/>
-    </row>
-    <row r="873" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G873" s="50"/>
-    </row>
-    <row r="874" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G874" s="50"/>
-    </row>
-    <row r="875" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G875" s="50"/>
-    </row>
-    <row r="876" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G876" s="50"/>
-    </row>
-    <row r="877" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G877" s="50"/>
-    </row>
-    <row r="878" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G878" s="50"/>
-    </row>
-    <row r="879" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G879" s="50"/>
-    </row>
-    <row r="880" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G880" s="50"/>
-    </row>
-    <row r="881" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G881" s="50"/>
-    </row>
-    <row r="882" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G882" s="50"/>
-    </row>
-    <row r="883" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G883" s="50"/>
-    </row>
-    <row r="884" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G884" s="50"/>
-    </row>
-    <row r="885" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G885" s="50"/>
-    </row>
-    <row r="886" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G886" s="50"/>
-    </row>
-    <row r="887" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G887" s="50"/>
-    </row>
-    <row r="888" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G888" s="50"/>
-    </row>
-    <row r="889" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G889" s="50"/>
-    </row>
-    <row r="890" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G890" s="50"/>
-    </row>
-    <row r="891" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G891" s="50"/>
-    </row>
-    <row r="892" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G892" s="50"/>
-    </row>
-    <row r="893" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G893" s="50"/>
-    </row>
-    <row r="894" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G894" s="50"/>
-    </row>
-    <row r="895" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G895" s="50"/>
-    </row>
-    <row r="896" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G896" s="50"/>
-    </row>
-    <row r="897" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G897" s="50"/>
-    </row>
-    <row r="898" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G898" s="50"/>
-    </row>
-    <row r="899" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G899" s="50"/>
-    </row>
-    <row r="900" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G900" s="50"/>
-    </row>
-    <row r="901" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G901" s="50"/>
-    </row>
-    <row r="902" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G902" s="50"/>
-    </row>
-    <row r="903" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G903" s="50"/>
-    </row>
-    <row r="904" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G904" s="50"/>
-    </row>
-    <row r="905" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G905" s="50"/>
-    </row>
-    <row r="906" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G906" s="50"/>
-    </row>
-    <row r="907" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G907" s="50"/>
-    </row>
-    <row r="908" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G908" s="50"/>
-    </row>
-    <row r="909" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G909" s="50"/>
-    </row>
-    <row r="910" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G910" s="50"/>
-    </row>
-    <row r="911" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G911" s="50"/>
-    </row>
-    <row r="912" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G912" s="50"/>
-    </row>
-    <row r="913" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G913" s="50"/>
-    </row>
-    <row r="914" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G914" s="50"/>
-    </row>
-    <row r="915" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G915" s="50"/>
-    </row>
-    <row r="916" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G916" s="50"/>
-    </row>
-    <row r="917" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G917" s="50"/>
-    </row>
-    <row r="918" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G918" s="50"/>
-    </row>
-    <row r="919" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G919" s="50"/>
-    </row>
-    <row r="920" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G920" s="50"/>
-    </row>
-    <row r="921" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G921" s="50"/>
-    </row>
-    <row r="922" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G922" s="50"/>
-    </row>
-    <row r="923" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G923" s="50"/>
-    </row>
-    <row r="924" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G924" s="50"/>
-    </row>
-    <row r="925" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G925" s="50"/>
-    </row>
-    <row r="926" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G926" s="50"/>
-    </row>
-    <row r="927" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G927" s="50"/>
-    </row>
-    <row r="928" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G928" s="50"/>
-    </row>
-    <row r="929" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G929" s="50"/>
-    </row>
-    <row r="930" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G930" s="50"/>
-    </row>
-    <row r="931" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G931" s="50"/>
-    </row>
-    <row r="932" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G932" s="50"/>
-    </row>
-    <row r="933" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G933" s="50"/>
-    </row>
-    <row r="934" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G934" s="50"/>
-    </row>
-    <row r="935" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G935" s="50"/>
-    </row>
-    <row r="936" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G936" s="50"/>
-    </row>
-    <row r="937" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G937" s="50"/>
-    </row>
-    <row r="938" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G938" s="50"/>
-    </row>
-    <row r="939" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G939" s="50"/>
-    </row>
-    <row r="940" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G940" s="50"/>
-    </row>
-    <row r="941" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G941" s="50"/>
-    </row>
-    <row r="942" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G942" s="50"/>
-    </row>
-    <row r="943" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G943" s="50"/>
-    </row>
-    <row r="944" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G944" s="50"/>
-    </row>
-    <row r="945" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G945" s="50"/>
-    </row>
-    <row r="946" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G946" s="50"/>
-    </row>
-    <row r="947" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G947" s="50"/>
-    </row>
-    <row r="948" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G948" s="50"/>
-    </row>
-    <row r="949" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G949" s="50"/>
-    </row>
-    <row r="950" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G950" s="50"/>
-    </row>
-    <row r="951" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G951" s="50"/>
-    </row>
-    <row r="952" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G952" s="50"/>
-    </row>
-    <row r="953" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G953" s="50"/>
-    </row>
-    <row r="954" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G954" s="50"/>
-    </row>
-    <row r="955" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G955" s="50"/>
-    </row>
-    <row r="956" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G956" s="50"/>
-    </row>
-    <row r="957" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G957" s="50"/>
-    </row>
-    <row r="958" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G958" s="50"/>
-    </row>
-    <row r="959" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G959" s="50"/>
-    </row>
-    <row r="960" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G960" s="50"/>
-    </row>
-    <row r="961" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G961" s="50"/>
-    </row>
-    <row r="962" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G962" s="50"/>
-    </row>
-    <row r="963" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G963" s="50"/>
-    </row>
-    <row r="964" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G964" s="50"/>
-    </row>
-    <row r="965" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G965" s="50"/>
-    </row>
-    <row r="966" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G966" s="50"/>
-    </row>
-    <row r="967" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G967" s="50"/>
-    </row>
-    <row r="968" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G968" s="50"/>
-    </row>
-    <row r="969" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G969" s="50"/>
-    </row>
-    <row r="970" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G970" s="50"/>
-    </row>
-    <row r="971" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G971" s="50"/>
-    </row>
-    <row r="972" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G972" s="50"/>
-    </row>
-    <row r="973" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G973" s="50"/>
-    </row>
-    <row r="974" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G974" s="50"/>
-    </row>
-    <row r="975" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G975" s="50"/>
-    </row>
-    <row r="976" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G976" s="50"/>
-    </row>
-    <row r="977" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G977" s="50"/>
-    </row>
-    <row r="978" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G978" s="50"/>
-    </row>
-    <row r="979" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G979" s="50"/>
-    </row>
-    <row r="980" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G980" s="50"/>
-    </row>
-    <row r="981" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G981" s="50"/>
-    </row>
-    <row r="982" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G982" s="50"/>
-    </row>
-    <row r="983" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G983" s="50"/>
-    </row>
-    <row r="984" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G984" s="50"/>
-    </row>
-    <row r="985" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G985" s="50"/>
-    </row>
-    <row r="986" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G986" s="50"/>
-    </row>
-    <row r="987" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G987" s="50"/>
-    </row>
-    <row r="988" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G988" s="50"/>
-    </row>
-    <row r="989" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G989" s="50"/>
-    </row>
-    <row r="990" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G990" s="50"/>
-    </row>
-    <row r="991" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G991" s="50"/>
-    </row>
-    <row r="992" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G992" s="50"/>
-    </row>
-    <row r="993" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G993" s="50"/>
-    </row>
-    <row r="994" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G994" s="50"/>
-    </row>
-    <row r="995" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G995" s="50"/>
-    </row>
-    <row r="996" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G996" s="50"/>
-    </row>
-    <row r="997" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G997" s="50"/>
-    </row>
-    <row r="998" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G998" s="50"/>
-    </row>
-    <row r="999" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G999" s="50"/>
-    </row>
-    <row r="1000" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1000" s="50"/>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H100" s="49"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H101" s="49"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H102" s="49"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H103" s="49"/>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H104" s="49"/>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H105" s="49"/>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H106" s="49"/>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H107" s="49"/>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H108" s="49"/>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H109" s="49"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H110" s="49"/>
+    </row>
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H111" s="49"/>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H112" s="49"/>
+    </row>
+    <row r="113" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H113" s="49"/>
+    </row>
+    <row r="114" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H114" s="49"/>
+    </row>
+    <row r="115" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H115" s="49"/>
+    </row>
+    <row r="116" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H116" s="49"/>
+    </row>
+    <row r="117" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H117" s="49"/>
+    </row>
+    <row r="118" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H118" s="49"/>
+    </row>
+    <row r="119" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H119" s="49"/>
+    </row>
+    <row r="120" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H120" s="49"/>
+    </row>
+    <row r="121" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H121" s="49"/>
+    </row>
+    <row r="122" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H122" s="49"/>
+    </row>
+    <row r="123" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H123" s="49"/>
+    </row>
+    <row r="124" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H124" s="49"/>
+    </row>
+    <row r="125" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H125" s="49"/>
+    </row>
+    <row r="126" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H126" s="49"/>
+    </row>
+    <row r="127" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H127" s="49"/>
+    </row>
+    <row r="128" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H128" s="49"/>
+    </row>
+    <row r="129" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H129" s="49"/>
+    </row>
+    <row r="130" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H130" s="49"/>
+    </row>
+    <row r="131" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H131" s="49"/>
+    </row>
+    <row r="132" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H132" s="49"/>
+    </row>
+    <row r="133" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H133" s="49"/>
+    </row>
+    <row r="134" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H134" s="49"/>
+    </row>
+    <row r="135" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H135" s="49"/>
+    </row>
+    <row r="136" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H136" s="49"/>
+    </row>
+    <row r="137" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H137" s="49"/>
+    </row>
+    <row r="138" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H138" s="49"/>
+    </row>
+    <row r="139" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H139" s="49"/>
+    </row>
+    <row r="140" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H140" s="49"/>
+    </row>
+    <row r="141" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H141" s="49"/>
+    </row>
+    <row r="142" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H142" s="49"/>
+    </row>
+    <row r="143" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H143" s="49"/>
+    </row>
+    <row r="144" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H144" s="49"/>
+    </row>
+    <row r="145" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H145" s="49"/>
+    </row>
+    <row r="146" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H146" s="49"/>
+    </row>
+    <row r="147" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H147" s="49"/>
+    </row>
+    <row r="148" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H148" s="49"/>
+    </row>
+    <row r="149" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H149" s="49"/>
+    </row>
+    <row r="150" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H150" s="49"/>
+    </row>
+    <row r="151" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H151" s="49"/>
+    </row>
+    <row r="152" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H152" s="49"/>
+    </row>
+    <row r="153" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H153" s="49"/>
+    </row>
+    <row r="154" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H154" s="49"/>
+    </row>
+    <row r="155" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H155" s="49"/>
+    </row>
+    <row r="156" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H156" s="49"/>
+    </row>
+    <row r="157" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H157" s="49"/>
+    </row>
+    <row r="158" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H158" s="49"/>
+    </row>
+    <row r="159" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H159" s="49"/>
+    </row>
+    <row r="160" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H160" s="49"/>
+    </row>
+    <row r="161" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H161" s="49"/>
+    </row>
+    <row r="162" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H162" s="49"/>
+    </row>
+    <row r="163" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H163" s="49"/>
+    </row>
+    <row r="164" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H164" s="49"/>
+    </row>
+    <row r="165" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H165" s="49"/>
+    </row>
+    <row r="166" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H166" s="49"/>
+    </row>
+    <row r="167" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H167" s="49"/>
+    </row>
+    <row r="168" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H168" s="49"/>
+    </row>
+    <row r="169" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H169" s="49"/>
+    </row>
+    <row r="170" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H170" s="49"/>
+    </row>
+    <row r="171" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H171" s="49"/>
+    </row>
+    <row r="172" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H172" s="49"/>
+    </row>
+    <row r="173" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H173" s="49"/>
+    </row>
+    <row r="174" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H174" s="49"/>
+    </row>
+    <row r="175" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H175" s="49"/>
+    </row>
+    <row r="176" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H176" s="49"/>
+    </row>
+    <row r="177" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H177" s="49"/>
+    </row>
+    <row r="178" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H178" s="49"/>
+    </row>
+    <row r="179" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H179" s="49"/>
+    </row>
+    <row r="180" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H180" s="49"/>
+    </row>
+    <row r="181" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H181" s="49"/>
+    </row>
+    <row r="182" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H182" s="49"/>
+    </row>
+    <row r="183" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H183" s="49"/>
+    </row>
+    <row r="184" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H184" s="49"/>
+    </row>
+    <row r="185" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H185" s="49"/>
+    </row>
+    <row r="186" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H186" s="49"/>
+    </row>
+    <row r="187" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H187" s="49"/>
+    </row>
+    <row r="188" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H188" s="49"/>
+    </row>
+    <row r="189" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H189" s="49"/>
+    </row>
+    <row r="190" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H190" s="49"/>
+    </row>
+    <row r="191" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H191" s="49"/>
+    </row>
+    <row r="192" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H192" s="49"/>
+    </row>
+    <row r="193" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H193" s="49"/>
+    </row>
+    <row r="194" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H194" s="49"/>
+    </row>
+    <row r="195" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H195" s="49"/>
+    </row>
+    <row r="196" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H196" s="49"/>
+    </row>
+    <row r="197" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H197" s="49"/>
+    </row>
+    <row r="198" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H198" s="49"/>
+    </row>
+    <row r="199" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H199" s="49"/>
+    </row>
+    <row r="200" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H200" s="49"/>
+    </row>
+    <row r="201" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H201" s="49"/>
+    </row>
+    <row r="202" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H202" s="49"/>
+    </row>
+    <row r="203" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H203" s="49"/>
+    </row>
+    <row r="204" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H204" s="49"/>
+    </row>
+    <row r="205" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H205" s="49"/>
+    </row>
+    <row r="206" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H206" s="49"/>
+    </row>
+    <row r="207" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H207" s="49"/>
+    </row>
+    <row r="208" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H208" s="49"/>
+    </row>
+    <row r="209" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H209" s="49"/>
+    </row>
+    <row r="210" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H210" s="49"/>
+    </row>
+    <row r="211" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H211" s="49"/>
+    </row>
+    <row r="212" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H212" s="49"/>
+    </row>
+    <row r="213" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H213" s="49"/>
+    </row>
+    <row r="214" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H214" s="49"/>
+    </row>
+    <row r="215" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H215" s="49"/>
+    </row>
+    <row r="216" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H216" s="49"/>
+    </row>
+    <row r="217" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H217" s="49"/>
+    </row>
+    <row r="218" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H218" s="49"/>
+    </row>
+    <row r="219" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H219" s="49"/>
+    </row>
+    <row r="220" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H220" s="49"/>
+    </row>
+    <row r="221" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H221" s="49"/>
+    </row>
+    <row r="222" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H222" s="49"/>
+    </row>
+    <row r="223" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H223" s="49"/>
+    </row>
+    <row r="224" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H224" s="49"/>
+    </row>
+    <row r="225" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H225" s="49"/>
+    </row>
+    <row r="226" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H226" s="49"/>
+    </row>
+    <row r="227" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H227" s="49"/>
+    </row>
+    <row r="228" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H228" s="49"/>
+    </row>
+    <row r="229" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H229" s="49"/>
+    </row>
+    <row r="230" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H230" s="49"/>
+    </row>
+    <row r="231" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H231" s="49"/>
+    </row>
+    <row r="232" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H232" s="49"/>
+    </row>
+    <row r="233" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H233" s="49"/>
+    </row>
+    <row r="234" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H234" s="49"/>
+    </row>
+    <row r="235" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H235" s="49"/>
+    </row>
+    <row r="236" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H236" s="49"/>
+    </row>
+    <row r="237" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H237" s="49"/>
+    </row>
+    <row r="238" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H238" s="49"/>
+    </row>
+    <row r="239" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H239" s="49"/>
+    </row>
+    <row r="240" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H240" s="49"/>
+    </row>
+    <row r="241" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H241" s="49"/>
+    </row>
+    <row r="242" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H242" s="49"/>
+    </row>
+    <row r="243" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H243" s="49"/>
+    </row>
+    <row r="244" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H244" s="49"/>
+    </row>
+    <row r="245" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H245" s="49"/>
+    </row>
+    <row r="246" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H246" s="49"/>
+    </row>
+    <row r="247" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H247" s="49"/>
+    </row>
+    <row r="248" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H248" s="49"/>
+    </row>
+    <row r="249" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H249" s="49"/>
+    </row>
+    <row r="250" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H250" s="49"/>
+    </row>
+    <row r="251" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H251" s="49"/>
+    </row>
+    <row r="252" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H252" s="49"/>
+    </row>
+    <row r="253" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H253" s="49"/>
+    </row>
+    <row r="254" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H254" s="49"/>
+    </row>
+    <row r="255" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H255" s="49"/>
+    </row>
+    <row r="256" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H256" s="49"/>
+    </row>
+    <row r="257" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H257" s="49"/>
+    </row>
+    <row r="258" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H258" s="49"/>
+    </row>
+    <row r="259" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H259" s="49"/>
+    </row>
+    <row r="260" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H260" s="49"/>
+    </row>
+    <row r="261" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H261" s="49"/>
+    </row>
+    <row r="262" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H262" s="49"/>
+    </row>
+    <row r="263" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H263" s="49"/>
+    </row>
+    <row r="264" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H264" s="49"/>
+    </row>
+    <row r="265" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H265" s="49"/>
+    </row>
+    <row r="266" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H266" s="49"/>
+    </row>
+    <row r="267" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H267" s="49"/>
+    </row>
+    <row r="268" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H268" s="49"/>
+    </row>
+    <row r="269" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H269" s="49"/>
+    </row>
+    <row r="270" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H270" s="49"/>
+    </row>
+    <row r="271" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H271" s="49"/>
+    </row>
+    <row r="272" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H272" s="49"/>
+    </row>
+    <row r="273" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H273" s="49"/>
+    </row>
+    <row r="274" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H274" s="49"/>
+    </row>
+    <row r="275" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H275" s="49"/>
+    </row>
+    <row r="276" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H276" s="49"/>
+    </row>
+    <row r="277" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H277" s="49"/>
+    </row>
+    <row r="278" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H278" s="49"/>
+    </row>
+    <row r="279" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H279" s="49"/>
+    </row>
+    <row r="280" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H280" s="49"/>
+    </row>
+    <row r="281" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H281" s="49"/>
+    </row>
+    <row r="282" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H282" s="49"/>
+    </row>
+    <row r="283" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H283" s="49"/>
+    </row>
+    <row r="284" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H284" s="49"/>
+    </row>
+    <row r="285" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H285" s="49"/>
+    </row>
+    <row r="286" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H286" s="49"/>
+    </row>
+    <row r="287" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H287" s="49"/>
+    </row>
+    <row r="288" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H288" s="49"/>
+    </row>
+    <row r="289" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H289" s="49"/>
+    </row>
+    <row r="290" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H290" s="49"/>
+    </row>
+    <row r="291" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H291" s="49"/>
+    </row>
+    <row r="292" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H292" s="49"/>
+    </row>
+    <row r="293" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H293" s="49"/>
+    </row>
+    <row r="294" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H294" s="49"/>
+    </row>
+    <row r="295" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H295" s="49"/>
+    </row>
+    <row r="296" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H296" s="49"/>
+    </row>
+    <row r="297" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H297" s="49"/>
+    </row>
+    <row r="298" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H298" s="49"/>
+    </row>
+    <row r="299" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H299" s="49"/>
+    </row>
+    <row r="300" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H300" s="49"/>
+    </row>
+    <row r="301" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H301" s="49"/>
+    </row>
+    <row r="302" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H302" s="49"/>
+    </row>
+    <row r="303" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H303" s="49"/>
+    </row>
+    <row r="304" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H304" s="49"/>
+    </row>
+    <row r="305" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H305" s="49"/>
+    </row>
+    <row r="306" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H306" s="49"/>
+    </row>
+    <row r="307" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H307" s="49"/>
+    </row>
+    <row r="308" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H308" s="49"/>
+    </row>
+    <row r="309" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H309" s="49"/>
+    </row>
+    <row r="310" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H310" s="49"/>
+    </row>
+    <row r="311" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H311" s="49"/>
+    </row>
+    <row r="312" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H312" s="49"/>
+    </row>
+    <row r="313" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H313" s="49"/>
+    </row>
+    <row r="314" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H314" s="49"/>
+    </row>
+    <row r="315" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H315" s="49"/>
+    </row>
+    <row r="316" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H316" s="49"/>
+    </row>
+    <row r="317" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H317" s="49"/>
+    </row>
+    <row r="318" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H318" s="49"/>
+    </row>
+    <row r="319" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H319" s="49"/>
+    </row>
+    <row r="320" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H320" s="49"/>
+    </row>
+    <row r="321" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H321" s="49"/>
+    </row>
+    <row r="322" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H322" s="49"/>
+    </row>
+    <row r="323" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H323" s="49"/>
+    </row>
+    <row r="324" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H324" s="49"/>
+    </row>
+    <row r="325" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H325" s="49"/>
+    </row>
+    <row r="326" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H326" s="49"/>
+    </row>
+    <row r="327" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H327" s="49"/>
+    </row>
+    <row r="328" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H328" s="49"/>
+    </row>
+    <row r="329" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H329" s="49"/>
+    </row>
+    <row r="330" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H330" s="49"/>
+    </row>
+    <row r="331" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H331" s="49"/>
+    </row>
+    <row r="332" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H332" s="49"/>
+    </row>
+    <row r="333" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H333" s="49"/>
+    </row>
+    <row r="334" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H334" s="49"/>
+    </row>
+    <row r="335" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H335" s="49"/>
+    </row>
+    <row r="336" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H336" s="49"/>
+    </row>
+    <row r="337" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H337" s="49"/>
+    </row>
+    <row r="338" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H338" s="49"/>
+    </row>
+    <row r="339" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H339" s="49"/>
+    </row>
+    <row r="340" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H340" s="49"/>
+    </row>
+    <row r="341" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H341" s="49"/>
+    </row>
+    <row r="342" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H342" s="49"/>
+    </row>
+    <row r="343" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H343" s="49"/>
+    </row>
+    <row r="344" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H344" s="49"/>
+    </row>
+    <row r="345" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H345" s="49"/>
+    </row>
+    <row r="346" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H346" s="49"/>
+    </row>
+    <row r="347" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H347" s="49"/>
+    </row>
+    <row r="348" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H348" s="49"/>
+    </row>
+    <row r="349" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H349" s="49"/>
+    </row>
+    <row r="350" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H350" s="49"/>
+    </row>
+    <row r="351" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H351" s="49"/>
+    </row>
+    <row r="352" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H352" s="49"/>
+    </row>
+    <row r="353" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H353" s="49"/>
+    </row>
+    <row r="354" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H354" s="49"/>
+    </row>
+    <row r="355" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H355" s="49"/>
+    </row>
+    <row r="356" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H356" s="49"/>
+    </row>
+    <row r="357" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H357" s="49"/>
+    </row>
+    <row r="358" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H358" s="49"/>
+    </row>
+    <row r="359" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H359" s="49"/>
+    </row>
+    <row r="360" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H360" s="49"/>
+    </row>
+    <row r="361" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H361" s="49"/>
+    </row>
+    <row r="362" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H362" s="49"/>
+    </row>
+    <row r="363" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H363" s="49"/>
+    </row>
+    <row r="364" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H364" s="49"/>
+    </row>
+    <row r="365" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H365" s="49"/>
+    </row>
+    <row r="366" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H366" s="49"/>
+    </row>
+    <row r="367" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H367" s="49"/>
+    </row>
+    <row r="368" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H368" s="49"/>
+    </row>
+    <row r="369" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H369" s="49"/>
+    </row>
+    <row r="370" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H370" s="49"/>
+    </row>
+    <row r="371" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H371" s="49"/>
+    </row>
+    <row r="372" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H372" s="49"/>
+    </row>
+    <row r="373" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H373" s="49"/>
+    </row>
+    <row r="374" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H374" s="49"/>
+    </row>
+    <row r="375" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H375" s="49"/>
+    </row>
+    <row r="376" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H376" s="49"/>
+    </row>
+    <row r="377" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H377" s="49"/>
+    </row>
+    <row r="378" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H378" s="49"/>
+    </row>
+    <row r="379" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H379" s="49"/>
+    </row>
+    <row r="380" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H380" s="49"/>
+    </row>
+    <row r="381" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H381" s="49"/>
+    </row>
+    <row r="382" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H382" s="49"/>
+    </row>
+    <row r="383" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H383" s="49"/>
+    </row>
+    <row r="384" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H384" s="49"/>
+    </row>
+    <row r="385" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H385" s="49"/>
+    </row>
+    <row r="386" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H386" s="49"/>
+    </row>
+    <row r="387" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H387" s="49"/>
+    </row>
+    <row r="388" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H388" s="49"/>
+    </row>
+    <row r="389" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H389" s="49"/>
+    </row>
+    <row r="390" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H390" s="49"/>
+    </row>
+    <row r="391" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H391" s="49"/>
+    </row>
+    <row r="392" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H392" s="49"/>
+    </row>
+    <row r="393" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H393" s="49"/>
+    </row>
+    <row r="394" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H394" s="49"/>
+    </row>
+    <row r="395" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H395" s="49"/>
+    </row>
+    <row r="396" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H396" s="49"/>
+    </row>
+    <row r="397" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H397" s="49"/>
+    </row>
+    <row r="398" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H398" s="49"/>
+    </row>
+    <row r="399" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H399" s="49"/>
+    </row>
+    <row r="400" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H400" s="49"/>
+    </row>
+    <row r="401" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H401" s="49"/>
+    </row>
+    <row r="402" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H402" s="49"/>
+    </row>
+    <row r="403" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H403" s="49"/>
+    </row>
+    <row r="404" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H404" s="49"/>
+    </row>
+    <row r="405" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H405" s="49"/>
+    </row>
+    <row r="406" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H406" s="49"/>
+    </row>
+    <row r="407" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H407" s="49"/>
+    </row>
+    <row r="408" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H408" s="49"/>
+    </row>
+    <row r="409" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H409" s="49"/>
+    </row>
+    <row r="410" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H410" s="49"/>
+    </row>
+    <row r="411" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H411" s="49"/>
+    </row>
+    <row r="412" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H412" s="49"/>
+    </row>
+    <row r="413" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H413" s="49"/>
+    </row>
+    <row r="414" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H414" s="49"/>
+    </row>
+    <row r="415" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H415" s="49"/>
+    </row>
+    <row r="416" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H416" s="49"/>
+    </row>
+    <row r="417" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H417" s="49"/>
+    </row>
+    <row r="418" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H418" s="49"/>
+    </row>
+    <row r="419" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H419" s="49"/>
+    </row>
+    <row r="420" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H420" s="49"/>
+    </row>
+    <row r="421" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H421" s="49"/>
+    </row>
+    <row r="422" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H422" s="49"/>
+    </row>
+    <row r="423" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H423" s="49"/>
+    </row>
+    <row r="424" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H424" s="49"/>
+    </row>
+    <row r="425" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H425" s="49"/>
+    </row>
+    <row r="426" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H426" s="49"/>
+    </row>
+    <row r="427" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H427" s="49"/>
+    </row>
+    <row r="428" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H428" s="49"/>
+    </row>
+    <row r="429" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H429" s="49"/>
+    </row>
+    <row r="430" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H430" s="49"/>
+    </row>
+    <row r="431" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H431" s="49"/>
+    </row>
+    <row r="432" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H432" s="49"/>
+    </row>
+    <row r="433" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H433" s="49"/>
+    </row>
+    <row r="434" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H434" s="49"/>
+    </row>
+    <row r="435" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H435" s="49"/>
+    </row>
+    <row r="436" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H436" s="49"/>
+    </row>
+    <row r="437" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H437" s="49"/>
+    </row>
+    <row r="438" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H438" s="49"/>
+    </row>
+    <row r="439" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H439" s="49"/>
+    </row>
+    <row r="440" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H440" s="49"/>
+    </row>
+    <row r="441" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H441" s="49"/>
+    </row>
+    <row r="442" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H442" s="49"/>
+    </row>
+    <row r="443" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H443" s="49"/>
+    </row>
+    <row r="444" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H444" s="49"/>
+    </row>
+    <row r="445" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H445" s="49"/>
+    </row>
+    <row r="446" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H446" s="49"/>
+    </row>
+    <row r="447" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H447" s="49"/>
+    </row>
+    <row r="448" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H448" s="49"/>
+    </row>
+    <row r="449" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H449" s="49"/>
+    </row>
+    <row r="450" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H450" s="49"/>
+    </row>
+    <row r="451" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H451" s="49"/>
+    </row>
+    <row r="452" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H452" s="49"/>
+    </row>
+    <row r="453" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H453" s="49"/>
+    </row>
+    <row r="454" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H454" s="49"/>
+    </row>
+    <row r="455" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H455" s="49"/>
+    </row>
+    <row r="456" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H456" s="49"/>
+    </row>
+    <row r="457" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H457" s="49"/>
+    </row>
+    <row r="458" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H458" s="49"/>
+    </row>
+    <row r="459" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H459" s="49"/>
+    </row>
+    <row r="460" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H460" s="49"/>
+    </row>
+    <row r="461" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H461" s="49"/>
+    </row>
+    <row r="462" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H462" s="49"/>
+    </row>
+    <row r="463" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H463" s="49"/>
+    </row>
+    <row r="464" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H464" s="49"/>
+    </row>
+    <row r="465" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H465" s="49"/>
+    </row>
+    <row r="466" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H466" s="49"/>
+    </row>
+    <row r="467" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H467" s="49"/>
+    </row>
+    <row r="468" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H468" s="49"/>
+    </row>
+    <row r="469" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H469" s="49"/>
+    </row>
+    <row r="470" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H470" s="49"/>
+    </row>
+    <row r="471" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H471" s="49"/>
+    </row>
+    <row r="472" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H472" s="49"/>
+    </row>
+    <row r="473" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H473" s="49"/>
+    </row>
+    <row r="474" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H474" s="49"/>
+    </row>
+    <row r="475" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H475" s="49"/>
+    </row>
+    <row r="476" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H476" s="49"/>
+    </row>
+    <row r="477" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H477" s="49"/>
+    </row>
+    <row r="478" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H478" s="49"/>
+    </row>
+    <row r="479" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H479" s="49"/>
+    </row>
+    <row r="480" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H480" s="49"/>
+    </row>
+    <row r="481" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H481" s="49"/>
+    </row>
+    <row r="482" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H482" s="49"/>
+    </row>
+    <row r="483" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H483" s="49"/>
+    </row>
+    <row r="484" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H484" s="49"/>
+    </row>
+    <row r="485" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H485" s="49"/>
+    </row>
+    <row r="486" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H486" s="49"/>
+    </row>
+    <row r="487" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H487" s="49"/>
+    </row>
+    <row r="488" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H488" s="49"/>
+    </row>
+    <row r="489" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H489" s="49"/>
+    </row>
+    <row r="490" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H490" s="49"/>
+    </row>
+    <row r="491" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H491" s="49"/>
+    </row>
+    <row r="492" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H492" s="49"/>
+    </row>
+    <row r="493" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H493" s="49"/>
+    </row>
+    <row r="494" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H494" s="49"/>
+    </row>
+    <row r="495" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H495" s="49"/>
+    </row>
+    <row r="496" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H496" s="49"/>
+    </row>
+    <row r="497" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H497" s="49"/>
+    </row>
+    <row r="498" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H498" s="49"/>
+    </row>
+    <row r="499" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H499" s="49"/>
+    </row>
+    <row r="500" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H500" s="49"/>
+    </row>
+    <row r="501" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H501" s="49"/>
+    </row>
+    <row r="502" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H502" s="49"/>
+    </row>
+    <row r="503" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H503" s="49"/>
+    </row>
+    <row r="504" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H504" s="49"/>
+    </row>
+    <row r="505" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H505" s="49"/>
+    </row>
+    <row r="506" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H506" s="49"/>
+    </row>
+    <row r="507" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H507" s="49"/>
+    </row>
+    <row r="508" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H508" s="49"/>
+    </row>
+    <row r="509" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H509" s="49"/>
+    </row>
+    <row r="510" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H510" s="49"/>
+    </row>
+    <row r="511" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H511" s="49"/>
+    </row>
+    <row r="512" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H512" s="49"/>
+    </row>
+    <row r="513" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H513" s="49"/>
+    </row>
+    <row r="514" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H514" s="49"/>
+    </row>
+    <row r="515" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H515" s="49"/>
+    </row>
+    <row r="516" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H516" s="49"/>
+    </row>
+    <row r="517" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H517" s="49"/>
+    </row>
+    <row r="518" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H518" s="49"/>
+    </row>
+    <row r="519" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H519" s="49"/>
+    </row>
+    <row r="520" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H520" s="49"/>
+    </row>
+    <row r="521" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H521" s="49"/>
+    </row>
+    <row r="522" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H522" s="49"/>
+    </row>
+    <row r="523" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H523" s="49"/>
+    </row>
+    <row r="524" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H524" s="49"/>
+    </row>
+    <row r="525" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H525" s="49"/>
+    </row>
+    <row r="526" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H526" s="49"/>
+    </row>
+    <row r="527" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H527" s="49"/>
+    </row>
+    <row r="528" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H528" s="49"/>
+    </row>
+    <row r="529" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H529" s="49"/>
+    </row>
+    <row r="530" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H530" s="49"/>
+    </row>
+    <row r="531" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H531" s="49"/>
+    </row>
+    <row r="532" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H532" s="49"/>
+    </row>
+    <row r="533" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H533" s="49"/>
+    </row>
+    <row r="534" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H534" s="49"/>
+    </row>
+    <row r="535" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H535" s="49"/>
+    </row>
+    <row r="536" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H536" s="49"/>
+    </row>
+    <row r="537" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H537" s="49"/>
+    </row>
+    <row r="538" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H538" s="49"/>
+    </row>
+    <row r="539" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H539" s="49"/>
+    </row>
+    <row r="540" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H540" s="49"/>
+    </row>
+    <row r="541" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H541" s="49"/>
+    </row>
+    <row r="542" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H542" s="49"/>
+    </row>
+    <row r="543" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H543" s="49"/>
+    </row>
+    <row r="544" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H544" s="49"/>
+    </row>
+    <row r="545" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H545" s="49"/>
+    </row>
+    <row r="546" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H546" s="49"/>
+    </row>
+    <row r="547" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H547" s="49"/>
+    </row>
+    <row r="548" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H548" s="49"/>
+    </row>
+    <row r="549" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H549" s="49"/>
+    </row>
+    <row r="550" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H550" s="49"/>
+    </row>
+    <row r="551" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H551" s="49"/>
+    </row>
+    <row r="552" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H552" s="49"/>
+    </row>
+    <row r="553" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H553" s="49"/>
+    </row>
+    <row r="554" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H554" s="49"/>
+    </row>
+    <row r="555" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H555" s="49"/>
+    </row>
+    <row r="556" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H556" s="49"/>
+    </row>
+    <row r="557" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H557" s="49"/>
+    </row>
+    <row r="558" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H558" s="49"/>
+    </row>
+    <row r="559" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H559" s="49"/>
+    </row>
+    <row r="560" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H560" s="49"/>
+    </row>
+    <row r="561" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H561" s="49"/>
+    </row>
+    <row r="562" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H562" s="49"/>
+    </row>
+    <row r="563" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H563" s="49"/>
+    </row>
+    <row r="564" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H564" s="49"/>
+    </row>
+    <row r="565" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H565" s="49"/>
+    </row>
+    <row r="566" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H566" s="49"/>
+    </row>
+    <row r="567" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H567" s="49"/>
+    </row>
+    <row r="568" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H568" s="49"/>
+    </row>
+    <row r="569" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H569" s="49"/>
+    </row>
+    <row r="570" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H570" s="49"/>
+    </row>
+    <row r="571" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H571" s="49"/>
+    </row>
+    <row r="572" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H572" s="49"/>
+    </row>
+    <row r="573" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H573" s="49"/>
+    </row>
+    <row r="574" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H574" s="49"/>
+    </row>
+    <row r="575" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H575" s="49"/>
+    </row>
+    <row r="576" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H576" s="49"/>
+    </row>
+    <row r="577" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H577" s="49"/>
+    </row>
+    <row r="578" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H578" s="49"/>
+    </row>
+    <row r="579" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H579" s="49"/>
+    </row>
+    <row r="580" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H580" s="49"/>
+    </row>
+    <row r="581" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H581" s="49"/>
+    </row>
+    <row r="582" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H582" s="49"/>
+    </row>
+    <row r="583" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H583" s="49"/>
+    </row>
+    <row r="584" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H584" s="49"/>
+    </row>
+    <row r="585" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H585" s="49"/>
+    </row>
+    <row r="586" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H586" s="49"/>
+    </row>
+    <row r="587" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H587" s="49"/>
+    </row>
+    <row r="588" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H588" s="49"/>
+    </row>
+    <row r="589" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H589" s="49"/>
+    </row>
+    <row r="590" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H590" s="49"/>
+    </row>
+    <row r="591" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H591" s="49"/>
+    </row>
+    <row r="592" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H592" s="49"/>
+    </row>
+    <row r="593" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H593" s="49"/>
+    </row>
+    <row r="594" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H594" s="49"/>
+    </row>
+    <row r="595" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H595" s="49"/>
+    </row>
+    <row r="596" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H596" s="49"/>
+    </row>
+    <row r="597" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H597" s="49"/>
+    </row>
+    <row r="598" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H598" s="49"/>
+    </row>
+    <row r="599" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H599" s="49"/>
+    </row>
+    <row r="600" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H600" s="49"/>
+    </row>
+    <row r="601" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H601" s="49"/>
+    </row>
+    <row r="602" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H602" s="49"/>
+    </row>
+    <row r="603" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H603" s="49"/>
+    </row>
+    <row r="604" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H604" s="49"/>
+    </row>
+    <row r="605" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H605" s="49"/>
+    </row>
+    <row r="606" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H606" s="49"/>
+    </row>
+    <row r="607" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H607" s="49"/>
+    </row>
+    <row r="608" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H608" s="49"/>
+    </row>
+    <row r="609" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H609" s="49"/>
+    </row>
+    <row r="610" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H610" s="49"/>
+    </row>
+    <row r="611" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H611" s="49"/>
+    </row>
+    <row r="612" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H612" s="49"/>
+    </row>
+    <row r="613" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H613" s="49"/>
+    </row>
+    <row r="614" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H614" s="49"/>
+    </row>
+    <row r="615" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H615" s="49"/>
+    </row>
+    <row r="616" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H616" s="49"/>
+    </row>
+    <row r="617" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H617" s="49"/>
+    </row>
+    <row r="618" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H618" s="49"/>
+    </row>
+    <row r="619" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H619" s="49"/>
+    </row>
+    <row r="620" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H620" s="49"/>
+    </row>
+    <row r="621" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H621" s="49"/>
+    </row>
+    <row r="622" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H622" s="49"/>
+    </row>
+    <row r="623" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H623" s="49"/>
+    </row>
+    <row r="624" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H624" s="49"/>
+    </row>
+    <row r="625" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H625" s="49"/>
+    </row>
+    <row r="626" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H626" s="49"/>
+    </row>
+    <row r="627" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H627" s="49"/>
+    </row>
+    <row r="628" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H628" s="49"/>
+    </row>
+    <row r="629" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H629" s="49"/>
+    </row>
+    <row r="630" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H630" s="49"/>
+    </row>
+    <row r="631" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H631" s="49"/>
+    </row>
+    <row r="632" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H632" s="49"/>
+    </row>
+    <row r="633" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H633" s="49"/>
+    </row>
+    <row r="634" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H634" s="49"/>
+    </row>
+    <row r="635" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H635" s="49"/>
+    </row>
+    <row r="636" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H636" s="49"/>
+    </row>
+    <row r="637" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H637" s="49"/>
+    </row>
+    <row r="638" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H638" s="49"/>
+    </row>
+    <row r="639" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H639" s="49"/>
+    </row>
+    <row r="640" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H640" s="49"/>
+    </row>
+    <row r="641" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H641" s="49"/>
+    </row>
+    <row r="642" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H642" s="49"/>
+    </row>
+    <row r="643" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H643" s="49"/>
+    </row>
+    <row r="644" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H644" s="49"/>
+    </row>
+    <row r="645" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H645" s="49"/>
+    </row>
+    <row r="646" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H646" s="49"/>
+    </row>
+    <row r="647" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H647" s="49"/>
+    </row>
+    <row r="648" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H648" s="49"/>
+    </row>
+    <row r="649" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H649" s="49"/>
+    </row>
+    <row r="650" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H650" s="49"/>
+    </row>
+    <row r="651" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H651" s="49"/>
+    </row>
+    <row r="652" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H652" s="49"/>
+    </row>
+    <row r="653" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H653" s="49"/>
+    </row>
+    <row r="654" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H654" s="49"/>
+    </row>
+    <row r="655" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H655" s="49"/>
+    </row>
+    <row r="656" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H656" s="49"/>
+    </row>
+    <row r="657" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H657" s="49"/>
+    </row>
+    <row r="658" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H658" s="49"/>
+    </row>
+    <row r="659" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H659" s="49"/>
+    </row>
+    <row r="660" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H660" s="49"/>
+    </row>
+    <row r="661" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H661" s="49"/>
+    </row>
+    <row r="662" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H662" s="49"/>
+    </row>
+    <row r="663" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H663" s="49"/>
+    </row>
+    <row r="664" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H664" s="49"/>
+    </row>
+    <row r="665" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H665" s="49"/>
+    </row>
+    <row r="666" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H666" s="49"/>
+    </row>
+    <row r="667" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H667" s="49"/>
+    </row>
+    <row r="668" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H668" s="49"/>
+    </row>
+    <row r="669" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H669" s="49"/>
+    </row>
+    <row r="670" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H670" s="49"/>
+    </row>
+    <row r="671" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H671" s="49"/>
+    </row>
+    <row r="672" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H672" s="49"/>
+    </row>
+    <row r="673" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H673" s="49"/>
+    </row>
+    <row r="674" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H674" s="49"/>
+    </row>
+    <row r="675" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H675" s="49"/>
+    </row>
+    <row r="676" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H676" s="49"/>
+    </row>
+    <row r="677" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H677" s="49"/>
+    </row>
+    <row r="678" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H678" s="49"/>
+    </row>
+    <row r="679" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H679" s="49"/>
+    </row>
+    <row r="680" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H680" s="49"/>
+    </row>
+    <row r="681" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H681" s="49"/>
+    </row>
+    <row r="682" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H682" s="49"/>
+    </row>
+    <row r="683" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H683" s="49"/>
+    </row>
+    <row r="684" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H684" s="49"/>
+    </row>
+    <row r="685" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H685" s="49"/>
+    </row>
+    <row r="686" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H686" s="49"/>
+    </row>
+    <row r="687" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H687" s="49"/>
+    </row>
+    <row r="688" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H688" s="49"/>
+    </row>
+    <row r="689" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H689" s="49"/>
+    </row>
+    <row r="690" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H690" s="49"/>
+    </row>
+    <row r="691" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H691" s="49"/>
+    </row>
+    <row r="692" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H692" s="49"/>
+    </row>
+    <row r="693" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H693" s="49"/>
+    </row>
+    <row r="694" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H694" s="49"/>
+    </row>
+    <row r="695" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H695" s="49"/>
+    </row>
+    <row r="696" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H696" s="49"/>
+    </row>
+    <row r="697" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H697" s="49"/>
+    </row>
+    <row r="698" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H698" s="49"/>
+    </row>
+    <row r="699" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H699" s="49"/>
+    </row>
+    <row r="700" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H700" s="49"/>
+    </row>
+    <row r="701" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H701" s="49"/>
+    </row>
+    <row r="702" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H702" s="49"/>
+    </row>
+    <row r="703" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H703" s="49"/>
+    </row>
+    <row r="704" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H704" s="49"/>
+    </row>
+    <row r="705" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H705" s="49"/>
+    </row>
+    <row r="706" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H706" s="49"/>
+    </row>
+    <row r="707" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H707" s="49"/>
+    </row>
+    <row r="708" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H708" s="49"/>
+    </row>
+    <row r="709" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H709" s="49"/>
+    </row>
+    <row r="710" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H710" s="49"/>
+    </row>
+    <row r="711" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H711" s="49"/>
+    </row>
+    <row r="712" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H712" s="49"/>
+    </row>
+    <row r="713" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H713" s="49"/>
+    </row>
+    <row r="714" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H714" s="49"/>
+    </row>
+    <row r="715" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H715" s="49"/>
+    </row>
+    <row r="716" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H716" s="49"/>
+    </row>
+    <row r="717" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H717" s="49"/>
+    </row>
+    <row r="718" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H718" s="49"/>
+    </row>
+    <row r="719" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H719" s="49"/>
+    </row>
+    <row r="720" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H720" s="49"/>
+    </row>
+    <row r="721" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H721" s="49"/>
+    </row>
+    <row r="722" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H722" s="49"/>
+    </row>
+    <row r="723" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H723" s="49"/>
+    </row>
+    <row r="724" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H724" s="49"/>
+    </row>
+    <row r="725" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H725" s="49"/>
+    </row>
+    <row r="726" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H726" s="49"/>
+    </row>
+    <row r="727" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H727" s="49"/>
+    </row>
+    <row r="728" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H728" s="49"/>
+    </row>
+    <row r="729" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H729" s="49"/>
+    </row>
+    <row r="730" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H730" s="49"/>
+    </row>
+    <row r="731" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H731" s="49"/>
+    </row>
+    <row r="732" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H732" s="49"/>
+    </row>
+    <row r="733" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H733" s="49"/>
+    </row>
+    <row r="734" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H734" s="49"/>
+    </row>
+    <row r="735" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H735" s="49"/>
+    </row>
+    <row r="736" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H736" s="49"/>
+    </row>
+    <row r="737" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H737" s="49"/>
+    </row>
+    <row r="738" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H738" s="49"/>
+    </row>
+    <row r="739" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H739" s="49"/>
+    </row>
+    <row r="740" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H740" s="49"/>
+    </row>
+    <row r="741" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H741" s="49"/>
+    </row>
+    <row r="742" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H742" s="49"/>
+    </row>
+    <row r="743" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H743" s="49"/>
+    </row>
+    <row r="744" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H744" s="49"/>
+    </row>
+    <row r="745" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H745" s="49"/>
+    </row>
+    <row r="746" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H746" s="49"/>
+    </row>
+    <row r="747" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H747" s="49"/>
+    </row>
+    <row r="748" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H748" s="49"/>
+    </row>
+    <row r="749" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H749" s="49"/>
+    </row>
+    <row r="750" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H750" s="49"/>
+    </row>
+    <row r="751" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H751" s="49"/>
+    </row>
+    <row r="752" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H752" s="49"/>
+    </row>
+    <row r="753" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H753" s="49"/>
+    </row>
+    <row r="754" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H754" s="49"/>
+    </row>
+    <row r="755" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H755" s="49"/>
+    </row>
+    <row r="756" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H756" s="49"/>
+    </row>
+    <row r="757" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H757" s="49"/>
+    </row>
+    <row r="758" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H758" s="49"/>
+    </row>
+    <row r="759" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H759" s="49"/>
+    </row>
+    <row r="760" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H760" s="49"/>
+    </row>
+    <row r="761" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H761" s="49"/>
+    </row>
+    <row r="762" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H762" s="49"/>
+    </row>
+    <row r="763" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H763" s="49"/>
+    </row>
+    <row r="764" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H764" s="49"/>
+    </row>
+    <row r="765" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H765" s="49"/>
+    </row>
+    <row r="766" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H766" s="49"/>
+    </row>
+    <row r="767" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H767" s="49"/>
+    </row>
+    <row r="768" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H768" s="49"/>
+    </row>
+    <row r="769" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H769" s="49"/>
+    </row>
+    <row r="770" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H770" s="49"/>
+    </row>
+    <row r="771" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H771" s="49"/>
+    </row>
+    <row r="772" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H772" s="49"/>
+    </row>
+    <row r="773" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H773" s="49"/>
+    </row>
+    <row r="774" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H774" s="49"/>
+    </row>
+    <row r="775" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H775" s="49"/>
+    </row>
+    <row r="776" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H776" s="49"/>
+    </row>
+    <row r="777" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H777" s="49"/>
+    </row>
+    <row r="778" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H778" s="49"/>
+    </row>
+    <row r="779" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H779" s="49"/>
+    </row>
+    <row r="780" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H780" s="49"/>
+    </row>
+    <row r="781" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H781" s="49"/>
+    </row>
+    <row r="782" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H782" s="49"/>
+    </row>
+    <row r="783" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H783" s="49"/>
+    </row>
+    <row r="784" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H784" s="49"/>
+    </row>
+    <row r="785" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H785" s="49"/>
+    </row>
+    <row r="786" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H786" s="49"/>
+    </row>
+    <row r="787" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H787" s="49"/>
+    </row>
+    <row r="788" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H788" s="49"/>
+    </row>
+    <row r="789" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H789" s="49"/>
+    </row>
+    <row r="790" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H790" s="49"/>
+    </row>
+    <row r="791" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H791" s="49"/>
+    </row>
+    <row r="792" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H792" s="49"/>
+    </row>
+    <row r="793" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H793" s="49"/>
+    </row>
+    <row r="794" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H794" s="49"/>
+    </row>
+    <row r="795" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H795" s="49"/>
+    </row>
+    <row r="796" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H796" s="49"/>
+    </row>
+    <row r="797" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H797" s="49"/>
+    </row>
+    <row r="798" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H798" s="49"/>
+    </row>
+    <row r="799" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H799" s="49"/>
+    </row>
+    <row r="800" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H800" s="49"/>
+    </row>
+    <row r="801" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H801" s="49"/>
+    </row>
+    <row r="802" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H802" s="49"/>
+    </row>
+    <row r="803" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H803" s="49"/>
+    </row>
+    <row r="804" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H804" s="49"/>
+    </row>
+    <row r="805" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H805" s="49"/>
+    </row>
+    <row r="806" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H806" s="49"/>
+    </row>
+    <row r="807" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H807" s="49"/>
+    </row>
+    <row r="808" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H808" s="49"/>
+    </row>
+    <row r="809" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H809" s="49"/>
+    </row>
+    <row r="810" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H810" s="49"/>
+    </row>
+    <row r="811" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H811" s="49"/>
+    </row>
+    <row r="812" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H812" s="49"/>
+    </row>
+    <row r="813" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H813" s="49"/>
+    </row>
+    <row r="814" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H814" s="49"/>
+    </row>
+    <row r="815" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H815" s="49"/>
+    </row>
+    <row r="816" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H816" s="49"/>
+    </row>
+    <row r="817" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H817" s="49"/>
+    </row>
+    <row r="818" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H818" s="49"/>
+    </row>
+    <row r="819" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H819" s="49"/>
+    </row>
+    <row r="820" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H820" s="49"/>
+    </row>
+    <row r="821" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H821" s="49"/>
+    </row>
+    <row r="822" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H822" s="49"/>
+    </row>
+    <row r="823" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H823" s="49"/>
+    </row>
+    <row r="824" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H824" s="49"/>
+    </row>
+    <row r="825" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H825" s="49"/>
+    </row>
+    <row r="826" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H826" s="49"/>
+    </row>
+    <row r="827" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H827" s="49"/>
+    </row>
+    <row r="828" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H828" s="49"/>
+    </row>
+    <row r="829" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H829" s="49"/>
+    </row>
+    <row r="830" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H830" s="49"/>
+    </row>
+    <row r="831" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H831" s="49"/>
+    </row>
+    <row r="832" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H832" s="49"/>
+    </row>
+    <row r="833" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H833" s="49"/>
+    </row>
+    <row r="834" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H834" s="49"/>
+    </row>
+    <row r="835" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H835" s="49"/>
+    </row>
+    <row r="836" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H836" s="49"/>
+    </row>
+    <row r="837" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H837" s="49"/>
+    </row>
+    <row r="838" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H838" s="49"/>
+    </row>
+    <row r="839" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H839" s="49"/>
+    </row>
+    <row r="840" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H840" s="49"/>
+    </row>
+    <row r="841" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H841" s="49"/>
+    </row>
+    <row r="842" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H842" s="49"/>
+    </row>
+    <row r="843" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H843" s="49"/>
+    </row>
+    <row r="844" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H844" s="49"/>
+    </row>
+    <row r="845" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H845" s="49"/>
+    </row>
+    <row r="846" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H846" s="49"/>
+    </row>
+    <row r="847" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H847" s="49"/>
+    </row>
+    <row r="848" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H848" s="49"/>
+    </row>
+    <row r="849" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H849" s="49"/>
+    </row>
+    <row r="850" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H850" s="49"/>
+    </row>
+    <row r="851" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H851" s="49"/>
+    </row>
+    <row r="852" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H852" s="49"/>
+    </row>
+    <row r="853" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H853" s="49"/>
+    </row>
+    <row r="854" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H854" s="49"/>
+    </row>
+    <row r="855" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H855" s="49"/>
+    </row>
+    <row r="856" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H856" s="49"/>
+    </row>
+    <row r="857" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H857" s="49"/>
+    </row>
+    <row r="858" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H858" s="49"/>
+    </row>
+    <row r="859" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H859" s="49"/>
+    </row>
+    <row r="860" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H860" s="49"/>
+    </row>
+    <row r="861" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H861" s="49"/>
+    </row>
+    <row r="862" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H862" s="49"/>
+    </row>
+    <row r="863" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H863" s="49"/>
+    </row>
+    <row r="864" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H864" s="49"/>
+    </row>
+    <row r="865" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H865" s="49"/>
+    </row>
+    <row r="866" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H866" s="49"/>
+    </row>
+    <row r="867" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H867" s="49"/>
+    </row>
+    <row r="868" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H868" s="49"/>
+    </row>
+    <row r="869" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H869" s="49"/>
+    </row>
+    <row r="870" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H870" s="49"/>
+    </row>
+    <row r="871" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H871" s="49"/>
+    </row>
+    <row r="872" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H872" s="49"/>
+    </row>
+    <row r="873" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H873" s="49"/>
+    </row>
+    <row r="874" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H874" s="49"/>
+    </row>
+    <row r="875" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H875" s="49"/>
+    </row>
+    <row r="876" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H876" s="49"/>
+    </row>
+    <row r="877" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H877" s="49"/>
+    </row>
+    <row r="878" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H878" s="49"/>
+    </row>
+    <row r="879" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H879" s="49"/>
+    </row>
+    <row r="880" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H880" s="49"/>
+    </row>
+    <row r="881" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H881" s="49"/>
+    </row>
+    <row r="882" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H882" s="49"/>
+    </row>
+    <row r="883" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H883" s="49"/>
+    </row>
+    <row r="884" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H884" s="49"/>
+    </row>
+    <row r="885" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H885" s="49"/>
+    </row>
+    <row r="886" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H886" s="49"/>
+    </row>
+    <row r="887" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H887" s="49"/>
+    </row>
+    <row r="888" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H888" s="49"/>
+    </row>
+    <row r="889" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H889" s="49"/>
+    </row>
+    <row r="890" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H890" s="49"/>
+    </row>
+    <row r="891" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H891" s="49"/>
+    </row>
+    <row r="892" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H892" s="49"/>
+    </row>
+    <row r="893" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H893" s="49"/>
+    </row>
+    <row r="894" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H894" s="49"/>
+    </row>
+    <row r="895" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H895" s="49"/>
+    </row>
+    <row r="896" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H896" s="49"/>
+    </row>
+    <row r="897" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H897" s="49"/>
+    </row>
+    <row r="898" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H898" s="49"/>
+    </row>
+    <row r="899" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H899" s="49"/>
+    </row>
+    <row r="900" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H900" s="49"/>
+    </row>
+    <row r="901" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H901" s="49"/>
+    </row>
+    <row r="902" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H902" s="49"/>
+    </row>
+    <row r="903" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H903" s="49"/>
+    </row>
+    <row r="904" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H904" s="49"/>
+    </row>
+    <row r="905" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H905" s="49"/>
+    </row>
+    <row r="906" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H906" s="49"/>
+    </row>
+    <row r="907" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H907" s="49"/>
+    </row>
+    <row r="908" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H908" s="49"/>
+    </row>
+    <row r="909" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H909" s="49"/>
+    </row>
+    <row r="910" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H910" s="49"/>
+    </row>
+    <row r="911" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H911" s="49"/>
+    </row>
+    <row r="912" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H912" s="49"/>
+    </row>
+    <row r="913" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H913" s="49"/>
+    </row>
+    <row r="914" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H914" s="49"/>
+    </row>
+    <row r="915" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H915" s="49"/>
+    </row>
+    <row r="916" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H916" s="49"/>
+    </row>
+    <row r="917" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H917" s="49"/>
+    </row>
+    <row r="918" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H918" s="49"/>
+    </row>
+    <row r="919" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H919" s="49"/>
+    </row>
+    <row r="920" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H920" s="49"/>
+    </row>
+    <row r="921" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H921" s="49"/>
+    </row>
+    <row r="922" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H922" s="49"/>
+    </row>
+    <row r="923" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H923" s="49"/>
+    </row>
+    <row r="924" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H924" s="49"/>
+    </row>
+    <row r="925" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H925" s="49"/>
+    </row>
+    <row r="926" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H926" s="49"/>
+    </row>
+    <row r="927" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H927" s="49"/>
+    </row>
+    <row r="928" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H928" s="49"/>
+    </row>
+    <row r="929" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H929" s="49"/>
+    </row>
+    <row r="930" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H930" s="49"/>
+    </row>
+    <row r="931" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H931" s="49"/>
+    </row>
+    <row r="932" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H932" s="49"/>
+    </row>
+    <row r="933" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H933" s="49"/>
+    </row>
+    <row r="934" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H934" s="49"/>
+    </row>
+    <row r="935" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H935" s="49"/>
+    </row>
+    <row r="936" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H936" s="49"/>
+    </row>
+    <row r="937" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H937" s="49"/>
+    </row>
+    <row r="938" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H938" s="49"/>
+    </row>
+    <row r="939" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H939" s="49"/>
+    </row>
+    <row r="940" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H940" s="49"/>
+    </row>
+    <row r="941" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H941" s="49"/>
+    </row>
+    <row r="942" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H942" s="49"/>
+    </row>
+    <row r="943" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H943" s="49"/>
+    </row>
+    <row r="944" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H944" s="49"/>
+    </row>
+    <row r="945" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H945" s="49"/>
+    </row>
+    <row r="946" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H946" s="49"/>
+    </row>
+    <row r="947" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H947" s="49"/>
+    </row>
+    <row r="948" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H948" s="49"/>
+    </row>
+    <row r="949" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H949" s="49"/>
+    </row>
+    <row r="950" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H950" s="49"/>
+    </row>
+    <row r="951" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H951" s="49"/>
+    </row>
+    <row r="952" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H952" s="49"/>
+    </row>
+    <row r="953" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H953" s="49"/>
+    </row>
+    <row r="954" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H954" s="49"/>
+    </row>
+    <row r="955" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H955" s="49"/>
+    </row>
+    <row r="956" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H956" s="49"/>
+    </row>
+    <row r="957" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H957" s="49"/>
+    </row>
+    <row r="958" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H958" s="49"/>
+    </row>
+    <row r="959" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H959" s="49"/>
+    </row>
+    <row r="960" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H960" s="49"/>
+    </row>
+    <row r="961" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H961" s="49"/>
+    </row>
+    <row r="962" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H962" s="49"/>
+    </row>
+    <row r="963" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H963" s="49"/>
+    </row>
+    <row r="964" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H964" s="49"/>
+    </row>
+    <row r="965" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H965" s="49"/>
+    </row>
+    <row r="966" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H966" s="49"/>
+    </row>
+    <row r="967" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H967" s="49"/>
+    </row>
+    <row r="968" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H968" s="49"/>
+    </row>
+    <row r="969" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H969" s="49"/>
+    </row>
+    <row r="970" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H970" s="49"/>
+    </row>
+    <row r="971" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H971" s="49"/>
+    </row>
+    <row r="972" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H972" s="49"/>
+    </row>
+    <row r="973" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H973" s="49"/>
+    </row>
+    <row r="974" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H974" s="49"/>
+    </row>
+    <row r="975" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H975" s="49"/>
+    </row>
+    <row r="976" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H976" s="49"/>
+    </row>
+    <row r="977" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H977" s="49"/>
+    </row>
+    <row r="978" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H978" s="49"/>
+    </row>
+    <row r="979" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H979" s="49"/>
+    </row>
+    <row r="980" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H980" s="49"/>
+    </row>
+    <row r="981" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H981" s="49"/>
+    </row>
+    <row r="982" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H982" s="49"/>
+    </row>
+    <row r="983" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H983" s="49"/>
+    </row>
+    <row r="984" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H984" s="49"/>
+    </row>
+    <row r="985" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H985" s="49"/>
+    </row>
+    <row r="986" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H986" s="49"/>
+    </row>
+    <row r="987" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H987" s="49"/>
+    </row>
+    <row r="988" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H988" s="49"/>
+    </row>
+    <row r="989" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H989" s="49"/>
+    </row>
+    <row r="990" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H990" s="49"/>
+    </row>
+    <row r="991" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H991" s="49"/>
+    </row>
+    <row r="992" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H992" s="49"/>
+    </row>
+    <row r="993" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H993" s="49"/>
+    </row>
+    <row r="994" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H994" s="49"/>
+    </row>
+    <row r="995" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H995" s="49"/>
+    </row>
+    <row r="996" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H996" s="49"/>
+    </row>
+    <row r="997" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H997" s="49"/>
+    </row>
+    <row r="998" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H998" s="49"/>
+    </row>
+    <row r="999" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H999" s="49"/>
+    </row>
+    <row r="1000" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1000" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
+  <autoFilter ref="B1:I1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10BB0E5-828A-41CE-B640-726894E6BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266EF84-5547-4A2A-AF3C-570614759448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -854,9 +854,6 @@
     <t>MEASUREMENTS</t>
   </si>
   <si>
-    <t>Yes (Including ‘Unknown’)</t>
-  </si>
-  <si>
     <t>Yes (including ‘Unknown’)</t>
   </si>
   <si>
@@ -876,6 +873,1038 @@
   </si>
   <si>
     <t>34cfea63-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>lbl</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>👍Assessment Investigator - Actor</t>
+  </si>
+  <si>
+    <t>#1b9e77</t>
+  </si>
+  <si>
+    <t>f.1</t>
+  </si>
+  <si>
+    <t>f.1: Assessment Investigator - Actor</t>
+  </si>
+  <si>
+    <t>👍Investigator Role Type</t>
+  </si>
+  <si>
+    <t>f.2</t>
+  </si>
+  <si>
+    <t>f.2: Investigator Role Type</t>
+  </si>
+  <si>
+    <t>👍Assessment Activity Type</t>
+  </si>
+  <si>
+    <t>f.3</t>
+  </si>
+  <si>
+    <t>f.3: Assessment Activity Type</t>
+  </si>
+  <si>
+    <t>👍Assessment Activity Date</t>
+  </si>
+  <si>
+    <t>f.4</t>
+  </si>
+  <si>
+    <t>f.4: Assessment Activity Date</t>
+  </si>
+  <si>
+    <t>👍Google Earth Assessment</t>
+  </si>
+  <si>
+    <t>f.5</t>
+  </si>
+  <si>
+    <t>f.5: Google Earth Assessment</t>
+  </si>
+  <si>
+    <t>👍GE Imagery Acquisition Date</t>
+  </si>
+  <si>
+    <t>f.6</t>
+  </si>
+  <si>
+    <t>f.6: GE Imagery Acquisition Date</t>
+  </si>
+  <si>
+    <t>#1b9e7755</t>
+  </si>
+  <si>
+    <t>f.7</t>
+  </si>
+  <si>
+    <t>f.7: Information Resource</t>
+  </si>
+  <si>
+    <t>f.8</t>
+  </si>
+  <si>
+    <t>f.8: Information Resource Acquisition Date</t>
+  </si>
+  <si>
+    <t>#d95f0255</t>
+  </si>
+  <si>
+    <t>f.9</t>
+  </si>
+  <si>
+    <t>f.9: Resource Name</t>
+  </si>
+  <si>
+    <t>f.10</t>
+  </si>
+  <si>
+    <t>f.10: Name Type</t>
+  </si>
+  <si>
+    <t>f.11</t>
+  </si>
+  <si>
+    <t>f.11: Heritage Place Type</t>
+  </si>
+  <si>
+    <t>f.12</t>
+  </si>
+  <si>
+    <t>f.12: General Description Type</t>
+  </si>
+  <si>
+    <t>f.13</t>
+  </si>
+  <si>
+    <t>f.13: General Description</t>
+  </si>
+  <si>
+    <t>👍Heritage Place Function</t>
+  </si>
+  <si>
+    <t>#d95f02</t>
+  </si>
+  <si>
+    <t>f.14</t>
+  </si>
+  <si>
+    <t>f.14: Heritage Place Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Heritage Place Function Certainty </t>
+  </si>
+  <si>
+    <t>f.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.15: Heritage Place Function Certainty </t>
+  </si>
+  <si>
+    <t>f.16</t>
+  </si>
+  <si>
+    <t>f.16: Designation</t>
+  </si>
+  <si>
+    <t>f.17</t>
+  </si>
+  <si>
+    <t>f.17: Designation From Date</t>
+  </si>
+  <si>
+    <t>f.18</t>
+  </si>
+  <si>
+    <t>f.18: Designation To Date</t>
+  </si>
+  <si>
+    <t>👍Geometric Place Expression</t>
+  </si>
+  <si>
+    <t>#7570b3</t>
+  </si>
+  <si>
+    <t>f.19</t>
+  </si>
+  <si>
+    <t>f.19: Geometric Place Expression</t>
+  </si>
+  <si>
+    <t>#7570b355</t>
+  </si>
+  <si>
+    <t>f.20</t>
+  </si>
+  <si>
+    <t>f.20: Geometry Qualifier</t>
+  </si>
+  <si>
+    <t>👍Location Certainty</t>
+  </si>
+  <si>
+    <t>f.21</t>
+  </si>
+  <si>
+    <t>f.21: Location Certainty</t>
+  </si>
+  <si>
+    <t>f.22</t>
+  </si>
+  <si>
+    <t>f.22: Geometry Extent Certainty</t>
+  </si>
+  <si>
+    <t>#e7298a55</t>
+  </si>
+  <si>
+    <t>f.23</t>
+  </si>
+  <si>
+    <t>f.23: Overall Site Shape Type</t>
+  </si>
+  <si>
+    <t>👍Grid ID</t>
+  </si>
+  <si>
+    <t>#e7298a</t>
+  </si>
+  <si>
+    <t>f.24</t>
+  </si>
+  <si>
+    <t>f.24: Grid ID</t>
+  </si>
+  <si>
+    <t>👍Country Type</t>
+  </si>
+  <si>
+    <t>f.25</t>
+  </si>
+  <si>
+    <t>f.25: Country Type</t>
+  </si>
+  <si>
+    <t>f.26</t>
+  </si>
+  <si>
+    <t>f.26: Cadastral Reference</t>
+  </si>
+  <si>
+    <t>f.27</t>
+  </si>
+  <si>
+    <t>f.27: Resource Orientation</t>
+  </si>
+  <si>
+    <t>f.28</t>
+  </si>
+  <si>
+    <t>f.28: Address</t>
+  </si>
+  <si>
+    <t>f.29</t>
+  </si>
+  <si>
+    <t>f.29: Address Type</t>
+  </si>
+  <si>
+    <t>f.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.30: Administrative Division </t>
+  </si>
+  <si>
+    <t>f.31</t>
+  </si>
+  <si>
+    <t>f.31: Administrative Division Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Overall Archaeological Certainty Value </t>
+  </si>
+  <si>
+    <t>#66a61e</t>
+  </si>
+  <si>
+    <t>f.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.32: Overall Archaeological Certainty Value </t>
+  </si>
+  <si>
+    <t>👍Overall Site Morphology Type</t>
+  </si>
+  <si>
+    <t>f.33</t>
+  </si>
+  <si>
+    <t>f.33: Overall Site Morphology Type</t>
+  </si>
+  <si>
+    <t>👍Cultural Period Type</t>
+  </si>
+  <si>
+    <t>f.34</t>
+  </si>
+  <si>
+    <t>f.34: Cultural Period Type</t>
+  </si>
+  <si>
+    <t>👍Cultural Period Certainty</t>
+  </si>
+  <si>
+    <t>f.35</t>
+  </si>
+  <si>
+    <t>f.35: Cultural Period Certainty</t>
+  </si>
+  <si>
+    <t>#66a61e55</t>
+  </si>
+  <si>
+    <t>f.36</t>
+  </si>
+  <si>
+    <t>f.36: Cultural Sub-period Type</t>
+  </si>
+  <si>
+    <t>f.37</t>
+  </si>
+  <si>
+    <t>f.37: Cultural Sub-period Certainty</t>
+  </si>
+  <si>
+    <t>f.38</t>
+  </si>
+  <si>
+    <t>f.38: Date Inference Making Actor</t>
+  </si>
+  <si>
+    <t>f.39</t>
+  </si>
+  <si>
+    <t>f.39: Archaeological From Date</t>
+  </si>
+  <si>
+    <t>f.40</t>
+  </si>
+  <si>
+    <t>f.40: Archaeological To Date</t>
+  </si>
+  <si>
+    <t>f.41</t>
+  </si>
+  <si>
+    <t>f.41: BP Date From</t>
+  </si>
+  <si>
+    <t>f.42</t>
+  </si>
+  <si>
+    <t>f.42: BP Date To</t>
+  </si>
+  <si>
+    <t>f.43</t>
+  </si>
+  <si>
+    <t>f.43: AH Date From</t>
+  </si>
+  <si>
+    <t>f.44</t>
+  </si>
+  <si>
+    <t>f.44: AH Date To</t>
+  </si>
+  <si>
+    <t>f.45</t>
+  </si>
+  <si>
+    <t>f.45: SH Date From</t>
+  </si>
+  <si>
+    <t>f.46</t>
+  </si>
+  <si>
+    <t>f.46: SH Date to</t>
+  </si>
+  <si>
+    <t>f.47</t>
+  </si>
+  <si>
+    <t>f.47: Site Feature Form Type</t>
+  </si>
+  <si>
+    <t>f.48</t>
+  </si>
+  <si>
+    <t>f.48: Site Feature Form Type Certainty</t>
+  </si>
+  <si>
+    <t>f.49</t>
+  </si>
+  <si>
+    <t>f.49: Site Feature Shape Type</t>
+  </si>
+  <si>
+    <t>f.50</t>
+  </si>
+  <si>
+    <t>f.50: Site Feature Arrangement Type</t>
+  </si>
+  <si>
+    <t>f.51</t>
+  </si>
+  <si>
+    <t>f.51: Site Feature Number Type</t>
+  </si>
+  <si>
+    <t>👍Site Feature Interpretation Type</t>
+  </si>
+  <si>
+    <t>f.52</t>
+  </si>
+  <si>
+    <t>f.52: Site Feature Interpretation Type</t>
+  </si>
+  <si>
+    <t>👍Site Feature Interpretation Number Type</t>
+  </si>
+  <si>
+    <t>f.53</t>
+  </si>
+  <si>
+    <t>f.53: Site Feature Interpretation Number Type</t>
+  </si>
+  <si>
+    <t>👍Site Feature Interpretation Certainty</t>
+  </si>
+  <si>
+    <t>f.54</t>
+  </si>
+  <si>
+    <t>f.54: Site Feature Interpretation Certainty</t>
+  </si>
+  <si>
+    <t>f.55</t>
+  </si>
+  <si>
+    <t>f.55: Built Component</t>
+  </si>
+  <si>
+    <t>f.56</t>
+  </si>
+  <si>
+    <t>f.56: Heritage Place Resource Instance</t>
+  </si>
+  <si>
+    <t>f.57</t>
+  </si>
+  <si>
+    <t>f.57: Material Class</t>
+  </si>
+  <si>
+    <t>f.58</t>
+  </si>
+  <si>
+    <t>f.58: Material Type</t>
+  </si>
+  <si>
+    <t>f.59</t>
+  </si>
+  <si>
+    <t>f.59: Construction Technique</t>
+  </si>
+  <si>
+    <t>f.60</t>
+  </si>
+  <si>
+    <t>f.60: Measurement Number</t>
+  </si>
+  <si>
+    <t>f.61</t>
+  </si>
+  <si>
+    <t>f.61: Measurement Unit</t>
+  </si>
+  <si>
+    <t>f.62</t>
+  </si>
+  <si>
+    <t>f.62: Dimension Type</t>
+  </si>
+  <si>
+    <t>f.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.63: Measurement Source Type </t>
+  </si>
+  <si>
+    <t>f.64</t>
+  </si>
+  <si>
+    <t>f.64: Related Geoarchaeology/Palaeolandscape</t>
+  </si>
+  <si>
+    <t>👍Overall Condition State Type</t>
+  </si>
+  <si>
+    <t>#e6ab02</t>
+  </si>
+  <si>
+    <t>f.65</t>
+  </si>
+  <si>
+    <t>f.65: Overall Condition State Type</t>
+  </si>
+  <si>
+    <t>#e6ab0255</t>
+  </si>
+  <si>
+    <t>f.66</t>
+  </si>
+  <si>
+    <t>f.66: Damage Extent Type</t>
+  </si>
+  <si>
+    <t>👍Disturbance Cause Category Type</t>
+  </si>
+  <si>
+    <t>f.67</t>
+  </si>
+  <si>
+    <t>f.67: Disturbance Cause Category Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Cause Type </t>
+  </si>
+  <si>
+    <t>f.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.68: Disturbance Cause Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Cause Certainty </t>
+  </si>
+  <si>
+    <t>f.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.69: Disturbance Cause Certainty </t>
+  </si>
+  <si>
+    <t>👍Disturbance Date From</t>
+  </si>
+  <si>
+    <t>f.70</t>
+  </si>
+  <si>
+    <t>f.70: Disturbance Date From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Date To </t>
+  </si>
+  <si>
+    <t>f.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.71: Disturbance Date To </t>
+  </si>
+  <si>
+    <t>👍Disturbance Date Occurred Before</t>
+  </si>
+  <si>
+    <t>f.72</t>
+  </si>
+  <si>
+    <t>f.72: Disturbance Date Occurred Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Disturbance Date Occurred On </t>
+  </si>
+  <si>
+    <t>f.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.73: Disturbance Date Occurred On </t>
+  </si>
+  <si>
+    <t>f.74</t>
+  </si>
+  <si>
+    <t>f.74: Disturbance Cause Assignment Assessor Name - Actor</t>
+  </si>
+  <si>
+    <t>👍Effect Type</t>
+  </si>
+  <si>
+    <t>f.75</t>
+  </si>
+  <si>
+    <t>f.75: Effect Type</t>
+  </si>
+  <si>
+    <t>👍Effect Certainty</t>
+  </si>
+  <si>
+    <t>f.76</t>
+  </si>
+  <si>
+    <t>f.76: Effect Certainty</t>
+  </si>
+  <si>
+    <t>👍Threat Category</t>
+  </si>
+  <si>
+    <t>34cfea90-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>f.77</t>
+  </si>
+  <si>
+    <t>f.77: Threat Category</t>
+  </si>
+  <si>
+    <t>👍Threat Cause Type</t>
+  </si>
+  <si>
+    <t>f.78</t>
+  </si>
+  <si>
+    <t>f.78: Threat Cause Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👍Threat Probability </t>
+  </si>
+  <si>
+    <t>f.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.79: Threat Probability </t>
+  </si>
+  <si>
+    <t>f.80</t>
+  </si>
+  <si>
+    <t>f.80: Threat Inference Making Assessor Name - Actor</t>
+  </si>
+  <si>
+    <t>f.81</t>
+  </si>
+  <si>
+    <t>f.81: Intervention Activity Type</t>
+  </si>
+  <si>
+    <t>f.82</t>
+  </si>
+  <si>
+    <t>f.82: Recommendation Type</t>
+  </si>
+  <si>
+    <t>f.83</t>
+  </si>
+  <si>
+    <t>f.83: Priority Type</t>
+  </si>
+  <si>
+    <t>f.84</t>
+  </si>
+  <si>
+    <t>f.84: Detailed Condition Assessments</t>
+  </si>
+  <si>
+    <t>#a6761d55</t>
+  </si>
+  <si>
+    <t>f.85</t>
+  </si>
+  <si>
+    <t>f.85: Topography Type</t>
+  </si>
+  <si>
+    <t>f.86</t>
+  </si>
+  <si>
+    <t>f.86: Land Cover Type</t>
+  </si>
+  <si>
+    <t>f.87</t>
+  </si>
+  <si>
+    <t>f.87: Land Cover Assessment Date</t>
+  </si>
+  <si>
+    <t>f.88</t>
+  </si>
+  <si>
+    <t>f.88: Surficial Geology Type</t>
+  </si>
+  <si>
+    <t>f.89</t>
+  </si>
+  <si>
+    <t>f.89: Depositional Process</t>
+  </si>
+  <si>
+    <t>f.90</t>
+  </si>
+  <si>
+    <t>f.90: Bedrock Geology Type</t>
+  </si>
+  <si>
+    <t>f.91</t>
+  </si>
+  <si>
+    <t>f.91: Fetch Type</t>
+  </si>
+  <si>
+    <t>f.92</t>
+  </si>
+  <si>
+    <t>f.92: Wave Climate</t>
+  </si>
+  <si>
+    <t>f.93</t>
+  </si>
+  <si>
+    <t>f.93: Tidal Range</t>
+  </si>
+  <si>
+    <t>f.94</t>
+  </si>
+  <si>
+    <t>f.94: Minimum Depth/Max Elevation</t>
+  </si>
+  <si>
+    <t>f.95</t>
+  </si>
+  <si>
+    <t>f.95: Maximum Depth/Min Elevation</t>
+  </si>
+  <si>
+    <t>f.96</t>
+  </si>
+  <si>
+    <t>f.96: Datum Type</t>
+  </si>
+  <si>
+    <t>f.97</t>
+  </si>
+  <si>
+    <t>f.97: Datum Description/EPSG code</t>
+  </si>
+  <si>
+    <t>#66666655</t>
+  </si>
+  <si>
+    <t>f.98</t>
+  </si>
+  <si>
+    <t>f.98: Restricted Access Record Designation</t>
+  </si>
+  <si>
+    <t>7deb8fcc-c6a5-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>Free text. Name and Surname of the Assessor of the heritage place</t>
+  </si>
+  <si>
+    <t>Structured data. Defines roles of the assessor within heritage management and research, including academic researchers, project staff (EAMENA, MarEA), government personnel, NGO employees, private sector workers, students/trainees, and volunteers/independent researchers.</t>
+  </si>
+  <si>
+    <t>Structured data. Delineates methods of heritage place assessment, including on-place surveys, remote image analysis, risk evaluation, emergency impact, and data processing activities.</t>
+  </si>
+  <si>
+    <t>Date. The date of the assessment</t>
+  </si>
+  <si>
+    <t>Boolean. Was the assessment based on Google Earth imagery?</t>
+  </si>
+  <si>
+    <t>Date. The date of Google Earth (GE) images used for the assessment.</t>
+  </si>
+  <si>
+    <t>Resource instance. Are Information Resources used to create and record sources (e.g., imagery, books, etc.)?</t>
+  </si>
+  <si>
+    <t>Date. The date of the acquisition of the information resource.</t>
+  </si>
+  <si>
+    <t>Free text. Name of the heritage place</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises identification labels for heritage places, including alternative references, official designations, and all known toponyms across languages and periods.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines categories of heritage place type, including archaeological sites, components, landscapes/seascapes, urban heritage, and structural heritage, each with specific criteria for classification.</t>
+  </si>
+  <si>
+    <t>Structured data. Outlines the types of descriptive free text for heritage places, including general place characteristics, significance summaries, architectural details, and references to previous database identifiers.</t>
+  </si>
+  <si>
+    <t>Free text. A general description of the heritage place.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises heritage places by their original or historical function, such as agricultural, defensive, domestic, leisure, funerary, hunting, water management, industrial, transport, maritime, military, public, religious, status display, and commercial activities.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines the level of certainty regarding the function of heritage places, ranging from not applicable to definite, based on evidence and confirmation from various sources.</t>
+  </si>
+  <si>
+    <t>Structured list of categories indicating the status and recognition of heritage sites by various authoritative bodies and conventions.</t>
+  </si>
+  <si>
+    <t>Date. The date the heritage place was designated.</t>
+  </si>
+  <si>
+    <t>Date. The date the designation ended.</t>
+  </si>
+  <si>
+    <t>GeoJSON feature collection. The coordinates of the heritage place geometry, whether it is a point, line, or polygon.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the level of confidence in the spatial information of a heritage place, ranging from negligible to definite, based on the quality of imagery, corroborative data, and field verification.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines certainty levels in identifying and delineating the boundaries of a heritage place or feature, from negligible to definite, based on imagery visibility, boundary clarity, and field corroboration.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the overall shape of heritage places, ranging from geometrically precise forms to irregular, user-defined, and unknown configurations, accommodating a variety of archaeological features.</t>
+  </si>
+  <si>
+    <t>Resource instance. EAMENA Grid ID for the location of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Name of the country where the heritage place is located.</t>
+  </si>
+  <si>
+    <t>Free text. Cadastral reference of the heritage place.</t>
+  </si>
+  <si>
+    <t>Structured data. Specifies the compass orientations for heritage places, including cardinal and intercardinal directions, as well as combinations for linear orientations and a category for non-applicable cases.</t>
+  </si>
+  <si>
+    <t>Free text. Address of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Differentiates between the main (primary) and secondary (alternative) addresses for entities in a database or record system.</t>
+  </si>
+  <si>
+    <t>Free text. Name of the administrative division of where heritage places are located.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises types of administrative divisions within a region, such as community plan areas, council districts, districts, governorates, neighborhoods, neighborhood councils, and provinces.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines certainty levels in in identifying archaeological values of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies cultural periods of cultural heritage places from Palaeolithic to Contemporary Islamic.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies the certaintiy level of chronological data associated with archaeological findings into possible, probable, definite, or not applicable, based on evidence</t>
+  </si>
+  <si>
+    <t>Structured data. Subcategories representing main cultural periods of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies the certaintiy level of sub-periods into possible, probable, definite, or not applicable, based on evidence.</t>
+  </si>
+  <si>
+    <t>Free text. Actor involved in the process of inferring or determining dates and cultural periods and sub-periods for heritage places.</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of an archaeological site, a heritage place or feature, expressed in calibrated years.</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or latest known date of an archaeological site, a heritage place or feature, expressed in calibrated years.</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of a heritage place, expressed in years Before Present (BP).</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or latest known date of a heritage place, expressed in years Before Present (BP).</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of a heritage place in Anno Hijra (AH). Islamic calendar date.</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or or latest known date of a heritage place in Anno Hijra (AH). Islamic calendar date.</t>
+  </si>
+  <si>
+    <t>EDTF. The starting point or earliest known date of a heritage place in expressed in years according to the Solar Hijri (SH) calendar. The SH calendar, also known as the Persian calendar, is a solar calendar used in Iran and Afghanistan.</t>
+  </si>
+  <si>
+    <t>EDTF. The ending point or or latest known date of a heritage place in expressed in years according to the Solar Hijri (SH) calendar. The SH calendar, also known as the Persian calendar, is a solar calendar used in Iran and Afghanistan.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises physical forms and constructions of features of a heritage place, ranging from natural formations like caves to man-made structures such as walls, platforms, and mounds, based on their shape, material, and purpose.</t>
+  </si>
+  <si>
+    <t>Structured data. Measures the confidence level in feature identifications, ranging from not applicable to definite, based on evidence strength and corroboration by sources or experts.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the geometric and physical outlines of archaeological features, including shapes like circular, rectilinear, and irregular, for both enclosed and linear forms.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines the spatial relationships and arrangements of archaeological features, detailing how they are positioned in relation to one another, such as isolated, linear, clustered, or concentric.</t>
+  </si>
+  <si>
+    <t>Structured data. Quantifies archaeological site complexity by the count of distinct features, ranging from singular to over five hundred, with a category for undetermined quantities.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines archaeological features by their identified interpretation or type, such as structures for habitation, religious purposes, transportation, defensive mechanisms, and various processing or manufacturing activities.</t>
+  </si>
+  <si>
+    <t>Structured data. Quantifies the number of identified archaeological interpretations, from a single instance to more than five hundred, with a category for indeterminate counts.</t>
+  </si>
+  <si>
+    <t>Structured data. The level of certainty regarding the interpretation of archaeological features, ranging from negligible to definite, based on corroborative evidence and expert consensus.</t>
+  </si>
+  <si>
+    <t>Resource instance. The related Built Component resource ID pertains to heritage places and encompasses various structural and architectural elements, including walls, doors, windows, courtyards, decorative elements, etc.</t>
+  </si>
+  <si>
+    <t>Resource instance. The related Heritage Place IDs to Built Component resources (default: the one of the current Heritage Place).</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies materials used in heritage places, ranging from raw materials, clay, and sediment to stone, wood, etc.</t>
+  </si>
+  <si>
+    <t>Structured data. Type of materials related to each of material classes.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies construction techniques used at heritage places, ranging from masonry, brick-laid laying, and beam-supported to wood construction, roofing, etc.</t>
+  </si>
+  <si>
+    <t>Free text. Measurement numeric value of heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes types of spatial measurements for sites or features, including area, breadth/width, depth, diameter, height, length, and an 'unknown' category for unspecified dimensions.</t>
+  </si>
+  <si>
+    <t>Structured data. Identifies the methods used to obtain measurements of sites or features, such as imagery analysis, various forms of aerial photography, satellite imagery, field surveys, GPS technologies, pacing estimations, laser rangefinders, tape measures, total stations, theodolites, or unspecified sources.</t>
+  </si>
+  <si>
+    <t>Resource instance. The related Geoarchaeology resource ID related to heritage places.</t>
+  </si>
+  <si>
+    <t>Structured data. Evaluates the preservation state of heritage places, from 'good' indicating minimal damage, to 'destroyed' where integrity is lost and data is no longer retrievable.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes the scope of damage or disturbance at heritage places, with categories ranging from no visible damage to near-total visible damage.</t>
+  </si>
+  <si>
+    <t>Structured data: Describes categories of disturbance caused at heritage places, ranging from Agricultural/Pastoral, Building/Development, Natural, and Domestic Use to Infrastructure/Transport, Looting/Illegal activities, Military/Armed Conflict, etc.</t>
+  </si>
+  <si>
+    <t>Structured data. Determines the type of disturbance causes related to each of the cause categories, ranging from animal/pest infestation to wind and water action.</t>
+  </si>
+  <si>
+    <t>Structured data. Determines the confidence level in identifying the cause of disturbance to heritage places, from 'not applicable' to 'definite', based on the evidence and expert agreement.</t>
+  </si>
+  <si>
+    <t>Date. Event occurred at some point between two dates - enter the date span</t>
+  </si>
+  <si>
+    <t>Date. Event occurred before a specific date. The 'from' field does not apply.</t>
+  </si>
+  <si>
+    <t>Date. Event occurred on a specific date.</t>
+  </si>
+  <si>
+    <t>Free text. the name of the assessor or actor who identified and recorded the disturbance cause.</t>
+  </si>
+  <si>
+    <t>Structured data. Outlines various impacts on heritage places, ranging from access restriction to water damage, including physical alterations, chemical effects, and loss of heritage materials or value.</t>
+  </si>
+  <si>
+    <t>Structured data. Assesses the confidence in determining the effects of disturbance on heritage placess, ranging from 'not applicable' when uncertain, to 'definite' when confirmed by evidence and experts.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies potential future risks to heritage places, from agricultural impact to military conflict, including environmental and illicit threats, as well as societal and infrastructural pressures.</t>
+  </si>
+  <si>
+    <t>Structured data. Details the array of potential threats (future disturbances) to heritage sites, encompassing natural processes, human activities, and environmental changes that can cause damage or alteration.</t>
+  </si>
+  <si>
+    <t>Structured data. Assesses the likelihood of future threats to heritage places, with categories ranging from 'not applicable' to 'planned', considering factors like proximity and the nature of the threat.</t>
+  </si>
+  <si>
+    <t>Free text. The name of the assessor or actor who identified and recorded the threats.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies types of activities for heritage place protection, including emergency interventions, conservation and restoration efforts, and preventative measures.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines detailed activities related to identified intervention types for managing and preserving heritage places, ranging from surveys and excavations to conservation and maintenance practices, as well as management and preventive strategies.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises urgency levels for action at heritage places, from 'emergency' requiring immediate attention to 'low' priority where long-term planning is possible.</t>
+  </si>
+  <si>
+    <t>Resource instance. Detailed Condition Resource ID related to heritage places</t>
+  </si>
+  <si>
+    <t>Structured data. Details various landforms and water-related features in relation to heritage sites, including alluvial fans, lake beds, shores, sea beds, bays, beaches, cliffs, deltas, estuaries, intertidal flats, islands, reefs, plains, plateaus, precipices, slopes, summits, valleys, terraces, and watercourse edges and beds.</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises the predominant type of surface cover at heritage sites, ranging from various vegetation types and water bodies to barren lands and built-up areas.</t>
+  </si>
+  <si>
+    <t>Date. The date of the land cover assessment.</t>
+  </si>
+  <si>
+    <t>Structured data. Describes surface geological materials, from coarse sediments and mixed deposits to mud, organic materials, paleontological remains, rocks, boulders, sand, and archaeological layers, highlighting composition and grain size.</t>
+  </si>
+  <si>
+    <t>Structured data. Outlines types of sediment deposition processes, from aeolian (wind) and biogenic (organism-produced) to chemical, fluvial, glacial, and marine, including volcanic and anthropogenic influences on sedimentation.</t>
+  </si>
+  <si>
+    <t>Structured data. Classifies types of bedrock geology, detailing igneous, sedimentary, and metamorphic rocks, with specific examples like basalt, granite, limestone, marble, and others, including undefined categories for unspecified types.</t>
+  </si>
+  <si>
+    <t>Structured data. Defines coastal exposure levels based on fetch, the straight-line distance over water from a coast to the nearest landmass, with categories for exposed, moderately exposed, and protected environments.</t>
+  </si>
+  <si>
+    <t>Structured data. Dominant wave patterns and influences by monsoons, protection, storms, swells, tides, or cyclones.</t>
+  </si>
+  <si>
+    <t>Structured data. Vertical height difference between high and low tide.</t>
+  </si>
+  <si>
+    <t>Free text. The minimum depth (i.e., maximum elevation) numeric value (in meter)</t>
+  </si>
+  <si>
+    <t>Free text. The maximum depth (i.e., minimum elevation) numeric value (in meter)</t>
+  </si>
+  <si>
+    <t>Structured data. The datum of the Depth/Elevation (Biological Mean Sea Level, Mean High Water, etc.).</t>
+  </si>
+  <si>
+    <t>Free text. The EPSG code of the coordinates.</t>
+  </si>
+  <si>
+    <t>Depreciated</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
   <si>
     <r>
@@ -889,1049 +1918,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Including 'Unknown’)</t>
+      <t>(Including 'Unknown')</t>
     </r>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>lbl</t>
-  </si>
-  <si>
-    <t>legend</t>
-  </si>
-  <si>
-    <t>👍Assessment Investigator - Actor</t>
-  </si>
-  <si>
-    <t>#1b9e77</t>
-  </si>
-  <si>
-    <t>f.1</t>
-  </si>
-  <si>
-    <t>f.1: Assessment Investigator - Actor</t>
-  </si>
-  <si>
-    <t>👍Investigator Role Type</t>
-  </si>
-  <si>
-    <t>f.2</t>
-  </si>
-  <si>
-    <t>f.2: Investigator Role Type</t>
-  </si>
-  <si>
-    <t>👍Assessment Activity Type</t>
-  </si>
-  <si>
-    <t>f.3</t>
-  </si>
-  <si>
-    <t>f.3: Assessment Activity Type</t>
-  </si>
-  <si>
-    <t>👍Assessment Activity Date</t>
-  </si>
-  <si>
-    <t>f.4</t>
-  </si>
-  <si>
-    <t>f.4: Assessment Activity Date</t>
-  </si>
-  <si>
-    <t>👍Google Earth Assessment</t>
-  </si>
-  <si>
-    <t>f.5</t>
-  </si>
-  <si>
-    <t>f.5: Google Earth Assessment</t>
-  </si>
-  <si>
-    <t>👍GE Imagery Acquisition Date</t>
-  </si>
-  <si>
-    <t>f.6</t>
-  </si>
-  <si>
-    <t>f.6: GE Imagery Acquisition Date</t>
-  </si>
-  <si>
-    <t>#1b9e7755</t>
-  </si>
-  <si>
-    <t>f.7</t>
-  </si>
-  <si>
-    <t>f.7: Information Resource</t>
-  </si>
-  <si>
-    <t>f.8</t>
-  </si>
-  <si>
-    <t>f.8: Information Resource Acquisition Date</t>
-  </si>
-  <si>
-    <t>#d95f0255</t>
-  </si>
-  <si>
-    <t>f.9</t>
-  </si>
-  <si>
-    <t>f.9: Resource Name</t>
-  </si>
-  <si>
-    <t>f.10</t>
-  </si>
-  <si>
-    <t>f.10: Name Type</t>
-  </si>
-  <si>
-    <t>f.11</t>
-  </si>
-  <si>
-    <t>f.11: Heritage Place Type</t>
-  </si>
-  <si>
-    <t>f.12</t>
-  </si>
-  <si>
-    <t>f.12: General Description Type</t>
-  </si>
-  <si>
-    <t>f.13</t>
-  </si>
-  <si>
-    <t>f.13: General Description</t>
-  </si>
-  <si>
-    <t>👍Heritage Place Function</t>
-  </si>
-  <si>
-    <t>#d95f02</t>
-  </si>
-  <si>
-    <t>f.14</t>
-  </si>
-  <si>
-    <t>f.14: Heritage Place Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Heritage Place Function Certainty </t>
-  </si>
-  <si>
-    <t>f.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.15: Heritage Place Function Certainty </t>
-  </si>
-  <si>
-    <t>f.16</t>
-  </si>
-  <si>
-    <t>f.16: Designation</t>
-  </si>
-  <si>
-    <t>f.17</t>
-  </si>
-  <si>
-    <t>f.17: Designation From Date</t>
-  </si>
-  <si>
-    <t>f.18</t>
-  </si>
-  <si>
-    <t>f.18: Designation To Date</t>
-  </si>
-  <si>
-    <t>👍Geometric Place Expression</t>
-  </si>
-  <si>
-    <t>#7570b3</t>
-  </si>
-  <si>
-    <t>f.19</t>
-  </si>
-  <si>
-    <t>f.19: Geometric Place Expression</t>
-  </si>
-  <si>
-    <t>#7570b355</t>
-  </si>
-  <si>
-    <t>f.20</t>
-  </si>
-  <si>
-    <t>f.20: Geometry Qualifier</t>
-  </si>
-  <si>
-    <t>👍Location Certainty</t>
-  </si>
-  <si>
-    <t>f.21</t>
-  </si>
-  <si>
-    <t>f.21: Location Certainty</t>
-  </si>
-  <si>
-    <t>f.22</t>
-  </si>
-  <si>
-    <t>f.22: Geometry Extent Certainty</t>
-  </si>
-  <si>
-    <t>#e7298a55</t>
-  </si>
-  <si>
-    <t>f.23</t>
-  </si>
-  <si>
-    <t>f.23: Overall Site Shape Type</t>
-  </si>
-  <si>
-    <t>👍Grid ID</t>
-  </si>
-  <si>
-    <t>#e7298a</t>
-  </si>
-  <si>
-    <t>f.24</t>
-  </si>
-  <si>
-    <t>f.24: Grid ID</t>
-  </si>
-  <si>
-    <t>👍Country Type</t>
-  </si>
-  <si>
-    <t>f.25</t>
-  </si>
-  <si>
-    <t>f.25: Country Type</t>
-  </si>
-  <si>
-    <t>f.26</t>
-  </si>
-  <si>
-    <t>f.26: Cadastral Reference</t>
-  </si>
-  <si>
-    <t>f.27</t>
-  </si>
-  <si>
-    <t>f.27: Resource Orientation</t>
-  </si>
-  <si>
-    <t>f.28</t>
-  </si>
-  <si>
-    <t>f.28: Address</t>
-  </si>
-  <si>
-    <t>f.29</t>
-  </si>
-  <si>
-    <t>f.29: Address Type</t>
-  </si>
-  <si>
-    <t>f.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.30: Administrative Division </t>
-  </si>
-  <si>
-    <t>f.31</t>
-  </si>
-  <si>
-    <t>f.31: Administrative Division Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Overall Archaeological Certainty Value </t>
-  </si>
-  <si>
-    <t>#66a61e</t>
-  </si>
-  <si>
-    <t>f.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.32: Overall Archaeological Certainty Value </t>
-  </si>
-  <si>
-    <t>👍Overall Site Morphology Type</t>
-  </si>
-  <si>
-    <t>f.33</t>
-  </si>
-  <si>
-    <t>f.33: Overall Site Morphology Type</t>
-  </si>
-  <si>
-    <t>👍Cultural Period Type</t>
-  </si>
-  <si>
-    <t>f.34</t>
-  </si>
-  <si>
-    <t>f.34: Cultural Period Type</t>
-  </si>
-  <si>
-    <t>👍Cultural Period Certainty</t>
-  </si>
-  <si>
-    <t>f.35</t>
-  </si>
-  <si>
-    <t>f.35: Cultural Period Certainty</t>
-  </si>
-  <si>
-    <t>#66a61e55</t>
-  </si>
-  <si>
-    <t>f.36</t>
-  </si>
-  <si>
-    <t>f.36: Cultural Sub-period Type</t>
-  </si>
-  <si>
-    <t>f.37</t>
-  </si>
-  <si>
-    <t>f.37: Cultural Sub-period Certainty</t>
-  </si>
-  <si>
-    <t>f.38</t>
-  </si>
-  <si>
-    <t>f.38: Date Inference Making Actor</t>
-  </si>
-  <si>
-    <t>f.39</t>
-  </si>
-  <si>
-    <t>f.39: Archaeological From Date</t>
-  </si>
-  <si>
-    <t>f.40</t>
-  </si>
-  <si>
-    <t>f.40: Archaeological To Date</t>
-  </si>
-  <si>
-    <t>f.41</t>
-  </si>
-  <si>
-    <t>f.41: BP Date From</t>
-  </si>
-  <si>
-    <t>f.42</t>
-  </si>
-  <si>
-    <t>f.42: BP Date To</t>
-  </si>
-  <si>
-    <t>f.43</t>
-  </si>
-  <si>
-    <t>f.43: AH Date From</t>
-  </si>
-  <si>
-    <t>f.44</t>
-  </si>
-  <si>
-    <t>f.44: AH Date To</t>
-  </si>
-  <si>
-    <t>f.45</t>
-  </si>
-  <si>
-    <t>f.45: SH Date From</t>
-  </si>
-  <si>
-    <t>f.46</t>
-  </si>
-  <si>
-    <t>f.46: SH Date to</t>
-  </si>
-  <si>
-    <t>f.47</t>
-  </si>
-  <si>
-    <t>f.47: Site Feature Form Type</t>
-  </si>
-  <si>
-    <t>f.48</t>
-  </si>
-  <si>
-    <t>f.48: Site Feature Form Type Certainty</t>
-  </si>
-  <si>
-    <t>f.49</t>
-  </si>
-  <si>
-    <t>f.49: Site Feature Shape Type</t>
-  </si>
-  <si>
-    <t>f.50</t>
-  </si>
-  <si>
-    <t>f.50: Site Feature Arrangement Type</t>
-  </si>
-  <si>
-    <t>f.51</t>
-  </si>
-  <si>
-    <t>f.51: Site Feature Number Type</t>
-  </si>
-  <si>
-    <t>👍Site Feature Interpretation Type</t>
-  </si>
-  <si>
-    <t>f.52</t>
-  </si>
-  <si>
-    <t>f.52: Site Feature Interpretation Type</t>
-  </si>
-  <si>
-    <t>👍Site Feature Interpretation Number Type</t>
-  </si>
-  <si>
-    <t>f.53</t>
-  </si>
-  <si>
-    <t>f.53: Site Feature Interpretation Number Type</t>
-  </si>
-  <si>
-    <t>👍Site Feature Interpretation Certainty</t>
-  </si>
-  <si>
-    <t>f.54</t>
-  </si>
-  <si>
-    <t>f.54: Site Feature Interpretation Certainty</t>
-  </si>
-  <si>
-    <t>f.55</t>
-  </si>
-  <si>
-    <t>f.55: Built Component</t>
-  </si>
-  <si>
-    <t>f.56</t>
-  </si>
-  <si>
-    <t>f.56: Heritage Place Resource Instance</t>
-  </si>
-  <si>
-    <t>f.57</t>
-  </si>
-  <si>
-    <t>f.57: Material Class</t>
-  </si>
-  <si>
-    <t>f.58</t>
-  </si>
-  <si>
-    <t>f.58: Material Type</t>
-  </si>
-  <si>
-    <t>f.59</t>
-  </si>
-  <si>
-    <t>f.59: Construction Technique</t>
-  </si>
-  <si>
-    <t>f.60</t>
-  </si>
-  <si>
-    <t>f.60: Measurement Number</t>
-  </si>
-  <si>
-    <t>f.61</t>
-  </si>
-  <si>
-    <t>f.61: Measurement Unit</t>
-  </si>
-  <si>
-    <t>f.62</t>
-  </si>
-  <si>
-    <t>f.62: Dimension Type</t>
-  </si>
-  <si>
-    <t>f.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.63: Measurement Source Type </t>
-  </si>
-  <si>
-    <t>f.64</t>
-  </si>
-  <si>
-    <t>f.64: Related Geoarchaeology/Palaeolandscape</t>
-  </si>
-  <si>
-    <t>👍Overall Condition State Type</t>
-  </si>
-  <si>
-    <t>#e6ab02</t>
-  </si>
-  <si>
-    <t>f.65</t>
-  </si>
-  <si>
-    <t>f.65: Overall Condition State Type</t>
-  </si>
-  <si>
-    <t>#e6ab0255</t>
-  </si>
-  <si>
-    <t>f.66</t>
-  </si>
-  <si>
-    <t>f.66: Damage Extent Type</t>
-  </si>
-  <si>
-    <t>👍Disturbance Cause Category Type</t>
-  </si>
-  <si>
-    <t>f.67</t>
-  </si>
-  <si>
-    <t>f.67: Disturbance Cause Category Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Disturbance Cause Type </t>
-  </si>
-  <si>
-    <t>f.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.68: Disturbance Cause Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Disturbance Cause Certainty </t>
-  </si>
-  <si>
-    <t>f.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.69: Disturbance Cause Certainty </t>
-  </si>
-  <si>
-    <t>👍Disturbance Date From</t>
-  </si>
-  <si>
-    <t>f.70</t>
-  </si>
-  <si>
-    <t>f.70: Disturbance Date From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Disturbance Date To </t>
-  </si>
-  <si>
-    <t>f.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.71: Disturbance Date To </t>
-  </si>
-  <si>
-    <t>👍Disturbance Date Occurred Before</t>
-  </si>
-  <si>
-    <t>f.72</t>
-  </si>
-  <si>
-    <t>f.72: Disturbance Date Occurred Before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Disturbance Date Occurred On </t>
-  </si>
-  <si>
-    <t>f.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.73: Disturbance Date Occurred On </t>
-  </si>
-  <si>
-    <t>f.74</t>
-  </si>
-  <si>
-    <t>f.74: Disturbance Cause Assignment Assessor Name - Actor</t>
-  </si>
-  <si>
-    <t>👍Effect Type</t>
-  </si>
-  <si>
-    <t>f.75</t>
-  </si>
-  <si>
-    <t>f.75: Effect Type</t>
-  </si>
-  <si>
-    <t>👍Effect Certainty</t>
-  </si>
-  <si>
-    <t>f.76</t>
-  </si>
-  <si>
-    <t>f.76: Effect Certainty</t>
-  </si>
-  <si>
-    <t>👍Threat Category</t>
-  </si>
-  <si>
-    <t>34cfea90-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
-    <t>f.77</t>
-  </si>
-  <si>
-    <t>f.77: Threat Category</t>
-  </si>
-  <si>
-    <t>👍Threat Cause Type</t>
-  </si>
-  <si>
-    <t>f.78</t>
-  </si>
-  <si>
-    <t>f.78: Threat Cause Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">👍Threat Probability </t>
-  </si>
-  <si>
-    <t>f.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f.79: Threat Probability </t>
-  </si>
-  <si>
-    <t>f.80</t>
-  </si>
-  <si>
-    <t>f.80: Threat Inference Making Assessor Name - Actor</t>
-  </si>
-  <si>
-    <t>f.81</t>
-  </si>
-  <si>
-    <t>f.81: Intervention Activity Type</t>
-  </si>
-  <si>
-    <t>f.82</t>
-  </si>
-  <si>
-    <t>f.82: Recommendation Type</t>
-  </si>
-  <si>
-    <t>f.83</t>
-  </si>
-  <si>
-    <t>f.83: Priority Type</t>
-  </si>
-  <si>
-    <t>f.84</t>
-  </si>
-  <si>
-    <t>f.84: Detailed Condition Assessments</t>
-  </si>
-  <si>
-    <t>#a6761d55</t>
-  </si>
-  <si>
-    <t>f.85</t>
-  </si>
-  <si>
-    <t>f.85: Topography Type</t>
-  </si>
-  <si>
-    <t>f.86</t>
-  </si>
-  <si>
-    <t>f.86: Land Cover Type</t>
-  </si>
-  <si>
-    <t>f.87</t>
-  </si>
-  <si>
-    <t>f.87: Land Cover Assessment Date</t>
-  </si>
-  <si>
-    <t>f.88</t>
-  </si>
-  <si>
-    <t>f.88: Surficial Geology Type</t>
-  </si>
-  <si>
-    <t>f.89</t>
-  </si>
-  <si>
-    <t>f.89: Depositional Process</t>
-  </si>
-  <si>
-    <t>f.90</t>
-  </si>
-  <si>
-    <t>f.90: Bedrock Geology Type</t>
-  </si>
-  <si>
-    <t>f.91</t>
-  </si>
-  <si>
-    <t>f.91: Fetch Type</t>
-  </si>
-  <si>
-    <t>f.92</t>
-  </si>
-  <si>
-    <t>f.92: Wave Climate</t>
-  </si>
-  <si>
-    <t>f.93</t>
-  </si>
-  <si>
-    <t>f.93: Tidal Range</t>
-  </si>
-  <si>
-    <t>f.94</t>
-  </si>
-  <si>
-    <t>f.94: Minimum Depth/Max Elevation</t>
-  </si>
-  <si>
-    <t>f.95</t>
-  </si>
-  <si>
-    <t>f.95: Maximum Depth/Min Elevation</t>
-  </si>
-  <si>
-    <t>f.96</t>
-  </si>
-  <si>
-    <t>f.96: Datum Type</t>
-  </si>
-  <si>
-    <t>f.97</t>
-  </si>
-  <si>
-    <t>f.97: Datum Description/EPSG code</t>
-  </si>
-  <si>
-    <t>#66666655</t>
-  </si>
-  <si>
-    <t>f.98</t>
-  </si>
-  <si>
-    <t>f.98: Restricted Access Record Designation</t>
-  </si>
-  <si>
-    <t>7deb8fcc-c6a5-11ea-a292-02e7594ce0a0</t>
-  </si>
-  <si>
-    <t>Free text. Name and Surname of the Assessor of the heritage place</t>
-  </si>
-  <si>
-    <t>Structured data. Defines roles of the assessor within heritage management and research, including academic researchers, project staff (EAMENA, MarEA), government personnel, NGO employees, private sector workers, students/trainees, and volunteers/independent researchers.</t>
-  </si>
-  <si>
-    <t>Structured data. Delineates methods of heritage place assessment, including on-place surveys, remote image analysis, risk evaluation, emergency impact, and data processing activities.</t>
-  </si>
-  <si>
-    <t>Date. The date of the assessment</t>
-  </si>
-  <si>
-    <t>Boolean. Was the assessment based on Google Earth imagery?</t>
-  </si>
-  <si>
-    <t>Date. The date of Google Earth (GE) images used for the assessment.</t>
-  </si>
-  <si>
-    <t>Resource instance. Are Information Resources used to create and record sources (e.g., imagery, books, etc.)?</t>
-  </si>
-  <si>
-    <t>Date. The date of the acquisition of the information resource.</t>
-  </si>
-  <si>
-    <t>Free text. Name of the heritage place</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises identification labels for heritage places, including alternative references, official designations, and all known toponyms across languages and periods.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines categories of heritage place type, including archaeological sites, components, landscapes/seascapes, urban heritage, and structural heritage, each with specific criteria for classification.</t>
-  </si>
-  <si>
-    <t>Structured data. Outlines the types of descriptive free text for heritage places, including general place characteristics, significance summaries, architectural details, and references to previous database identifiers.</t>
-  </si>
-  <si>
-    <t>Free text. A general description of the heritage place.</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises heritage places by their original or historical function, such as agricultural, defensive, domestic, leisure, funerary, hunting, water management, industrial, transport, maritime, military, public, religious, status display, and commercial activities.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines the level of certainty regarding the function of heritage places, ranging from not applicable to definite, based on evidence and confirmation from various sources.</t>
-  </si>
-  <si>
-    <t>Structured list of categories indicating the status and recognition of heritage sites by various authoritative bodies and conventions.</t>
-  </si>
-  <si>
-    <t>Date. The date the heritage place was designated.</t>
-  </si>
-  <si>
-    <t>Date. The date the designation ended.</t>
-  </si>
-  <si>
-    <t>GeoJSON feature collection. The coordinates of the heritage place geometry, whether it is a point, line, or polygon.</t>
-  </si>
-  <si>
-    <t>Structured data. The type of geometry qualifier, whether it is Centre Point, Access Point, Buffer Polygon, Center Line, Façade Point, Perimeter Polygon, Property Boundary, Site Datum Point, Simplified Polygon, or Vicinity Point.</t>
-  </si>
-  <si>
-    <t>Structured data. Describes the level of confidence in the spatial information of a heritage place, ranging from negligible to definite, based on the quality of imagery, corroborative data, and field verification.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines certainty levels in identifying and delineating the boundaries of a heritage place or feature, from negligible to definite, based on imagery visibility, boundary clarity, and field corroboration.</t>
-  </si>
-  <si>
-    <t>Structured data. Describes the overall shape of heritage places, ranging from geometrically precise forms to irregular, user-defined, and unknown configurations, accommodating a variety of archaeological features.</t>
-  </si>
-  <si>
-    <t>Resource instance. EAMENA Grid ID for the location of heritage places.</t>
-  </si>
-  <si>
-    <t>Structured data. Name of the country where the heritage place is located.</t>
-  </si>
-  <si>
-    <t>Free text. Cadastral reference of the heritage place.</t>
-  </si>
-  <si>
-    <t>Structured data. Specifies the compass orientations for heritage places, including cardinal and intercardinal directions, as well as combinations for linear orientations and a category for non-applicable cases.</t>
-  </si>
-  <si>
-    <t>Free text. Address of heritage places.</t>
-  </si>
-  <si>
-    <t>Structured data. Differentiates between the main (primary) and secondary (alternative) addresses for entities in a database or record system.</t>
-  </si>
-  <si>
-    <t>Free text. Name of the administrative division of where heritage places are located.</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises types of administrative divisions within a region, such as community plan areas, council districts, districts, governorates, neighborhoods, neighborhood councils, and provinces.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines certainty levels in in identifying archaeological values of heritage places.</t>
-  </si>
-  <si>
-    <t>Structured data. Identifies types of heritage places based on their morphology—whether they are negative/cut/dug features, constructed above ground, surface marks, or undetermined.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies cultural periods of cultural heritage places from Palaeolithic to Contemporary Islamic.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies the certaintiy level of chronological data associated with archaeological findings into possible, probable, definite, or not applicable, based on evidence</t>
-  </si>
-  <si>
-    <t>Structured data. Subcategories representing main cultural periods of heritage places.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies the certaintiy level of sub-periods into possible, probable, definite, or not applicable, based on evidence.</t>
-  </si>
-  <si>
-    <t>Free text. Actor involved in the process of inferring or determining dates and cultural periods and sub-periods for heritage places.</t>
-  </si>
-  <si>
-    <t>EDTF. The starting point or earliest known date of an archaeological site, a heritage place or feature, expressed in calibrated years.</t>
-  </si>
-  <si>
-    <t>EDTF. The ending point or latest known date of an archaeological site, a heritage place or feature, expressed in calibrated years.</t>
-  </si>
-  <si>
-    <t>EDTF. The starting point or earliest known date of a heritage place, expressed in years Before Present (BP).</t>
-  </si>
-  <si>
-    <t>EDTF. The ending point or latest known date of a heritage place, expressed in years Before Present (BP).</t>
-  </si>
-  <si>
-    <t>EDTF. The starting point or earliest known date of a heritage place in Anno Hijra (AH). Islamic calendar date.</t>
-  </si>
-  <si>
-    <t>EDTF. The ending point or or latest known date of a heritage place in Anno Hijra (AH). Islamic calendar date.</t>
-  </si>
-  <si>
-    <t>EDTF. The starting point or earliest known date of a heritage place in expressed in years according to the Solar Hijri (SH) calendar. The SH calendar, also known as the Persian calendar, is a solar calendar used in Iran and Afghanistan.</t>
-  </si>
-  <si>
-    <t>EDTF. The ending point or or latest known date of a heritage place in expressed in years according to the Solar Hijri (SH) calendar. The SH calendar, also known as the Persian calendar, is a solar calendar used in Iran and Afghanistan.</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises physical forms and constructions of features of a heritage place, ranging from natural formations like caves to man-made structures such as walls, platforms, and mounds, based on their shape, material, and purpose.</t>
-  </si>
-  <si>
-    <t>Structured data. Measures the confidence level in feature identifications, ranging from not applicable to definite, based on evidence strength and corroboration by sources or experts.</t>
-  </si>
-  <si>
-    <t>Structured data. Describes the geometric and physical outlines of archaeological features, including shapes like circular, rectilinear, and irregular, for both enclosed and linear forms.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines the spatial relationships and arrangements of archaeological features, detailing how they are positioned in relation to one another, such as isolated, linear, clustered, or concentric.</t>
-  </si>
-  <si>
-    <t>Structured data. Quantifies archaeological site complexity by the count of distinct features, ranging from singular to over five hundred, with a category for undetermined quantities.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines archaeological features by their identified interpretation or type, such as structures for habitation, religious purposes, transportation, defensive mechanisms, and various processing or manufacturing activities.</t>
-  </si>
-  <si>
-    <t>Structured data. Quantifies the number of identified archaeological interpretations, from a single instance to more than five hundred, with a category for indeterminate counts.</t>
-  </si>
-  <si>
-    <t>Structured data. The level of certainty regarding the interpretation of archaeological features, ranging from negligible to definite, based on corroborative evidence and expert consensus.</t>
-  </si>
-  <si>
-    <t>Resource instance. The related Built Component resource ID pertains to heritage places and encompasses various structural and architectural elements, including walls, doors, windows, courtyards, decorative elements, etc.</t>
-  </si>
-  <si>
-    <t>Resource instance. The related Heritage Place IDs to Built Component resources (default: the one of the current Heritage Place).</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies materials used in heritage places, ranging from raw materials, clay, and sediment to stone, wood, etc.</t>
-  </si>
-  <si>
-    <t>Structured data. Type of materials related to each of material classes.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies construction techniques used at heritage places, ranging from masonry, brick-laid laying, and beam-supported to wood construction, roofing, etc.</t>
-  </si>
-  <si>
-    <t>Free text. Measurement numeric value of heritage places.</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises units of measurement of heritage places by system: Metric (mm, cm, m, km, ha, m², km²), Imperial (in, ft, yd, mi, ac, ft², mi²), and Other (dunam).</t>
-  </si>
-  <si>
-    <t>Structured data. Describes types of spatial measurements for sites or features, including area, breadth/width, depth, diameter, height, length, and an 'unknown' category for unspecified dimensions.</t>
-  </si>
-  <si>
-    <t>Structured data. Identifies the methods used to obtain measurements of sites or features, such as imagery analysis, various forms of aerial photography, satellite imagery, field surveys, GPS technologies, pacing estimations, laser rangefinders, tape measures, total stations, theodolites, or unspecified sources.</t>
-  </si>
-  <si>
-    <t>Resource instance. The related Geoarchaeology resource ID related to heritage places.</t>
-  </si>
-  <si>
-    <t>Structured data. Evaluates the preservation state of heritage places, from 'good' indicating minimal damage, to 'destroyed' where integrity is lost and data is no longer retrievable.</t>
-  </si>
-  <si>
-    <t>Structured data. Describes the scope of damage or disturbance at heritage places, with categories ranging from no visible damage to near-total visible damage.</t>
-  </si>
-  <si>
-    <t>Structured data: Describes categories of disturbance caused at heritage places, ranging from Agricultural/Pastoral, Building/Development, Natural, and Domestic Use to Infrastructure/Transport, Looting/Illegal activities, Military/Armed Conflict, etc.</t>
-  </si>
-  <si>
-    <t>Structured data. Determines the type of disturbance causes related to each of the cause categories, ranging from animal/pest infestation to wind and water action.</t>
-  </si>
-  <si>
-    <t>Structured data. Determines the confidence level in identifying the cause of disturbance to heritage places, from 'not applicable' to 'definite', based on the evidence and expert agreement.</t>
-  </si>
-  <si>
-    <t>Date. Event occurred at some point between two dates - enter the date span</t>
-  </si>
-  <si>
-    <t>Date. Event occurred before a specific date. The 'from' field does not apply.</t>
-  </si>
-  <si>
-    <t>Date. Event occurred on a specific date.</t>
-  </si>
-  <si>
-    <t>Free text. the name of the assessor or actor who identified and recorded the disturbance cause.</t>
-  </si>
-  <si>
-    <t>Structured data. Outlines various impacts on heritage places, ranging from access restriction to water damage, including physical alterations, chemical effects, and loss of heritage materials or value.</t>
-  </si>
-  <si>
-    <t>Structured data. Assesses the confidence in determining the effects of disturbance on heritage placess, ranging from 'not applicable' when uncertain, to 'definite' when confirmed by evidence and experts.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies potential future risks to heritage places, from agricultural impact to military conflict, including environmental and illicit threats, as well as societal and infrastructural pressures.</t>
-  </si>
-  <si>
-    <t>Structured data. Details the array of potential threats (future disturbances) to heritage sites, encompassing natural processes, human activities, and environmental changes that can cause damage or alteration.</t>
-  </si>
-  <si>
-    <t>Structured data. Assesses the likelihood of future threats to heritage places, with categories ranging from 'not applicable' to 'planned', considering factors like proximity and the nature of the threat.</t>
-  </si>
-  <si>
-    <t>Free text. The name of the assessor or actor who identified and recorded the threats.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies types of activities for heritage place protection, including emergency interventions, conservation and restoration efforts, and preventative measures.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines detailed activities related to identified intervention types for managing and preserving heritage places, ranging from surveys and excavations to conservation and maintenance practices, as well as management and preventive strategies.</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises urgency levels for action at heritage places, from 'emergency' requiring immediate attention to 'low' priority where long-term planning is possible.</t>
-  </si>
-  <si>
-    <t>Resource instance. Detailed Condition Resource ID related to heritage places</t>
-  </si>
-  <si>
-    <t>Structured data. Details various landforms and water-related features in relation to heritage sites, including alluvial fans, lake beds, shores, sea beds, bays, beaches, cliffs, deltas, estuaries, intertidal flats, islands, reefs, plains, plateaus, precipices, slopes, summits, valleys, terraces, and watercourse edges and beds.</t>
-  </si>
-  <si>
-    <t>Structured data. Categorises the predominant type of surface cover at heritage sites, ranging from various vegetation types and water bodies to barren lands and built-up areas.</t>
-  </si>
-  <si>
-    <t>Date. The date of the land cover assessment.</t>
-  </si>
-  <si>
-    <t>Structured data. Describes surface geological materials, from coarse sediments and mixed deposits to mud, organic materials, paleontological remains, rocks, boulders, sand, and archaeological layers, highlighting composition and grain size.</t>
-  </si>
-  <si>
-    <t>Structured data. Outlines types of sediment deposition processes, from aeolian (wind) and biogenic (organism-produced) to chemical, fluvial, glacial, and marine, including volcanic and anthropogenic influences on sedimentation.</t>
-  </si>
-  <si>
-    <t>Structured data. Classifies types of bedrock geology, detailing igneous, sedimentary, and metamorphic rocks, with specific examples like basalt, granite, limestone, marble, and others, including undefined categories for unspecified types.</t>
-  </si>
-  <si>
-    <t>Structured data. Defines coastal exposure levels based on fetch, the straight-line distance over water from a coast to the nearest landmass, with categories for exposed, moderately exposed, and protected environments.</t>
-  </si>
-  <si>
-    <t>Structured data. Dominant wave patterns and influences by monsoons, protection, storms, swells, tides, or cyclones.</t>
-  </si>
-  <si>
-    <t>Structured data. Vertical height difference between high and low tide.</t>
-  </si>
-  <si>
-    <t>Free text. The minimum depth (i.e., maximum elevation) numeric value (in meter)</t>
-  </si>
-  <si>
-    <t>Free text. The maximum depth (i.e., minimum elevation) numeric value (in meter)</t>
-  </si>
-  <si>
-    <t>Structured data. The datum of the Depth/Elevation (Biological Mean Sea Level, Mean High Water, etc.).</t>
-  </si>
-  <si>
-    <t>Free text. The EPSG code of the coordinates.</t>
-  </si>
-  <si>
-    <t>Depreciated</t>
-  </si>
-  <si>
-    <t>num</t>
+    <t>Structured data. The type of geometry qualifier, whether it is Centre Point, Access Point, Buffer Polygon, Center Line, Facade Point, Perimeter Polygon, Property Boundary, Site Datum Point, Simplified Polygon, or Vicinity Point.</t>
+  </si>
+  <si>
+    <t>Structured data. Identifies types of heritage places based on their morphology - whether they are negative/cut/dug features, constructed above ground, surface marks, or undetermined.</t>
+  </si>
+  <si>
+    <t>Yes (Including 'Unknown')</t>
+  </si>
+  <si>
+    <t>Structured data. Categorises units of measurement of heritage places by system: Metric (mm, cm, m, km, ha, m2, km2), Imperial (in, ft, yd, mi, ac, ft2, mi2), and Other (dunam).</t>
   </si>
 </sst>
 </file>
@@ -2754,10 +2754,10 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>91</v>
@@ -2796,10 +2796,10 @@
         <v>169</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2822,10 +2822,10 @@
         <v>106</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2848,10 +2848,10 @@
         <v>106</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2874,10 +2874,10 @@
         <v>113</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2900,10 +2900,10 @@
         <v>106</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2926,10 +2926,10 @@
         <v>113</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2952,10 +2952,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2975,10 +2975,10 @@
         <v>176</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2998,10 +2998,10 @@
         <v>101</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3024,10 +3024,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3050,10 +3050,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3076,10 +3076,10 @@
         <v>110</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3102,10 +3102,10 @@
         <v>110</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3128,10 +3128,10 @@
         <v>110</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3151,13 +3151,13 @@
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>583</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3180,10 +3180,10 @@
         <v>111</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3206,10 +3206,10 @@
         <v>110</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3232,10 +3232,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3258,10 +3258,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3284,10 +3284,10 @@
         <v>106</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3307,10 +3307,10 @@
         <v>121</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3333,10 +3333,10 @@
         <v>113</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3359,10 +3359,10 @@
         <v>110</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3385,10 +3385,10 @@
         <v>109</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3411,10 +3411,10 @@
         <v>106</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3437,10 +3437,10 @@
         <v>113</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3463,10 +3463,10 @@
         <v>110</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3489,10 +3489,10 @@
         <v>110</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3512,10 +3512,10 @@
         <v>127</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3535,10 +3535,10 @@
         <v>128</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3558,10 +3558,10 @@
         <v>182</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3581,10 +3581,10 @@
         <v>183</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3607,10 +3607,10 @@
         <v>106</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3633,10 +3633,10 @@
         <v>106</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3656,13 +3656,13 @@
         <v>130</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>232</v>
+        <v>586</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3685,10 +3685,10 @@
         <v>106</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3711,10 +3711,10 @@
         <v>110</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3737,10 +3737,10 @@
         <v>110</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3760,10 +3760,10 @@
         <v>132</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3783,10 +3783,10 @@
         <v>193</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3806,10 +3806,10 @@
         <v>194</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3829,10 +3829,10 @@
         <v>133</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3852,10 +3852,10 @@
         <v>134</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3875,10 +3875,10 @@
         <v>135</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3898,10 +3898,10 @@
         <v>136</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3921,10 +3921,10 @@
         <v>137</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3944,10 +3944,10 @@
         <v>197</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3970,10 +3970,10 @@
         <v>112</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3996,10 +3996,10 @@
         <v>109</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4022,10 +4022,10 @@
         <v>110</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4048,10 +4048,10 @@
         <v>110</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I51" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4074,10 +4074,10 @@
         <v>110</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4097,13 +4097,13 @@
         <v>198</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4126,10 +4126,10 @@
         <v>106</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4152,10 +4152,10 @@
         <v>106</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4178,10 +4178,10 @@
         <v>205</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4204,10 +4204,10 @@
         <v>205</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4227,10 +4227,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I58" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4250,10 +4250,10 @@
         <v>145</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4273,10 +4273,10 @@
         <v>146</v>
       </c>
       <c r="H60" s="47" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,10 +4296,10 @@
         <v>147</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4319,10 +4319,10 @@
         <v>148</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="I62" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4342,10 +4342,10 @@
         <v>149</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I63" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4365,10 +4365,10 @@
         <v>206</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4391,10 +4391,10 @@
         <v>110</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4417,10 +4417,10 @@
         <v>113</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I66" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4443,10 +4443,10 @@
         <v>110</v>
       </c>
       <c r="H67" s="45" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I67" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4469,10 +4469,10 @@
         <v>113</v>
       </c>
       <c r="H68" s="45" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I68" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4495,10 +4495,10 @@
         <v>113</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I69" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4521,10 +4521,10 @@
         <v>113</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I70" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4544,16 +4544,16 @@
         <v>151</v>
       </c>
       <c r="F71" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="G71" s="42" t="s">
-        <v>235</v>
-      </c>
       <c r="H71" s="45" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I71" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4573,16 +4573,16 @@
         <v>152</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H72" s="45" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I72" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4602,16 +4602,16 @@
         <v>153</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H73" s="45" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4631,16 +4631,16 @@
         <v>153</v>
       </c>
       <c r="F74" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="G74" s="42" t="s">
-        <v>235</v>
-      </c>
       <c r="H74" s="45" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4666,10 +4666,10 @@
         <v>73</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I75" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4692,10 +4692,10 @@
         <v>113</v>
       </c>
       <c r="H76" s="45" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I76" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4718,10 +4718,10 @@
         <v>106</v>
       </c>
       <c r="H77" s="47" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I77" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4744,10 +4744,10 @@
         <v>114</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I78" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4773,10 +4773,10 @@
         <v>77</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4793,16 +4793,16 @@
         <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F80" s="42" t="s">
         <v>113</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="I80" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4822,10 +4822,10 @@
         <v>220</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I81" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4845,10 +4845,10 @@
         <v>157</v>
       </c>
       <c r="H82" s="45" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I82" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4868,10 +4868,10 @@
         <v>158</v>
       </c>
       <c r="H83" s="45" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4891,10 +4891,10 @@
         <v>157</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I84" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4920,10 +4920,10 @@
         <v>205</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I85" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4943,10 +4943,10 @@
         <v>159</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I86" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4966,10 +4966,10 @@
         <v>161</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I87" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4989,10 +4989,10 @@
         <v>160</v>
       </c>
       <c r="H88" s="45" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I88" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5012,10 +5012,10 @@
         <v>161</v>
       </c>
       <c r="H89" s="45" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I89" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5035,10 +5035,10 @@
         <v>162</v>
       </c>
       <c r="H90" s="45" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5058,10 +5058,10 @@
         <v>229</v>
       </c>
       <c r="H91" s="45" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="H92" s="45" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5104,10 +5104,10 @@
         <v>164</v>
       </c>
       <c r="H93" s="45" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I93" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5130,10 +5130,10 @@
         <v>224</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5153,10 +5153,10 @@
         <v>226</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I95" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5176,10 +5176,10 @@
         <v>225</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I96" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5199,10 +5199,10 @@
         <v>165</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5219,14 +5219,14 @@
         <v>89</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" s="43"/>
       <c r="H98" s="45" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I98" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5243,13 +5243,13 @@
         <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I99" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7988,7 +7988,7 @@
         <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
         <v>91</v>
@@ -7997,18 +7997,18 @@
         <v>94</v>
       </c>
       <c r="E1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" t="s">
         <v>242</v>
       </c>
-      <c r="F1" t="s">
-        <v>244</v>
-      </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8020,18 +8020,18 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
         <v>247</v>
-      </c>
-      <c r="F2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8043,18 +8043,18 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8066,18 +8066,18 @@
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8089,18 +8089,18 @@
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8112,18 +8112,18 @@
         <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8135,13 +8135,13 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8158,13 +8158,13 @@
         <v>176</v>
       </c>
       <c r="E8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" t="s">
         <v>265</v>
-      </c>
-      <c r="F8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8181,13 +8181,13 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -8204,13 +8204,13 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" t="s">
         <v>270</v>
-      </c>
-      <c r="F10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -8227,13 +8227,13 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -8250,13 +8250,13 @@
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -8273,13 +8273,13 @@
         <v>115</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -8296,18 +8296,18 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -8319,18 +8319,18 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" t="s">
         <v>282</v>
-      </c>
-      <c r="F15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -8342,13 +8342,13 @@
         <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -8365,13 +8365,13 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8388,13 +8388,13 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8411,18 +8411,18 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8434,13 +8434,13 @@
         <v>177</v>
       </c>
       <c r="E20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" t="s">
         <v>295</v>
-      </c>
-      <c r="F20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -8457,18 +8457,18 @@
         <v>121</v>
       </c>
       <c r="E21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" t="s">
         <v>298</v>
-      </c>
-      <c r="F21" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8480,13 +8480,13 @@
         <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -8503,13 +8503,13 @@
         <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -8526,18 +8526,18 @@
         <v>181</v>
       </c>
       <c r="E24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" t="s">
         <v>306</v>
-      </c>
-      <c r="F24" t="s">
-        <v>307</v>
-      </c>
-      <c r="G24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B25" s="41">
         <v>1</v>
@@ -8549,18 +8549,18 @@
         <v>123</v>
       </c>
       <c r="E25" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>310</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8572,13 +8572,13 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -8595,13 +8595,13 @@
         <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -8618,13 +8618,13 @@
         <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -8641,13 +8641,13 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8664,13 +8664,13 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8687,13 +8687,13 @@
         <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -8710,18 +8710,18 @@
         <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8733,18 +8733,18 @@
         <v>187</v>
       </c>
       <c r="E33" t="s">
+        <v>327</v>
+      </c>
+      <c r="F33" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" t="s">
         <v>329</v>
-      </c>
-      <c r="F33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G33" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8756,18 +8756,18 @@
         <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8779,18 +8779,18 @@
         <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8802,13 +8802,13 @@
         <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -8825,13 +8825,13 @@
         <v>188</v>
       </c>
       <c r="E37" t="s">
+        <v>339</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
         <v>341</v>
-      </c>
-      <c r="F37" t="s">
-        <v>342</v>
-      </c>
-      <c r="G37" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -8848,13 +8848,13 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -8871,13 +8871,13 @@
         <v>132</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -8894,13 +8894,13 @@
         <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -8917,13 +8917,13 @@
         <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -8940,13 +8940,13 @@
         <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -8963,13 +8963,13 @@
         <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -8986,13 +8986,13 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -9009,13 +9009,13 @@
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -9032,13 +9032,13 @@
         <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -9055,13 +9055,13 @@
         <v>197</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -9078,13 +9078,13 @@
         <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G48" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -9101,13 +9101,13 @@
         <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -9124,13 +9124,13 @@
         <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -9147,13 +9147,13 @@
         <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -9170,18 +9170,18 @@
         <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -9193,18 +9193,18 @@
         <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9216,18 +9216,18 @@
         <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G54" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -9239,13 +9239,13 @@
         <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G55" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -9262,13 +9262,13 @@
         <v>203</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -9285,13 +9285,13 @@
         <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -9308,13 +9308,13 @@
         <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F58" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -9331,13 +9331,13 @@
         <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -9354,13 +9354,13 @@
         <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F60" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -9377,13 +9377,13 @@
         <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F61" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G61" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -9400,13 +9400,13 @@
         <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F62" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -9423,13 +9423,13 @@
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G63" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -9446,13 +9446,13 @@
         <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G64" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -9469,18 +9469,18 @@
         <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9492,13 +9492,13 @@
         <v>211</v>
       </c>
       <c r="E66" t="s">
+        <v>402</v>
+      </c>
+      <c r="F66" t="s">
+        <v>403</v>
+      </c>
+      <c r="G66" t="s">
         <v>404</v>
-      </c>
-      <c r="F66" t="s">
-        <v>405</v>
-      </c>
-      <c r="G66" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -9515,18 +9515,18 @@
         <v>95</v>
       </c>
       <c r="E67" t="s">
+        <v>405</v>
+      </c>
+      <c r="F67" t="s">
+        <v>406</v>
+      </c>
+      <c r="G67" t="s">
         <v>407</v>
-      </c>
-      <c r="F67" t="s">
-        <v>408</v>
-      </c>
-      <c r="G67" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B68" s="41">
         <v>1</v>
@@ -9538,18 +9538,18 @@
         <v>150</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -9561,18 +9561,18 @@
         <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F69" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G69" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9584,18 +9584,18 @@
         <v>215</v>
       </c>
       <c r="E70" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F70" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G70" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9607,18 +9607,18 @@
         <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G71" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9630,18 +9630,18 @@
         <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F72" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G72" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9653,18 +9653,18 @@
         <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F73" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G73" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9676,13 +9676,13 @@
         <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F74" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -9699,18 +9699,18 @@
         <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F75" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G75" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9722,18 +9722,18 @@
         <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G76" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9745,18 +9745,18 @@
         <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F77" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G77" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9765,21 +9765,21 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" t="s">
+        <v>402</v>
+      </c>
+      <c r="F78" t="s">
+        <v>439</v>
+      </c>
+      <c r="G78" t="s">
         <v>440</v>
-      </c>
-      <c r="E78" t="s">
-        <v>404</v>
-      </c>
-      <c r="F78" t="s">
-        <v>441</v>
-      </c>
-      <c r="G78" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9791,18 +9791,18 @@
         <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F79" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G79" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9814,13 +9814,13 @@
         <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F80" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G80" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -9837,13 +9837,13 @@
         <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -9860,13 +9860,13 @@
         <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F82" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G82" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -9883,13 +9883,13 @@
         <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G83" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -9906,13 +9906,13 @@
         <v>157</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -9929,13 +9929,13 @@
         <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F85" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G85" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -9952,13 +9952,13 @@
         <v>159</v>
       </c>
       <c r="E86" t="s">
+        <v>457</v>
+      </c>
+      <c r="F86" t="s">
+        <v>458</v>
+      </c>
+      <c r="G86" t="s">
         <v>459</v>
-      </c>
-      <c r="F86" t="s">
-        <v>460</v>
-      </c>
-      <c r="G86" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -9975,13 +9975,13 @@
         <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F87" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G87" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -9998,13 +9998,13 @@
         <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G88" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -10021,13 +10021,13 @@
         <v>161</v>
       </c>
       <c r="E89" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F89" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -10044,13 +10044,13 @@
         <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F90" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G90" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -10067,13 +10067,13 @@
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F91" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G91" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -10090,13 +10090,13 @@
         <v>163</v>
       </c>
       <c r="E92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F92" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G92" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -10113,13 +10113,13 @@
         <v>164</v>
       </c>
       <c r="E93" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F93" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G93" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -10136,13 +10136,13 @@
         <v>223</v>
       </c>
       <c r="E94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G94" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -10159,13 +10159,13 @@
         <v>226</v>
       </c>
       <c r="E95" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G95" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -10182,13 +10182,13 @@
         <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F96" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G96" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -10205,13 +10205,13 @@
         <v>165</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F97" s="41" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -10225,16 +10225,16 @@
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F98" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -10251,13 +10251,13 @@
         <v>165</v>
       </c>
       <c r="E99" t="s">
+        <v>484</v>
+      </c>
+      <c r="F99" t="s">
+        <v>485</v>
+      </c>
+      <c r="G99" t="s">
         <v>486</v>
-      </c>
-      <c r="F99" t="s">
-        <v>487</v>
-      </c>
-      <c r="G99" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266EF84-5547-4A2A-AF3C-570614759448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F5E46-57E7-4F89-9DCB-1A66BA022AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -854,9 +854,6 @@
     <t>MEASUREMENTS</t>
   </si>
   <si>
-    <t>Yes (including ‘Unknown’)</t>
-  </si>
-  <si>
     <t>Yes, dates should be included if available.</t>
   </si>
   <si>
@@ -1932,6 +1929,9 @@
   </si>
   <si>
     <t>Structured data. Categorises units of measurement of heritage places by system: Metric (mm, cm, m, km, ha, m2, km2), Imperial (in, ft, yd, mi, ac, ft2, mi2), and Other (dunam).</t>
+  </si>
+  <si>
+    <t>Yes (including 'Unknown')</t>
   </si>
 </sst>
 </file>
@@ -2754,10 +2754,10 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>91</v>
@@ -2796,10 +2796,10 @@
         <v>169</v>
       </c>
       <c r="H1" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2822,10 +2822,10 @@
         <v>106</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2848,10 +2848,10 @@
         <v>106</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2874,10 +2874,10 @@
         <v>113</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2900,10 +2900,10 @@
         <v>106</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2926,10 +2926,10 @@
         <v>113</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2952,10 +2952,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2975,10 +2975,10 @@
         <v>176</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2998,10 +2998,10 @@
         <v>101</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3024,10 +3024,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3050,10 +3050,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3076,10 +3076,10 @@
         <v>110</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3102,10 +3102,10 @@
         <v>110</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3128,10 +3128,10 @@
         <v>110</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3151,13 +3151,13 @@
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3180,10 +3180,10 @@
         <v>111</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3206,10 +3206,10 @@
         <v>110</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3232,10 +3232,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3258,10 +3258,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3284,10 +3284,10 @@
         <v>106</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3307,10 +3307,10 @@
         <v>121</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3333,10 +3333,10 @@
         <v>113</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3359,10 +3359,10 @@
         <v>110</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3385,10 +3385,10 @@
         <v>109</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3411,10 +3411,10 @@
         <v>106</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3437,10 +3437,10 @@
         <v>113</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3463,10 +3463,10 @@
         <v>110</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3489,10 +3489,10 @@
         <v>110</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3512,10 +3512,10 @@
         <v>127</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3535,10 +3535,10 @@
         <v>128</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3558,10 +3558,10 @@
         <v>182</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3581,10 +3581,10 @@
         <v>183</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3607,10 +3607,10 @@
         <v>106</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3633,10 +3633,10 @@
         <v>106</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3656,13 +3656,13 @@
         <v>130</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3685,10 +3685,10 @@
         <v>106</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3711,10 +3711,10 @@
         <v>110</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3737,10 +3737,10 @@
         <v>110</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3760,10 +3760,10 @@
         <v>132</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3783,10 +3783,10 @@
         <v>193</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3806,10 +3806,10 @@
         <v>194</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3829,10 +3829,10 @@
         <v>133</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3852,10 +3852,10 @@
         <v>134</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3875,10 +3875,10 @@
         <v>135</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3898,10 +3898,10 @@
         <v>136</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3921,10 +3921,10 @@
         <v>137</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3944,10 +3944,10 @@
         <v>197</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3970,10 +3970,10 @@
         <v>112</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3996,10 +3996,10 @@
         <v>109</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4022,10 +4022,10 @@
         <v>110</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4048,10 +4048,10 @@
         <v>110</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4074,10 +4074,10 @@
         <v>110</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4097,13 +4097,13 @@
         <v>198</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>232</v>
+        <v>587</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4126,10 +4126,10 @@
         <v>106</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4152,10 +4152,10 @@
         <v>106</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4178,10 +4178,10 @@
         <v>205</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4204,10 +4204,10 @@
         <v>205</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4227,10 +4227,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4250,10 +4250,10 @@
         <v>145</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4273,10 +4273,10 @@
         <v>146</v>
       </c>
       <c r="H60" s="47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,10 +4296,10 @@
         <v>147</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4319,10 +4319,10 @@
         <v>148</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4342,10 +4342,10 @@
         <v>149</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4365,10 +4365,10 @@
         <v>206</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4391,10 +4391,10 @@
         <v>110</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4417,10 +4417,10 @@
         <v>113</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4443,10 +4443,10 @@
         <v>110</v>
       </c>
       <c r="H67" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4469,10 +4469,10 @@
         <v>113</v>
       </c>
       <c r="H68" s="45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4495,10 +4495,10 @@
         <v>113</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4521,10 +4521,10 @@
         <v>113</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4544,16 +4544,16 @@
         <v>151</v>
       </c>
       <c r="F71" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="G71" s="42" t="s">
-        <v>234</v>
-      </c>
       <c r="H71" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4573,16 +4573,16 @@
         <v>152</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H72" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4602,16 +4602,16 @@
         <v>153</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H73" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4631,16 +4631,16 @@
         <v>153</v>
       </c>
       <c r="F74" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="G74" s="42" t="s">
-        <v>234</v>
-      </c>
       <c r="H74" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4666,10 +4666,10 @@
         <v>73</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4692,10 +4692,10 @@
         <v>113</v>
       </c>
       <c r="H76" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4718,10 +4718,10 @@
         <v>106</v>
       </c>
       <c r="H77" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I77" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4744,10 +4744,10 @@
         <v>114</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4773,10 +4773,10 @@
         <v>77</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4793,16 +4793,16 @@
         <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" s="42" t="s">
         <v>113</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4822,10 +4822,10 @@
         <v>220</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4845,10 +4845,10 @@
         <v>157</v>
       </c>
       <c r="H82" s="45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4868,10 +4868,10 @@
         <v>158</v>
       </c>
       <c r="H83" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4891,10 +4891,10 @@
         <v>157</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I84" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4920,10 +4920,10 @@
         <v>205</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4943,10 +4943,10 @@
         <v>159</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4966,10 +4966,10 @@
         <v>161</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4989,10 +4989,10 @@
         <v>160</v>
       </c>
       <c r="H88" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5012,10 +5012,10 @@
         <v>161</v>
       </c>
       <c r="H89" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5035,10 +5035,10 @@
         <v>162</v>
       </c>
       <c r="H90" s="45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5058,10 +5058,10 @@
         <v>229</v>
       </c>
       <c r="H91" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="H92" s="45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5104,10 +5104,10 @@
         <v>164</v>
       </c>
       <c r="H93" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5130,10 +5130,10 @@
         <v>224</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I94" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5153,10 +5153,10 @@
         <v>226</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I95" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5176,10 +5176,10 @@
         <v>225</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I96" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5199,10 +5199,10 @@
         <v>165</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I97" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5219,14 +5219,14 @@
         <v>89</v>
       </c>
       <c r="E98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F98" s="43"/>
       <c r="H98" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5243,13 +5243,13 @@
         <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7988,7 +7988,7 @@
         <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>91</v>
@@ -7997,18 +7997,18 @@
         <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
         <v>242</v>
-      </c>
-      <c r="G1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8020,18 +8020,18 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
         <v>245</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8043,18 +8043,18 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
         <v>249</v>
-      </c>
-      <c r="G3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8066,18 +8066,18 @@
         <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="s">
         <v>252</v>
-      </c>
-      <c r="G4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8089,18 +8089,18 @@
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" t="s">
         <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8112,18 +8112,18 @@
         <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" t="s">
         <v>258</v>
-      </c>
-      <c r="G6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8135,13 +8135,13 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
         <v>261</v>
-      </c>
-      <c r="G7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8158,13 +8158,13 @@
         <v>176</v>
       </c>
       <c r="E8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" t="s">
         <v>263</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>264</v>
-      </c>
-      <c r="G8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8181,13 +8181,13 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" t="s">
         <v>266</v>
-      </c>
-      <c r="G9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -8204,13 +8204,13 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" t="s">
         <v>268</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>269</v>
-      </c>
-      <c r="G10" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -8227,13 +8227,13 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" t="s">
         <v>271</v>
-      </c>
-      <c r="G11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -8250,13 +8250,13 @@
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" t="s">
         <v>273</v>
-      </c>
-      <c r="G12" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -8273,13 +8273,13 @@
         <v>115</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>275</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -8296,18 +8296,18 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" t="s">
         <v>277</v>
-      </c>
-      <c r="G14" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -8319,18 +8319,18 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" t="s">
         <v>280</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>281</v>
-      </c>
-      <c r="G15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -8342,13 +8342,13 @@
         <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" t="s">
         <v>284</v>
-      </c>
-      <c r="G16" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -8365,13 +8365,13 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" t="s">
         <v>286</v>
-      </c>
-      <c r="G17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8388,13 +8388,13 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" t="s">
         <v>288</v>
-      </c>
-      <c r="G18" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8411,18 +8411,18 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
         <v>290</v>
-      </c>
-      <c r="G19" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8434,13 +8434,13 @@
         <v>177</v>
       </c>
       <c r="E20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" t="s">
         <v>293</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>294</v>
-      </c>
-      <c r="G20" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -8457,18 +8457,18 @@
         <v>121</v>
       </c>
       <c r="E21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" t="s">
         <v>296</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>297</v>
-      </c>
-      <c r="G21" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8480,13 +8480,13 @@
         <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" t="s">
         <v>300</v>
-      </c>
-      <c r="G22" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -8503,13 +8503,13 @@
         <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" t="s">
         <v>302</v>
-      </c>
-      <c r="G23" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -8526,18 +8526,18 @@
         <v>181</v>
       </c>
       <c r="E24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" t="s">
         <v>304</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>305</v>
-      </c>
-      <c r="G24" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" s="41">
         <v>1</v>
@@ -8549,18 +8549,18 @@
         <v>123</v>
       </c>
       <c r="E25" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="G25" s="41" t="s">
         <v>309</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8572,13 +8572,13 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" t="s">
         <v>312</v>
-      </c>
-      <c r="G26" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -8595,13 +8595,13 @@
         <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F27" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" t="s">
         <v>314</v>
-      </c>
-      <c r="G27" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -8618,13 +8618,13 @@
         <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" t="s">
         <v>316</v>
-      </c>
-      <c r="G28" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -8641,13 +8641,13 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" t="s">
         <v>318</v>
-      </c>
-      <c r="G29" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8664,13 +8664,13 @@
         <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" t="s">
         <v>320</v>
-      </c>
-      <c r="G30" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8687,13 +8687,13 @@
         <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" t="s">
         <v>322</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -8710,18 +8710,18 @@
         <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" t="s">
         <v>324</v>
-      </c>
-      <c r="G32" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8733,18 +8733,18 @@
         <v>187</v>
       </c>
       <c r="E33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" t="s">
         <v>327</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>328</v>
-      </c>
-      <c r="G33" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8756,18 +8756,18 @@
         <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
         <v>331</v>
-      </c>
-      <c r="G34" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8779,18 +8779,18 @@
         <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
         <v>334</v>
-      </c>
-      <c r="G35" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8802,13 +8802,13 @@
         <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
         <v>337</v>
-      </c>
-      <c r="G36" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -8825,13 +8825,13 @@
         <v>188</v>
       </c>
       <c r="E37" t="s">
+        <v>338</v>
+      </c>
+      <c r="F37" t="s">
         <v>339</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>340</v>
-      </c>
-      <c r="G37" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -8848,13 +8848,13 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
         <v>342</v>
-      </c>
-      <c r="G38" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -8871,13 +8871,13 @@
         <v>132</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F39" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="41" t="s">
         <v>344</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -8894,13 +8894,13 @@
         <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
         <v>346</v>
-      </c>
-      <c r="G40" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -8917,13 +8917,13 @@
         <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
         <v>348</v>
-      </c>
-      <c r="G41" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -8940,13 +8940,13 @@
         <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
         <v>350</v>
-      </c>
-      <c r="G42" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -8963,13 +8963,13 @@
         <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
         <v>352</v>
-      </c>
-      <c r="G43" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -8986,13 +8986,13 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
         <v>354</v>
-      </c>
-      <c r="G44" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -9009,13 +9009,13 @@
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
         <v>356</v>
-      </c>
-      <c r="G45" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -9032,13 +9032,13 @@
         <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
         <v>358</v>
-      </c>
-      <c r="G46" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -9055,13 +9055,13 @@
         <v>197</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F47" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" s="41" t="s">
         <v>360</v>
-      </c>
-      <c r="G47" s="41" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -9078,13 +9078,13 @@
         <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F48" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" t="s">
         <v>362</v>
-      </c>
-      <c r="G48" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -9101,13 +9101,13 @@
         <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
         <v>364</v>
-      </c>
-      <c r="G49" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -9124,13 +9124,13 @@
         <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
         <v>366</v>
-      </c>
-      <c r="G50" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -9147,13 +9147,13 @@
         <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F51" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" t="s">
         <v>368</v>
-      </c>
-      <c r="G51" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -9170,18 +9170,18 @@
         <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F52" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" t="s">
         <v>370</v>
-      </c>
-      <c r="G52" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -9193,18 +9193,18 @@
         <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F53" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" t="s">
         <v>373</v>
-      </c>
-      <c r="G53" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9216,18 +9216,18 @@
         <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
         <v>376</v>
-      </c>
-      <c r="G54" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -9239,13 +9239,13 @@
         <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
         <v>379</v>
-      </c>
-      <c r="G55" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -9262,13 +9262,13 @@
         <v>203</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F56" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" s="41" t="s">
         <v>381</v>
-      </c>
-      <c r="G56" s="41" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -9285,13 +9285,13 @@
         <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F57" t="s">
+        <v>382</v>
+      </c>
+      <c r="G57" t="s">
         <v>383</v>
-      </c>
-      <c r="G57" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -9308,13 +9308,13 @@
         <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F58" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" t="s">
         <v>385</v>
-      </c>
-      <c r="G58" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -9331,13 +9331,13 @@
         <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" t="s">
         <v>387</v>
-      </c>
-      <c r="G59" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -9354,13 +9354,13 @@
         <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F60" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" t="s">
         <v>389</v>
-      </c>
-      <c r="G60" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -9377,13 +9377,13 @@
         <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F61" t="s">
+        <v>390</v>
+      </c>
+      <c r="G61" t="s">
         <v>391</v>
-      </c>
-      <c r="G61" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -9400,13 +9400,13 @@
         <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
         <v>393</v>
-      </c>
-      <c r="G62" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -9423,13 +9423,13 @@
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F63" t="s">
+        <v>394</v>
+      </c>
+      <c r="G63" t="s">
         <v>395</v>
-      </c>
-      <c r="G63" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -9446,13 +9446,13 @@
         <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" t="s">
         <v>397</v>
-      </c>
-      <c r="G64" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -9469,18 +9469,18 @@
         <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F65" t="s">
+        <v>398</v>
+      </c>
+      <c r="G65" t="s">
         <v>399</v>
-      </c>
-      <c r="G65" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9492,13 +9492,13 @@
         <v>211</v>
       </c>
       <c r="E66" t="s">
+        <v>401</v>
+      </c>
+      <c r="F66" t="s">
         <v>402</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>403</v>
-      </c>
-      <c r="G66" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -9515,18 +9515,18 @@
         <v>95</v>
       </c>
       <c r="E67" t="s">
+        <v>404</v>
+      </c>
+      <c r="F67" t="s">
         <v>405</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>406</v>
-      </c>
-      <c r="G67" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B68" s="41">
         <v>1</v>
@@ -9538,18 +9538,18 @@
         <v>150</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F68" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="G68" s="41" t="s">
         <v>409</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -9561,18 +9561,18 @@
         <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F69" t="s">
+        <v>411</v>
+      </c>
+      <c r="G69" t="s">
         <v>412</v>
-      </c>
-      <c r="G69" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9584,18 +9584,18 @@
         <v>215</v>
       </c>
       <c r="E70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F70" t="s">
+        <v>414</v>
+      </c>
+      <c r="G70" t="s">
         <v>415</v>
-      </c>
-      <c r="G70" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9607,18 +9607,18 @@
         <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
+        <v>417</v>
+      </c>
+      <c r="G71" t="s">
         <v>418</v>
-      </c>
-      <c r="G71" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9630,18 +9630,18 @@
         <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F72" t="s">
+        <v>420</v>
+      </c>
+      <c r="G72" t="s">
         <v>421</v>
-      </c>
-      <c r="G72" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9653,18 +9653,18 @@
         <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F73" t="s">
+        <v>423</v>
+      </c>
+      <c r="G73" t="s">
         <v>424</v>
-      </c>
-      <c r="G73" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9676,13 +9676,13 @@
         <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F74" t="s">
+        <v>426</v>
+      </c>
+      <c r="G74" t="s">
         <v>427</v>
-      </c>
-      <c r="G74" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -9699,18 +9699,18 @@
         <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F75" t="s">
+        <v>428</v>
+      </c>
+      <c r="G75" t="s">
         <v>429</v>
-      </c>
-      <c r="G75" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9722,18 +9722,18 @@
         <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F76" t="s">
+        <v>431</v>
+      </c>
+      <c r="G76" t="s">
         <v>432</v>
-      </c>
-      <c r="G76" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9745,18 +9745,18 @@
         <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F77" t="s">
+        <v>434</v>
+      </c>
+      <c r="G77" t="s">
         <v>435</v>
-      </c>
-      <c r="G77" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9765,21 +9765,21 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" t="s">
         <v>438</v>
       </c>
-      <c r="E78" t="s">
-        <v>402</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>439</v>
-      </c>
-      <c r="G78" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9791,18 +9791,18 @@
         <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F79" t="s">
+        <v>441</v>
+      </c>
+      <c r="G79" t="s">
         <v>442</v>
-      </c>
-      <c r="G79" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9814,13 +9814,13 @@
         <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
+        <v>444</v>
+      </c>
+      <c r="G80" t="s">
         <v>445</v>
-      </c>
-      <c r="G80" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -9837,13 +9837,13 @@
         <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F81" t="s">
+        <v>446</v>
+      </c>
+      <c r="G81" t="s">
         <v>447</v>
-      </c>
-      <c r="G81" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -9860,13 +9860,13 @@
         <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F82" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" t="s">
         <v>449</v>
-      </c>
-      <c r="G82" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -9883,13 +9883,13 @@
         <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F83" t="s">
+        <v>450</v>
+      </c>
+      <c r="G83" t="s">
         <v>451</v>
-      </c>
-      <c r="G83" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -9906,13 +9906,13 @@
         <v>157</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F84" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="G84" s="41" t="s">
         <v>453</v>
-      </c>
-      <c r="G84" s="41" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -9929,13 +9929,13 @@
         <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F85" t="s">
+        <v>454</v>
+      </c>
+      <c r="G85" t="s">
         <v>455</v>
-      </c>
-      <c r="G85" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -9952,13 +9952,13 @@
         <v>159</v>
       </c>
       <c r="E86" t="s">
+        <v>456</v>
+      </c>
+      <c r="F86" t="s">
         <v>457</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>458</v>
-      </c>
-      <c r="G86" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -9975,13 +9975,13 @@
         <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F87" t="s">
+        <v>459</v>
+      </c>
+      <c r="G87" t="s">
         <v>460</v>
-      </c>
-      <c r="G87" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -9998,13 +9998,13 @@
         <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F88" t="s">
+        <v>461</v>
+      </c>
+      <c r="G88" t="s">
         <v>462</v>
-      </c>
-      <c r="G88" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -10021,13 +10021,13 @@
         <v>161</v>
       </c>
       <c r="E89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F89" t="s">
+        <v>463</v>
+      </c>
+      <c r="G89" t="s">
         <v>464</v>
-      </c>
-      <c r="G89" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -10044,13 +10044,13 @@
         <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F90" t="s">
+        <v>465</v>
+      </c>
+      <c r="G90" t="s">
         <v>466</v>
-      </c>
-      <c r="G90" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -10067,13 +10067,13 @@
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F91" t="s">
+        <v>467</v>
+      </c>
+      <c r="G91" t="s">
         <v>468</v>
-      </c>
-      <c r="G91" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -10090,13 +10090,13 @@
         <v>163</v>
       </c>
       <c r="E92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F92" t="s">
+        <v>469</v>
+      </c>
+      <c r="G92" t="s">
         <v>470</v>
-      </c>
-      <c r="G92" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -10113,13 +10113,13 @@
         <v>164</v>
       </c>
       <c r="E93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F93" t="s">
+        <v>471</v>
+      </c>
+      <c r="G93" t="s">
         <v>472</v>
-      </c>
-      <c r="G93" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -10136,13 +10136,13 @@
         <v>223</v>
       </c>
       <c r="E94" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" t="s">
         <v>474</v>
-      </c>
-      <c r="G94" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -10159,13 +10159,13 @@
         <v>226</v>
       </c>
       <c r="E95" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F95" t="s">
+        <v>475</v>
+      </c>
+      <c r="G95" t="s">
         <v>476</v>
-      </c>
-      <c r="G95" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -10182,13 +10182,13 @@
         <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F96" t="s">
+        <v>477</v>
+      </c>
+      <c r="G96" t="s">
         <v>478</v>
-      </c>
-      <c r="G96" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -10205,13 +10205,13 @@
         <v>165</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F97" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="G97" s="41" t="s">
         <v>480</v>
-      </c>
-      <c r="G97" s="41" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -10225,16 +10225,16 @@
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F98" t="s">
+        <v>481</v>
+      </c>
+      <c r="G98" t="s">
         <v>482</v>
-      </c>
-      <c r="G98" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -10251,13 +10251,13 @@
         <v>165</v>
       </c>
       <c r="E99" t="s">
+        <v>483</v>
+      </c>
+      <c r="F99" t="s">
         <v>484</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>485</v>
-      </c>
-      <c r="G99" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F5E46-57E7-4F89-9DCB-1A66BA022AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DEF09-1B25-434C-B119-AF208EA14ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -1938,7 +1938,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,12 +2025,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2229,7 +2223,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2361,7 +2355,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{1DC40975-83D9-45B2-A3A5-0EB98FC5D267}"/>
@@ -2751,13 +2744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5251,2709 +5244,6 @@
       <c r="I99" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H100" s="49"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H101" s="49"/>
-    </row>
-    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H102" s="49"/>
-    </row>
-    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H103" s="49"/>
-    </row>
-    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H104" s="49"/>
-    </row>
-    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H105" s="49"/>
-    </row>
-    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H106" s="49"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H107" s="49"/>
-    </row>
-    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H108" s="49"/>
-    </row>
-    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H109" s="49"/>
-    </row>
-    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H110" s="49"/>
-    </row>
-    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H111" s="49"/>
-    </row>
-    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H112" s="49"/>
-    </row>
-    <row r="113" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H113" s="49"/>
-    </row>
-    <row r="114" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H114" s="49"/>
-    </row>
-    <row r="115" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H115" s="49"/>
-    </row>
-    <row r="116" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H116" s="49"/>
-    </row>
-    <row r="117" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H117" s="49"/>
-    </row>
-    <row r="118" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H118" s="49"/>
-    </row>
-    <row r="119" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H119" s="49"/>
-    </row>
-    <row r="120" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H120" s="49"/>
-    </row>
-    <row r="121" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H121" s="49"/>
-    </row>
-    <row r="122" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H122" s="49"/>
-    </row>
-    <row r="123" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H123" s="49"/>
-    </row>
-    <row r="124" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H124" s="49"/>
-    </row>
-    <row r="125" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H125" s="49"/>
-    </row>
-    <row r="126" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H126" s="49"/>
-    </row>
-    <row r="127" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H127" s="49"/>
-    </row>
-    <row r="128" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H128" s="49"/>
-    </row>
-    <row r="129" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H129" s="49"/>
-    </row>
-    <row r="130" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H130" s="49"/>
-    </row>
-    <row r="131" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H131" s="49"/>
-    </row>
-    <row r="132" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H132" s="49"/>
-    </row>
-    <row r="133" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H133" s="49"/>
-    </row>
-    <row r="134" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H134" s="49"/>
-    </row>
-    <row r="135" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H135" s="49"/>
-    </row>
-    <row r="136" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H136" s="49"/>
-    </row>
-    <row r="137" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H137" s="49"/>
-    </row>
-    <row r="138" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H138" s="49"/>
-    </row>
-    <row r="139" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H139" s="49"/>
-    </row>
-    <row r="140" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H140" s="49"/>
-    </row>
-    <row r="141" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H141" s="49"/>
-    </row>
-    <row r="142" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H142" s="49"/>
-    </row>
-    <row r="143" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H143" s="49"/>
-    </row>
-    <row r="144" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H144" s="49"/>
-    </row>
-    <row r="145" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H145" s="49"/>
-    </row>
-    <row r="146" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H146" s="49"/>
-    </row>
-    <row r="147" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H147" s="49"/>
-    </row>
-    <row r="148" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H148" s="49"/>
-    </row>
-    <row r="149" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H149" s="49"/>
-    </row>
-    <row r="150" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H150" s="49"/>
-    </row>
-    <row r="151" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H151" s="49"/>
-    </row>
-    <row r="152" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H152" s="49"/>
-    </row>
-    <row r="153" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H153" s="49"/>
-    </row>
-    <row r="154" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H154" s="49"/>
-    </row>
-    <row r="155" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H155" s="49"/>
-    </row>
-    <row r="156" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H156" s="49"/>
-    </row>
-    <row r="157" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H157" s="49"/>
-    </row>
-    <row r="158" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H158" s="49"/>
-    </row>
-    <row r="159" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H159" s="49"/>
-    </row>
-    <row r="160" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H160" s="49"/>
-    </row>
-    <row r="161" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H161" s="49"/>
-    </row>
-    <row r="162" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H162" s="49"/>
-    </row>
-    <row r="163" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H163" s="49"/>
-    </row>
-    <row r="164" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H164" s="49"/>
-    </row>
-    <row r="165" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H165" s="49"/>
-    </row>
-    <row r="166" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H166" s="49"/>
-    </row>
-    <row r="167" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H167" s="49"/>
-    </row>
-    <row r="168" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H168" s="49"/>
-    </row>
-    <row r="169" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H169" s="49"/>
-    </row>
-    <row r="170" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H170" s="49"/>
-    </row>
-    <row r="171" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H171" s="49"/>
-    </row>
-    <row r="172" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H172" s="49"/>
-    </row>
-    <row r="173" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H173" s="49"/>
-    </row>
-    <row r="174" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H174" s="49"/>
-    </row>
-    <row r="175" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H175" s="49"/>
-    </row>
-    <row r="176" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H176" s="49"/>
-    </row>
-    <row r="177" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H177" s="49"/>
-    </row>
-    <row r="178" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H178" s="49"/>
-    </row>
-    <row r="179" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H179" s="49"/>
-    </row>
-    <row r="180" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H180" s="49"/>
-    </row>
-    <row r="181" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H181" s="49"/>
-    </row>
-    <row r="182" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H182" s="49"/>
-    </row>
-    <row r="183" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H183" s="49"/>
-    </row>
-    <row r="184" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H184" s="49"/>
-    </row>
-    <row r="185" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H185" s="49"/>
-    </row>
-    <row r="186" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H186" s="49"/>
-    </row>
-    <row r="187" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H187" s="49"/>
-    </row>
-    <row r="188" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H188" s="49"/>
-    </row>
-    <row r="189" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H189" s="49"/>
-    </row>
-    <row r="190" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H190" s="49"/>
-    </row>
-    <row r="191" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H191" s="49"/>
-    </row>
-    <row r="192" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H192" s="49"/>
-    </row>
-    <row r="193" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H193" s="49"/>
-    </row>
-    <row r="194" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H194" s="49"/>
-    </row>
-    <row r="195" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H195" s="49"/>
-    </row>
-    <row r="196" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H196" s="49"/>
-    </row>
-    <row r="197" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H197" s="49"/>
-    </row>
-    <row r="198" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H198" s="49"/>
-    </row>
-    <row r="199" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H199" s="49"/>
-    </row>
-    <row r="200" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H200" s="49"/>
-    </row>
-    <row r="201" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H201" s="49"/>
-    </row>
-    <row r="202" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H202" s="49"/>
-    </row>
-    <row r="203" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H203" s="49"/>
-    </row>
-    <row r="204" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H204" s="49"/>
-    </row>
-    <row r="205" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H205" s="49"/>
-    </row>
-    <row r="206" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H206" s="49"/>
-    </row>
-    <row r="207" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H207" s="49"/>
-    </row>
-    <row r="208" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H208" s="49"/>
-    </row>
-    <row r="209" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H209" s="49"/>
-    </row>
-    <row r="210" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H210" s="49"/>
-    </row>
-    <row r="211" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H211" s="49"/>
-    </row>
-    <row r="212" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H212" s="49"/>
-    </row>
-    <row r="213" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H213" s="49"/>
-    </row>
-    <row r="214" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H214" s="49"/>
-    </row>
-    <row r="215" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H215" s="49"/>
-    </row>
-    <row r="216" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H216" s="49"/>
-    </row>
-    <row r="217" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H217" s="49"/>
-    </row>
-    <row r="218" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H218" s="49"/>
-    </row>
-    <row r="219" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H219" s="49"/>
-    </row>
-    <row r="220" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H220" s="49"/>
-    </row>
-    <row r="221" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H221" s="49"/>
-    </row>
-    <row r="222" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H222" s="49"/>
-    </row>
-    <row r="223" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H223" s="49"/>
-    </row>
-    <row r="224" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H224" s="49"/>
-    </row>
-    <row r="225" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H225" s="49"/>
-    </row>
-    <row r="226" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H226" s="49"/>
-    </row>
-    <row r="227" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H227" s="49"/>
-    </row>
-    <row r="228" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H228" s="49"/>
-    </row>
-    <row r="229" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H229" s="49"/>
-    </row>
-    <row r="230" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H230" s="49"/>
-    </row>
-    <row r="231" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H231" s="49"/>
-    </row>
-    <row r="232" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H232" s="49"/>
-    </row>
-    <row r="233" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H233" s="49"/>
-    </row>
-    <row r="234" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H234" s="49"/>
-    </row>
-    <row r="235" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H235" s="49"/>
-    </row>
-    <row r="236" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H236" s="49"/>
-    </row>
-    <row r="237" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H237" s="49"/>
-    </row>
-    <row r="238" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H238" s="49"/>
-    </row>
-    <row r="239" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H239" s="49"/>
-    </row>
-    <row r="240" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H240" s="49"/>
-    </row>
-    <row r="241" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H241" s="49"/>
-    </row>
-    <row r="242" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H242" s="49"/>
-    </row>
-    <row r="243" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H243" s="49"/>
-    </row>
-    <row r="244" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H244" s="49"/>
-    </row>
-    <row r="245" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H245" s="49"/>
-    </row>
-    <row r="246" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H246" s="49"/>
-    </row>
-    <row r="247" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H247" s="49"/>
-    </row>
-    <row r="248" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H248" s="49"/>
-    </row>
-    <row r="249" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H249" s="49"/>
-    </row>
-    <row r="250" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H250" s="49"/>
-    </row>
-    <row r="251" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H251" s="49"/>
-    </row>
-    <row r="252" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H252" s="49"/>
-    </row>
-    <row r="253" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H253" s="49"/>
-    </row>
-    <row r="254" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H254" s="49"/>
-    </row>
-    <row r="255" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H255" s="49"/>
-    </row>
-    <row r="256" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H256" s="49"/>
-    </row>
-    <row r="257" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H257" s="49"/>
-    </row>
-    <row r="258" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H258" s="49"/>
-    </row>
-    <row r="259" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H259" s="49"/>
-    </row>
-    <row r="260" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H260" s="49"/>
-    </row>
-    <row r="261" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H261" s="49"/>
-    </row>
-    <row r="262" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H262" s="49"/>
-    </row>
-    <row r="263" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H263" s="49"/>
-    </row>
-    <row r="264" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H264" s="49"/>
-    </row>
-    <row r="265" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H265" s="49"/>
-    </row>
-    <row r="266" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H266" s="49"/>
-    </row>
-    <row r="267" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H267" s="49"/>
-    </row>
-    <row r="268" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H268" s="49"/>
-    </row>
-    <row r="269" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H269" s="49"/>
-    </row>
-    <row r="270" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H270" s="49"/>
-    </row>
-    <row r="271" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H271" s="49"/>
-    </row>
-    <row r="272" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H272" s="49"/>
-    </row>
-    <row r="273" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H273" s="49"/>
-    </row>
-    <row r="274" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H274" s="49"/>
-    </row>
-    <row r="275" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H275" s="49"/>
-    </row>
-    <row r="276" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H276" s="49"/>
-    </row>
-    <row r="277" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H277" s="49"/>
-    </row>
-    <row r="278" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H278" s="49"/>
-    </row>
-    <row r="279" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H279" s="49"/>
-    </row>
-    <row r="280" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H280" s="49"/>
-    </row>
-    <row r="281" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H281" s="49"/>
-    </row>
-    <row r="282" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H282" s="49"/>
-    </row>
-    <row r="283" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H283" s="49"/>
-    </row>
-    <row r="284" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H284" s="49"/>
-    </row>
-    <row r="285" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H285" s="49"/>
-    </row>
-    <row r="286" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H286" s="49"/>
-    </row>
-    <row r="287" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H287" s="49"/>
-    </row>
-    <row r="288" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H288" s="49"/>
-    </row>
-    <row r="289" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H289" s="49"/>
-    </row>
-    <row r="290" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H290" s="49"/>
-    </row>
-    <row r="291" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H291" s="49"/>
-    </row>
-    <row r="292" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H292" s="49"/>
-    </row>
-    <row r="293" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H293" s="49"/>
-    </row>
-    <row r="294" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H294" s="49"/>
-    </row>
-    <row r="295" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H295" s="49"/>
-    </row>
-    <row r="296" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H296" s="49"/>
-    </row>
-    <row r="297" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H297" s="49"/>
-    </row>
-    <row r="298" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H298" s="49"/>
-    </row>
-    <row r="299" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H299" s="49"/>
-    </row>
-    <row r="300" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H300" s="49"/>
-    </row>
-    <row r="301" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H301" s="49"/>
-    </row>
-    <row r="302" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H302" s="49"/>
-    </row>
-    <row r="303" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H303" s="49"/>
-    </row>
-    <row r="304" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H304" s="49"/>
-    </row>
-    <row r="305" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H305" s="49"/>
-    </row>
-    <row r="306" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H306" s="49"/>
-    </row>
-    <row r="307" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H307" s="49"/>
-    </row>
-    <row r="308" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H308" s="49"/>
-    </row>
-    <row r="309" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H309" s="49"/>
-    </row>
-    <row r="310" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H310" s="49"/>
-    </row>
-    <row r="311" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H311" s="49"/>
-    </row>
-    <row r="312" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H312" s="49"/>
-    </row>
-    <row r="313" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H313" s="49"/>
-    </row>
-    <row r="314" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H314" s="49"/>
-    </row>
-    <row r="315" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H315" s="49"/>
-    </row>
-    <row r="316" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H316" s="49"/>
-    </row>
-    <row r="317" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H317" s="49"/>
-    </row>
-    <row r="318" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H318" s="49"/>
-    </row>
-    <row r="319" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H319" s="49"/>
-    </row>
-    <row r="320" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H320" s="49"/>
-    </row>
-    <row r="321" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H321" s="49"/>
-    </row>
-    <row r="322" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H322" s="49"/>
-    </row>
-    <row r="323" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H323" s="49"/>
-    </row>
-    <row r="324" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H324" s="49"/>
-    </row>
-    <row r="325" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H325" s="49"/>
-    </row>
-    <row r="326" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H326" s="49"/>
-    </row>
-    <row r="327" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H327" s="49"/>
-    </row>
-    <row r="328" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H328" s="49"/>
-    </row>
-    <row r="329" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H329" s="49"/>
-    </row>
-    <row r="330" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H330" s="49"/>
-    </row>
-    <row r="331" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H331" s="49"/>
-    </row>
-    <row r="332" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H332" s="49"/>
-    </row>
-    <row r="333" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H333" s="49"/>
-    </row>
-    <row r="334" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H334" s="49"/>
-    </row>
-    <row r="335" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H335" s="49"/>
-    </row>
-    <row r="336" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H336" s="49"/>
-    </row>
-    <row r="337" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H337" s="49"/>
-    </row>
-    <row r="338" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H338" s="49"/>
-    </row>
-    <row r="339" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H339" s="49"/>
-    </row>
-    <row r="340" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H340" s="49"/>
-    </row>
-    <row r="341" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H341" s="49"/>
-    </row>
-    <row r="342" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H342" s="49"/>
-    </row>
-    <row r="343" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H343" s="49"/>
-    </row>
-    <row r="344" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H344" s="49"/>
-    </row>
-    <row r="345" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H345" s="49"/>
-    </row>
-    <row r="346" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H346" s="49"/>
-    </row>
-    <row r="347" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H347" s="49"/>
-    </row>
-    <row r="348" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H348" s="49"/>
-    </row>
-    <row r="349" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H349" s="49"/>
-    </row>
-    <row r="350" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H350" s="49"/>
-    </row>
-    <row r="351" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H351" s="49"/>
-    </row>
-    <row r="352" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H352" s="49"/>
-    </row>
-    <row r="353" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H353" s="49"/>
-    </row>
-    <row r="354" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H354" s="49"/>
-    </row>
-    <row r="355" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H355" s="49"/>
-    </row>
-    <row r="356" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H356" s="49"/>
-    </row>
-    <row r="357" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H357" s="49"/>
-    </row>
-    <row r="358" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H358" s="49"/>
-    </row>
-    <row r="359" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H359" s="49"/>
-    </row>
-    <row r="360" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H360" s="49"/>
-    </row>
-    <row r="361" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H361" s="49"/>
-    </row>
-    <row r="362" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H362" s="49"/>
-    </row>
-    <row r="363" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H363" s="49"/>
-    </row>
-    <row r="364" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H364" s="49"/>
-    </row>
-    <row r="365" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H365" s="49"/>
-    </row>
-    <row r="366" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H366" s="49"/>
-    </row>
-    <row r="367" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H367" s="49"/>
-    </row>
-    <row r="368" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H368" s="49"/>
-    </row>
-    <row r="369" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H369" s="49"/>
-    </row>
-    <row r="370" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H370" s="49"/>
-    </row>
-    <row r="371" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H371" s="49"/>
-    </row>
-    <row r="372" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H372" s="49"/>
-    </row>
-    <row r="373" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H373" s="49"/>
-    </row>
-    <row r="374" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H374" s="49"/>
-    </row>
-    <row r="375" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H375" s="49"/>
-    </row>
-    <row r="376" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H376" s="49"/>
-    </row>
-    <row r="377" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H377" s="49"/>
-    </row>
-    <row r="378" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H378" s="49"/>
-    </row>
-    <row r="379" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H379" s="49"/>
-    </row>
-    <row r="380" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H380" s="49"/>
-    </row>
-    <row r="381" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H381" s="49"/>
-    </row>
-    <row r="382" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H382" s="49"/>
-    </row>
-    <row r="383" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H383" s="49"/>
-    </row>
-    <row r="384" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H384" s="49"/>
-    </row>
-    <row r="385" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H385" s="49"/>
-    </row>
-    <row r="386" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H386" s="49"/>
-    </row>
-    <row r="387" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H387" s="49"/>
-    </row>
-    <row r="388" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H388" s="49"/>
-    </row>
-    <row r="389" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H389" s="49"/>
-    </row>
-    <row r="390" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H390" s="49"/>
-    </row>
-    <row r="391" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H391" s="49"/>
-    </row>
-    <row r="392" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H392" s="49"/>
-    </row>
-    <row r="393" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H393" s="49"/>
-    </row>
-    <row r="394" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H394" s="49"/>
-    </row>
-    <row r="395" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H395" s="49"/>
-    </row>
-    <row r="396" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H396" s="49"/>
-    </row>
-    <row r="397" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H397" s="49"/>
-    </row>
-    <row r="398" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H398" s="49"/>
-    </row>
-    <row r="399" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H399" s="49"/>
-    </row>
-    <row r="400" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H400" s="49"/>
-    </row>
-    <row r="401" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H401" s="49"/>
-    </row>
-    <row r="402" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H402" s="49"/>
-    </row>
-    <row r="403" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H403" s="49"/>
-    </row>
-    <row r="404" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H404" s="49"/>
-    </row>
-    <row r="405" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H405" s="49"/>
-    </row>
-    <row r="406" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H406" s="49"/>
-    </row>
-    <row r="407" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H407" s="49"/>
-    </row>
-    <row r="408" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H408" s="49"/>
-    </row>
-    <row r="409" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H409" s="49"/>
-    </row>
-    <row r="410" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H410" s="49"/>
-    </row>
-    <row r="411" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H411" s="49"/>
-    </row>
-    <row r="412" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H412" s="49"/>
-    </row>
-    <row r="413" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H413" s="49"/>
-    </row>
-    <row r="414" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H414" s="49"/>
-    </row>
-    <row r="415" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H415" s="49"/>
-    </row>
-    <row r="416" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H416" s="49"/>
-    </row>
-    <row r="417" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H417" s="49"/>
-    </row>
-    <row r="418" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H418" s="49"/>
-    </row>
-    <row r="419" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H419" s="49"/>
-    </row>
-    <row r="420" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H420" s="49"/>
-    </row>
-    <row r="421" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H421" s="49"/>
-    </row>
-    <row r="422" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H422" s="49"/>
-    </row>
-    <row r="423" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H423" s="49"/>
-    </row>
-    <row r="424" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H424" s="49"/>
-    </row>
-    <row r="425" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H425" s="49"/>
-    </row>
-    <row r="426" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H426" s="49"/>
-    </row>
-    <row r="427" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H427" s="49"/>
-    </row>
-    <row r="428" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H428" s="49"/>
-    </row>
-    <row r="429" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H429" s="49"/>
-    </row>
-    <row r="430" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H430" s="49"/>
-    </row>
-    <row r="431" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H431" s="49"/>
-    </row>
-    <row r="432" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H432" s="49"/>
-    </row>
-    <row r="433" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H433" s="49"/>
-    </row>
-    <row r="434" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H434" s="49"/>
-    </row>
-    <row r="435" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H435" s="49"/>
-    </row>
-    <row r="436" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H436" s="49"/>
-    </row>
-    <row r="437" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H437" s="49"/>
-    </row>
-    <row r="438" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H438" s="49"/>
-    </row>
-    <row r="439" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H439" s="49"/>
-    </row>
-    <row r="440" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H440" s="49"/>
-    </row>
-    <row r="441" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H441" s="49"/>
-    </row>
-    <row r="442" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H442" s="49"/>
-    </row>
-    <row r="443" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H443" s="49"/>
-    </row>
-    <row r="444" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H444" s="49"/>
-    </row>
-    <row r="445" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H445" s="49"/>
-    </row>
-    <row r="446" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H446" s="49"/>
-    </row>
-    <row r="447" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H447" s="49"/>
-    </row>
-    <row r="448" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H448" s="49"/>
-    </row>
-    <row r="449" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H449" s="49"/>
-    </row>
-    <row r="450" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H450" s="49"/>
-    </row>
-    <row r="451" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H451" s="49"/>
-    </row>
-    <row r="452" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H452" s="49"/>
-    </row>
-    <row r="453" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H453" s="49"/>
-    </row>
-    <row r="454" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H454" s="49"/>
-    </row>
-    <row r="455" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H455" s="49"/>
-    </row>
-    <row r="456" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H456" s="49"/>
-    </row>
-    <row r="457" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H457" s="49"/>
-    </row>
-    <row r="458" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H458" s="49"/>
-    </row>
-    <row r="459" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H459" s="49"/>
-    </row>
-    <row r="460" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H460" s="49"/>
-    </row>
-    <row r="461" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H461" s="49"/>
-    </row>
-    <row r="462" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H462" s="49"/>
-    </row>
-    <row r="463" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H463" s="49"/>
-    </row>
-    <row r="464" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H464" s="49"/>
-    </row>
-    <row r="465" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H465" s="49"/>
-    </row>
-    <row r="466" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H466" s="49"/>
-    </row>
-    <row r="467" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H467" s="49"/>
-    </row>
-    <row r="468" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H468" s="49"/>
-    </row>
-    <row r="469" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H469" s="49"/>
-    </row>
-    <row r="470" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H470" s="49"/>
-    </row>
-    <row r="471" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H471" s="49"/>
-    </row>
-    <row r="472" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H472" s="49"/>
-    </row>
-    <row r="473" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H473" s="49"/>
-    </row>
-    <row r="474" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H474" s="49"/>
-    </row>
-    <row r="475" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H475" s="49"/>
-    </row>
-    <row r="476" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H476" s="49"/>
-    </row>
-    <row r="477" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H477" s="49"/>
-    </row>
-    <row r="478" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H478" s="49"/>
-    </row>
-    <row r="479" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H479" s="49"/>
-    </row>
-    <row r="480" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H480" s="49"/>
-    </row>
-    <row r="481" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H481" s="49"/>
-    </row>
-    <row r="482" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H482" s="49"/>
-    </row>
-    <row r="483" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H483" s="49"/>
-    </row>
-    <row r="484" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H484" s="49"/>
-    </row>
-    <row r="485" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H485" s="49"/>
-    </row>
-    <row r="486" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H486" s="49"/>
-    </row>
-    <row r="487" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H487" s="49"/>
-    </row>
-    <row r="488" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H488" s="49"/>
-    </row>
-    <row r="489" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H489" s="49"/>
-    </row>
-    <row r="490" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H490" s="49"/>
-    </row>
-    <row r="491" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H491" s="49"/>
-    </row>
-    <row r="492" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H492" s="49"/>
-    </row>
-    <row r="493" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H493" s="49"/>
-    </row>
-    <row r="494" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H494" s="49"/>
-    </row>
-    <row r="495" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H495" s="49"/>
-    </row>
-    <row r="496" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H496" s="49"/>
-    </row>
-    <row r="497" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H497" s="49"/>
-    </row>
-    <row r="498" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H498" s="49"/>
-    </row>
-    <row r="499" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H499" s="49"/>
-    </row>
-    <row r="500" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H500" s="49"/>
-    </row>
-    <row r="501" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H501" s="49"/>
-    </row>
-    <row r="502" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H502" s="49"/>
-    </row>
-    <row r="503" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H503" s="49"/>
-    </row>
-    <row r="504" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H504" s="49"/>
-    </row>
-    <row r="505" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H505" s="49"/>
-    </row>
-    <row r="506" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H506" s="49"/>
-    </row>
-    <row r="507" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H507" s="49"/>
-    </row>
-    <row r="508" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H508" s="49"/>
-    </row>
-    <row r="509" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H509" s="49"/>
-    </row>
-    <row r="510" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H510" s="49"/>
-    </row>
-    <row r="511" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H511" s="49"/>
-    </row>
-    <row r="512" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H512" s="49"/>
-    </row>
-    <row r="513" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H513" s="49"/>
-    </row>
-    <row r="514" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H514" s="49"/>
-    </row>
-    <row r="515" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H515" s="49"/>
-    </row>
-    <row r="516" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H516" s="49"/>
-    </row>
-    <row r="517" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H517" s="49"/>
-    </row>
-    <row r="518" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H518" s="49"/>
-    </row>
-    <row r="519" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H519" s="49"/>
-    </row>
-    <row r="520" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H520" s="49"/>
-    </row>
-    <row r="521" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H521" s="49"/>
-    </row>
-    <row r="522" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H522" s="49"/>
-    </row>
-    <row r="523" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H523" s="49"/>
-    </row>
-    <row r="524" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H524" s="49"/>
-    </row>
-    <row r="525" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H525" s="49"/>
-    </row>
-    <row r="526" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H526" s="49"/>
-    </row>
-    <row r="527" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H527" s="49"/>
-    </row>
-    <row r="528" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H528" s="49"/>
-    </row>
-    <row r="529" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H529" s="49"/>
-    </row>
-    <row r="530" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H530" s="49"/>
-    </row>
-    <row r="531" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H531" s="49"/>
-    </row>
-    <row r="532" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H532" s="49"/>
-    </row>
-    <row r="533" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H533" s="49"/>
-    </row>
-    <row r="534" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H534" s="49"/>
-    </row>
-    <row r="535" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H535" s="49"/>
-    </row>
-    <row r="536" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H536" s="49"/>
-    </row>
-    <row r="537" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H537" s="49"/>
-    </row>
-    <row r="538" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H538" s="49"/>
-    </row>
-    <row r="539" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H539" s="49"/>
-    </row>
-    <row r="540" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H540" s="49"/>
-    </row>
-    <row r="541" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H541" s="49"/>
-    </row>
-    <row r="542" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H542" s="49"/>
-    </row>
-    <row r="543" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H543" s="49"/>
-    </row>
-    <row r="544" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H544" s="49"/>
-    </row>
-    <row r="545" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H545" s="49"/>
-    </row>
-    <row r="546" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H546" s="49"/>
-    </row>
-    <row r="547" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H547" s="49"/>
-    </row>
-    <row r="548" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H548" s="49"/>
-    </row>
-    <row r="549" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H549" s="49"/>
-    </row>
-    <row r="550" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H550" s="49"/>
-    </row>
-    <row r="551" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H551" s="49"/>
-    </row>
-    <row r="552" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H552" s="49"/>
-    </row>
-    <row r="553" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H553" s="49"/>
-    </row>
-    <row r="554" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H554" s="49"/>
-    </row>
-    <row r="555" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H555" s="49"/>
-    </row>
-    <row r="556" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H556" s="49"/>
-    </row>
-    <row r="557" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H557" s="49"/>
-    </row>
-    <row r="558" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H558" s="49"/>
-    </row>
-    <row r="559" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H559" s="49"/>
-    </row>
-    <row r="560" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H560" s="49"/>
-    </row>
-    <row r="561" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H561" s="49"/>
-    </row>
-    <row r="562" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H562" s="49"/>
-    </row>
-    <row r="563" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H563" s="49"/>
-    </row>
-    <row r="564" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H564" s="49"/>
-    </row>
-    <row r="565" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H565" s="49"/>
-    </row>
-    <row r="566" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H566" s="49"/>
-    </row>
-    <row r="567" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H567" s="49"/>
-    </row>
-    <row r="568" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H568" s="49"/>
-    </row>
-    <row r="569" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H569" s="49"/>
-    </row>
-    <row r="570" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H570" s="49"/>
-    </row>
-    <row r="571" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H571" s="49"/>
-    </row>
-    <row r="572" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H572" s="49"/>
-    </row>
-    <row r="573" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H573" s="49"/>
-    </row>
-    <row r="574" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H574" s="49"/>
-    </row>
-    <row r="575" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H575" s="49"/>
-    </row>
-    <row r="576" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H576" s="49"/>
-    </row>
-    <row r="577" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H577" s="49"/>
-    </row>
-    <row r="578" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H578" s="49"/>
-    </row>
-    <row r="579" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H579" s="49"/>
-    </row>
-    <row r="580" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H580" s="49"/>
-    </row>
-    <row r="581" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H581" s="49"/>
-    </row>
-    <row r="582" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H582" s="49"/>
-    </row>
-    <row r="583" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H583" s="49"/>
-    </row>
-    <row r="584" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H584" s="49"/>
-    </row>
-    <row r="585" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H585" s="49"/>
-    </row>
-    <row r="586" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H586" s="49"/>
-    </row>
-    <row r="587" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H587" s="49"/>
-    </row>
-    <row r="588" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H588" s="49"/>
-    </row>
-    <row r="589" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H589" s="49"/>
-    </row>
-    <row r="590" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H590" s="49"/>
-    </row>
-    <row r="591" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H591" s="49"/>
-    </row>
-    <row r="592" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H592" s="49"/>
-    </row>
-    <row r="593" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H593" s="49"/>
-    </row>
-    <row r="594" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H594" s="49"/>
-    </row>
-    <row r="595" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H595" s="49"/>
-    </row>
-    <row r="596" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H596" s="49"/>
-    </row>
-    <row r="597" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H597" s="49"/>
-    </row>
-    <row r="598" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H598" s="49"/>
-    </row>
-    <row r="599" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H599" s="49"/>
-    </row>
-    <row r="600" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H600" s="49"/>
-    </row>
-    <row r="601" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H601" s="49"/>
-    </row>
-    <row r="602" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H602" s="49"/>
-    </row>
-    <row r="603" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H603" s="49"/>
-    </row>
-    <row r="604" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H604" s="49"/>
-    </row>
-    <row r="605" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H605" s="49"/>
-    </row>
-    <row r="606" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H606" s="49"/>
-    </row>
-    <row r="607" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H607" s="49"/>
-    </row>
-    <row r="608" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H608" s="49"/>
-    </row>
-    <row r="609" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H609" s="49"/>
-    </row>
-    <row r="610" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H610" s="49"/>
-    </row>
-    <row r="611" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H611" s="49"/>
-    </row>
-    <row r="612" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H612" s="49"/>
-    </row>
-    <row r="613" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H613" s="49"/>
-    </row>
-    <row r="614" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H614" s="49"/>
-    </row>
-    <row r="615" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H615" s="49"/>
-    </row>
-    <row r="616" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H616" s="49"/>
-    </row>
-    <row r="617" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H617" s="49"/>
-    </row>
-    <row r="618" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H618" s="49"/>
-    </row>
-    <row r="619" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H619" s="49"/>
-    </row>
-    <row r="620" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H620" s="49"/>
-    </row>
-    <row r="621" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H621" s="49"/>
-    </row>
-    <row r="622" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H622" s="49"/>
-    </row>
-    <row r="623" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H623" s="49"/>
-    </row>
-    <row r="624" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H624" s="49"/>
-    </row>
-    <row r="625" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H625" s="49"/>
-    </row>
-    <row r="626" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H626" s="49"/>
-    </row>
-    <row r="627" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H627" s="49"/>
-    </row>
-    <row r="628" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H628" s="49"/>
-    </row>
-    <row r="629" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H629" s="49"/>
-    </row>
-    <row r="630" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H630" s="49"/>
-    </row>
-    <row r="631" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H631" s="49"/>
-    </row>
-    <row r="632" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H632" s="49"/>
-    </row>
-    <row r="633" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H633" s="49"/>
-    </row>
-    <row r="634" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H634" s="49"/>
-    </row>
-    <row r="635" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H635" s="49"/>
-    </row>
-    <row r="636" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H636" s="49"/>
-    </row>
-    <row r="637" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H637" s="49"/>
-    </row>
-    <row r="638" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H638" s="49"/>
-    </row>
-    <row r="639" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H639" s="49"/>
-    </row>
-    <row r="640" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H640" s="49"/>
-    </row>
-    <row r="641" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H641" s="49"/>
-    </row>
-    <row r="642" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H642" s="49"/>
-    </row>
-    <row r="643" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H643" s="49"/>
-    </row>
-    <row r="644" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H644" s="49"/>
-    </row>
-    <row r="645" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H645" s="49"/>
-    </row>
-    <row r="646" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H646" s="49"/>
-    </row>
-    <row r="647" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H647" s="49"/>
-    </row>
-    <row r="648" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H648" s="49"/>
-    </row>
-    <row r="649" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H649" s="49"/>
-    </row>
-    <row r="650" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H650" s="49"/>
-    </row>
-    <row r="651" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H651" s="49"/>
-    </row>
-    <row r="652" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H652" s="49"/>
-    </row>
-    <row r="653" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H653" s="49"/>
-    </row>
-    <row r="654" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H654" s="49"/>
-    </row>
-    <row r="655" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H655" s="49"/>
-    </row>
-    <row r="656" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H656" s="49"/>
-    </row>
-    <row r="657" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H657" s="49"/>
-    </row>
-    <row r="658" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H658" s="49"/>
-    </row>
-    <row r="659" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H659" s="49"/>
-    </row>
-    <row r="660" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H660" s="49"/>
-    </row>
-    <row r="661" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H661" s="49"/>
-    </row>
-    <row r="662" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H662" s="49"/>
-    </row>
-    <row r="663" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H663" s="49"/>
-    </row>
-    <row r="664" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H664" s="49"/>
-    </row>
-    <row r="665" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H665" s="49"/>
-    </row>
-    <row r="666" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H666" s="49"/>
-    </row>
-    <row r="667" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H667" s="49"/>
-    </row>
-    <row r="668" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H668" s="49"/>
-    </row>
-    <row r="669" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H669" s="49"/>
-    </row>
-    <row r="670" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H670" s="49"/>
-    </row>
-    <row r="671" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H671" s="49"/>
-    </row>
-    <row r="672" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H672" s="49"/>
-    </row>
-    <row r="673" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H673" s="49"/>
-    </row>
-    <row r="674" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H674" s="49"/>
-    </row>
-    <row r="675" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H675" s="49"/>
-    </row>
-    <row r="676" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H676" s="49"/>
-    </row>
-    <row r="677" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H677" s="49"/>
-    </row>
-    <row r="678" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H678" s="49"/>
-    </row>
-    <row r="679" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H679" s="49"/>
-    </row>
-    <row r="680" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H680" s="49"/>
-    </row>
-    <row r="681" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H681" s="49"/>
-    </row>
-    <row r="682" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H682" s="49"/>
-    </row>
-    <row r="683" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H683" s="49"/>
-    </row>
-    <row r="684" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H684" s="49"/>
-    </row>
-    <row r="685" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H685" s="49"/>
-    </row>
-    <row r="686" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H686" s="49"/>
-    </row>
-    <row r="687" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H687" s="49"/>
-    </row>
-    <row r="688" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H688" s="49"/>
-    </row>
-    <row r="689" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H689" s="49"/>
-    </row>
-    <row r="690" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H690" s="49"/>
-    </row>
-    <row r="691" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H691" s="49"/>
-    </row>
-    <row r="692" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H692" s="49"/>
-    </row>
-    <row r="693" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H693" s="49"/>
-    </row>
-    <row r="694" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H694" s="49"/>
-    </row>
-    <row r="695" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H695" s="49"/>
-    </row>
-    <row r="696" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H696" s="49"/>
-    </row>
-    <row r="697" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H697" s="49"/>
-    </row>
-    <row r="698" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H698" s="49"/>
-    </row>
-    <row r="699" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H699" s="49"/>
-    </row>
-    <row r="700" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H700" s="49"/>
-    </row>
-    <row r="701" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H701" s="49"/>
-    </row>
-    <row r="702" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H702" s="49"/>
-    </row>
-    <row r="703" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H703" s="49"/>
-    </row>
-    <row r="704" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H704" s="49"/>
-    </row>
-    <row r="705" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H705" s="49"/>
-    </row>
-    <row r="706" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H706" s="49"/>
-    </row>
-    <row r="707" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H707" s="49"/>
-    </row>
-    <row r="708" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H708" s="49"/>
-    </row>
-    <row r="709" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H709" s="49"/>
-    </row>
-    <row r="710" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H710" s="49"/>
-    </row>
-    <row r="711" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H711" s="49"/>
-    </row>
-    <row r="712" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H712" s="49"/>
-    </row>
-    <row r="713" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H713" s="49"/>
-    </row>
-    <row r="714" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H714" s="49"/>
-    </row>
-    <row r="715" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H715" s="49"/>
-    </row>
-    <row r="716" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H716" s="49"/>
-    </row>
-    <row r="717" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H717" s="49"/>
-    </row>
-    <row r="718" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H718" s="49"/>
-    </row>
-    <row r="719" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H719" s="49"/>
-    </row>
-    <row r="720" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H720" s="49"/>
-    </row>
-    <row r="721" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H721" s="49"/>
-    </row>
-    <row r="722" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H722" s="49"/>
-    </row>
-    <row r="723" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H723" s="49"/>
-    </row>
-    <row r="724" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H724" s="49"/>
-    </row>
-    <row r="725" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H725" s="49"/>
-    </row>
-    <row r="726" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H726" s="49"/>
-    </row>
-    <row r="727" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H727" s="49"/>
-    </row>
-    <row r="728" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H728" s="49"/>
-    </row>
-    <row r="729" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H729" s="49"/>
-    </row>
-    <row r="730" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H730" s="49"/>
-    </row>
-    <row r="731" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H731" s="49"/>
-    </row>
-    <row r="732" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H732" s="49"/>
-    </row>
-    <row r="733" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H733" s="49"/>
-    </row>
-    <row r="734" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H734" s="49"/>
-    </row>
-    <row r="735" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H735" s="49"/>
-    </row>
-    <row r="736" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H736" s="49"/>
-    </row>
-    <row r="737" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H737" s="49"/>
-    </row>
-    <row r="738" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H738" s="49"/>
-    </row>
-    <row r="739" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H739" s="49"/>
-    </row>
-    <row r="740" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H740" s="49"/>
-    </row>
-    <row r="741" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H741" s="49"/>
-    </row>
-    <row r="742" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H742" s="49"/>
-    </row>
-    <row r="743" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H743" s="49"/>
-    </row>
-    <row r="744" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H744" s="49"/>
-    </row>
-    <row r="745" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H745" s="49"/>
-    </row>
-    <row r="746" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H746" s="49"/>
-    </row>
-    <row r="747" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H747" s="49"/>
-    </row>
-    <row r="748" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H748" s="49"/>
-    </row>
-    <row r="749" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H749" s="49"/>
-    </row>
-    <row r="750" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H750" s="49"/>
-    </row>
-    <row r="751" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H751" s="49"/>
-    </row>
-    <row r="752" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H752" s="49"/>
-    </row>
-    <row r="753" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H753" s="49"/>
-    </row>
-    <row r="754" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H754" s="49"/>
-    </row>
-    <row r="755" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H755" s="49"/>
-    </row>
-    <row r="756" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H756" s="49"/>
-    </row>
-    <row r="757" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H757" s="49"/>
-    </row>
-    <row r="758" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H758" s="49"/>
-    </row>
-    <row r="759" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H759" s="49"/>
-    </row>
-    <row r="760" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H760" s="49"/>
-    </row>
-    <row r="761" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H761" s="49"/>
-    </row>
-    <row r="762" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H762" s="49"/>
-    </row>
-    <row r="763" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H763" s="49"/>
-    </row>
-    <row r="764" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H764" s="49"/>
-    </row>
-    <row r="765" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H765" s="49"/>
-    </row>
-    <row r="766" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H766" s="49"/>
-    </row>
-    <row r="767" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H767" s="49"/>
-    </row>
-    <row r="768" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H768" s="49"/>
-    </row>
-    <row r="769" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H769" s="49"/>
-    </row>
-    <row r="770" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H770" s="49"/>
-    </row>
-    <row r="771" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H771" s="49"/>
-    </row>
-    <row r="772" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H772" s="49"/>
-    </row>
-    <row r="773" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H773" s="49"/>
-    </row>
-    <row r="774" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H774" s="49"/>
-    </row>
-    <row r="775" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H775" s="49"/>
-    </row>
-    <row r="776" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H776" s="49"/>
-    </row>
-    <row r="777" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H777" s="49"/>
-    </row>
-    <row r="778" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H778" s="49"/>
-    </row>
-    <row r="779" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H779" s="49"/>
-    </row>
-    <row r="780" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H780" s="49"/>
-    </row>
-    <row r="781" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H781" s="49"/>
-    </row>
-    <row r="782" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H782" s="49"/>
-    </row>
-    <row r="783" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H783" s="49"/>
-    </row>
-    <row r="784" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H784" s="49"/>
-    </row>
-    <row r="785" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H785" s="49"/>
-    </row>
-    <row r="786" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H786" s="49"/>
-    </row>
-    <row r="787" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H787" s="49"/>
-    </row>
-    <row r="788" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H788" s="49"/>
-    </row>
-    <row r="789" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H789" s="49"/>
-    </row>
-    <row r="790" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H790" s="49"/>
-    </row>
-    <row r="791" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H791" s="49"/>
-    </row>
-    <row r="792" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H792" s="49"/>
-    </row>
-    <row r="793" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H793" s="49"/>
-    </row>
-    <row r="794" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H794" s="49"/>
-    </row>
-    <row r="795" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H795" s="49"/>
-    </row>
-    <row r="796" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H796" s="49"/>
-    </row>
-    <row r="797" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H797" s="49"/>
-    </row>
-    <row r="798" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H798" s="49"/>
-    </row>
-    <row r="799" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H799" s="49"/>
-    </row>
-    <row r="800" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H800" s="49"/>
-    </row>
-    <row r="801" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H801" s="49"/>
-    </row>
-    <row r="802" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H802" s="49"/>
-    </row>
-    <row r="803" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H803" s="49"/>
-    </row>
-    <row r="804" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H804" s="49"/>
-    </row>
-    <row r="805" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H805" s="49"/>
-    </row>
-    <row r="806" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H806" s="49"/>
-    </row>
-    <row r="807" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H807" s="49"/>
-    </row>
-    <row r="808" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H808" s="49"/>
-    </row>
-    <row r="809" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H809" s="49"/>
-    </row>
-    <row r="810" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H810" s="49"/>
-    </row>
-    <row r="811" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H811" s="49"/>
-    </row>
-    <row r="812" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H812" s="49"/>
-    </row>
-    <row r="813" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H813" s="49"/>
-    </row>
-    <row r="814" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H814" s="49"/>
-    </row>
-    <row r="815" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H815" s="49"/>
-    </row>
-    <row r="816" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H816" s="49"/>
-    </row>
-    <row r="817" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H817" s="49"/>
-    </row>
-    <row r="818" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H818" s="49"/>
-    </row>
-    <row r="819" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H819" s="49"/>
-    </row>
-    <row r="820" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H820" s="49"/>
-    </row>
-    <row r="821" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H821" s="49"/>
-    </row>
-    <row r="822" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H822" s="49"/>
-    </row>
-    <row r="823" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H823" s="49"/>
-    </row>
-    <row r="824" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H824" s="49"/>
-    </row>
-    <row r="825" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H825" s="49"/>
-    </row>
-    <row r="826" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H826" s="49"/>
-    </row>
-    <row r="827" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H827" s="49"/>
-    </row>
-    <row r="828" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H828" s="49"/>
-    </row>
-    <row r="829" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H829" s="49"/>
-    </row>
-    <row r="830" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H830" s="49"/>
-    </row>
-    <row r="831" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H831" s="49"/>
-    </row>
-    <row r="832" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H832" s="49"/>
-    </row>
-    <row r="833" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H833" s="49"/>
-    </row>
-    <row r="834" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H834" s="49"/>
-    </row>
-    <row r="835" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H835" s="49"/>
-    </row>
-    <row r="836" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H836" s="49"/>
-    </row>
-    <row r="837" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H837" s="49"/>
-    </row>
-    <row r="838" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H838" s="49"/>
-    </row>
-    <row r="839" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H839" s="49"/>
-    </row>
-    <row r="840" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H840" s="49"/>
-    </row>
-    <row r="841" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H841" s="49"/>
-    </row>
-    <row r="842" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H842" s="49"/>
-    </row>
-    <row r="843" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H843" s="49"/>
-    </row>
-    <row r="844" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H844" s="49"/>
-    </row>
-    <row r="845" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H845" s="49"/>
-    </row>
-    <row r="846" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H846" s="49"/>
-    </row>
-    <row r="847" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H847" s="49"/>
-    </row>
-    <row r="848" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H848" s="49"/>
-    </row>
-    <row r="849" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H849" s="49"/>
-    </row>
-    <row r="850" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H850" s="49"/>
-    </row>
-    <row r="851" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H851" s="49"/>
-    </row>
-    <row r="852" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H852" s="49"/>
-    </row>
-    <row r="853" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H853" s="49"/>
-    </row>
-    <row r="854" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H854" s="49"/>
-    </row>
-    <row r="855" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H855" s="49"/>
-    </row>
-    <row r="856" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H856" s="49"/>
-    </row>
-    <row r="857" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H857" s="49"/>
-    </row>
-    <row r="858" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H858" s="49"/>
-    </row>
-    <row r="859" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H859" s="49"/>
-    </row>
-    <row r="860" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H860" s="49"/>
-    </row>
-    <row r="861" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H861" s="49"/>
-    </row>
-    <row r="862" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H862" s="49"/>
-    </row>
-    <row r="863" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H863" s="49"/>
-    </row>
-    <row r="864" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H864" s="49"/>
-    </row>
-    <row r="865" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H865" s="49"/>
-    </row>
-    <row r="866" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H866" s="49"/>
-    </row>
-    <row r="867" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H867" s="49"/>
-    </row>
-    <row r="868" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H868" s="49"/>
-    </row>
-    <row r="869" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H869" s="49"/>
-    </row>
-    <row r="870" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H870" s="49"/>
-    </row>
-    <row r="871" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H871" s="49"/>
-    </row>
-    <row r="872" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H872" s="49"/>
-    </row>
-    <row r="873" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H873" s="49"/>
-    </row>
-    <row r="874" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H874" s="49"/>
-    </row>
-    <row r="875" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H875" s="49"/>
-    </row>
-    <row r="876" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H876" s="49"/>
-    </row>
-    <row r="877" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H877" s="49"/>
-    </row>
-    <row r="878" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H878" s="49"/>
-    </row>
-    <row r="879" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H879" s="49"/>
-    </row>
-    <row r="880" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H880" s="49"/>
-    </row>
-    <row r="881" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H881" s="49"/>
-    </row>
-    <row r="882" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H882" s="49"/>
-    </row>
-    <row r="883" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H883" s="49"/>
-    </row>
-    <row r="884" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H884" s="49"/>
-    </row>
-    <row r="885" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H885" s="49"/>
-    </row>
-    <row r="886" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H886" s="49"/>
-    </row>
-    <row r="887" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H887" s="49"/>
-    </row>
-    <row r="888" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H888" s="49"/>
-    </row>
-    <row r="889" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H889" s="49"/>
-    </row>
-    <row r="890" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H890" s="49"/>
-    </row>
-    <row r="891" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H891" s="49"/>
-    </row>
-    <row r="892" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H892" s="49"/>
-    </row>
-    <row r="893" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H893" s="49"/>
-    </row>
-    <row r="894" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H894" s="49"/>
-    </row>
-    <row r="895" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H895" s="49"/>
-    </row>
-    <row r="896" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H896" s="49"/>
-    </row>
-    <row r="897" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H897" s="49"/>
-    </row>
-    <row r="898" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H898" s="49"/>
-    </row>
-    <row r="899" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H899" s="49"/>
-    </row>
-    <row r="900" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H900" s="49"/>
-    </row>
-    <row r="901" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H901" s="49"/>
-    </row>
-    <row r="902" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H902" s="49"/>
-    </row>
-    <row r="903" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H903" s="49"/>
-    </row>
-    <row r="904" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H904" s="49"/>
-    </row>
-    <row r="905" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H905" s="49"/>
-    </row>
-    <row r="906" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H906" s="49"/>
-    </row>
-    <row r="907" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H907" s="49"/>
-    </row>
-    <row r="908" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H908" s="49"/>
-    </row>
-    <row r="909" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H909" s="49"/>
-    </row>
-    <row r="910" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H910" s="49"/>
-    </row>
-    <row r="911" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H911" s="49"/>
-    </row>
-    <row r="912" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H912" s="49"/>
-    </row>
-    <row r="913" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H913" s="49"/>
-    </row>
-    <row r="914" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H914" s="49"/>
-    </row>
-    <row r="915" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H915" s="49"/>
-    </row>
-    <row r="916" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H916" s="49"/>
-    </row>
-    <row r="917" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H917" s="49"/>
-    </row>
-    <row r="918" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H918" s="49"/>
-    </row>
-    <row r="919" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H919" s="49"/>
-    </row>
-    <row r="920" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H920" s="49"/>
-    </row>
-    <row r="921" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H921" s="49"/>
-    </row>
-    <row r="922" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H922" s="49"/>
-    </row>
-    <row r="923" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H923" s="49"/>
-    </row>
-    <row r="924" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H924" s="49"/>
-    </row>
-    <row r="925" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H925" s="49"/>
-    </row>
-    <row r="926" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H926" s="49"/>
-    </row>
-    <row r="927" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H927" s="49"/>
-    </row>
-    <row r="928" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H928" s="49"/>
-    </row>
-    <row r="929" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H929" s="49"/>
-    </row>
-    <row r="930" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H930" s="49"/>
-    </row>
-    <row r="931" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H931" s="49"/>
-    </row>
-    <row r="932" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H932" s="49"/>
-    </row>
-    <row r="933" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H933" s="49"/>
-    </row>
-    <row r="934" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H934" s="49"/>
-    </row>
-    <row r="935" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H935" s="49"/>
-    </row>
-    <row r="936" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H936" s="49"/>
-    </row>
-    <row r="937" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H937" s="49"/>
-    </row>
-    <row r="938" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H938" s="49"/>
-    </row>
-    <row r="939" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H939" s="49"/>
-    </row>
-    <row r="940" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H940" s="49"/>
-    </row>
-    <row r="941" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H941" s="49"/>
-    </row>
-    <row r="942" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H942" s="49"/>
-    </row>
-    <row r="943" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H943" s="49"/>
-    </row>
-    <row r="944" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H944" s="49"/>
-    </row>
-    <row r="945" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H945" s="49"/>
-    </row>
-    <row r="946" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H946" s="49"/>
-    </row>
-    <row r="947" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H947" s="49"/>
-    </row>
-    <row r="948" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H948" s="49"/>
-    </row>
-    <row r="949" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H949" s="49"/>
-    </row>
-    <row r="950" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H950" s="49"/>
-    </row>
-    <row r="951" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H951" s="49"/>
-    </row>
-    <row r="952" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H952" s="49"/>
-    </row>
-    <row r="953" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H953" s="49"/>
-    </row>
-    <row r="954" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H954" s="49"/>
-    </row>
-    <row r="955" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H955" s="49"/>
-    </row>
-    <row r="956" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H956" s="49"/>
-    </row>
-    <row r="957" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H957" s="49"/>
-    </row>
-    <row r="958" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H958" s="49"/>
-    </row>
-    <row r="959" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H959" s="49"/>
-    </row>
-    <row r="960" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H960" s="49"/>
-    </row>
-    <row r="961" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H961" s="49"/>
-    </row>
-    <row r="962" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H962" s="49"/>
-    </row>
-    <row r="963" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H963" s="49"/>
-    </row>
-    <row r="964" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H964" s="49"/>
-    </row>
-    <row r="965" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H965" s="49"/>
-    </row>
-    <row r="966" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H966" s="49"/>
-    </row>
-    <row r="967" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H967" s="49"/>
-    </row>
-    <row r="968" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H968" s="49"/>
-    </row>
-    <row r="969" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H969" s="49"/>
-    </row>
-    <row r="970" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H970" s="49"/>
-    </row>
-    <row r="971" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H971" s="49"/>
-    </row>
-    <row r="972" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H972" s="49"/>
-    </row>
-    <row r="973" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H973" s="49"/>
-    </row>
-    <row r="974" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H974" s="49"/>
-    </row>
-    <row r="975" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H975" s="49"/>
-    </row>
-    <row r="976" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H976" s="49"/>
-    </row>
-    <row r="977" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H977" s="49"/>
-    </row>
-    <row r="978" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H978" s="49"/>
-    </row>
-    <row r="979" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H979" s="49"/>
-    </row>
-    <row r="980" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H980" s="49"/>
-    </row>
-    <row r="981" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H981" s="49"/>
-    </row>
-    <row r="982" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H982" s="49"/>
-    </row>
-    <row r="983" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H983" s="49"/>
-    </row>
-    <row r="984" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H984" s="49"/>
-    </row>
-    <row r="985" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H985" s="49"/>
-    </row>
-    <row r="986" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H986" s="49"/>
-    </row>
-    <row r="987" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H987" s="49"/>
-    </row>
-    <row r="988" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H988" s="49"/>
-    </row>
-    <row r="989" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H989" s="49"/>
-    </row>
-    <row r="990" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H990" s="49"/>
-    </row>
-    <row r="991" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H991" s="49"/>
-    </row>
-    <row r="992" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H992" s="49"/>
-    </row>
-    <row r="993" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H993" s="49"/>
-    </row>
-    <row r="994" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H994" s="49"/>
-    </row>
-    <row r="995" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H995" s="49"/>
-    </row>
-    <row r="996" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H996" s="49"/>
-    </row>
-    <row r="997" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H997" s="49"/>
-    </row>
-    <row r="998" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H998" s="49"/>
-    </row>
-    <row r="999" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H999" s="49"/>
-    </row>
-    <row r="1000" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1000" s="49"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I1" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}"/>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DEF09-1B25-434C-B119-AF208EA14ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45916C52-77E7-4A40-B1C1-B3086C50EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="590">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -1932,6 +1932,12 @@
   </si>
   <si>
     <t>Yes (including 'Unknown')</t>
+  </si>
+  <si>
+    <t>34cfea7a-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>34cfea7b-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -2747,10 +2753,10 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4563,7 +4569,7 @@
         <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>588</v>
       </c>
       <c r="F72" s="42" t="s">
         <v>232</v>
@@ -4679,7 +4685,7 @@
         <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>437</v>
       </c>
       <c r="F76" s="42" t="s">
         <v>113</v>
@@ -4757,7 +4763,7 @@
         <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>589</v>
       </c>
       <c r="F79" t="s">
         <v>106</v>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45916C52-77E7-4A40-B1C1-B3086C50EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A8D17-29FD-47C1-9642-4273C1D76B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -1934,10 +1934,10 @@
     <t>Yes (including 'Unknown')</t>
   </si>
   <si>
-    <t>34cfea7a-c2c0-11ea-9026-02e7594ce0a0</t>
-  </si>
-  <si>
     <t>34cfea7b-c2c0-11ea-9026-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>e3cc8c5d-c772-11ea-a292-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +2756,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4569,7 +4569,7 @@
         <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F72" s="42" t="s">
         <v>232</v>
@@ -4763,7 +4763,7 @@
         <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F79" t="s">
         <v>106</v>

--- a/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
+++ b/dbs/database.eamena/data/reference_data/mds/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dbs\database.eamena\data\reference_data\mds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A8D17-29FD-47C1-9642-4273C1D76B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB9B71-F404-4167-B53B-39C6BEF990F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="591">
   <si>
     <t>ASSESSMENT SUMMARY</t>
   </si>
@@ -1938,6 +1938,9 @@
   </si>
   <si>
     <t>e3cc8c5d-c772-11ea-a292-02e7594ce0a0</t>
+  </si>
+  <si>
+    <t>e3cc8c5b-c772-11ea-a292-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
@@ -2753,10 +2756,10 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4627,7 +4630,7 @@
         <v>217</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>590</v>
       </c>
       <c r="F74" s="42" t="s">
         <v>232</v>
